--- a/lib/gen-server/port-battle.xlsx
+++ b/lib/gen-server/port-battle.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="450">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="453">
   <si>
     <t>Port battle calculator by Felix Victor</t>
   </si>
@@ -164,6 +164,9 @@
     <t>Pandora</t>
   </si>
   <si>
+    <t>Tutorial Cerberus</t>
+  </si>
+  <si>
     <t>Le Requin</t>
   </si>
   <si>
@@ -1122,6 +1125,12 @@
   </si>
   <si>
     <t>Brig</t>
+  </si>
+  <si>
+    <t>Tutorial Trader</t>
+  </si>
+  <si>
+    <t>Tutorial Brig</t>
   </si>
   <si>
     <t>Pickle</t>
@@ -1643,7 +1652,7 @@
       <c r="AC1" s="6"/>
       <c r="AD1" s="6"/>
       <c r="AE1" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AF1" s="0" t="n">
         <v>10600</v>
@@ -1689,7 +1698,7 @@
       <c r="AC2" s="9"/>
       <c r="AD2" s="9"/>
       <c r="AE2" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AF2" s="0" t="n">
         <v>5700</v>
@@ -1739,7 +1748,7 @@
       <c r="AC3" s="16"/>
       <c r="AD3" s="16"/>
       <c r="AE3" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AF3" s="0" t="n">
         <v>5700</v>
@@ -1750,10 +1759,10 @@
       <c r="B4" s="16"/>
       <c r="C4" s="16"/>
       <c r="D4" s="21">
-        <f>SUM(D5:D46)</f>
+        <f>SUM(D5:D47)</f>
       </c>
       <c r="E4" s="21">
-        <f>SUM(E5:E46)</f>
+        <f>SUM(E5:E47)</f>
       </c>
       <c r="F4" s="22" t="s">
         <v>11</v>
@@ -1783,7 +1792,7 @@
       <c r="AC4" s="22"/>
       <c r="AD4" s="22"/>
       <c r="AE4" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AF4" s="0" t="n">
         <v>5700</v>
@@ -1806,13 +1815,13 @@
         <f>C5*D5</f>
       </c>
       <c r="F5" s="28" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="G5" s="28" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="H5" s="28" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="I5" s="28"/>
       <c r="J5" s="28"/>
@@ -1837,7 +1846,7 @@
       <c r="AC5" s="28"/>
       <c r="AD5" s="28"/>
       <c r="AE5" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AF5" s="0" t="n">
         <v>10600</v>
@@ -1860,13 +1869,13 @@
         <f>C6*D6</f>
       </c>
       <c r="F6" s="28" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="G6" s="28" t="s">
+        <v>364</v>
+      </c>
+      <c r="H6" s="28" t="s">
         <v>363</v>
-      </c>
-      <c r="H6" s="28" t="s">
-        <v>362</v>
       </c>
       <c r="I6" s="28"/>
       <c r="J6" s="28"/>
@@ -1891,7 +1900,7 @@
       <c r="AC6" s="28"/>
       <c r="AD6" s="28"/>
       <c r="AE6" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AF6" s="0" t="n">
         <v>10600</v>
@@ -1939,7 +1948,7 @@
       <c r="AC7" s="28"/>
       <c r="AD7" s="28"/>
       <c r="AE7" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AF7" s="0" t="n">
         <v>5700</v>
@@ -1987,7 +1996,7 @@
       <c r="AC8" s="29"/>
       <c r="AD8" s="29"/>
       <c r="AE8" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AF8" s="0" t="n">
         <v>5700</v>
@@ -2035,7 +2044,7 @@
       <c r="AC9" s="29"/>
       <c r="AD9" s="29"/>
       <c r="AE9" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AF9" s="0" t="n">
         <v>5700</v>
@@ -2083,7 +2092,7 @@
       <c r="AC10" s="29"/>
       <c r="AD10" s="29"/>
       <c r="AE10" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AF10" s="0" t="n">
         <v>10600</v>
@@ -2131,7 +2140,7 @@
       <c r="AC11" s="28"/>
       <c r="AD11" s="28"/>
       <c r="AE11" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AF11" s="0" t="n">
         <v>5700</v>
@@ -2179,7 +2188,7 @@
       <c r="AC12" s="28"/>
       <c r="AD12" s="28"/>
       <c r="AE12" s="0" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AF12" s="0" t="n">
         <v>5700</v>
@@ -2227,7 +2236,7 @@
       <c r="AC13" s="28"/>
       <c r="AD13" s="28"/>
       <c r="AE13" s="0" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AF13" s="0" t="n">
         <v>5700</v>
@@ -2275,7 +2284,7 @@
       <c r="AC14" s="28"/>
       <c r="AD14" s="28"/>
       <c r="AE14" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AF14" s="0" t="n">
         <v>5700</v>
@@ -2323,7 +2332,7 @@
       <c r="AC15" s="28"/>
       <c r="AD15" s="28"/>
       <c r="AE15" s="0" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AF15" s="0" t="n">
         <v>5700</v>
@@ -2371,7 +2380,7 @@
       <c r="AC16" s="28"/>
       <c r="AD16" s="28"/>
       <c r="AE16" s="0" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AF16" s="0" t="n">
         <v>10600</v>
@@ -2419,7 +2428,7 @@
       <c r="AC17" s="28"/>
       <c r="AD17" s="28"/>
       <c r="AE17" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AF17" s="0" t="n">
         <v>5700</v>
@@ -2467,7 +2476,7 @@
       <c r="AC18" s="28"/>
       <c r="AD18" s="28"/>
       <c r="AE18" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AF18" s="0" t="n">
         <v>10600</v>
@@ -2515,7 +2524,7 @@
       <c r="AC19" s="29"/>
       <c r="AD19" s="29"/>
       <c r="AE19" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AF19" s="0" t="n">
         <v>5700</v>
@@ -2563,7 +2572,7 @@
       <c r="AC20" s="29"/>
       <c r="AD20" s="29"/>
       <c r="AE20" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AF20" s="0" t="n">
         <v>10600</v>
@@ -2611,7 +2620,7 @@
       <c r="AC21" s="29"/>
       <c r="AD21" s="29"/>
       <c r="AE21" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AF21" s="0" t="n">
         <v>20000</v>
@@ -2659,7 +2668,7 @@
       <c r="AC22" s="29"/>
       <c r="AD22" s="29"/>
       <c r="AE22" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AF22" s="0" t="n">
         <v>5700</v>
@@ -2707,7 +2716,7 @@
       <c r="AC23" s="29"/>
       <c r="AD23" s="29"/>
       <c r="AE23" s="0" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AF23" s="0" t="n">
         <v>5700</v>
@@ -2755,7 +2764,7 @@
       <c r="AC24" s="29"/>
       <c r="AD24" s="29"/>
       <c r="AE24" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AF24" s="0" t="n">
         <v>5700</v>
@@ -2803,7 +2812,7 @@
       <c r="AC25" s="28"/>
       <c r="AD25" s="28"/>
       <c r="AE25" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AF25" s="0" t="n">
         <v>20000</v>
@@ -2851,7 +2860,7 @@
       <c r="AC26" s="28"/>
       <c r="AD26" s="28"/>
       <c r="AE26" s="0" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AF26" s="0" t="n">
         <v>10600</v>
@@ -2899,7 +2908,7 @@
       <c r="AC27" s="28"/>
       <c r="AD27" s="28"/>
       <c r="AE27" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AF27" s="0" t="n">
         <v>20000</v>
@@ -2947,7 +2956,7 @@
       <c r="AC28" s="28"/>
       <c r="AD28" s="28"/>
       <c r="AE28" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AF28" s="0" t="n">
         <v>10600</v>
@@ -2995,7 +3004,7 @@
       <c r="AC29" s="28"/>
       <c r="AD29" s="28"/>
       <c r="AE29" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AF29" s="0" t="n">
         <v>20000</v>
@@ -3043,7 +3052,7 @@
       <c r="AC30" s="28"/>
       <c r="AD30" s="28"/>
       <c r="AE30" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AF30" s="0" t="n">
         <v>5700</v>
@@ -3091,7 +3100,7 @@
       <c r="AC31" s="28"/>
       <c r="AD31" s="28"/>
       <c r="AE31" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AF31" s="0" t="n">
         <v>5700</v>
@@ -3139,7 +3148,7 @@
       <c r="AC32" s="28"/>
       <c r="AD32" s="28"/>
       <c r="AE32" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AF32" s="0" t="n">
         <v>10600</v>
@@ -3187,7 +3196,7 @@
       <c r="AC33" s="28"/>
       <c r="AD33" s="28"/>
       <c r="AE33" s="0" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AF33" s="0" t="n">
         <v>5700</v>
@@ -3235,7 +3244,7 @@
       <c r="AC34" s="28"/>
       <c r="AD34" s="28"/>
       <c r="AE34" s="0" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AF34" s="0" t="n">
         <v>20000</v>
@@ -3283,7 +3292,7 @@
       <c r="AC35" s="28"/>
       <c r="AD35" s="28"/>
       <c r="AE35" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AF35" s="0" t="n">
         <v>5700</v>
@@ -3331,7 +3340,7 @@
       <c r="AC36" s="28"/>
       <c r="AD36" s="28"/>
       <c r="AE36" s="0" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AF36" s="0" t="n">
         <v>5700</v>
@@ -3379,7 +3388,7 @@
       <c r="AC37" s="28"/>
       <c r="AD37" s="28"/>
       <c r="AE37" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AF37" s="0" t="n">
         <v>20000</v>
@@ -3427,7 +3436,7 @@
       <c r="AC38" s="28"/>
       <c r="AD38" s="28"/>
       <c r="AE38" s="0" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AF38" s="0" t="n">
         <v>10600</v>
@@ -3475,7 +3484,7 @@
       <c r="AC39" s="28"/>
       <c r="AD39" s="28"/>
       <c r="AE39" s="0" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AF39" s="0" t="n">
         <v>5700</v>
@@ -3523,7 +3532,7 @@
       <c r="AC40" s="28"/>
       <c r="AD40" s="28"/>
       <c r="AE40" s="0" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AF40" s="0" t="n">
         <v>5700</v>
@@ -3571,7 +3580,7 @@
       <c r="AC41" s="28"/>
       <c r="AD41" s="28"/>
       <c r="AE41" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AF41" s="0" t="n">
         <v>5700</v>
@@ -3619,55 +3628,55 @@
       <c r="AC42" s="28"/>
       <c r="AD42" s="28"/>
       <c r="AE42" s="0" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AF42" s="0" t="n">
         <v>5700</v>
       </c>
     </row>
     <row r="43" spans="1:32" customHeight="1">
-      <c r="A43" s="30" t="n">
-        <v>6</v>
-      </c>
-      <c r="B43" s="29" t="s">
+      <c r="A43" s="26" t="n">
+        <v>5</v>
+      </c>
+      <c r="B43" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="C43" s="30" t="n">
+      <c r="C43" s="26" t="n">
         <v>100</v>
       </c>
-      <c r="D43" s="30">
+      <c r="D43" s="26">
         <f>COUNTA(F43:AD43)</f>
       </c>
-      <c r="E43" s="30">
+      <c r="E43" s="26">
         <f>C43*D43</f>
       </c>
-      <c r="F43" s="29"/>
-      <c r="G43" s="29"/>
-      <c r="H43" s="29"/>
-      <c r="I43" s="29"/>
-      <c r="J43" s="29"/>
-      <c r="K43" s="29"/>
-      <c r="L43" s="29"/>
-      <c r="M43" s="29"/>
-      <c r="N43" s="29"/>
-      <c r="O43" s="29"/>
-      <c r="P43" s="29"/>
-      <c r="Q43" s="29"/>
-      <c r="R43" s="29"/>
-      <c r="S43" s="29"/>
-      <c r="T43" s="29"/>
-      <c r="U43" s="29"/>
-      <c r="V43" s="29"/>
-      <c r="W43" s="29"/>
-      <c r="X43" s="29"/>
-      <c r="Y43" s="29"/>
-      <c r="Z43" s="29"/>
-      <c r="AA43" s="29"/>
-      <c r="AB43" s="29"/>
-      <c r="AC43" s="29"/>
-      <c r="AD43" s="29"/>
+      <c r="F43" s="28"/>
+      <c r="G43" s="28"/>
+      <c r="H43" s="28"/>
+      <c r="I43" s="28"/>
+      <c r="J43" s="28"/>
+      <c r="K43" s="28"/>
+      <c r="L43" s="28"/>
+      <c r="M43" s="28"/>
+      <c r="N43" s="28"/>
+      <c r="O43" s="28"/>
+      <c r="P43" s="28"/>
+      <c r="Q43" s="28"/>
+      <c r="R43" s="28"/>
+      <c r="S43" s="28"/>
+      <c r="T43" s="28"/>
+      <c r="U43" s="28"/>
+      <c r="V43" s="28"/>
+      <c r="W43" s="28"/>
+      <c r="X43" s="28"/>
+      <c r="Y43" s="28"/>
+      <c r="Z43" s="28"/>
+      <c r="AA43" s="28"/>
+      <c r="AB43" s="28"/>
+      <c r="AC43" s="28"/>
+      <c r="AD43" s="28"/>
       <c r="AE43" s="0" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AF43" s="0" t="n">
         <v>5700</v>
@@ -3715,7 +3724,7 @@
       <c r="AC44" s="29"/>
       <c r="AD44" s="29"/>
       <c r="AE44" s="0" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AF44" s="0" t="n">
         <v>5700</v>
@@ -3729,7 +3738,7 @@
         <v>52</v>
       </c>
       <c r="C45" s="30" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="D45" s="30">
         <f>COUNTA(F45:AD45)</f>
@@ -3763,7 +3772,7 @@
       <c r="AC45" s="29"/>
       <c r="AD45" s="29"/>
       <c r="AE45" s="0" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AF45" s="0" t="n">
         <v>5700</v>
@@ -3777,7 +3786,7 @@
         <v>53</v>
       </c>
       <c r="C46" s="30" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="D46" s="30">
         <f>COUNTA(F46:AD46)</f>
@@ -3811,15 +3820,55 @@
       <c r="AC46" s="29"/>
       <c r="AD46" s="29"/>
       <c r="AE46" s="0" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AF46" s="0" t="n">
         <v>20000</v>
       </c>
     </row>
-    <row r="47" spans="31:32" customHeight="1">
+    <row r="47" spans="1:32" customHeight="1">
+      <c r="A47" s="30" t="n">
+        <v>6</v>
+      </c>
+      <c r="B47" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="C47" s="30" t="n">
+        <v>80</v>
+      </c>
+      <c r="D47" s="30">
+        <f>COUNTA(F47:AD47)</f>
+      </c>
+      <c r="E47" s="30">
+        <f>C47*D47</f>
+      </c>
+      <c r="F47" s="29"/>
+      <c r="G47" s="29"/>
+      <c r="H47" s="29"/>
+      <c r="I47" s="29"/>
+      <c r="J47" s="29"/>
+      <c r="K47" s="29"/>
+      <c r="L47" s="29"/>
+      <c r="M47" s="29"/>
+      <c r="N47" s="29"/>
+      <c r="O47" s="29"/>
+      <c r="P47" s="29"/>
+      <c r="Q47" s="29"/>
+      <c r="R47" s="29"/>
+      <c r="S47" s="29"/>
+      <c r="T47" s="29"/>
+      <c r="U47" s="29"/>
+      <c r="V47" s="29"/>
+      <c r="W47" s="29"/>
+      <c r="X47" s="29"/>
+      <c r="Y47" s="29"/>
+      <c r="Z47" s="29"/>
+      <c r="AA47" s="29"/>
+      <c r="AB47" s="29"/>
+      <c r="AC47" s="29"/>
+      <c r="AD47" s="29"/>
       <c r="AE47" s="0" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AF47" s="0" t="n">
         <v>5700</v>
@@ -3827,7 +3876,7 @@
     </row>
     <row r="48" spans="31:32" customHeight="1">
       <c r="AE48" s="0" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AF48" s="0" t="n">
         <v>5700</v>
@@ -3835,7 +3884,7 @@
     </row>
     <row r="49" spans="31:32" customHeight="1">
       <c r="AE49" s="0" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AF49" s="0" t="n">
         <v>5700</v>
@@ -3843,7 +3892,7 @@
     </row>
     <row r="50" spans="31:32" customHeight="1">
       <c r="AE50" s="0" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AF50" s="0" t="n">
         <v>5700</v>
@@ -3851,7 +3900,7 @@
     </row>
     <row r="51" spans="31:32" customHeight="1">
       <c r="AE51" s="0" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AF51" s="0" t="n">
         <v>20000</v>
@@ -3859,7 +3908,7 @@
     </row>
     <row r="52" spans="31:32" customHeight="1">
       <c r="AE52" s="0" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AF52" s="0" t="n">
         <v>20000</v>
@@ -3867,7 +3916,7 @@
     </row>
     <row r="53" spans="31:32" customHeight="1">
       <c r="AE53" s="0" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AF53" s="0" t="n">
         <v>10600</v>
@@ -3875,7 +3924,7 @@
     </row>
     <row r="54" spans="31:32" customHeight="1">
       <c r="AE54" s="0" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AF54" s="0" t="n">
         <v>10600</v>
@@ -3883,7 +3932,7 @@
     </row>
     <row r="55" spans="31:32" customHeight="1">
       <c r="AE55" s="0" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AF55" s="0" t="n">
         <v>5700</v>
@@ -3891,7 +3940,7 @@
     </row>
     <row r="56" spans="31:32" customHeight="1">
       <c r="AE56" s="0" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AF56" s="0" t="n">
         <v>20000</v>
@@ -3899,7 +3948,7 @@
     </row>
     <row r="57" spans="31:32" customHeight="1">
       <c r="AE57" s="0" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AF57" s="0" t="n">
         <v>5700</v>
@@ -3907,7 +3956,7 @@
     </row>
     <row r="58" spans="31:32" customHeight="1">
       <c r="AE58" s="0" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AF58" s="0" t="n">
         <v>5700</v>
@@ -3915,7 +3964,7 @@
     </row>
     <row r="59" spans="31:32" customHeight="1">
       <c r="AE59" s="0" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AF59" s="0" t="n">
         <v>10600</v>
@@ -3923,7 +3972,7 @@
     </row>
     <row r="60" spans="31:32" customHeight="1">
       <c r="AE60" s="0" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AF60" s="0" t="n">
         <v>5700</v>
@@ -3931,7 +3980,7 @@
     </row>
     <row r="61" spans="31:32" customHeight="1">
       <c r="AE61" s="0" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AF61" s="0" t="n">
         <v>5700</v>
@@ -3939,7 +3988,7 @@
     </row>
     <row r="62" spans="31:32" customHeight="1">
       <c r="AE62" s="0" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AF62" s="0" t="n">
         <v>5700</v>
@@ -3947,7 +3996,7 @@
     </row>
     <row r="63" spans="31:32" customHeight="1">
       <c r="AE63" s="0" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AF63" s="0" t="n">
         <v>5700</v>
@@ -3955,7 +4004,7 @@
     </row>
     <row r="64" spans="31:32" customHeight="1">
       <c r="AE64" s="0" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AF64" s="0" t="n">
         <v>5700</v>
@@ -3963,7 +4012,7 @@
     </row>
     <row r="65" spans="31:32" customHeight="1">
       <c r="AE65" s="0" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AF65" s="0" t="n">
         <v>20000</v>
@@ -3971,7 +4020,7 @@
     </row>
     <row r="66" spans="31:32" customHeight="1">
       <c r="AE66" s="0" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AF66" s="0" t="n">
         <v>5700</v>
@@ -3979,7 +4028,7 @@
     </row>
     <row r="67" spans="31:32" customHeight="1">
       <c r="AE67" s="0" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AF67" s="0" t="n">
         <v>10600</v>
@@ -3987,7 +4036,7 @@
     </row>
     <row r="68" spans="31:32" customHeight="1">
       <c r="AE68" s="0" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AF68" s="0" t="n">
         <v>20000</v>
@@ -3995,7 +4044,7 @@
     </row>
     <row r="69" spans="31:32" customHeight="1">
       <c r="AE69" s="0" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AF69" s="0" t="n">
         <v>20000</v>
@@ -4003,7 +4052,7 @@
     </row>
     <row r="70" spans="31:32" customHeight="1">
       <c r="AE70" s="0" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AF70" s="0" t="n">
         <v>10600</v>
@@ -4011,7 +4060,7 @@
     </row>
     <row r="71" spans="31:32" customHeight="1">
       <c r="AE71" s="0" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AF71" s="0" t="n">
         <v>5700</v>
@@ -4019,7 +4068,7 @@
     </row>
     <row r="72" spans="31:32" customHeight="1">
       <c r="AE72" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AF72" s="0" t="n">
         <v>5700</v>
@@ -4027,7 +4076,7 @@
     </row>
     <row r="73" spans="31:32" customHeight="1">
       <c r="AE73" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AF73" s="0" t="n">
         <v>5700</v>
@@ -4035,7 +4084,7 @@
     </row>
     <row r="74" spans="31:32" customHeight="1">
       <c r="AE74" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AF74" s="0" t="n">
         <v>5700</v>
@@ -4043,7 +4092,7 @@
     </row>
     <row r="75" spans="31:32" customHeight="1">
       <c r="AE75" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AF75" s="0" t="n">
         <v>5700</v>
@@ -4051,7 +4100,7 @@
     </row>
     <row r="76" spans="31:32" customHeight="1">
       <c r="AE76" s="0" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AF76" s="0" t="n">
         <v>5700</v>
@@ -4059,7 +4108,7 @@
     </row>
     <row r="77" spans="31:32" customHeight="1">
       <c r="AE77" s="0" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AF77" s="0" t="n">
         <v>5700</v>
@@ -4067,7 +4116,7 @@
     </row>
     <row r="78" spans="31:32" customHeight="1">
       <c r="AE78" s="0" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AF78" s="0" t="n">
         <v>5700</v>
@@ -4075,7 +4124,7 @@
     </row>
     <row r="79" spans="31:32" customHeight="1">
       <c r="AE79" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AF79" s="0" t="n">
         <v>20000</v>
@@ -4083,7 +4132,7 @@
     </row>
     <row r="80" spans="31:32" customHeight="1">
       <c r="AE80" s="0" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AF80" s="0" t="n">
         <v>5700</v>
@@ -4091,7 +4140,7 @@
     </row>
     <row r="81" spans="31:32" customHeight="1">
       <c r="AE81" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AF81" s="0" t="n">
         <v>5700</v>
@@ -4099,7 +4148,7 @@
     </row>
     <row r="82" spans="31:32" customHeight="1">
       <c r="AE82" s="0" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AF82" s="0" t="n">
         <v>20000</v>
@@ -4107,7 +4156,7 @@
     </row>
     <row r="83" spans="31:32" customHeight="1">
       <c r="AE83" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AF83" s="0" t="n">
         <v>5700</v>
@@ -4115,7 +4164,7 @@
     </row>
     <row r="84" spans="31:32" customHeight="1">
       <c r="AE84" s="0" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AF84" s="0" t="n">
         <v>10600</v>
@@ -4123,7 +4172,7 @@
     </row>
     <row r="85" spans="31:32" customHeight="1">
       <c r="AE85" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AF85" s="0" t="n">
         <v>5700</v>
@@ -4131,7 +4180,7 @@
     </row>
     <row r="86" spans="31:32" customHeight="1">
       <c r="AE86" s="0" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AF86" s="0" t="n">
         <v>5700</v>
@@ -4139,7 +4188,7 @@
     </row>
     <row r="87" spans="31:32" customHeight="1">
       <c r="AE87" s="0" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AF87" s="0" t="n">
         <v>5700</v>
@@ -4147,7 +4196,7 @@
     </row>
     <row r="88" spans="31:32" customHeight="1">
       <c r="AE88" s="0" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AF88" s="0" t="n">
         <v>5700</v>
@@ -4155,7 +4204,7 @@
     </row>
     <row r="89" spans="31:32" customHeight="1">
       <c r="AE89" s="0" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="AF89" s="0" t="n">
         <v>5700</v>
@@ -4163,7 +4212,7 @@
     </row>
     <row r="90" spans="31:32" customHeight="1">
       <c r="AE90" s="0" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AF90" s="0" t="n">
         <v>5700</v>
@@ -4171,7 +4220,7 @@
     </row>
     <row r="91" spans="31:32" customHeight="1">
       <c r="AE91" s="0" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AF91" s="0" t="n">
         <v>5700</v>
@@ -4179,7 +4228,7 @@
     </row>
     <row r="92" spans="31:32" customHeight="1">
       <c r="AE92" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AF92" s="0" t="n">
         <v>10600</v>
@@ -4187,7 +4236,7 @@
     </row>
     <row r="93" spans="31:32" customHeight="1">
       <c r="AE93" s="0" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AF93" s="0" t="n">
         <v>5700</v>
@@ -4195,7 +4244,7 @@
     </row>
     <row r="94" spans="31:32" customHeight="1">
       <c r="AE94" s="0" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AF94" s="0" t="n">
         <v>5700</v>
@@ -4203,7 +4252,7 @@
     </row>
     <row r="95" spans="31:32" customHeight="1">
       <c r="AE95" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="AF95" s="0" t="n">
         <v>5700</v>
@@ -4211,7 +4260,7 @@
     </row>
     <row r="96" spans="31:32" customHeight="1">
       <c r="AE96" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AF96" s="0" t="n">
         <v>5700</v>
@@ -4219,7 +4268,7 @@
     </row>
     <row r="97" spans="31:32" customHeight="1">
       <c r="AE97" s="0" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AF97" s="0" t="n">
         <v>5700</v>
@@ -4227,7 +4276,7 @@
     </row>
     <row r="98" spans="31:32" customHeight="1">
       <c r="AE98" s="0" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AF98" s="0" t="n">
         <v>10600</v>
@@ -4235,7 +4284,7 @@
     </row>
     <row r="99" spans="31:32" customHeight="1">
       <c r="AE99" s="0" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AF99" s="0" t="n">
         <v>20000</v>
@@ -4243,7 +4292,7 @@
     </row>
     <row r="100" spans="31:32" customHeight="1">
       <c r="AE100" s="0" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AF100" s="0" t="n">
         <v>10600</v>
@@ -4251,7 +4300,7 @@
     </row>
     <row r="101" spans="31:32" customHeight="1">
       <c r="AE101" s="0" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="AF101" s="0" t="n">
         <v>5700</v>
@@ -4259,7 +4308,7 @@
     </row>
     <row r="102" spans="31:32" customHeight="1">
       <c r="AE102" s="0" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AF102" s="0" t="n">
         <v>5700</v>
@@ -4267,7 +4316,7 @@
     </row>
     <row r="103" spans="31:32" customHeight="1">
       <c r="AE103" s="0" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AF103" s="0" t="n">
         <v>5700</v>
@@ -4275,7 +4324,7 @@
     </row>
     <row r="104" spans="31:32" customHeight="1">
       <c r="AE104" s="0" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AF104" s="0" t="n">
         <v>20000</v>
@@ -4283,7 +4332,7 @@
     </row>
     <row r="105" spans="31:32" customHeight="1">
       <c r="AE105" s="0" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AF105" s="0" t="n">
         <v>5700</v>
@@ -4291,7 +4340,7 @@
     </row>
     <row r="106" spans="31:32" customHeight="1">
       <c r="AE106" s="0" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AF106" s="0" t="n">
         <v>5700</v>
@@ -4299,7 +4348,7 @@
     </row>
     <row r="107" spans="31:32" customHeight="1">
       <c r="AE107" s="0" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AF107" s="0" t="n">
         <v>10600</v>
@@ -4307,7 +4356,7 @@
     </row>
     <row r="108" spans="31:32" customHeight="1">
       <c r="AE108" s="0" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AF108" s="0" t="n">
         <v>10600</v>
@@ -4315,7 +4364,7 @@
     </row>
     <row r="109" spans="31:32" customHeight="1">
       <c r="AE109" s="0" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AF109" s="0" t="n">
         <v>5700</v>
@@ -4323,7 +4372,7 @@
     </row>
     <row r="110" spans="31:32" customHeight="1">
       <c r="AE110" s="0" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AF110" s="0" t="n">
         <v>5700</v>
@@ -4331,7 +4380,7 @@
     </row>
     <row r="111" spans="31:32" customHeight="1">
       <c r="AE111" s="0" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AF111" s="0" t="n">
         <v>5700</v>
@@ -4339,7 +4388,7 @@
     </row>
     <row r="112" spans="31:32" customHeight="1">
       <c r="AE112" s="0" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AF112" s="0" t="n">
         <v>5700</v>
@@ -4347,7 +4396,7 @@
     </row>
     <row r="113" spans="31:32" customHeight="1">
       <c r="AE113" s="0" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AF113" s="0" t="n">
         <v>10600</v>
@@ -4355,7 +4404,7 @@
     </row>
     <row r="114" spans="31:32" customHeight="1">
       <c r="AE114" s="0" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AF114" s="0" t="n">
         <v>5700</v>
@@ -4363,7 +4412,7 @@
     </row>
     <row r="115" spans="31:32" customHeight="1">
       <c r="AE115" s="0" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AF115" s="0" t="n">
         <v>5700</v>
@@ -4371,7 +4420,7 @@
     </row>
     <row r="116" spans="31:32" customHeight="1">
       <c r="AE116" s="0" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AF116" s="0" t="n">
         <v>5700</v>
@@ -4379,7 +4428,7 @@
     </row>
     <row r="117" spans="31:32" customHeight="1">
       <c r="AE117" s="0" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AF117" s="0" t="n">
         <v>10600</v>
@@ -4387,7 +4436,7 @@
     </row>
     <row r="118" spans="31:32" customHeight="1">
       <c r="AE118" s="0" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AF118" s="0" t="n">
         <v>20000</v>
@@ -4395,7 +4444,7 @@
     </row>
     <row r="119" spans="31:32" customHeight="1">
       <c r="AE119" s="0" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AF119" s="0" t="n">
         <v>5700</v>
@@ -4403,7 +4452,7 @@
     </row>
     <row r="120" spans="31:32" customHeight="1">
       <c r="AE120" s="0" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AF120" s="0" t="n">
         <v>10600</v>
@@ -4411,7 +4460,7 @@
     </row>
     <row r="121" spans="31:32" customHeight="1">
       <c r="AE121" s="0" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AF121" s="0" t="n">
         <v>5700</v>
@@ -4419,7 +4468,7 @@
     </row>
     <row r="122" spans="31:32" customHeight="1">
       <c r="AE122" s="0" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AF122" s="0" t="n">
         <v>10600</v>
@@ -4427,7 +4476,7 @@
     </row>
     <row r="123" spans="31:32" customHeight="1">
       <c r="AE123" s="0" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AF123" s="0" t="n">
         <v>10600</v>
@@ -4435,7 +4484,7 @@
     </row>
     <row r="124" spans="31:32" customHeight="1">
       <c r="AE124" s="0" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AF124" s="0" t="n">
         <v>5700</v>
@@ -4443,7 +4492,7 @@
     </row>
     <row r="125" spans="31:32" customHeight="1">
       <c r="AE125" s="0" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="AF125" s="0" t="n">
         <v>10600</v>
@@ -4451,7 +4500,7 @@
     </row>
     <row r="126" spans="31:32" customHeight="1">
       <c r="AE126" s="0" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AF126" s="0" t="n">
         <v>5700</v>
@@ -4459,7 +4508,7 @@
     </row>
     <row r="127" spans="31:32" customHeight="1">
       <c r="AE127" s="0" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AF127" s="0" t="n">
         <v>5700</v>
@@ -4467,7 +4516,7 @@
     </row>
     <row r="128" spans="31:32" customHeight="1">
       <c r="AE128" s="0" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AF128" s="0" t="n">
         <v>5700</v>
@@ -4475,7 +4524,7 @@
     </row>
     <row r="129" spans="31:32" customHeight="1">
       <c r="AE129" s="0" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AF129" s="0" t="n">
         <v>20000</v>
@@ -4483,7 +4532,7 @@
     </row>
     <row r="130" spans="31:32" customHeight="1">
       <c r="AE130" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AF130" s="0" t="n">
         <v>10600</v>
@@ -4491,7 +4540,7 @@
     </row>
     <row r="131" spans="31:32" customHeight="1">
       <c r="AE131" s="0" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AF131" s="0" t="n">
         <v>5700</v>
@@ -4499,7 +4548,7 @@
     </row>
     <row r="132" spans="31:32" customHeight="1">
       <c r="AE132" s="0" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AF132" s="0" t="n">
         <v>5700</v>
@@ -4507,7 +4556,7 @@
     </row>
     <row r="133" spans="31:32" customHeight="1">
       <c r="AE133" s="0" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AF133" s="0" t="n">
         <v>20000</v>
@@ -4515,7 +4564,7 @@
     </row>
     <row r="134" spans="31:32" customHeight="1">
       <c r="AE134" s="0" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AF134" s="0" t="n">
         <v>5700</v>
@@ -4523,7 +4572,7 @@
     </row>
     <row r="135" spans="31:32" customHeight="1">
       <c r="AE135" s="0" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AF135" s="0" t="n">
         <v>5700</v>
@@ -4531,7 +4580,7 @@
     </row>
     <row r="136" spans="31:32" customHeight="1">
       <c r="AE136" s="0" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AF136" s="0" t="n">
         <v>5700</v>
@@ -4539,7 +4588,7 @@
     </row>
     <row r="137" spans="31:32" customHeight="1">
       <c r="AE137" s="0" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AF137" s="0" t="n">
         <v>5700</v>
@@ -4547,7 +4596,7 @@
     </row>
     <row r="138" spans="31:32" customHeight="1">
       <c r="AE138" s="0" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AF138" s="0" t="n">
         <v>5700</v>
@@ -4555,7 +4604,7 @@
     </row>
     <row r="139" spans="31:32" customHeight="1">
       <c r="AE139" s="0" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AF139" s="0" t="n">
         <v>5700</v>
@@ -4563,7 +4612,7 @@
     </row>
     <row r="140" spans="31:32" customHeight="1">
       <c r="AE140" s="0" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AF140" s="0" t="n">
         <v>10600</v>
@@ -4571,7 +4620,7 @@
     </row>
     <row r="141" spans="31:32" customHeight="1">
       <c r="AE141" s="0" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="AF141" s="0" t="n">
         <v>5700</v>
@@ -4579,7 +4628,7 @@
     </row>
     <row r="142" spans="31:32" customHeight="1">
       <c r="AE142" s="0" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AF142" s="0" t="n">
         <v>5700</v>
@@ -4587,7 +4636,7 @@
     </row>
     <row r="143" spans="31:32" customHeight="1">
       <c r="AE143" s="0" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AF143" s="0" t="n">
         <v>5700</v>
@@ -4595,7 +4644,7 @@
     </row>
     <row r="144" spans="31:32" customHeight="1">
       <c r="AE144" s="0" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AF144" s="0" t="n">
         <v>5700</v>
@@ -4603,7 +4652,7 @@
     </row>
     <row r="145" spans="31:32" customHeight="1">
       <c r="AE145" s="0" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AF145" s="0" t="n">
         <v>10600</v>
@@ -4611,7 +4660,7 @@
     </row>
     <row r="146" spans="31:32" customHeight="1">
       <c r="AE146" s="0" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AF146" s="0" t="n">
         <v>20000</v>
@@ -4619,7 +4668,7 @@
     </row>
     <row r="147" spans="31:32" customHeight="1">
       <c r="AE147" s="0" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AF147" s="0" t="n">
         <v>10600</v>
@@ -4627,7 +4676,7 @@
     </row>
     <row r="148" spans="31:32" customHeight="1">
       <c r="AE148" s="0" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AF148" s="0" t="n">
         <v>5700</v>
@@ -4635,7 +4684,7 @@
     </row>
     <row r="149" spans="31:32" customHeight="1">
       <c r="AE149" s="0" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AF149" s="0" t="n">
         <v>5700</v>
@@ -4643,7 +4692,7 @@
     </row>
     <row r="150" spans="31:32" customHeight="1">
       <c r="AE150" s="0" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="AF150" s="0" t="n">
         <v>5700</v>
@@ -4651,7 +4700,7 @@
     </row>
     <row r="151" spans="31:32" customHeight="1">
       <c r="AE151" s="0" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AF151" s="0" t="n">
         <v>5700</v>
@@ -4659,7 +4708,7 @@
     </row>
     <row r="152" spans="31:32" customHeight="1">
       <c r="AE152" s="0" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AF152" s="0" t="n">
         <v>10600</v>
@@ -4667,7 +4716,7 @@
     </row>
     <row r="153" spans="31:32" customHeight="1">
       <c r="AE153" s="0" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AF153" s="0" t="n">
         <v>5700</v>
@@ -4675,7 +4724,7 @@
     </row>
     <row r="154" spans="31:32" customHeight="1">
       <c r="AE154" s="0" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AF154" s="0" t="n">
         <v>5700</v>
@@ -4683,7 +4732,7 @@
     </row>
     <row r="155" spans="31:32" customHeight="1">
       <c r="AE155" s="0" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AF155" s="0" t="n">
         <v>5700</v>
@@ -4691,7 +4740,7 @@
     </row>
     <row r="156" spans="31:32" customHeight="1">
       <c r="AE156" s="0" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AF156" s="0" t="n">
         <v>10600</v>
@@ -4699,7 +4748,7 @@
     </row>
     <row r="157" spans="31:32" customHeight="1">
       <c r="AE157" s="0" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AF157" s="0" t="n">
         <v>5700</v>
@@ -4707,7 +4756,7 @@
     </row>
     <row r="158" spans="31:32" customHeight="1">
       <c r="AE158" s="0" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AF158" s="0" t="n">
         <v>20000</v>
@@ -4715,7 +4764,7 @@
     </row>
     <row r="159" spans="31:32" customHeight="1">
       <c r="AE159" s="0" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AF159" s="0" t="n">
         <v>5700</v>
@@ -4723,7 +4772,7 @@
     </row>
     <row r="160" spans="31:32" customHeight="1">
       <c r="AE160" s="0" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AF160" s="0" t="n">
         <v>10600</v>
@@ -4731,7 +4780,7 @@
     </row>
     <row r="161" spans="31:32" customHeight="1">
       <c r="AE161" s="0" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AF161" s="0" t="n">
         <v>5700</v>
@@ -4739,7 +4788,7 @@
     </row>
     <row r="162" spans="31:32" customHeight="1">
       <c r="AE162" s="0" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AF162" s="0" t="n">
         <v>20000</v>
@@ -4747,7 +4796,7 @@
     </row>
     <row r="163" spans="31:32" customHeight="1">
       <c r="AE163" s="0" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AF163" s="0" t="n">
         <v>10600</v>
@@ -4755,7 +4804,7 @@
     </row>
     <row r="164" spans="31:32" customHeight="1">
       <c r="AE164" s="0" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AF164" s="0" t="n">
         <v>5700</v>
@@ -4763,7 +4812,7 @@
     </row>
     <row r="165" spans="31:32" customHeight="1">
       <c r="AE165" s="0" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AF165" s="0" t="n">
         <v>5700</v>
@@ -4771,7 +4820,7 @@
     </row>
     <row r="166" spans="31:32" customHeight="1">
       <c r="AE166" s="0" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AF166" s="0" t="n">
         <v>10600</v>
@@ -4779,7 +4828,7 @@
     </row>
     <row r="167" spans="31:32" customHeight="1">
       <c r="AE167" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AF167" s="0" t="n">
         <v>10600</v>
@@ -4787,7 +4836,7 @@
     </row>
     <row r="168" spans="31:32" customHeight="1">
       <c r="AE168" s="0" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AF168" s="0" t="n">
         <v>20000</v>
@@ -4795,7 +4844,7 @@
     </row>
     <row r="169" spans="31:32" customHeight="1">
       <c r="AE169" s="0" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AF169" s="0" t="n">
         <v>5700</v>
@@ -4803,7 +4852,7 @@
     </row>
     <row r="170" spans="31:32" customHeight="1">
       <c r="AE170" s="0" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AF170" s="0" t="n">
         <v>5700</v>
@@ -4811,7 +4860,7 @@
     </row>
     <row r="171" spans="31:32" customHeight="1">
       <c r="AE171" s="0" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AF171" s="0" t="n">
         <v>5700</v>
@@ -4819,7 +4868,7 @@
     </row>
     <row r="172" spans="31:32" customHeight="1">
       <c r="AE172" s="0" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AF172" s="0" t="n">
         <v>5700</v>
@@ -4827,7 +4876,7 @@
     </row>
     <row r="173" spans="31:32" customHeight="1">
       <c r="AE173" s="0" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AF173" s="0" t="n">
         <v>5700</v>
@@ -4835,7 +4884,7 @@
     </row>
     <row r="174" spans="31:32" customHeight="1">
       <c r="AE174" s="0" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AF174" s="0" t="n">
         <v>5700</v>
@@ -4843,7 +4892,7 @@
     </row>
     <row r="175" spans="31:32" customHeight="1">
       <c r="AE175" s="0" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AF175" s="0" t="n">
         <v>5700</v>
@@ -4851,7 +4900,7 @@
     </row>
     <row r="176" spans="31:32" customHeight="1">
       <c r="AE176" s="0" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AF176" s="0" t="n">
         <v>5700</v>
@@ -4859,7 +4908,7 @@
     </row>
     <row r="177" spans="31:32" customHeight="1">
       <c r="AE177" s="0" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AF177" s="0" t="n">
         <v>20000</v>
@@ -4867,7 +4916,7 @@
     </row>
     <row r="178" spans="31:32" customHeight="1">
       <c r="AE178" s="0" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AF178" s="0" t="n">
         <v>20000</v>
@@ -4875,7 +4924,7 @@
     </row>
     <row r="179" spans="31:32" customHeight="1">
       <c r="AE179" s="0" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AF179" s="0" t="n">
         <v>20000</v>
@@ -4883,7 +4932,7 @@
     </row>
     <row r="180" spans="31:32" customHeight="1">
       <c r="AE180" s="0" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AF180" s="0" t="n">
         <v>5700</v>
@@ -4891,7 +4940,7 @@
     </row>
     <row r="181" spans="31:32" customHeight="1">
       <c r="AE181" s="0" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AF181" s="0" t="n">
         <v>5700</v>
@@ -4899,7 +4948,7 @@
     </row>
     <row r="182" spans="31:32" customHeight="1">
       <c r="AE182" s="0" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AF182" s="0" t="n">
         <v>10600</v>
@@ -4907,7 +4956,7 @@
     </row>
     <row r="183" spans="31:32" customHeight="1">
       <c r="AE183" s="0" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AF183" s="0" t="n">
         <v>20000</v>
@@ -4915,7 +4964,7 @@
     </row>
     <row r="184" spans="31:32" customHeight="1">
       <c r="AE184" s="0" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AF184" s="0" t="n">
         <v>10600</v>
@@ -4923,7 +4972,7 @@
     </row>
     <row r="185" spans="31:32" customHeight="1">
       <c r="AE185" s="0" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AF185" s="0" t="n">
         <v>5700</v>
@@ -4931,7 +4980,7 @@
     </row>
     <row r="186" spans="31:32" customHeight="1">
       <c r="AE186" s="0" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AF186" s="0" t="n">
         <v>5700</v>
@@ -4939,7 +4988,7 @@
     </row>
     <row r="187" spans="31:32" customHeight="1">
       <c r="AE187" s="0" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="AF187" s="0" t="n">
         <v>5700</v>
@@ -4947,7 +4996,7 @@
     </row>
     <row r="188" spans="31:32" customHeight="1">
       <c r="AE188" s="0" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AF188" s="0" t="n">
         <v>10600</v>
@@ -4955,7 +5004,7 @@
     </row>
     <row r="189" spans="31:32" customHeight="1">
       <c r="AE189" s="0" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="AF189" s="0" t="n">
         <v>5700</v>
@@ -4963,7 +5012,7 @@
     </row>
     <row r="190" spans="31:32" customHeight="1">
       <c r="AE190" s="0" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AF190" s="0" t="n">
         <v>10600</v>
@@ -4971,7 +5020,7 @@
     </row>
     <row r="191" spans="31:32" customHeight="1">
       <c r="AE191" s="0" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AF191" s="0" t="n">
         <v>10600</v>
@@ -4979,7 +5028,7 @@
     </row>
     <row r="192" spans="31:32" customHeight="1">
       <c r="AE192" s="0" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AF192" s="0" t="n">
         <v>5700</v>
@@ -4987,7 +5036,7 @@
     </row>
     <row r="193" spans="31:32" customHeight="1">
       <c r="AE193" s="0" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AF193" s="0" t="n">
         <v>5700</v>
@@ -4995,7 +5044,7 @@
     </row>
     <row r="194" spans="31:32" customHeight="1">
       <c r="AE194" s="0" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AF194" s="0" t="n">
         <v>5700</v>
@@ -5003,7 +5052,7 @@
     </row>
     <row r="195" spans="31:32" customHeight="1">
       <c r="AE195" s="0" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AF195" s="0" t="n">
         <v>5700</v>
@@ -5011,7 +5060,7 @@
     </row>
     <row r="196" spans="31:32" customHeight="1">
       <c r="AE196" s="0" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AF196" s="0" t="n">
         <v>5700</v>
@@ -5019,7 +5068,7 @@
     </row>
     <row r="197" spans="31:32" customHeight="1">
       <c r="AE197" s="0" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AF197" s="0" t="n">
         <v>5700</v>
@@ -5027,7 +5076,7 @@
     </row>
     <row r="198" spans="31:32" customHeight="1">
       <c r="AE198" s="0" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AF198" s="0" t="n">
         <v>10600</v>
@@ -5035,7 +5084,7 @@
     </row>
     <row r="199" spans="31:32" customHeight="1">
       <c r="AE199" s="0" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AF199" s="0" t="n">
         <v>10600</v>
@@ -5043,7 +5092,7 @@
     </row>
     <row r="200" spans="31:32" customHeight="1">
       <c r="AE200" s="0" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AF200" s="0" t="n">
         <v>10600</v>
@@ -5051,7 +5100,7 @@
     </row>
     <row r="201" spans="31:32" customHeight="1">
       <c r="AE201" s="0" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AF201" s="0" t="n">
         <v>10600</v>
@@ -5059,7 +5108,7 @@
     </row>
     <row r="202" spans="31:32" customHeight="1">
       <c r="AE202" s="0" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AF202" s="0" t="n">
         <v>20000</v>
@@ -5067,7 +5116,7 @@
     </row>
     <row r="203" spans="31:32" customHeight="1">
       <c r="AE203" s="0" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AF203" s="0" t="n">
         <v>10600</v>
@@ -5075,7 +5124,7 @@
     </row>
     <row r="204" spans="31:32" customHeight="1">
       <c r="AE204" s="0" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AF204" s="0" t="n">
         <v>10600</v>
@@ -5083,7 +5132,7 @@
     </row>
     <row r="205" spans="31:32" customHeight="1">
       <c r="AE205" s="0" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AF205" s="0" t="n">
         <v>5700</v>
@@ -5091,7 +5140,7 @@
     </row>
     <row r="206" spans="31:32" customHeight="1">
       <c r="AE206" s="0" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AF206" s="0" t="n">
         <v>20000</v>
@@ -5099,7 +5148,7 @@
     </row>
     <row r="207" spans="31:32" customHeight="1">
       <c r="AE207" s="0" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AF207" s="0" t="n">
         <v>5700</v>
@@ -5107,7 +5156,7 @@
     </row>
     <row r="208" spans="31:32" customHeight="1">
       <c r="AE208" s="0" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AF208" s="0" t="n">
         <v>10600</v>
@@ -5115,7 +5164,7 @@
     </row>
     <row r="209" spans="31:32" customHeight="1">
       <c r="AE209" s="0" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AF209" s="0" t="n">
         <v>20000</v>
@@ -5123,7 +5172,7 @@
     </row>
     <row r="210" spans="31:32" customHeight="1">
       <c r="AE210" s="0" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AF210" s="0" t="n">
         <v>10600</v>
@@ -5131,7 +5180,7 @@
     </row>
     <row r="211" spans="31:32" customHeight="1">
       <c r="AE211" s="0" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AF211" s="0" t="n">
         <v>5700</v>
@@ -5139,7 +5188,7 @@
     </row>
     <row r="212" spans="31:32" customHeight="1">
       <c r="AE212" s="0" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AF212" s="0" t="n">
         <v>5700</v>
@@ -5147,7 +5196,7 @@
     </row>
     <row r="213" spans="31:32" customHeight="1">
       <c r="AE213" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AF213" s="0" t="n">
         <v>20000</v>
@@ -5155,7 +5204,7 @@
     </row>
     <row r="214" spans="31:32" customHeight="1">
       <c r="AE214" s="0" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AF214" s="0" t="n">
         <v>5700</v>
@@ -5163,7 +5212,7 @@
     </row>
     <row r="215" spans="31:32" customHeight="1">
       <c r="AE215" s="0" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="AF215" s="0" t="n">
         <v>20000</v>
@@ -5171,7 +5220,7 @@
     </row>
     <row r="216" spans="31:32" customHeight="1">
       <c r="AE216" s="0" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AF216" s="0" t="n">
         <v>5700</v>
@@ -5179,7 +5228,7 @@
     </row>
     <row r="217" spans="31:32" customHeight="1">
       <c r="AE217" s="0" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AF217" s="0" t="n">
         <v>10600</v>
@@ -5187,7 +5236,7 @@
     </row>
     <row r="218" spans="31:32" customHeight="1">
       <c r="AE218" s="0" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AF218" s="0" t="n">
         <v>20000</v>
@@ -5195,7 +5244,7 @@
     </row>
     <row r="219" spans="31:32" customHeight="1">
       <c r="AE219" s="0" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AF219" s="0" t="n">
         <v>5700</v>
@@ -5203,7 +5252,7 @@
     </row>
     <row r="220" spans="31:32" customHeight="1">
       <c r="AE220" s="0" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AF220" s="0" t="n">
         <v>5700</v>
@@ -5211,7 +5260,7 @@
     </row>
     <row r="221" spans="31:32" customHeight="1">
       <c r="AE221" s="0" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AF221" s="0" t="n">
         <v>10600</v>
@@ -5219,7 +5268,7 @@
     </row>
     <row r="222" spans="31:32" customHeight="1">
       <c r="AE222" s="0" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AF222" s="0" t="n">
         <v>5700</v>
@@ -5227,7 +5276,7 @@
     </row>
     <row r="223" spans="31:32" customHeight="1">
       <c r="AE223" s="0" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AF223" s="0" t="n">
         <v>10600</v>
@@ -5235,7 +5284,7 @@
     </row>
     <row r="224" spans="31:32" customHeight="1">
       <c r="AE224" s="0" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AF224" s="0" t="n">
         <v>10600</v>
@@ -5243,7 +5292,7 @@
     </row>
     <row r="225" spans="31:32" customHeight="1">
       <c r="AE225" s="0" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AF225" s="0" t="n">
         <v>5700</v>
@@ -5251,7 +5300,7 @@
     </row>
     <row r="226" spans="31:32" customHeight="1">
       <c r="AE226" s="0" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AF226" s="0" t="n">
         <v>5700</v>
@@ -5259,7 +5308,7 @@
     </row>
     <row r="227" spans="31:32" customHeight="1">
       <c r="AE227" s="0" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AF227" s="0" t="n">
         <v>20000</v>
@@ -5267,7 +5316,7 @@
     </row>
     <row r="228" spans="31:32" customHeight="1">
       <c r="AE228" s="0" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AF228" s="0" t="n">
         <v>10600</v>
@@ -5275,7 +5324,7 @@
     </row>
     <row r="229" spans="31:32" customHeight="1">
       <c r="AE229" s="0" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AF229" s="0" t="n">
         <v>20000</v>
@@ -5283,7 +5332,7 @@
     </row>
     <row r="230" spans="31:32" customHeight="1">
       <c r="AE230" s="0" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AF230" s="0" t="n">
         <v>20000</v>
@@ -5291,7 +5340,7 @@
     </row>
     <row r="231" spans="31:32" customHeight="1">
       <c r="AE231" s="0" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AF231" s="0" t="n">
         <v>5700</v>
@@ -5299,7 +5348,7 @@
     </row>
     <row r="232" spans="31:32" customHeight="1">
       <c r="AE232" s="0" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AF232" s="0" t="n">
         <v>5700</v>
@@ -5307,7 +5356,7 @@
     </row>
     <row r="233" spans="31:32" customHeight="1">
       <c r="AE233" s="0" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="AF233" s="0" t="n">
         <v>5700</v>
@@ -5315,7 +5364,7 @@
     </row>
     <row r="234" spans="31:32" customHeight="1">
       <c r="AE234" s="0" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AF234" s="0" t="n">
         <v>10600</v>
@@ -5323,7 +5372,7 @@
     </row>
     <row r="235" spans="31:32" customHeight="1">
       <c r="AE235" s="0" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AF235" s="0" t="n">
         <v>5700</v>
@@ -5331,7 +5380,7 @@
     </row>
     <row r="236" spans="31:32" customHeight="1">
       <c r="AE236" s="0" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AF236" s="0" t="n">
         <v>10600</v>
@@ -5339,7 +5388,7 @@
     </row>
     <row r="237" spans="31:32" customHeight="1">
       <c r="AE237" s="0" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AF237" s="0" t="n">
         <v>10600</v>
@@ -5347,7 +5396,7 @@
     </row>
     <row r="238" spans="31:32" customHeight="1">
       <c r="AE238" s="0" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AF238" s="0" t="n">
         <v>20000</v>
@@ -5355,7 +5404,7 @@
     </row>
     <row r="239" spans="31:32" customHeight="1">
       <c r="AE239" s="0" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AF239" s="0" t="n">
         <v>20000</v>
@@ -5363,7 +5412,7 @@
     </row>
     <row r="240" spans="31:32" customHeight="1">
       <c r="AE240" s="0" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AF240" s="0" t="n">
         <v>5700</v>
@@ -5371,7 +5420,7 @@
     </row>
     <row r="241" spans="31:32" customHeight="1">
       <c r="AE241" s="0" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AF241" s="0" t="n">
         <v>5700</v>
@@ -5379,7 +5428,7 @@
     </row>
     <row r="242" spans="31:32" customHeight="1">
       <c r="AE242" s="0" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="AF242" s="0" t="n">
         <v>10600</v>
@@ -5387,7 +5436,7 @@
     </row>
     <row r="243" spans="31:32" customHeight="1">
       <c r="AE243" s="0" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AF243" s="0" t="n">
         <v>20000</v>
@@ -5395,7 +5444,7 @@
     </row>
     <row r="244" spans="31:32" customHeight="1">
       <c r="AE244" s="0" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AF244" s="0" t="n">
         <v>5700</v>
@@ -5403,7 +5452,7 @@
     </row>
     <row r="245" spans="31:32" customHeight="1">
       <c r="AE245" s="0" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AF245" s="0" t="n">
         <v>5700</v>
@@ -5411,7 +5460,7 @@
     </row>
     <row r="246" spans="31:32" customHeight="1">
       <c r="AE246" s="0" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="AF246" s="0" t="n">
         <v>20000</v>
@@ -5419,7 +5468,7 @@
     </row>
     <row r="247" spans="31:32" customHeight="1">
       <c r="AE247" s="0" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="AF247" s="0" t="n">
         <v>10600</v>
@@ -5427,7 +5476,7 @@
     </row>
     <row r="248" spans="31:32" customHeight="1">
       <c r="AE248" s="0" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="AF248" s="0" t="n">
         <v>5700</v>
@@ -5435,7 +5484,7 @@
     </row>
     <row r="249" spans="31:32" customHeight="1">
       <c r="AE249" s="0" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AF249" s="0" t="n">
         <v>5700</v>
@@ -5443,7 +5492,7 @@
     </row>
     <row r="250" spans="31:32" customHeight="1">
       <c r="AE250" s="0" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AF250" s="0" t="n">
         <v>5700</v>
@@ -5451,7 +5500,7 @@
     </row>
     <row r="251" spans="31:32" customHeight="1">
       <c r="AE251" s="0" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="AF251" s="0" t="n">
         <v>5700</v>
@@ -5459,7 +5508,7 @@
     </row>
     <row r="252" spans="31:32" customHeight="1">
       <c r="AE252" s="0" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AF252" s="0" t="n">
         <v>5700</v>
@@ -5467,7 +5516,7 @@
     </row>
     <row r="253" spans="31:32" customHeight="1">
       <c r="AE253" s="0" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AF253" s="0" t="n">
         <v>10600</v>
@@ -5475,7 +5524,7 @@
     </row>
     <row r="254" spans="31:32" customHeight="1">
       <c r="AE254" s="0" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="AF254" s="0" t="n">
         <v>5700</v>
@@ -5483,7 +5532,7 @@
     </row>
     <row r="255" spans="31:32" customHeight="1">
       <c r="AE255" s="0" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="AF255" s="0" t="n">
         <v>5700</v>
@@ -5491,7 +5540,7 @@
     </row>
     <row r="256" spans="31:32" customHeight="1">
       <c r="AE256" s="0" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AF256" s="0" t="n">
         <v>5700</v>
@@ -5499,7 +5548,7 @@
     </row>
     <row r="257" spans="31:32" customHeight="1">
       <c r="AE257" s="0" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AF257" s="0" t="n">
         <v>5700</v>
@@ -5507,7 +5556,7 @@
     </row>
     <row r="258" spans="31:32" customHeight="1">
       <c r="AE258" s="0" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AF258" s="0" t="n">
         <v>5700</v>
@@ -5515,7 +5564,7 @@
     </row>
     <row r="259" spans="31:32" customHeight="1">
       <c r="AE259" s="0" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AF259" s="0" t="n">
         <v>20000</v>
@@ -5523,7 +5572,7 @@
     </row>
     <row r="260" spans="31:32" customHeight="1">
       <c r="AE260" s="0" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AF260" s="0" t="n">
         <v>5700</v>
@@ -5531,7 +5580,7 @@
     </row>
     <row r="261" spans="31:32" customHeight="1">
       <c r="AE261" s="0" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AF261" s="0" t="n">
         <v>5700</v>
@@ -5539,7 +5588,7 @@
     </row>
     <row r="262" spans="31:32" customHeight="1">
       <c r="AE262" s="0" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AF262" s="0" t="n">
         <v>20000</v>
@@ -5547,7 +5596,7 @@
     </row>
     <row r="263" spans="31:32" customHeight="1">
       <c r="AE263" s="0" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AF263" s="0" t="n">
         <v>20000</v>
@@ -5555,7 +5604,7 @@
     </row>
     <row r="264" spans="31:32" customHeight="1">
       <c r="AE264" s="0" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AF264" s="0" t="n">
         <v>10600</v>
@@ -5563,7 +5612,7 @@
     </row>
     <row r="265" spans="31:32" customHeight="1">
       <c r="AE265" s="0" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AF265" s="0" t="n">
         <v>20000</v>
@@ -5571,7 +5620,7 @@
     </row>
     <row r="266" spans="31:32" customHeight="1">
       <c r="AE266" s="0" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AF266" s="0" t="n">
         <v>5700</v>
@@ -5579,7 +5628,7 @@
     </row>
     <row r="267" spans="31:32" customHeight="1">
       <c r="AE267" s="0" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AF267" s="0" t="n">
         <v>20000</v>
@@ -5587,7 +5636,7 @@
     </row>
     <row r="268" spans="31:32" customHeight="1">
       <c r="AE268" s="0" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="AF268" s="0" t="n">
         <v>10600</v>
@@ -5595,7 +5644,7 @@
     </row>
     <row r="269" spans="31:32" customHeight="1">
       <c r="AE269" s="0" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AF269" s="0" t="n">
         <v>5700</v>
@@ -5603,7 +5652,7 @@
     </row>
     <row r="270" spans="31:32" customHeight="1">
       <c r="AE270" s="0" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AF270" s="0" t="n">
         <v>10600</v>
@@ -5611,7 +5660,7 @@
     </row>
     <row r="271" spans="31:32" customHeight="1">
       <c r="AE271" s="0" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AF271" s="0" t="n">
         <v>5700</v>
@@ -5619,7 +5668,7 @@
     </row>
     <row r="272" spans="31:32" customHeight="1">
       <c r="AE272" s="0" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AF272" s="0" t="n">
         <v>20000</v>
@@ -5627,7 +5676,7 @@
     </row>
     <row r="273" spans="31:32" customHeight="1">
       <c r="AE273" s="0" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="AF273" s="0" t="n">
         <v>5700</v>
@@ -5635,7 +5684,7 @@
     </row>
     <row r="274" spans="31:32" customHeight="1">
       <c r="AE274" s="0" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="AF274" s="0" t="n">
         <v>10600</v>
@@ -5643,7 +5692,7 @@
     </row>
     <row r="275" spans="31:32" customHeight="1">
       <c r="AE275" s="0" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="AF275" s="0" t="n">
         <v>10600</v>
@@ -5651,7 +5700,7 @@
     </row>
     <row r="276" spans="31:32" customHeight="1">
       <c r="AE276" s="0" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AF276" s="0" t="n">
         <v>10600</v>
@@ -5659,7 +5708,7 @@
     </row>
     <row r="277" spans="31:32" customHeight="1">
       <c r="AE277" s="0" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="AF277" s="0" t="n">
         <v>5700</v>
@@ -5667,7 +5716,7 @@
     </row>
     <row r="278" spans="31:32" customHeight="1">
       <c r="AE278" s="0" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AF278" s="0" t="n">
         <v>5700</v>
@@ -5675,7 +5724,7 @@
     </row>
     <row r="279" spans="31:32" customHeight="1">
       <c r="AE279" s="0" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="AF279" s="0" t="n">
         <v>5700</v>
@@ -5683,7 +5732,7 @@
     </row>
     <row r="280" spans="31:32" customHeight="1">
       <c r="AE280" s="0" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="AF280" s="0" t="n">
         <v>5700</v>
@@ -5691,7 +5740,7 @@
     </row>
     <row r="281" spans="31:32" customHeight="1">
       <c r="AE281" s="0" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="AF281" s="0" t="n">
         <v>10600</v>
@@ -5699,7 +5748,7 @@
     </row>
     <row r="282" spans="31:32" customHeight="1">
       <c r="AE282" s="0" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="AF282" s="0" t="n">
         <v>5700</v>
@@ -5707,7 +5756,7 @@
     </row>
     <row r="283" spans="31:32" customHeight="1">
       <c r="AE283" s="0" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AF283" s="0" t="n">
         <v>5700</v>
@@ -5715,7 +5764,7 @@
     </row>
     <row r="284" spans="31:32" customHeight="1">
       <c r="AE284" s="0" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AF284" s="0" t="n">
         <v>5700</v>
@@ -5723,7 +5772,7 @@
     </row>
     <row r="285" spans="31:32" customHeight="1">
       <c r="AE285" s="0" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="AF285" s="0" t="n">
         <v>10600</v>
@@ -5731,7 +5780,7 @@
     </row>
     <row r="286" spans="31:32" customHeight="1">
       <c r="AE286" s="0" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="AF286" s="0" t="n">
         <v>20000</v>
@@ -5739,7 +5788,7 @@
     </row>
     <row r="287" spans="31:32" customHeight="1">
       <c r="AE287" s="0" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="AF287" s="0" t="n">
         <v>5700</v>
@@ -5747,7 +5796,7 @@
     </row>
     <row r="288" spans="31:32" customHeight="1">
       <c r="AE288" s="0" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AF288" s="0" t="n">
         <v>20000</v>
@@ -5755,7 +5804,7 @@
     </row>
     <row r="289" spans="31:32" customHeight="1">
       <c r="AE289" s="0" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AF289" s="0" t="n">
         <v>10600</v>
@@ -5763,7 +5812,7 @@
     </row>
     <row r="290" spans="31:32" customHeight="1">
       <c r="AE290" s="0" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AF290" s="0" t="n">
         <v>20000</v>
@@ -5771,7 +5820,7 @@
     </row>
     <row r="291" spans="31:32" customHeight="1">
       <c r="AE291" s="0" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="AF291" s="0" t="n">
         <v>5700</v>
@@ -5779,7 +5828,7 @@
     </row>
     <row r="292" spans="31:32" customHeight="1">
       <c r="AE292" s="0" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="AF292" s="0" t="n">
         <v>5700</v>
@@ -5787,7 +5836,7 @@
     </row>
     <row r="293" spans="31:32" customHeight="1">
       <c r="AE293" s="0" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="AF293" s="0" t="n">
         <v>5700</v>
@@ -5795,7 +5844,7 @@
     </row>
     <row r="294" spans="31:32" customHeight="1">
       <c r="AE294" s="0" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="AF294" s="0" t="n">
         <v>10600</v>
@@ -5803,7 +5852,7 @@
     </row>
     <row r="295" spans="31:32" customHeight="1">
       <c r="AE295" s="0" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="AF295" s="0" t="n">
         <v>20000</v>
@@ -5811,7 +5860,7 @@
     </row>
     <row r="296" spans="31:32" customHeight="1">
       <c r="AE296" s="0" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="AF296" s="0" t="n">
         <v>5700</v>
@@ -5819,7 +5868,7 @@
     </row>
     <row r="297" spans="31:32" customHeight="1">
       <c r="AE297" s="0" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="AF297" s="0" t="n">
         <v>5700</v>
@@ -5827,7 +5876,7 @@
     </row>
     <row r="298" spans="31:32" customHeight="1">
       <c r="AE298" s="0" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="AF298" s="0" t="n">
         <v>5700</v>
@@ -5835,7 +5884,7 @@
     </row>
     <row r="299" spans="31:32" customHeight="1">
       <c r="AE299" s="0" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AF299" s="0" t="n">
         <v>10600</v>
@@ -5843,7 +5892,7 @@
     </row>
     <row r="300" spans="31:32" customHeight="1">
       <c r="AE300" s="0" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AF300" s="0" t="n">
         <v>5700</v>
@@ -5851,7 +5900,7 @@
     </row>
     <row r="301" spans="31:32" customHeight="1">
       <c r="AE301" s="0" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="AF301" s="0" t="n">
         <v>20000</v>
@@ -5859,7 +5908,7 @@
     </row>
     <row r="302" spans="31:32" customHeight="1">
       <c r="AE302" s="0" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AF302" s="0" t="n">
         <v>20000</v>
@@ -5867,7 +5916,7 @@
     </row>
     <row r="303" spans="31:32" customHeight="1">
       <c r="AE303" s="0" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="AF303" s="0" t="n">
         <v>5700</v>
@@ -5875,7 +5924,7 @@
     </row>
     <row r="304" spans="31:32" customHeight="1">
       <c r="AE304" s="0" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AF304" s="0" t="n">
         <v>5700</v>
@@ -5883,7 +5932,7 @@
     </row>
     <row r="305" spans="31:32" customHeight="1">
       <c r="AE305" s="0" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AF305" s="0" t="n">
         <v>10600</v>
@@ -5994,7 +6043,7 @@
       <c r="AC1" s="6"/>
       <c r="AD1" s="6"/>
       <c r="AE1" s="0" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="AF1" s="0" t="n">
         <v>900</v>
@@ -6040,7 +6089,7 @@
       <c r="AC2" s="9"/>
       <c r="AD2" s="9"/>
       <c r="AE2" s="0" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="AF2" s="0" t="n">
         <v>900</v>
@@ -6090,7 +6139,7 @@
       <c r="AC3" s="16"/>
       <c r="AD3" s="16"/>
       <c r="AE3" s="0" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="AF3" s="0" t="n">
         <v>900</v>
@@ -6101,10 +6150,10 @@
       <c r="B4" s="16"/>
       <c r="C4" s="16"/>
       <c r="D4" s="21">
-        <f>SUM(D5:D26)</f>
+        <f>SUM(D5:D28)</f>
       </c>
       <c r="E4" s="21">
-        <f>SUM(E5:E26)</f>
+        <f>SUM(E5:E28)</f>
       </c>
       <c r="F4" s="22" t="s">
         <v>11</v>
@@ -6134,7 +6183,7 @@
       <c r="AC4" s="22"/>
       <c r="AD4" s="22"/>
       <c r="AE4" s="0" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="AF4" s="0" t="n">
         <v>900</v>
@@ -6157,13 +6206,13 @@
         <f>C5*D5</f>
       </c>
       <c r="F5" s="28" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="G5" s="28" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="H5" s="28" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="I5" s="28"/>
       <c r="J5" s="28"/>
@@ -6188,7 +6237,7 @@
       <c r="AC5" s="28"/>
       <c r="AD5" s="28"/>
       <c r="AE5" s="0" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="AF5" s="0" t="n">
         <v>900</v>
@@ -6211,13 +6260,13 @@
         <f>C6*D6</f>
       </c>
       <c r="F6" s="28" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="G6" s="28" t="s">
+        <v>364</v>
+      </c>
+      <c r="H6" s="28" t="s">
         <v>363</v>
-      </c>
-      <c r="H6" s="28" t="s">
-        <v>362</v>
       </c>
       <c r="I6" s="28"/>
       <c r="J6" s="28"/>
@@ -6242,7 +6291,7 @@
       <c r="AC6" s="28"/>
       <c r="AD6" s="28"/>
       <c r="AE6" s="0" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="AF6" s="0" t="n">
         <v>900</v>
@@ -6290,7 +6339,7 @@
       <c r="AC7" s="28"/>
       <c r="AD7" s="28"/>
       <c r="AE7" s="0" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="AF7" s="0" t="n">
         <v>900</v>
@@ -6338,7 +6387,7 @@
       <c r="AC8" s="28"/>
       <c r="AD8" s="28"/>
       <c r="AE8" s="0" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="AF8" s="0" t="n">
         <v>900</v>
@@ -6386,7 +6435,7 @@
       <c r="AC9" s="28"/>
       <c r="AD9" s="28"/>
       <c r="AE9" s="0" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="AF9" s="0" t="n">
         <v>900</v>
@@ -6397,7 +6446,7 @@
         <v>6</v>
       </c>
       <c r="B10" s="29" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C10" s="30" t="n">
         <v>100</v>
@@ -6434,7 +6483,7 @@
       <c r="AC10" s="29"/>
       <c r="AD10" s="29"/>
       <c r="AE10" s="0" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="AF10" s="0" t="n">
         <v>900</v>
@@ -6445,7 +6494,7 @@
         <v>6</v>
       </c>
       <c r="B11" s="29" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C11" s="30" t="n">
         <v>100</v>
@@ -6482,7 +6531,7 @@
       <c r="AC11" s="29"/>
       <c r="AD11" s="29"/>
       <c r="AE11" s="0" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="AF11" s="0" t="n">
         <v>900</v>
@@ -6493,7 +6542,7 @@
         <v>6</v>
       </c>
       <c r="B12" s="29" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C12" s="30" t="n">
         <v>90</v>
@@ -6530,7 +6579,7 @@
       <c r="AC12" s="29"/>
       <c r="AD12" s="29"/>
       <c r="AE12" s="0" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="AF12" s="0" t="n">
         <v>900</v>
@@ -6541,7 +6590,7 @@
         <v>6</v>
       </c>
       <c r="B13" s="29" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C13" s="30" t="n">
         <v>80</v>
@@ -6578,7 +6627,7 @@
       <c r="AC13" s="29"/>
       <c r="AD13" s="29"/>
       <c r="AE13" s="0" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="AF13" s="0" t="n">
         <v>900</v>
@@ -6589,7 +6638,7 @@
         <v>6</v>
       </c>
       <c r="B14" s="29" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C14" s="30" t="n">
         <v>65</v>
@@ -6626,7 +6675,7 @@
       <c r="AC14" s="29"/>
       <c r="AD14" s="29"/>
       <c r="AE14" s="0" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="AF14" s="0" t="n">
         <v>900</v>
@@ -6637,7 +6686,7 @@
         <v>6</v>
       </c>
       <c r="B15" s="29" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C15" s="30" t="n">
         <v>60</v>
@@ -6674,7 +6723,7 @@
       <c r="AC15" s="29"/>
       <c r="AD15" s="29"/>
       <c r="AE15" s="0" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="AF15" s="0" t="n">
         <v>900</v>
@@ -6685,7 +6734,7 @@
         <v>6</v>
       </c>
       <c r="B16" s="29" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C16" s="30" t="n">
         <v>60</v>
@@ -6722,7 +6771,7 @@
       <c r="AC16" s="29"/>
       <c r="AD16" s="29"/>
       <c r="AE16" s="0" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="AF16" s="0" t="n">
         <v>900</v>
@@ -6733,7 +6782,7 @@
         <v>6</v>
       </c>
       <c r="B17" s="29" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C17" s="30" t="n">
         <v>60</v>
@@ -6770,7 +6819,7 @@
       <c r="AC17" s="29"/>
       <c r="AD17" s="29"/>
       <c r="AE17" s="0" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="AF17" s="0" t="n">
         <v>900</v>
@@ -6781,7 +6830,7 @@
         <v>6</v>
       </c>
       <c r="B18" s="29" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C18" s="30" t="n">
         <v>60</v>
@@ -6818,7 +6867,7 @@
       <c r="AC18" s="29"/>
       <c r="AD18" s="29"/>
       <c r="AE18" s="0" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="AF18" s="0" t="n">
         <v>900</v>
@@ -6829,7 +6878,7 @@
         <v>6</v>
       </c>
       <c r="B19" s="29" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C19" s="30" t="n">
         <v>45</v>
@@ -6866,103 +6915,103 @@
       <c r="AC19" s="29"/>
       <c r="AD19" s="29"/>
       <c r="AE19" s="0" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="AF19" s="0" t="n">
         <v>900</v>
       </c>
     </row>
     <row r="20" spans="1:32" customHeight="1">
-      <c r="A20" s="26" t="n">
-        <v>7</v>
-      </c>
-      <c r="B20" s="25" t="s">
-        <v>370</v>
-      </c>
-      <c r="C20" s="26" t="n">
-        <v>35</v>
-      </c>
-      <c r="D20" s="26">
+      <c r="A20" s="30" t="n">
+        <v>6</v>
+      </c>
+      <c r="B20" s="29" t="s">
+        <v>371</v>
+      </c>
+      <c r="C20" s="30" t="n">
+        <v>45</v>
+      </c>
+      <c r="D20" s="30">
         <f>COUNTA(F20:AD20)</f>
       </c>
-      <c r="E20" s="26">
+      <c r="E20" s="30">
         <f>C20*D20</f>
       </c>
-      <c r="F20" s="28"/>
-      <c r="G20" s="28"/>
-      <c r="H20" s="28"/>
-      <c r="I20" s="28"/>
-      <c r="J20" s="28"/>
-      <c r="K20" s="28"/>
-      <c r="L20" s="28"/>
-      <c r="M20" s="28"/>
-      <c r="N20" s="28"/>
-      <c r="O20" s="28"/>
-      <c r="P20" s="28"/>
-      <c r="Q20" s="28"/>
-      <c r="R20" s="28"/>
-      <c r="S20" s="28"/>
-      <c r="T20" s="28"/>
-      <c r="U20" s="28"/>
-      <c r="V20" s="28"/>
-      <c r="W20" s="28"/>
-      <c r="X20" s="28"/>
-      <c r="Y20" s="28"/>
-      <c r="Z20" s="28"/>
-      <c r="AA20" s="28"/>
-      <c r="AB20" s="28"/>
-      <c r="AC20" s="28"/>
-      <c r="AD20" s="28"/>
+      <c r="F20" s="29"/>
+      <c r="G20" s="29"/>
+      <c r="H20" s="29"/>
+      <c r="I20" s="29"/>
+      <c r="J20" s="29"/>
+      <c r="K20" s="29"/>
+      <c r="L20" s="29"/>
+      <c r="M20" s="29"/>
+      <c r="N20" s="29"/>
+      <c r="O20" s="29"/>
+      <c r="P20" s="29"/>
+      <c r="Q20" s="29"/>
+      <c r="R20" s="29"/>
+      <c r="S20" s="29"/>
+      <c r="T20" s="29"/>
+      <c r="U20" s="29"/>
+      <c r="V20" s="29"/>
+      <c r="W20" s="29"/>
+      <c r="X20" s="29"/>
+      <c r="Y20" s="29"/>
+      <c r="Z20" s="29"/>
+      <c r="AA20" s="29"/>
+      <c r="AB20" s="29"/>
+      <c r="AC20" s="29"/>
+      <c r="AD20" s="29"/>
       <c r="AE20" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="AF20" s="0" t="n">
         <v>900</v>
       </c>
     </row>
     <row r="21" spans="1:32" customHeight="1">
-      <c r="A21" s="26" t="n">
-        <v>7</v>
-      </c>
-      <c r="B21" s="25" t="s">
-        <v>371</v>
-      </c>
-      <c r="C21" s="26" t="n">
+      <c r="A21" s="30" t="n">
+        <v>6</v>
+      </c>
+      <c r="B21" s="29" t="s">
+        <v>372</v>
+      </c>
+      <c r="C21" s="30" t="n">
         <v>30</v>
       </c>
-      <c r="D21" s="26">
+      <c r="D21" s="30">
         <f>COUNTA(F21:AD21)</f>
       </c>
-      <c r="E21" s="26">
+      <c r="E21" s="30">
         <f>C21*D21</f>
       </c>
-      <c r="F21" s="28"/>
-      <c r="G21" s="28"/>
-      <c r="H21" s="28"/>
-      <c r="I21" s="28"/>
-      <c r="J21" s="28"/>
-      <c r="K21" s="28"/>
-      <c r="L21" s="28"/>
-      <c r="M21" s="28"/>
-      <c r="N21" s="28"/>
-      <c r="O21" s="28"/>
-      <c r="P21" s="28"/>
-      <c r="Q21" s="28"/>
-      <c r="R21" s="28"/>
-      <c r="S21" s="28"/>
-      <c r="T21" s="28"/>
-      <c r="U21" s="28"/>
-      <c r="V21" s="28"/>
-      <c r="W21" s="28"/>
-      <c r="X21" s="28"/>
-      <c r="Y21" s="28"/>
-      <c r="Z21" s="28"/>
-      <c r="AA21" s="28"/>
-      <c r="AB21" s="28"/>
-      <c r="AC21" s="28"/>
-      <c r="AD21" s="28"/>
+      <c r="F21" s="29"/>
+      <c r="G21" s="29"/>
+      <c r="H21" s="29"/>
+      <c r="I21" s="29"/>
+      <c r="J21" s="29"/>
+      <c r="K21" s="29"/>
+      <c r="L21" s="29"/>
+      <c r="M21" s="29"/>
+      <c r="N21" s="29"/>
+      <c r="O21" s="29"/>
+      <c r="P21" s="29"/>
+      <c r="Q21" s="29"/>
+      <c r="R21" s="29"/>
+      <c r="S21" s="29"/>
+      <c r="T21" s="29"/>
+      <c r="U21" s="29"/>
+      <c r="V21" s="29"/>
+      <c r="W21" s="29"/>
+      <c r="X21" s="29"/>
+      <c r="Y21" s="29"/>
+      <c r="Z21" s="29"/>
+      <c r="AA21" s="29"/>
+      <c r="AB21" s="29"/>
+      <c r="AC21" s="29"/>
+      <c r="AD21" s="29"/>
       <c r="AE21" s="0" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="AF21" s="0" t="n">
         <v>900</v>
@@ -6973,10 +7022,10 @@
         <v>7</v>
       </c>
       <c r="B22" s="25" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C22" s="26" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D22" s="26">
         <f>COUNTA(F22:AD22)</f>
@@ -7010,7 +7059,7 @@
       <c r="AC22" s="28"/>
       <c r="AD22" s="28"/>
       <c r="AE22" s="0" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="AF22" s="0" t="n">
         <v>900</v>
@@ -7021,7 +7070,7 @@
         <v>7</v>
       </c>
       <c r="B23" s="25" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C23" s="26" t="n">
         <v>30</v>
@@ -7058,7 +7107,7 @@
       <c r="AC23" s="28"/>
       <c r="AD23" s="28"/>
       <c r="AE23" s="0" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="AF23" s="0" t="n">
         <v>900</v>
@@ -7069,7 +7118,7 @@
         <v>7</v>
       </c>
       <c r="B24" s="25" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C24" s="26" t="n">
         <v>30</v>
@@ -7106,7 +7155,7 @@
       <c r="AC24" s="28"/>
       <c r="AD24" s="28"/>
       <c r="AE24" s="0" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="AF24" s="0" t="n">
         <v>900</v>
@@ -7117,7 +7166,7 @@
         <v>7</v>
       </c>
       <c r="B25" s="25" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C25" s="26" t="n">
         <v>30</v>
@@ -7154,7 +7203,7 @@
       <c r="AC25" s="28"/>
       <c r="AD25" s="28"/>
       <c r="AE25" s="0" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="AF25" s="0" t="n">
         <v>900</v>
@@ -7165,10 +7214,10 @@
         <v>7</v>
       </c>
       <c r="B26" s="25" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C26" s="26" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D26" s="26">
         <f>COUNTA(F26:AD26)</f>
@@ -7202,23 +7251,103 @@
       <c r="AC26" s="28"/>
       <c r="AD26" s="28"/>
       <c r="AE26" s="0" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="AF26" s="0" t="n">
         <v>900</v>
       </c>
     </row>
-    <row r="27" spans="31:32" customHeight="1">
+    <row r="27" spans="1:32" customHeight="1">
+      <c r="A27" s="26" t="n">
+        <v>7</v>
+      </c>
+      <c r="B27" s="25" t="s">
+        <v>378</v>
+      </c>
+      <c r="C27" s="26" t="n">
+        <v>30</v>
+      </c>
+      <c r="D27" s="26">
+        <f>COUNTA(F27:AD27)</f>
+      </c>
+      <c r="E27" s="26">
+        <f>C27*D27</f>
+      </c>
+      <c r="F27" s="28"/>
+      <c r="G27" s="28"/>
+      <c r="H27" s="28"/>
+      <c r="I27" s="28"/>
+      <c r="J27" s="28"/>
+      <c r="K27" s="28"/>
+      <c r="L27" s="28"/>
+      <c r="M27" s="28"/>
+      <c r="N27" s="28"/>
+      <c r="O27" s="28"/>
+      <c r="P27" s="28"/>
+      <c r="Q27" s="28"/>
+      <c r="R27" s="28"/>
+      <c r="S27" s="28"/>
+      <c r="T27" s="28"/>
+      <c r="U27" s="28"/>
+      <c r="V27" s="28"/>
+      <c r="W27" s="28"/>
+      <c r="X27" s="28"/>
+      <c r="Y27" s="28"/>
+      <c r="Z27" s="28"/>
+      <c r="AA27" s="28"/>
+      <c r="AB27" s="28"/>
+      <c r="AC27" s="28"/>
+      <c r="AD27" s="28"/>
       <c r="AE27" s="0" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="AF27" s="0" t="n">
         <v>900</v>
       </c>
     </row>
-    <row r="28" spans="31:32" customHeight="1">
+    <row r="28" spans="1:32" customHeight="1">
+      <c r="A28" s="26" t="n">
+        <v>7</v>
+      </c>
+      <c r="B28" s="25" t="s">
+        <v>379</v>
+      </c>
+      <c r="C28" s="26" t="n">
+        <v>20</v>
+      </c>
+      <c r="D28" s="26">
+        <f>COUNTA(F28:AD28)</f>
+      </c>
+      <c r="E28" s="26">
+        <f>C28*D28</f>
+      </c>
+      <c r="F28" s="28"/>
+      <c r="G28" s="28"/>
+      <c r="H28" s="28"/>
+      <c r="I28" s="28"/>
+      <c r="J28" s="28"/>
+      <c r="K28" s="28"/>
+      <c r="L28" s="28"/>
+      <c r="M28" s="28"/>
+      <c r="N28" s="28"/>
+      <c r="O28" s="28"/>
+      <c r="P28" s="28"/>
+      <c r="Q28" s="28"/>
+      <c r="R28" s="28"/>
+      <c r="S28" s="28"/>
+      <c r="T28" s="28"/>
+      <c r="U28" s="28"/>
+      <c r="V28" s="28"/>
+      <c r="W28" s="28"/>
+      <c r="X28" s="28"/>
+      <c r="Y28" s="28"/>
+      <c r="Z28" s="28"/>
+      <c r="AA28" s="28"/>
+      <c r="AB28" s="28"/>
+      <c r="AC28" s="28"/>
+      <c r="AD28" s="28"/>
       <c r="AE28" s="0" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="AF28" s="0" t="n">
         <v>1350</v>
@@ -7226,7 +7355,7 @@
     </row>
     <row r="29" spans="31:32" customHeight="1">
       <c r="AE29" s="0" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="AF29" s="0" t="n">
         <v>900</v>
@@ -7234,7 +7363,7 @@
     </row>
     <row r="30" spans="31:32" customHeight="1">
       <c r="AE30" s="0" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="AF30" s="0" t="n">
         <v>900</v>
@@ -7242,7 +7371,7 @@
     </row>
     <row r="31" spans="31:32" customHeight="1">
       <c r="AE31" s="0" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="AF31" s="0" t="n">
         <v>900</v>
@@ -7250,7 +7379,7 @@
     </row>
     <row r="32" spans="31:32" customHeight="1">
       <c r="AE32" s="0" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="AF32" s="0" t="n">
         <v>900</v>
@@ -7258,7 +7387,7 @@
     </row>
     <row r="33" spans="31:32" customHeight="1">
       <c r="AE33" s="0" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="AF33" s="0" t="n">
         <v>900</v>
@@ -7266,7 +7395,7 @@
     </row>
     <row r="34" spans="31:32" customHeight="1">
       <c r="AE34" s="0" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="AF34" s="0" t="n">
         <v>900</v>
@@ -7274,7 +7403,7 @@
     </row>
     <row r="35" spans="31:32" customHeight="1">
       <c r="AE35" s="0" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="AF35" s="0" t="n">
         <v>900</v>
@@ -7282,7 +7411,7 @@
     </row>
     <row r="36" spans="31:32" customHeight="1">
       <c r="AE36" s="0" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="AF36" s="0" t="n">
         <v>900</v>
@@ -7290,7 +7419,7 @@
     </row>
     <row r="37" spans="31:32" customHeight="1">
       <c r="AE37" s="0" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="AF37" s="0" t="n">
         <v>900</v>
@@ -7298,7 +7427,7 @@
     </row>
     <row r="38" spans="31:32" customHeight="1">
       <c r="AE38" s="0" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="AF38" s="0" t="n">
         <v>900</v>
@@ -7306,7 +7435,7 @@
     </row>
     <row r="39" spans="31:32" customHeight="1">
       <c r="AE39" s="0" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="AF39" s="0" t="n">
         <v>900</v>
@@ -7314,7 +7443,7 @@
     </row>
     <row r="40" spans="31:32" customHeight="1">
       <c r="AE40" s="0" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="AF40" s="0" t="n">
         <v>1350</v>
@@ -7322,7 +7451,7 @@
     </row>
     <row r="41" spans="31:32" customHeight="1">
       <c r="AE41" s="0" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="AF41" s="0" t="n">
         <v>900</v>
@@ -7330,7 +7459,7 @@
     </row>
     <row r="42" spans="31:32" customHeight="1">
       <c r="AE42" s="0" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="AF42" s="0" t="n">
         <v>900</v>
@@ -7338,7 +7467,7 @@
     </row>
     <row r="43" spans="31:32" customHeight="1">
       <c r="AE43" s="0" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="AF43" s="0" t="n">
         <v>900</v>
@@ -7346,7 +7475,7 @@
     </row>
     <row r="44" spans="31:32" customHeight="1">
       <c r="AE44" s="0" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="AF44" s="0" t="n">
         <v>900</v>
@@ -7354,7 +7483,7 @@
     </row>
     <row r="45" spans="31:32" customHeight="1">
       <c r="AE45" s="0" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="AF45" s="0" t="n">
         <v>900</v>
@@ -7362,7 +7491,7 @@
     </row>
     <row r="46" spans="31:32" customHeight="1">
       <c r="AE46" s="0" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="AF46" s="0" t="n">
         <v>1350</v>
@@ -7370,7 +7499,7 @@
     </row>
     <row r="47" spans="31:32" customHeight="1">
       <c r="AE47" s="0" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="AF47" s="0" t="n">
         <v>900</v>
@@ -7378,7 +7507,7 @@
     </row>
     <row r="48" spans="31:32" customHeight="1">
       <c r="AE48" s="0" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="AF48" s="0" t="n">
         <v>900</v>
@@ -7386,7 +7515,7 @@
     </row>
     <row r="49" spans="31:32" customHeight="1">
       <c r="AE49" s="0" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="AF49" s="0" t="n">
         <v>900</v>
@@ -7394,7 +7523,7 @@
     </row>
     <row r="50" spans="31:32" customHeight="1">
       <c r="AE50" s="0" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="AF50" s="0" t="n">
         <v>900</v>
@@ -7402,7 +7531,7 @@
     </row>
     <row r="51" spans="31:32" customHeight="1">
       <c r="AE51" s="0" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="AF51" s="0" t="n">
         <v>2900</v>
@@ -7410,7 +7539,7 @@
     </row>
     <row r="52" spans="31:32" customHeight="1">
       <c r="AE52" s="0" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="AF52" s="0" t="n">
         <v>900</v>
@@ -7418,7 +7547,7 @@
     </row>
     <row r="53" spans="31:32" customHeight="1">
       <c r="AE53" s="0" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="AF53" s="0" t="n">
         <v>900</v>
@@ -7426,7 +7555,7 @@
     </row>
     <row r="54" spans="31:32" customHeight="1">
       <c r="AE54" s="0" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="AF54" s="0" t="n">
         <v>900</v>
@@ -7434,7 +7563,7 @@
     </row>
     <row r="55" spans="31:32" customHeight="1">
       <c r="AE55" s="0" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="AF55" s="0" t="n">
         <v>900</v>
@@ -7442,7 +7571,7 @@
     </row>
     <row r="56" spans="31:32" customHeight="1">
       <c r="AE56" s="0" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="AF56" s="0" t="n">
         <v>900</v>
@@ -7450,7 +7579,7 @@
     </row>
     <row r="57" spans="31:32" customHeight="1">
       <c r="AE57" s="0" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="AF57" s="0" t="n">
         <v>900</v>
@@ -7458,7 +7587,7 @@
     </row>
     <row r="58" spans="31:32" customHeight="1">
       <c r="AE58" s="0" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="AF58" s="0" t="n">
         <v>1350</v>
@@ -7466,7 +7595,7 @@
     </row>
     <row r="59" spans="31:32" customHeight="1">
       <c r="AE59" s="0" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="AF59" s="0" t="n">
         <v>1350</v>
@@ -7474,7 +7603,7 @@
     </row>
     <row r="60" spans="31:32" customHeight="1">
       <c r="AE60" s="0" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="AF60" s="0" t="n">
         <v>900</v>
@@ -7482,7 +7611,7 @@
     </row>
     <row r="61" spans="31:32" customHeight="1">
       <c r="AE61" s="0" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="AF61" s="0" t="n">
         <v>900</v>
@@ -7490,7 +7619,7 @@
     </row>
     <row r="62" spans="31:32" customHeight="1">
       <c r="AE62" s="0" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="AF62" s="0" t="n">
         <v>900</v>
@@ -7498,7 +7627,7 @@
     </row>
     <row r="63" spans="31:32" customHeight="1">
       <c r="AE63" s="0" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="AF63" s="0" t="n">
         <v>900</v>
@@ -7506,7 +7635,7 @@
     </row>
     <row r="64" spans="31:32" customHeight="1">
       <c r="AE64" s="0" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="AF64" s="0" t="n">
         <v>900</v>
@@ -7514,7 +7643,7 @@
     </row>
     <row r="65" spans="31:32" customHeight="1">
       <c r="AE65" s="0" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="AF65" s="0" t="n">
         <v>900</v>
@@ -7522,7 +7651,7 @@
     </row>
     <row r="66" spans="31:32" customHeight="1">
       <c r="AE66" s="0" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="AF66" s="0" t="n">
         <v>900</v>
@@ -7530,7 +7659,7 @@
     </row>
     <row r="67" spans="31:32" customHeight="1">
       <c r="AE67" s="0" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="AF67" s="0" t="n">
         <v>900</v>
@@ -7538,7 +7667,7 @@
     </row>
     <row r="68" spans="31:32" customHeight="1">
       <c r="AE68" s="0" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="AF68" s="0" t="n">
         <v>900</v>
@@ -7546,7 +7675,7 @@
     </row>
     <row r="69" spans="31:32" customHeight="1">
       <c r="AE69" s="0" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="AF69" s="0" t="n">
         <v>900</v>
@@ -7554,7 +7683,7 @@
     </row>
     <row r="70" spans="31:32" customHeight="1">
       <c r="AE70" s="0" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="AF70" s="0" t="n">
         <v>900</v>
@@ -7562,7 +7691,7 @@
     </row>
     <row r="71" spans="31:32" customHeight="1">
       <c r="AE71" s="0" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="AF71" s="0" t="n">
         <v>900</v>
@@ -7570,7 +7699,7 @@
     </row>
     <row r="72" spans="31:32" customHeight="1">
       <c r="AE72" s="0" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="AF72" s="0" t="n">
         <v>900</v>
@@ -7578,7 +7707,7 @@
     </row>
     <row r="73" spans="31:32" customHeight="1">
       <c r="AE73" s="0" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="AF73" s="0" t="n">
         <v>900</v>

--- a/lib/gen-server/port-battle.xlsx
+++ b/lib/gen-server/port-battle.xlsx
@@ -50,135 +50,135 @@
     <t>2. Enter player names</t>
   </si>
   <si>
+    <t>La Belle-Poule</t>
+  </si>
+  <si>
+    <t>Bellona</t>
+  </si>
+  <si>
+    <t>Mortar Brig</t>
+  </si>
+  <si>
+    <t>Le Bucentaure</t>
+  </si>
+  <si>
+    <t>Cerberus</t>
+  </si>
+  <si>
+    <t>USS United States</t>
+  </si>
+  <si>
+    <t>Essex</t>
+  </si>
+  <si>
+    <t>Frigate</t>
+  </si>
+  <si>
+    <t>Niagara</t>
+  </si>
+  <si>
+    <t>St. Pavel</t>
+  </si>
+  <si>
+    <t>Pirate Frigate</t>
+  </si>
+  <si>
+    <t>Rattlesnake Heavy</t>
+  </si>
+  <si>
+    <t>La Renommée</t>
+  </si>
+  <si>
+    <t>Santísima Trinidad</t>
+  </si>
+  <si>
+    <t>Surprise</t>
+  </si>
+  <si>
+    <t>Trincomalee</t>
+  </si>
+  <si>
+    <t>Victory</t>
+  </si>
+  <si>
+    <t>3rd Rate</t>
+  </si>
+  <si>
+    <t>Ingermanland</t>
+  </si>
+  <si>
+    <t>Le Gros Ventre</t>
+  </si>
+  <si>
+    <t>Indiaman</t>
+  </si>
+  <si>
+    <t>Santa Cecilia</t>
+  </si>
+  <si>
     <t>L’Océan</t>
   </si>
   <si>
-    <t>Santísima Trinidad</t>
-  </si>
-  <si>
-    <t>Victory</t>
+    <t>Agamemnon</t>
+  </si>
+  <si>
+    <t>Endymion</t>
+  </si>
+  <si>
+    <t>Indefatigable</t>
+  </si>
+  <si>
+    <t>Wapen von Hamburg</t>
+  </si>
+  <si>
+    <t>L’Hermione</t>
+  </si>
+  <si>
+    <t>Pandora</t>
+  </si>
+  <si>
+    <t>Wasa</t>
+  </si>
+  <si>
+    <t>Le Gros Ventre Refit</t>
   </si>
   <si>
     <t>Christian</t>
   </si>
   <si>
-    <t>Le Bucentaure</t>
-  </si>
-  <si>
-    <t>St. Pavel</t>
+    <t>Diana</t>
+  </si>
+  <si>
+    <t>Constitution</t>
+  </si>
+  <si>
+    <t>Hercules</t>
+  </si>
+  <si>
+    <t>Le Requin</t>
+  </si>
+  <si>
+    <t>Rättvisan</t>
+  </si>
+  <si>
+    <t>Leopard</t>
+  </si>
+  <si>
+    <t>Hulk Indiaman</t>
+  </si>
+  <si>
+    <t>Redoutable</t>
+  </si>
+  <si>
+    <t>Implacable</t>
   </si>
   <si>
     <t>Admiraal de Ruyter</t>
   </si>
   <si>
-    <t>Implacable</t>
-  </si>
-  <si>
-    <t>Redoutable</t>
-  </si>
-  <si>
-    <t>Bellona</t>
-  </si>
-  <si>
-    <t>3rd Rate</t>
-  </si>
-  <si>
-    <t>Constitution</t>
-  </si>
-  <si>
-    <t>USS United States</t>
-  </si>
-  <si>
-    <t>Wasa</t>
-  </si>
-  <si>
-    <t>Agamemnon</t>
-  </si>
-  <si>
-    <t>Rättvisan</t>
-  </si>
-  <si>
-    <t>Leopard</t>
-  </si>
-  <si>
-    <t>Indefatigable</t>
-  </si>
-  <si>
-    <t>Ingermanland</t>
-  </si>
-  <si>
-    <t>Wapen von Hamburg</t>
-  </si>
-  <si>
-    <t>Endymion</t>
-  </si>
-  <si>
-    <t>Trincomalee</t>
-  </si>
-  <si>
-    <t>Diana</t>
-  </si>
-  <si>
-    <t>L’Hermione</t>
-  </si>
-  <si>
-    <t>Essex</t>
-  </si>
-  <si>
-    <t>Santa Cecilia</t>
-  </si>
-  <si>
-    <t>La Belle-Poule</t>
-  </si>
-  <si>
-    <t>Pirate Frigate</t>
-  </si>
-  <si>
-    <t>Frigate</t>
-  </si>
-  <si>
-    <t>Hulk Indiaman</t>
-  </si>
-  <si>
-    <t>Le Gros Ventre Refit</t>
-  </si>
-  <si>
-    <t>Indiaman</t>
-  </si>
-  <si>
-    <t>La Renommée</t>
-  </si>
-  <si>
-    <t>Le Gros Ventre</t>
-  </si>
-  <si>
-    <t>Surprise</t>
-  </si>
-  <si>
-    <t>Hercules</t>
-  </si>
-  <si>
-    <t>Cerberus</t>
-  </si>
-  <si>
-    <t>Pandora</t>
-  </si>
-  <si>
     <t>Tutorial Cerberus</t>
   </si>
   <si>
-    <t>Le Requin</t>
-  </si>
-  <si>
-    <t>Rattlesnake Heavy</t>
-  </si>
-  <si>
-    <t>Niagara</t>
-  </si>
-  <si>
-    <t>Mortar Brig</t>
-  </si>
-  <si>
     <t>Aguadilla</t>
   </si>
   <si>
@@ -1109,49 +1109,49 @@
     <t>X</t>
   </si>
   <si>
+    <t>Brig</t>
+  </si>
+  <si>
+    <t>Cutter</t>
+  </si>
+  <si>
+    <t>Lynx</t>
+  </si>
+  <si>
+    <t>Mercury</t>
+  </si>
+  <si>
+    <t>Navy Brig</t>
+  </si>
+  <si>
+    <t>Pickle</t>
+  </si>
+  <si>
+    <t>Privateer</t>
+  </si>
+  <si>
+    <t>Rattlesnake</t>
+  </si>
+  <si>
+    <t>Snow</t>
+  </si>
+  <si>
+    <t>Yacht</t>
+  </si>
+  <si>
+    <t>Yacht Silver</t>
+  </si>
+  <si>
+    <t>GunBoat</t>
+  </si>
+  <si>
     <t>Prince de Neufchâtel</t>
   </si>
   <si>
-    <t>Mercury</t>
-  </si>
-  <si>
-    <t>Navy Brig</t>
-  </si>
-  <si>
-    <t>Rattlesnake</t>
-  </si>
-  <si>
-    <t>Snow</t>
-  </si>
-  <si>
-    <t>Brig</t>
+    <t>Tutorial Brig</t>
   </si>
   <si>
     <t>Tutorial Trader</t>
-  </si>
-  <si>
-    <t>Tutorial Brig</t>
-  </si>
-  <si>
-    <t>Pickle</t>
-  </si>
-  <si>
-    <t>Cutter</t>
-  </si>
-  <si>
-    <t>GunBoat</t>
-  </si>
-  <si>
-    <t>Privateer</t>
-  </si>
-  <si>
-    <t>Yacht</t>
-  </si>
-  <si>
-    <t>Yacht Silver</t>
-  </si>
-  <si>
-    <t>Lynx</t>
   </si>
   <si>
     <t>Ahumada</t>
@@ -1800,13 +1800,13 @@
     </row>
     <row r="5" spans="1:32" customHeight="1">
       <c r="A5" s="26" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B5" s="25" t="s">
         <v>12</v>
       </c>
       <c r="C5" s="26" t="n">
-        <v>900</v>
+        <v>180</v>
       </c>
       <c r="D5" s="26">
         <f>COUNTA(F5:AD5)</f>
@@ -1854,13 +1854,13 @@
     </row>
     <row r="6" spans="1:32" customHeight="1">
       <c r="A6" s="26" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B6" s="25" t="s">
         <v>13</v>
       </c>
       <c r="C6" s="26" t="n">
-        <v>900</v>
+        <v>500</v>
       </c>
       <c r="D6" s="26">
         <f>COUNTA(F6:AD6)</f>
@@ -1907,46 +1907,46 @@
       </c>
     </row>
     <row r="7" spans="1:32" customHeight="1">
-      <c r="A7" s="26" t="n">
-        <v>1</v>
-      </c>
-      <c r="B7" s="25" t="s">
+      <c r="A7" s="30" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="26" t="n">
-        <v>800</v>
-      </c>
-      <c r="D7" s="26">
+      <c r="C7" s="30" t="n">
+        <v>80</v>
+      </c>
+      <c r="D7" s="30">
         <f>COUNTA(F7:AD7)</f>
       </c>
-      <c r="E7" s="26">
+      <c r="E7" s="30">
         <f>C7*D7</f>
       </c>
-      <c r="F7" s="28"/>
-      <c r="G7" s="28"/>
-      <c r="H7" s="28"/>
-      <c r="I7" s="28"/>
-      <c r="J7" s="28"/>
-      <c r="K7" s="28"/>
-      <c r="L7" s="28"/>
-      <c r="M7" s="28"/>
-      <c r="N7" s="28"/>
-      <c r="O7" s="28"/>
-      <c r="P7" s="28"/>
-      <c r="Q7" s="28"/>
-      <c r="R7" s="28"/>
-      <c r="S7" s="28"/>
-      <c r="T7" s="28"/>
-      <c r="U7" s="28"/>
-      <c r="V7" s="28"/>
-      <c r="W7" s="28"/>
-      <c r="X7" s="28"/>
-      <c r="Y7" s="28"/>
-      <c r="Z7" s="28"/>
-      <c r="AA7" s="28"/>
-      <c r="AB7" s="28"/>
-      <c r="AC7" s="28"/>
-      <c r="AD7" s="28"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="29"/>
+      <c r="H7" s="29"/>
+      <c r="I7" s="29"/>
+      <c r="J7" s="29"/>
+      <c r="K7" s="29"/>
+      <c r="L7" s="29"/>
+      <c r="M7" s="29"/>
+      <c r="N7" s="29"/>
+      <c r="O7" s="29"/>
+      <c r="P7" s="29"/>
+      <c r="Q7" s="29"/>
+      <c r="R7" s="29"/>
+      <c r="S7" s="29"/>
+      <c r="T7" s="29"/>
+      <c r="U7" s="29"/>
+      <c r="V7" s="29"/>
+      <c r="W7" s="29"/>
+      <c r="X7" s="29"/>
+      <c r="Y7" s="29"/>
+      <c r="Z7" s="29"/>
+      <c r="AA7" s="29"/>
+      <c r="AB7" s="29"/>
+      <c r="AC7" s="29"/>
+      <c r="AD7" s="29"/>
       <c r="AE7" s="0" t="s">
         <v>61</v>
       </c>
@@ -1962,7 +1962,7 @@
         <v>15</v>
       </c>
       <c r="C8" s="30" t="n">
-        <v>600</v>
+        <v>550</v>
       </c>
       <c r="D8" s="30">
         <f>COUNTA(F8:AD8)</f>
@@ -2003,46 +2003,46 @@
       </c>
     </row>
     <row r="9" spans="1:32" customHeight="1">
-      <c r="A9" s="30" t="n">
-        <v>2</v>
-      </c>
-      <c r="B9" s="29" t="s">
+      <c r="A9" s="26" t="n">
+        <v>5</v>
+      </c>
+      <c r="B9" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="30" t="n">
-        <v>550</v>
-      </c>
-      <c r="D9" s="30">
+      <c r="C9" s="26" t="n">
+        <v>100</v>
+      </c>
+      <c r="D9" s="26">
         <f>COUNTA(F9:AD9)</f>
       </c>
-      <c r="E9" s="30">
+      <c r="E9" s="26">
         <f>C9*D9</f>
       </c>
-      <c r="F9" s="29"/>
-      <c r="G9" s="29"/>
-      <c r="H9" s="29"/>
-      <c r="I9" s="29"/>
-      <c r="J9" s="29"/>
-      <c r="K9" s="29"/>
-      <c r="L9" s="29"/>
-      <c r="M9" s="29"/>
-      <c r="N9" s="29"/>
-      <c r="O9" s="29"/>
-      <c r="P9" s="29"/>
-      <c r="Q9" s="29"/>
-      <c r="R9" s="29"/>
-      <c r="S9" s="29"/>
-      <c r="T9" s="29"/>
-      <c r="U9" s="29"/>
-      <c r="V9" s="29"/>
-      <c r="W9" s="29"/>
-      <c r="X9" s="29"/>
-      <c r="Y9" s="29"/>
-      <c r="Z9" s="29"/>
-      <c r="AA9" s="29"/>
-      <c r="AB9" s="29"/>
-      <c r="AC9" s="29"/>
-      <c r="AD9" s="29"/>
+      <c r="F9" s="28"/>
+      <c r="G9" s="28"/>
+      <c r="H9" s="28"/>
+      <c r="I9" s="28"/>
+      <c r="J9" s="28"/>
+      <c r="K9" s="28"/>
+      <c r="L9" s="28"/>
+      <c r="M9" s="28"/>
+      <c r="N9" s="28"/>
+      <c r="O9" s="28"/>
+      <c r="P9" s="28"/>
+      <c r="Q9" s="28"/>
+      <c r="R9" s="28"/>
+      <c r="S9" s="28"/>
+      <c r="T9" s="28"/>
+      <c r="U9" s="28"/>
+      <c r="V9" s="28"/>
+      <c r="W9" s="28"/>
+      <c r="X9" s="28"/>
+      <c r="Y9" s="28"/>
+      <c r="Z9" s="28"/>
+      <c r="AA9" s="28"/>
+      <c r="AB9" s="28"/>
+      <c r="AC9" s="28"/>
+      <c r="AD9" s="28"/>
       <c r="AE9" s="0" t="s">
         <v>63</v>
       </c>
@@ -2051,46 +2051,46 @@
       </c>
     </row>
     <row r="10" spans="1:32" customHeight="1">
-      <c r="A10" s="30" t="n">
-        <v>2</v>
-      </c>
-      <c r="B10" s="29" t="s">
+      <c r="A10" s="26" t="n">
+        <v>3</v>
+      </c>
+      <c r="B10" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="30" t="n">
-        <v>540</v>
-      </c>
-      <c r="D10" s="30">
+      <c r="C10" s="26" t="n">
+        <v>400</v>
+      </c>
+      <c r="D10" s="26">
         <f>COUNTA(F10:AD10)</f>
       </c>
-      <c r="E10" s="30">
+      <c r="E10" s="26">
         <f>C10*D10</f>
       </c>
-      <c r="F10" s="29"/>
-      <c r="G10" s="29"/>
-      <c r="H10" s="29"/>
-      <c r="I10" s="29"/>
-      <c r="J10" s="29"/>
-      <c r="K10" s="29"/>
-      <c r="L10" s="29"/>
-      <c r="M10" s="29"/>
-      <c r="N10" s="29"/>
-      <c r="O10" s="29"/>
-      <c r="P10" s="29"/>
-      <c r="Q10" s="29"/>
-      <c r="R10" s="29"/>
-      <c r="S10" s="29"/>
-      <c r="T10" s="29"/>
-      <c r="U10" s="29"/>
-      <c r="V10" s="29"/>
-      <c r="W10" s="29"/>
-      <c r="X10" s="29"/>
-      <c r="Y10" s="29"/>
-      <c r="Z10" s="29"/>
-      <c r="AA10" s="29"/>
-      <c r="AB10" s="29"/>
-      <c r="AC10" s="29"/>
-      <c r="AD10" s="29"/>
+      <c r="F10" s="28"/>
+      <c r="G10" s="28"/>
+      <c r="H10" s="28"/>
+      <c r="I10" s="28"/>
+      <c r="J10" s="28"/>
+      <c r="K10" s="28"/>
+      <c r="L10" s="28"/>
+      <c r="M10" s="28"/>
+      <c r="N10" s="28"/>
+      <c r="O10" s="28"/>
+      <c r="P10" s="28"/>
+      <c r="Q10" s="28"/>
+      <c r="R10" s="28"/>
+      <c r="S10" s="28"/>
+      <c r="T10" s="28"/>
+      <c r="U10" s="28"/>
+      <c r="V10" s="28"/>
+      <c r="W10" s="28"/>
+      <c r="X10" s="28"/>
+      <c r="Y10" s="28"/>
+      <c r="Z10" s="28"/>
+      <c r="AA10" s="28"/>
+      <c r="AB10" s="28"/>
+      <c r="AC10" s="28"/>
+      <c r="AD10" s="28"/>
       <c r="AE10" s="0" t="s">
         <v>64</v>
       </c>
@@ -2100,13 +2100,13 @@
     </row>
     <row r="11" spans="1:32" customHeight="1">
       <c r="A11" s="26" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B11" s="25" t="s">
         <v>18</v>
       </c>
       <c r="C11" s="26" t="n">
-        <v>550</v>
+        <v>200</v>
       </c>
       <c r="D11" s="26">
         <f>COUNTA(F11:AD11)</f>
@@ -2148,13 +2148,13 @@
     </row>
     <row r="12" spans="1:32" customHeight="1">
       <c r="A12" s="26" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B12" s="25" t="s">
         <v>19</v>
       </c>
       <c r="C12" s="26" t="n">
-        <v>550</v>
+        <v>160</v>
       </c>
       <c r="D12" s="26">
         <f>COUNTA(F12:AD12)</f>
@@ -2195,46 +2195,46 @@
       </c>
     </row>
     <row r="13" spans="1:32" customHeight="1">
-      <c r="A13" s="26" t="n">
-        <v>3</v>
-      </c>
-      <c r="B13" s="25" t="s">
+      <c r="A13" s="30" t="n">
+        <v>6</v>
+      </c>
+      <c r="B13" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="26" t="n">
-        <v>550</v>
-      </c>
-      <c r="D13" s="26">
+      <c r="C13" s="30" t="n">
+        <v>90</v>
+      </c>
+      <c r="D13" s="30">
         <f>COUNTA(F13:AD13)</f>
       </c>
-      <c r="E13" s="26">
+      <c r="E13" s="30">
         <f>C13*D13</f>
       </c>
-      <c r="F13" s="28"/>
-      <c r="G13" s="28"/>
-      <c r="H13" s="28"/>
-      <c r="I13" s="28"/>
-      <c r="J13" s="28"/>
-      <c r="K13" s="28"/>
-      <c r="L13" s="28"/>
-      <c r="M13" s="28"/>
-      <c r="N13" s="28"/>
-      <c r="O13" s="28"/>
-      <c r="P13" s="28"/>
-      <c r="Q13" s="28"/>
-      <c r="R13" s="28"/>
-      <c r="S13" s="28"/>
-      <c r="T13" s="28"/>
-      <c r="U13" s="28"/>
-      <c r="V13" s="28"/>
-      <c r="W13" s="28"/>
-      <c r="X13" s="28"/>
-      <c r="Y13" s="28"/>
-      <c r="Z13" s="28"/>
-      <c r="AA13" s="28"/>
-      <c r="AB13" s="28"/>
-      <c r="AC13" s="28"/>
-      <c r="AD13" s="28"/>
+      <c r="F13" s="29"/>
+      <c r="G13" s="29"/>
+      <c r="H13" s="29"/>
+      <c r="I13" s="29"/>
+      <c r="J13" s="29"/>
+      <c r="K13" s="29"/>
+      <c r="L13" s="29"/>
+      <c r="M13" s="29"/>
+      <c r="N13" s="29"/>
+      <c r="O13" s="29"/>
+      <c r="P13" s="29"/>
+      <c r="Q13" s="29"/>
+      <c r="R13" s="29"/>
+      <c r="S13" s="29"/>
+      <c r="T13" s="29"/>
+      <c r="U13" s="29"/>
+      <c r="V13" s="29"/>
+      <c r="W13" s="29"/>
+      <c r="X13" s="29"/>
+      <c r="Y13" s="29"/>
+      <c r="Z13" s="29"/>
+      <c r="AA13" s="29"/>
+      <c r="AB13" s="29"/>
+      <c r="AC13" s="29"/>
+      <c r="AD13" s="29"/>
       <c r="AE13" s="0" t="s">
         <v>67</v>
       </c>
@@ -2243,46 +2243,46 @@
       </c>
     </row>
     <row r="14" spans="1:32" customHeight="1">
-      <c r="A14" s="26" t="n">
-        <v>3</v>
-      </c>
-      <c r="B14" s="25" t="s">
+      <c r="A14" s="30" t="n">
+        <v>2</v>
+      </c>
+      <c r="B14" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="C14" s="26" t="n">
-        <v>500</v>
-      </c>
-      <c r="D14" s="26">
+      <c r="C14" s="30" t="n">
+        <v>540</v>
+      </c>
+      <c r="D14" s="30">
         <f>COUNTA(F14:AD14)</f>
       </c>
-      <c r="E14" s="26">
+      <c r="E14" s="30">
         <f>C14*D14</f>
       </c>
-      <c r="F14" s="28"/>
-      <c r="G14" s="28"/>
-      <c r="H14" s="28"/>
-      <c r="I14" s="28"/>
-      <c r="J14" s="28"/>
-      <c r="K14" s="28"/>
-      <c r="L14" s="28"/>
-      <c r="M14" s="28"/>
-      <c r="N14" s="28"/>
-      <c r="O14" s="28"/>
-      <c r="P14" s="28"/>
-      <c r="Q14" s="28"/>
-      <c r="R14" s="28"/>
-      <c r="S14" s="28"/>
-      <c r="T14" s="28"/>
-      <c r="U14" s="28"/>
-      <c r="V14" s="28"/>
-      <c r="W14" s="28"/>
-      <c r="X14" s="28"/>
-      <c r="Y14" s="28"/>
-      <c r="Z14" s="28"/>
-      <c r="AA14" s="28"/>
-      <c r="AB14" s="28"/>
-      <c r="AC14" s="28"/>
-      <c r="AD14" s="28"/>
+      <c r="F14" s="29"/>
+      <c r="G14" s="29"/>
+      <c r="H14" s="29"/>
+      <c r="I14" s="29"/>
+      <c r="J14" s="29"/>
+      <c r="K14" s="29"/>
+      <c r="L14" s="29"/>
+      <c r="M14" s="29"/>
+      <c r="N14" s="29"/>
+      <c r="O14" s="29"/>
+      <c r="P14" s="29"/>
+      <c r="Q14" s="29"/>
+      <c r="R14" s="29"/>
+      <c r="S14" s="29"/>
+      <c r="T14" s="29"/>
+      <c r="U14" s="29"/>
+      <c r="V14" s="29"/>
+      <c r="W14" s="29"/>
+      <c r="X14" s="29"/>
+      <c r="Y14" s="29"/>
+      <c r="Z14" s="29"/>
+      <c r="AA14" s="29"/>
+      <c r="AB14" s="29"/>
+      <c r="AC14" s="29"/>
+      <c r="AD14" s="29"/>
       <c r="AE14" s="0" t="s">
         <v>68</v>
       </c>
@@ -2292,13 +2292,13 @@
     </row>
     <row r="15" spans="1:32" customHeight="1">
       <c r="A15" s="26" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B15" s="25" t="s">
         <v>22</v>
       </c>
       <c r="C15" s="26" t="n">
-        <v>490</v>
+        <v>180</v>
       </c>
       <c r="D15" s="26">
         <f>COUNTA(F15:AD15)</f>
@@ -2339,46 +2339,46 @@
       </c>
     </row>
     <row r="16" spans="1:32" customHeight="1">
-      <c r="A16" s="26" t="n">
-        <v>3</v>
-      </c>
-      <c r="B16" s="25" t="s">
+      <c r="A16" s="30" t="n">
+        <v>6</v>
+      </c>
+      <c r="B16" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="C16" s="26" t="n">
-        <v>400</v>
-      </c>
-      <c r="D16" s="26">
+      <c r="C16" s="30" t="n">
+        <v>100</v>
+      </c>
+      <c r="D16" s="30">
         <f>COUNTA(F16:AD16)</f>
       </c>
-      <c r="E16" s="26">
+      <c r="E16" s="30">
         <f>C16*D16</f>
       </c>
-      <c r="F16" s="28"/>
-      <c r="G16" s="28"/>
-      <c r="H16" s="28"/>
-      <c r="I16" s="28"/>
-      <c r="J16" s="28"/>
-      <c r="K16" s="28"/>
-      <c r="L16" s="28"/>
-      <c r="M16" s="28"/>
-      <c r="N16" s="28"/>
-      <c r="O16" s="28"/>
-      <c r="P16" s="28"/>
-      <c r="Q16" s="28"/>
-      <c r="R16" s="28"/>
-      <c r="S16" s="28"/>
-      <c r="T16" s="28"/>
-      <c r="U16" s="28"/>
-      <c r="V16" s="28"/>
-      <c r="W16" s="28"/>
-      <c r="X16" s="28"/>
-      <c r="Y16" s="28"/>
-      <c r="Z16" s="28"/>
-      <c r="AA16" s="28"/>
-      <c r="AB16" s="28"/>
-      <c r="AC16" s="28"/>
-      <c r="AD16" s="28"/>
+      <c r="F16" s="29"/>
+      <c r="G16" s="29"/>
+      <c r="H16" s="29"/>
+      <c r="I16" s="29"/>
+      <c r="J16" s="29"/>
+      <c r="K16" s="29"/>
+      <c r="L16" s="29"/>
+      <c r="M16" s="29"/>
+      <c r="N16" s="29"/>
+      <c r="O16" s="29"/>
+      <c r="P16" s="29"/>
+      <c r="Q16" s="29"/>
+      <c r="R16" s="29"/>
+      <c r="S16" s="29"/>
+      <c r="T16" s="29"/>
+      <c r="U16" s="29"/>
+      <c r="V16" s="29"/>
+      <c r="W16" s="29"/>
+      <c r="X16" s="29"/>
+      <c r="Y16" s="29"/>
+      <c r="Z16" s="29"/>
+      <c r="AA16" s="29"/>
+      <c r="AB16" s="29"/>
+      <c r="AC16" s="29"/>
+      <c r="AD16" s="29"/>
       <c r="AE16" s="0" t="s">
         <v>70</v>
       </c>
@@ -2388,13 +2388,13 @@
     </row>
     <row r="17" spans="1:32" customHeight="1">
       <c r="A17" s="26" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B17" s="25" t="s">
         <v>24</v>
       </c>
       <c r="C17" s="26" t="n">
-        <v>400</v>
+        <v>120</v>
       </c>
       <c r="D17" s="26">
         <f>COUNTA(F17:AD17)</f>
@@ -2436,13 +2436,13 @@
     </row>
     <row r="18" spans="1:32" customHeight="1">
       <c r="A18" s="26" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B18" s="25" t="s">
         <v>25</v>
       </c>
       <c r="C18" s="26" t="n">
-        <v>400</v>
+        <v>900</v>
       </c>
       <c r="D18" s="26">
         <f>COUNTA(F18:AD18)</f>
@@ -2483,46 +2483,46 @@
       </c>
     </row>
     <row r="19" spans="1:32" customHeight="1">
-      <c r="A19" s="30" t="n">
-        <v>4</v>
-      </c>
-      <c r="B19" s="29" t="s">
+      <c r="A19" s="26" t="n">
+        <v>5</v>
+      </c>
+      <c r="B19" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="C19" s="30" t="n">
-        <v>340</v>
-      </c>
-      <c r="D19" s="30">
+      <c r="C19" s="26" t="n">
+        <v>120</v>
+      </c>
+      <c r="D19" s="26">
         <f>COUNTA(F19:AD19)</f>
       </c>
-      <c r="E19" s="30">
+      <c r="E19" s="26">
         <f>C19*D19</f>
       </c>
-      <c r="F19" s="29"/>
-      <c r="G19" s="29"/>
-      <c r="H19" s="29"/>
-      <c r="I19" s="29"/>
-      <c r="J19" s="29"/>
-      <c r="K19" s="29"/>
-      <c r="L19" s="29"/>
-      <c r="M19" s="29"/>
-      <c r="N19" s="29"/>
-      <c r="O19" s="29"/>
-      <c r="P19" s="29"/>
-      <c r="Q19" s="29"/>
-      <c r="R19" s="29"/>
-      <c r="S19" s="29"/>
-      <c r="T19" s="29"/>
-      <c r="U19" s="29"/>
-      <c r="V19" s="29"/>
-      <c r="W19" s="29"/>
-      <c r="X19" s="29"/>
-      <c r="Y19" s="29"/>
-      <c r="Z19" s="29"/>
-      <c r="AA19" s="29"/>
-      <c r="AB19" s="29"/>
-      <c r="AC19" s="29"/>
-      <c r="AD19" s="29"/>
+      <c r="F19" s="28"/>
+      <c r="G19" s="28"/>
+      <c r="H19" s="28"/>
+      <c r="I19" s="28"/>
+      <c r="J19" s="28"/>
+      <c r="K19" s="28"/>
+      <c r="L19" s="28"/>
+      <c r="M19" s="28"/>
+      <c r="N19" s="28"/>
+      <c r="O19" s="28"/>
+      <c r="P19" s="28"/>
+      <c r="Q19" s="28"/>
+      <c r="R19" s="28"/>
+      <c r="S19" s="28"/>
+      <c r="T19" s="28"/>
+      <c r="U19" s="28"/>
+      <c r="V19" s="28"/>
+      <c r="W19" s="28"/>
+      <c r="X19" s="28"/>
+      <c r="Y19" s="28"/>
+      <c r="Z19" s="28"/>
+      <c r="AA19" s="28"/>
+      <c r="AB19" s="28"/>
+      <c r="AC19" s="28"/>
+      <c r="AD19" s="28"/>
       <c r="AE19" s="0" t="s">
         <v>73</v>
       </c>
@@ -2531,46 +2531,46 @@
       </c>
     </row>
     <row r="20" spans="1:32" customHeight="1">
-      <c r="A20" s="30" t="n">
-        <v>4</v>
-      </c>
-      <c r="B20" s="29" t="s">
+      <c r="A20" s="26" t="n">
+        <v>5</v>
+      </c>
+      <c r="B20" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="C20" s="30" t="n">
-        <v>340</v>
-      </c>
-      <c r="D20" s="30">
+      <c r="C20" s="26" t="n">
+        <v>260</v>
+      </c>
+      <c r="D20" s="26">
         <f>COUNTA(F20:AD20)</f>
       </c>
-      <c r="E20" s="30">
+      <c r="E20" s="26">
         <f>C20*D20</f>
       </c>
-      <c r="F20" s="29"/>
-      <c r="G20" s="29"/>
-      <c r="H20" s="29"/>
-      <c r="I20" s="29"/>
-      <c r="J20" s="29"/>
-      <c r="K20" s="29"/>
-      <c r="L20" s="29"/>
-      <c r="M20" s="29"/>
-      <c r="N20" s="29"/>
-      <c r="O20" s="29"/>
-      <c r="P20" s="29"/>
-      <c r="Q20" s="29"/>
-      <c r="R20" s="29"/>
-      <c r="S20" s="29"/>
-      <c r="T20" s="29"/>
-      <c r="U20" s="29"/>
-      <c r="V20" s="29"/>
-      <c r="W20" s="29"/>
-      <c r="X20" s="29"/>
-      <c r="Y20" s="29"/>
-      <c r="Z20" s="29"/>
-      <c r="AA20" s="29"/>
-      <c r="AB20" s="29"/>
-      <c r="AC20" s="29"/>
-      <c r="AD20" s="29"/>
+      <c r="F20" s="28"/>
+      <c r="G20" s="28"/>
+      <c r="H20" s="28"/>
+      <c r="I20" s="28"/>
+      <c r="J20" s="28"/>
+      <c r="K20" s="28"/>
+      <c r="L20" s="28"/>
+      <c r="M20" s="28"/>
+      <c r="N20" s="28"/>
+      <c r="O20" s="28"/>
+      <c r="P20" s="28"/>
+      <c r="Q20" s="28"/>
+      <c r="R20" s="28"/>
+      <c r="S20" s="28"/>
+      <c r="T20" s="28"/>
+      <c r="U20" s="28"/>
+      <c r="V20" s="28"/>
+      <c r="W20" s="28"/>
+      <c r="X20" s="28"/>
+      <c r="Y20" s="28"/>
+      <c r="Z20" s="28"/>
+      <c r="AA20" s="28"/>
+      <c r="AB20" s="28"/>
+      <c r="AC20" s="28"/>
+      <c r="AD20" s="28"/>
       <c r="AE20" s="0" t="s">
         <v>74</v>
       </c>
@@ -2579,46 +2579,46 @@
       </c>
     </row>
     <row r="21" spans="1:32" customHeight="1">
-      <c r="A21" s="30" t="n">
-        <v>4</v>
-      </c>
-      <c r="B21" s="29" t="s">
+      <c r="A21" s="26" t="n">
+        <v>1</v>
+      </c>
+      <c r="B21" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="C21" s="30" t="n">
-        <v>330</v>
-      </c>
-      <c r="D21" s="30">
+      <c r="C21" s="26" t="n">
+        <v>800</v>
+      </c>
+      <c r="D21" s="26">
         <f>COUNTA(F21:AD21)</f>
       </c>
-      <c r="E21" s="30">
+      <c r="E21" s="26">
         <f>C21*D21</f>
       </c>
-      <c r="F21" s="29"/>
-      <c r="G21" s="29"/>
-      <c r="H21" s="29"/>
-      <c r="I21" s="29"/>
-      <c r="J21" s="29"/>
-      <c r="K21" s="29"/>
-      <c r="L21" s="29"/>
-      <c r="M21" s="29"/>
-      <c r="N21" s="29"/>
-      <c r="O21" s="29"/>
-      <c r="P21" s="29"/>
-      <c r="Q21" s="29"/>
-      <c r="R21" s="29"/>
-      <c r="S21" s="29"/>
-      <c r="T21" s="29"/>
-      <c r="U21" s="29"/>
-      <c r="V21" s="29"/>
-      <c r="W21" s="29"/>
-      <c r="X21" s="29"/>
-      <c r="Y21" s="29"/>
-      <c r="Z21" s="29"/>
-      <c r="AA21" s="29"/>
-      <c r="AB21" s="29"/>
-      <c r="AC21" s="29"/>
-      <c r="AD21" s="29"/>
+      <c r="F21" s="28"/>
+      <c r="G21" s="28"/>
+      <c r="H21" s="28"/>
+      <c r="I21" s="28"/>
+      <c r="J21" s="28"/>
+      <c r="K21" s="28"/>
+      <c r="L21" s="28"/>
+      <c r="M21" s="28"/>
+      <c r="N21" s="28"/>
+      <c r="O21" s="28"/>
+      <c r="P21" s="28"/>
+      <c r="Q21" s="28"/>
+      <c r="R21" s="28"/>
+      <c r="S21" s="28"/>
+      <c r="T21" s="28"/>
+      <c r="U21" s="28"/>
+      <c r="V21" s="28"/>
+      <c r="W21" s="28"/>
+      <c r="X21" s="28"/>
+      <c r="Y21" s="28"/>
+      <c r="Z21" s="28"/>
+      <c r="AA21" s="28"/>
+      <c r="AB21" s="28"/>
+      <c r="AC21" s="28"/>
+      <c r="AD21" s="28"/>
       <c r="AE21" s="0" t="s">
         <v>75</v>
       </c>
@@ -2627,46 +2627,46 @@
       </c>
     </row>
     <row r="22" spans="1:32" customHeight="1">
-      <c r="A22" s="30" t="n">
-        <v>4</v>
-      </c>
-      <c r="B22" s="29" t="s">
+      <c r="A22" s="26" t="n">
+        <v>3</v>
+      </c>
+      <c r="B22" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="C22" s="30" t="n">
-        <v>320</v>
-      </c>
-      <c r="D22" s="30">
+      <c r="C22" s="26" t="n">
+        <v>490</v>
+      </c>
+      <c r="D22" s="26">
         <f>COUNTA(F22:AD22)</f>
       </c>
-      <c r="E22" s="30">
+      <c r="E22" s="26">
         <f>C22*D22</f>
       </c>
-      <c r="F22" s="29"/>
-      <c r="G22" s="29"/>
-      <c r="H22" s="29"/>
-      <c r="I22" s="29"/>
-      <c r="J22" s="29"/>
-      <c r="K22" s="29"/>
-      <c r="L22" s="29"/>
-      <c r="M22" s="29"/>
-      <c r="N22" s="29"/>
-      <c r="O22" s="29"/>
-      <c r="P22" s="29"/>
-      <c r="Q22" s="29"/>
-      <c r="R22" s="29"/>
-      <c r="S22" s="29"/>
-      <c r="T22" s="29"/>
-      <c r="U22" s="29"/>
-      <c r="V22" s="29"/>
-      <c r="W22" s="29"/>
-      <c r="X22" s="29"/>
-      <c r="Y22" s="29"/>
-      <c r="Z22" s="29"/>
-      <c r="AA22" s="29"/>
-      <c r="AB22" s="29"/>
-      <c r="AC22" s="29"/>
-      <c r="AD22" s="29"/>
+      <c r="F22" s="28"/>
+      <c r="G22" s="28"/>
+      <c r="H22" s="28"/>
+      <c r="I22" s="28"/>
+      <c r="J22" s="28"/>
+      <c r="K22" s="28"/>
+      <c r="L22" s="28"/>
+      <c r="M22" s="28"/>
+      <c r="N22" s="28"/>
+      <c r="O22" s="28"/>
+      <c r="P22" s="28"/>
+      <c r="Q22" s="28"/>
+      <c r="R22" s="28"/>
+      <c r="S22" s="28"/>
+      <c r="T22" s="28"/>
+      <c r="U22" s="28"/>
+      <c r="V22" s="28"/>
+      <c r="W22" s="28"/>
+      <c r="X22" s="28"/>
+      <c r="Y22" s="28"/>
+      <c r="Z22" s="28"/>
+      <c r="AA22" s="28"/>
+      <c r="AB22" s="28"/>
+      <c r="AC22" s="28"/>
+      <c r="AD22" s="28"/>
       <c r="AE22" s="0" t="s">
         <v>76</v>
       </c>
@@ -2723,46 +2723,46 @@
       </c>
     </row>
     <row r="24" spans="1:32" customHeight="1">
-      <c r="A24" s="30" t="n">
-        <v>4</v>
-      </c>
-      <c r="B24" s="29" t="s">
+      <c r="A24" s="26" t="n">
+        <v>5</v>
+      </c>
+      <c r="B24" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="C24" s="30" t="n">
-        <v>290</v>
-      </c>
-      <c r="D24" s="30">
+      <c r="C24" s="26" t="n">
+        <v>120</v>
+      </c>
+      <c r="D24" s="26">
         <f>COUNTA(F24:AD24)</f>
       </c>
-      <c r="E24" s="30">
+      <c r="E24" s="26">
         <f>C24*D24</f>
       </c>
-      <c r="F24" s="29"/>
-      <c r="G24" s="29"/>
-      <c r="H24" s="29"/>
-      <c r="I24" s="29"/>
-      <c r="J24" s="29"/>
-      <c r="K24" s="29"/>
-      <c r="L24" s="29"/>
-      <c r="M24" s="29"/>
-      <c r="N24" s="29"/>
-      <c r="O24" s="29"/>
-      <c r="P24" s="29"/>
-      <c r="Q24" s="29"/>
-      <c r="R24" s="29"/>
-      <c r="S24" s="29"/>
-      <c r="T24" s="29"/>
-      <c r="U24" s="29"/>
-      <c r="V24" s="29"/>
-      <c r="W24" s="29"/>
-      <c r="X24" s="29"/>
-      <c r="Y24" s="29"/>
-      <c r="Z24" s="29"/>
-      <c r="AA24" s="29"/>
-      <c r="AB24" s="29"/>
-      <c r="AC24" s="29"/>
-      <c r="AD24" s="29"/>
+      <c r="F24" s="28"/>
+      <c r="G24" s="28"/>
+      <c r="H24" s="28"/>
+      <c r="I24" s="28"/>
+      <c r="J24" s="28"/>
+      <c r="K24" s="28"/>
+      <c r="L24" s="28"/>
+      <c r="M24" s="28"/>
+      <c r="N24" s="28"/>
+      <c r="O24" s="28"/>
+      <c r="P24" s="28"/>
+      <c r="Q24" s="28"/>
+      <c r="R24" s="28"/>
+      <c r="S24" s="28"/>
+      <c r="T24" s="28"/>
+      <c r="U24" s="28"/>
+      <c r="V24" s="28"/>
+      <c r="W24" s="28"/>
+      <c r="X24" s="28"/>
+      <c r="Y24" s="28"/>
+      <c r="Z24" s="28"/>
+      <c r="AA24" s="28"/>
+      <c r="AB24" s="28"/>
+      <c r="AC24" s="28"/>
+      <c r="AD24" s="28"/>
       <c r="AE24" s="0" t="s">
         <v>78</v>
       </c>
@@ -2778,7 +2778,7 @@
         <v>32</v>
       </c>
       <c r="C25" s="26" t="n">
-        <v>270</v>
+        <v>140</v>
       </c>
       <c r="D25" s="26">
         <f>COUNTA(F25:AD25)</f>
@@ -2826,7 +2826,7 @@
         <v>33</v>
       </c>
       <c r="C26" s="26" t="n">
-        <v>260</v>
+        <v>200</v>
       </c>
       <c r="D26" s="26">
         <f>COUNTA(F26:AD26)</f>
@@ -2868,13 +2868,13 @@
     </row>
     <row r="27" spans="1:32" customHeight="1">
       <c r="A27" s="26" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B27" s="25" t="s">
         <v>34</v>
       </c>
       <c r="C27" s="26" t="n">
-        <v>250</v>
+        <v>900</v>
       </c>
       <c r="D27" s="26">
         <f>COUNTA(F27:AD27)</f>
@@ -2915,46 +2915,46 @@
       </c>
     </row>
     <row r="28" spans="1:32" customHeight="1">
-      <c r="A28" s="26" t="n">
-        <v>5</v>
-      </c>
-      <c r="B28" s="25" t="s">
+      <c r="A28" s="30" t="n">
+        <v>4</v>
+      </c>
+      <c r="B28" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="C28" s="26" t="n">
-        <v>215</v>
-      </c>
-      <c r="D28" s="26">
+      <c r="C28" s="30" t="n">
+        <v>340</v>
+      </c>
+      <c r="D28" s="30">
         <f>COUNTA(F28:AD28)</f>
       </c>
-      <c r="E28" s="26">
+      <c r="E28" s="30">
         <f>C28*D28</f>
       </c>
-      <c r="F28" s="28"/>
-      <c r="G28" s="28"/>
-      <c r="H28" s="28"/>
-      <c r="I28" s="28"/>
-      <c r="J28" s="28"/>
-      <c r="K28" s="28"/>
-      <c r="L28" s="28"/>
-      <c r="M28" s="28"/>
-      <c r="N28" s="28"/>
-      <c r="O28" s="28"/>
-      <c r="P28" s="28"/>
-      <c r="Q28" s="28"/>
-      <c r="R28" s="28"/>
-      <c r="S28" s="28"/>
-      <c r="T28" s="28"/>
-      <c r="U28" s="28"/>
-      <c r="V28" s="28"/>
-      <c r="W28" s="28"/>
-      <c r="X28" s="28"/>
-      <c r="Y28" s="28"/>
-      <c r="Z28" s="28"/>
-      <c r="AA28" s="28"/>
-      <c r="AB28" s="28"/>
-      <c r="AC28" s="28"/>
-      <c r="AD28" s="28"/>
+      <c r="F28" s="29"/>
+      <c r="G28" s="29"/>
+      <c r="H28" s="29"/>
+      <c r="I28" s="29"/>
+      <c r="J28" s="29"/>
+      <c r="K28" s="29"/>
+      <c r="L28" s="29"/>
+      <c r="M28" s="29"/>
+      <c r="N28" s="29"/>
+      <c r="O28" s="29"/>
+      <c r="P28" s="29"/>
+      <c r="Q28" s="29"/>
+      <c r="R28" s="29"/>
+      <c r="S28" s="29"/>
+      <c r="T28" s="29"/>
+      <c r="U28" s="29"/>
+      <c r="V28" s="29"/>
+      <c r="W28" s="29"/>
+      <c r="X28" s="29"/>
+      <c r="Y28" s="29"/>
+      <c r="Z28" s="29"/>
+      <c r="AA28" s="29"/>
+      <c r="AB28" s="29"/>
+      <c r="AC28" s="29"/>
+      <c r="AD28" s="29"/>
       <c r="AE28" s="0" t="s">
         <v>82</v>
       </c>
@@ -2970,7 +2970,7 @@
         <v>36</v>
       </c>
       <c r="C29" s="26" t="n">
-        <v>200</v>
+        <v>270</v>
       </c>
       <c r="D29" s="26">
         <f>COUNTA(F29:AD29)</f>
@@ -3011,46 +3011,46 @@
       </c>
     </row>
     <row r="30" spans="1:32" customHeight="1">
-      <c r="A30" s="26" t="n">
-        <v>5</v>
-      </c>
-      <c r="B30" s="25" t="s">
+      <c r="A30" s="30" t="n">
+        <v>4</v>
+      </c>
+      <c r="B30" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="C30" s="26" t="n">
-        <v>200</v>
-      </c>
-      <c r="D30" s="26">
+      <c r="C30" s="30" t="n">
+        <v>320</v>
+      </c>
+      <c r="D30" s="30">
         <f>COUNTA(F30:AD30)</f>
       </c>
-      <c r="E30" s="26">
+      <c r="E30" s="30">
         <f>C30*D30</f>
       </c>
-      <c r="F30" s="28"/>
-      <c r="G30" s="28"/>
-      <c r="H30" s="28"/>
-      <c r="I30" s="28"/>
-      <c r="J30" s="28"/>
-      <c r="K30" s="28"/>
-      <c r="L30" s="28"/>
-      <c r="M30" s="28"/>
-      <c r="N30" s="28"/>
-      <c r="O30" s="28"/>
-      <c r="P30" s="28"/>
-      <c r="Q30" s="28"/>
-      <c r="R30" s="28"/>
-      <c r="S30" s="28"/>
-      <c r="T30" s="28"/>
-      <c r="U30" s="28"/>
-      <c r="V30" s="28"/>
-      <c r="W30" s="28"/>
-      <c r="X30" s="28"/>
-      <c r="Y30" s="28"/>
-      <c r="Z30" s="28"/>
-      <c r="AA30" s="28"/>
-      <c r="AB30" s="28"/>
-      <c r="AC30" s="28"/>
-      <c r="AD30" s="28"/>
+      <c r="F30" s="29"/>
+      <c r="G30" s="29"/>
+      <c r="H30" s="29"/>
+      <c r="I30" s="29"/>
+      <c r="J30" s="29"/>
+      <c r="K30" s="29"/>
+      <c r="L30" s="29"/>
+      <c r="M30" s="29"/>
+      <c r="N30" s="29"/>
+      <c r="O30" s="29"/>
+      <c r="P30" s="29"/>
+      <c r="Q30" s="29"/>
+      <c r="R30" s="29"/>
+      <c r="S30" s="29"/>
+      <c r="T30" s="29"/>
+      <c r="U30" s="29"/>
+      <c r="V30" s="29"/>
+      <c r="W30" s="29"/>
+      <c r="X30" s="29"/>
+      <c r="Y30" s="29"/>
+      <c r="Z30" s="29"/>
+      <c r="AA30" s="29"/>
+      <c r="AB30" s="29"/>
+      <c r="AC30" s="29"/>
+      <c r="AD30" s="29"/>
       <c r="AE30" s="0" t="s">
         <v>84</v>
       </c>
@@ -3059,46 +3059,46 @@
       </c>
     </row>
     <row r="31" spans="1:32" customHeight="1">
-      <c r="A31" s="26" t="n">
-        <v>5</v>
-      </c>
-      <c r="B31" s="25" t="s">
+      <c r="A31" s="30" t="n">
+        <v>4</v>
+      </c>
+      <c r="B31" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="C31" s="26" t="n">
-        <v>180</v>
-      </c>
-      <c r="D31" s="26">
+      <c r="C31" s="30" t="n">
+        <v>290</v>
+      </c>
+      <c r="D31" s="30">
         <f>COUNTA(F31:AD31)</f>
       </c>
-      <c r="E31" s="26">
+      <c r="E31" s="30">
         <f>C31*D31</f>
       </c>
-      <c r="F31" s="28"/>
-      <c r="G31" s="28"/>
-      <c r="H31" s="28"/>
-      <c r="I31" s="28"/>
-      <c r="J31" s="28"/>
-      <c r="K31" s="28"/>
-      <c r="L31" s="28"/>
-      <c r="M31" s="28"/>
-      <c r="N31" s="28"/>
-      <c r="O31" s="28"/>
-      <c r="P31" s="28"/>
-      <c r="Q31" s="28"/>
-      <c r="R31" s="28"/>
-      <c r="S31" s="28"/>
-      <c r="T31" s="28"/>
-      <c r="U31" s="28"/>
-      <c r="V31" s="28"/>
-      <c r="W31" s="28"/>
-      <c r="X31" s="28"/>
-      <c r="Y31" s="28"/>
-      <c r="Z31" s="28"/>
-      <c r="AA31" s="28"/>
-      <c r="AB31" s="28"/>
-      <c r="AC31" s="28"/>
-      <c r="AD31" s="28"/>
+      <c r="F31" s="29"/>
+      <c r="G31" s="29"/>
+      <c r="H31" s="29"/>
+      <c r="I31" s="29"/>
+      <c r="J31" s="29"/>
+      <c r="K31" s="29"/>
+      <c r="L31" s="29"/>
+      <c r="M31" s="29"/>
+      <c r="N31" s="29"/>
+      <c r="O31" s="29"/>
+      <c r="P31" s="29"/>
+      <c r="Q31" s="29"/>
+      <c r="R31" s="29"/>
+      <c r="S31" s="29"/>
+      <c r="T31" s="29"/>
+      <c r="U31" s="29"/>
+      <c r="V31" s="29"/>
+      <c r="W31" s="29"/>
+      <c r="X31" s="29"/>
+      <c r="Y31" s="29"/>
+      <c r="Z31" s="29"/>
+      <c r="AA31" s="29"/>
+      <c r="AB31" s="29"/>
+      <c r="AC31" s="29"/>
+      <c r="AD31" s="29"/>
       <c r="AE31" s="0" t="s">
         <v>85</v>
       </c>
@@ -3114,7 +3114,7 @@
         <v>39</v>
       </c>
       <c r="C32" s="26" t="n">
-        <v>180</v>
+        <v>215</v>
       </c>
       <c r="D32" s="26">
         <f>COUNTA(F32:AD32)</f>
@@ -3162,7 +3162,7 @@
         <v>40</v>
       </c>
       <c r="C33" s="26" t="n">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="D33" s="26">
         <f>COUNTA(F33:AD33)</f>
@@ -3204,13 +3204,13 @@
     </row>
     <row r="34" spans="1:32" customHeight="1">
       <c r="A34" s="26" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B34" s="25" t="s">
         <v>41</v>
       </c>
       <c r="C34" s="26" t="n">
-        <v>150</v>
+        <v>400</v>
       </c>
       <c r="D34" s="26">
         <f>COUNTA(F34:AD34)</f>
@@ -3299,46 +3299,46 @@
       </c>
     </row>
     <row r="36" spans="1:32" customHeight="1">
-      <c r="A36" s="26" t="n">
-        <v>5</v>
-      </c>
-      <c r="B36" s="25" t="s">
+      <c r="A36" s="30" t="n">
+        <v>2</v>
+      </c>
+      <c r="B36" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="C36" s="26" t="n">
-        <v>140</v>
-      </c>
-      <c r="D36" s="26">
+      <c r="C36" s="30" t="n">
+        <v>600</v>
+      </c>
+      <c r="D36" s="30">
         <f>COUNTA(F36:AD36)</f>
       </c>
-      <c r="E36" s="26">
+      <c r="E36" s="30">
         <f>C36*D36</f>
       </c>
-      <c r="F36" s="28"/>
-      <c r="G36" s="28"/>
-      <c r="H36" s="28"/>
-      <c r="I36" s="28"/>
-      <c r="J36" s="28"/>
-      <c r="K36" s="28"/>
-      <c r="L36" s="28"/>
-      <c r="M36" s="28"/>
-      <c r="N36" s="28"/>
-      <c r="O36" s="28"/>
-      <c r="P36" s="28"/>
-      <c r="Q36" s="28"/>
-      <c r="R36" s="28"/>
-      <c r="S36" s="28"/>
-      <c r="T36" s="28"/>
-      <c r="U36" s="28"/>
-      <c r="V36" s="28"/>
-      <c r="W36" s="28"/>
-      <c r="X36" s="28"/>
-      <c r="Y36" s="28"/>
-      <c r="Z36" s="28"/>
-      <c r="AA36" s="28"/>
-      <c r="AB36" s="28"/>
-      <c r="AC36" s="28"/>
-      <c r="AD36" s="28"/>
+      <c r="F36" s="29"/>
+      <c r="G36" s="29"/>
+      <c r="H36" s="29"/>
+      <c r="I36" s="29"/>
+      <c r="J36" s="29"/>
+      <c r="K36" s="29"/>
+      <c r="L36" s="29"/>
+      <c r="M36" s="29"/>
+      <c r="N36" s="29"/>
+      <c r="O36" s="29"/>
+      <c r="P36" s="29"/>
+      <c r="Q36" s="29"/>
+      <c r="R36" s="29"/>
+      <c r="S36" s="29"/>
+      <c r="T36" s="29"/>
+      <c r="U36" s="29"/>
+      <c r="V36" s="29"/>
+      <c r="W36" s="29"/>
+      <c r="X36" s="29"/>
+      <c r="Y36" s="29"/>
+      <c r="Z36" s="29"/>
+      <c r="AA36" s="29"/>
+      <c r="AB36" s="29"/>
+      <c r="AC36" s="29"/>
+      <c r="AD36" s="29"/>
       <c r="AE36" s="0" t="s">
         <v>90</v>
       </c>
@@ -3354,7 +3354,7 @@
         <v>44</v>
       </c>
       <c r="C37" s="26" t="n">
-        <v>120</v>
+        <v>250</v>
       </c>
       <c r="D37" s="26">
         <f>COUNTA(F37:AD37)</f>
@@ -3396,13 +3396,13 @@
     </row>
     <row r="38" spans="1:32" customHeight="1">
       <c r="A38" s="26" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B38" s="25" t="s">
         <v>45</v>
       </c>
       <c r="C38" s="26" t="n">
-        <v>120</v>
+        <v>400</v>
       </c>
       <c r="D38" s="26">
         <f>COUNTA(F38:AD38)</f>
@@ -3450,7 +3450,7 @@
         <v>46</v>
       </c>
       <c r="C39" s="26" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="D39" s="26">
         <f>COUNTA(F39:AD39)</f>
@@ -3491,46 +3491,46 @@
       </c>
     </row>
     <row r="40" spans="1:32" customHeight="1">
-      <c r="A40" s="26" t="n">
-        <v>5</v>
-      </c>
-      <c r="B40" s="25" t="s">
+      <c r="A40" s="30" t="n">
+        <v>6</v>
+      </c>
+      <c r="B40" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="C40" s="26" t="n">
-        <v>110</v>
-      </c>
-      <c r="D40" s="26">
+      <c r="C40" s="30" t="n">
+        <v>100</v>
+      </c>
+      <c r="D40" s="30">
         <f>COUNTA(F40:AD40)</f>
       </c>
-      <c r="E40" s="26">
+      <c r="E40" s="30">
         <f>C40*D40</f>
       </c>
-      <c r="F40" s="28"/>
-      <c r="G40" s="28"/>
-      <c r="H40" s="28"/>
-      <c r="I40" s="28"/>
-      <c r="J40" s="28"/>
-      <c r="K40" s="28"/>
-      <c r="L40" s="28"/>
-      <c r="M40" s="28"/>
-      <c r="N40" s="28"/>
-      <c r="O40" s="28"/>
-      <c r="P40" s="28"/>
-      <c r="Q40" s="28"/>
-      <c r="R40" s="28"/>
-      <c r="S40" s="28"/>
-      <c r="T40" s="28"/>
-      <c r="U40" s="28"/>
-      <c r="V40" s="28"/>
-      <c r="W40" s="28"/>
-      <c r="X40" s="28"/>
-      <c r="Y40" s="28"/>
-      <c r="Z40" s="28"/>
-      <c r="AA40" s="28"/>
-      <c r="AB40" s="28"/>
-      <c r="AC40" s="28"/>
-      <c r="AD40" s="28"/>
+      <c r="F40" s="29"/>
+      <c r="G40" s="29"/>
+      <c r="H40" s="29"/>
+      <c r="I40" s="29"/>
+      <c r="J40" s="29"/>
+      <c r="K40" s="29"/>
+      <c r="L40" s="29"/>
+      <c r="M40" s="29"/>
+      <c r="N40" s="29"/>
+      <c r="O40" s="29"/>
+      <c r="P40" s="29"/>
+      <c r="Q40" s="29"/>
+      <c r="R40" s="29"/>
+      <c r="S40" s="29"/>
+      <c r="T40" s="29"/>
+      <c r="U40" s="29"/>
+      <c r="V40" s="29"/>
+      <c r="W40" s="29"/>
+      <c r="X40" s="29"/>
+      <c r="Y40" s="29"/>
+      <c r="Z40" s="29"/>
+      <c r="AA40" s="29"/>
+      <c r="AB40" s="29"/>
+      <c r="AC40" s="29"/>
+      <c r="AD40" s="29"/>
       <c r="AE40" s="0" t="s">
         <v>94</v>
       </c>
@@ -3539,46 +3539,46 @@
       </c>
     </row>
     <row r="41" spans="1:32" customHeight="1">
-      <c r="A41" s="26" t="n">
-        <v>5</v>
-      </c>
-      <c r="B41" s="25" t="s">
+      <c r="A41" s="30" t="n">
+        <v>4</v>
+      </c>
+      <c r="B41" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="C41" s="26" t="n">
-        <v>100</v>
-      </c>
-      <c r="D41" s="26">
+      <c r="C41" s="30" t="n">
+        <v>340</v>
+      </c>
+      <c r="D41" s="30">
         <f>COUNTA(F41:AD41)</f>
       </c>
-      <c r="E41" s="26">
+      <c r="E41" s="30">
         <f>C41*D41</f>
       </c>
-      <c r="F41" s="28"/>
-      <c r="G41" s="28"/>
-      <c r="H41" s="28"/>
-      <c r="I41" s="28"/>
-      <c r="J41" s="28"/>
-      <c r="K41" s="28"/>
-      <c r="L41" s="28"/>
-      <c r="M41" s="28"/>
-      <c r="N41" s="28"/>
-      <c r="O41" s="28"/>
-      <c r="P41" s="28"/>
-      <c r="Q41" s="28"/>
-      <c r="R41" s="28"/>
-      <c r="S41" s="28"/>
-      <c r="T41" s="28"/>
-      <c r="U41" s="28"/>
-      <c r="V41" s="28"/>
-      <c r="W41" s="28"/>
-      <c r="X41" s="28"/>
-      <c r="Y41" s="28"/>
-      <c r="Z41" s="28"/>
-      <c r="AA41" s="28"/>
-      <c r="AB41" s="28"/>
-      <c r="AC41" s="28"/>
-      <c r="AD41" s="28"/>
+      <c r="F41" s="29"/>
+      <c r="G41" s="29"/>
+      <c r="H41" s="29"/>
+      <c r="I41" s="29"/>
+      <c r="J41" s="29"/>
+      <c r="K41" s="29"/>
+      <c r="L41" s="29"/>
+      <c r="M41" s="29"/>
+      <c r="N41" s="29"/>
+      <c r="O41" s="29"/>
+      <c r="P41" s="29"/>
+      <c r="Q41" s="29"/>
+      <c r="R41" s="29"/>
+      <c r="S41" s="29"/>
+      <c r="T41" s="29"/>
+      <c r="U41" s="29"/>
+      <c r="V41" s="29"/>
+      <c r="W41" s="29"/>
+      <c r="X41" s="29"/>
+      <c r="Y41" s="29"/>
+      <c r="Z41" s="29"/>
+      <c r="AA41" s="29"/>
+      <c r="AB41" s="29"/>
+      <c r="AC41" s="29"/>
+      <c r="AD41" s="29"/>
       <c r="AE41" s="0" t="s">
         <v>95</v>
       </c>
@@ -3587,46 +3587,46 @@
       </c>
     </row>
     <row r="42" spans="1:32" customHeight="1">
-      <c r="A42" s="26" t="n">
-        <v>5</v>
-      </c>
-      <c r="B42" s="25" t="s">
+      <c r="A42" s="30" t="n">
+        <v>4</v>
+      </c>
+      <c r="B42" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="C42" s="26" t="n">
-        <v>100</v>
-      </c>
-      <c r="D42" s="26">
+      <c r="C42" s="30" t="n">
+        <v>330</v>
+      </c>
+      <c r="D42" s="30">
         <f>COUNTA(F42:AD42)</f>
       </c>
-      <c r="E42" s="26">
+      <c r="E42" s="30">
         <f>C42*D42</f>
       </c>
-      <c r="F42" s="28"/>
-      <c r="G42" s="28"/>
-      <c r="H42" s="28"/>
-      <c r="I42" s="28"/>
-      <c r="J42" s="28"/>
-      <c r="K42" s="28"/>
-      <c r="L42" s="28"/>
-      <c r="M42" s="28"/>
-      <c r="N42" s="28"/>
-      <c r="O42" s="28"/>
-      <c r="P42" s="28"/>
-      <c r="Q42" s="28"/>
-      <c r="R42" s="28"/>
-      <c r="S42" s="28"/>
-      <c r="T42" s="28"/>
-      <c r="U42" s="28"/>
-      <c r="V42" s="28"/>
-      <c r="W42" s="28"/>
-      <c r="X42" s="28"/>
-      <c r="Y42" s="28"/>
-      <c r="Z42" s="28"/>
-      <c r="AA42" s="28"/>
-      <c r="AB42" s="28"/>
-      <c r="AC42" s="28"/>
-      <c r="AD42" s="28"/>
+      <c r="F42" s="29"/>
+      <c r="G42" s="29"/>
+      <c r="H42" s="29"/>
+      <c r="I42" s="29"/>
+      <c r="J42" s="29"/>
+      <c r="K42" s="29"/>
+      <c r="L42" s="29"/>
+      <c r="M42" s="29"/>
+      <c r="N42" s="29"/>
+      <c r="O42" s="29"/>
+      <c r="P42" s="29"/>
+      <c r="Q42" s="29"/>
+      <c r="R42" s="29"/>
+      <c r="S42" s="29"/>
+      <c r="T42" s="29"/>
+      <c r="U42" s="29"/>
+      <c r="V42" s="29"/>
+      <c r="W42" s="29"/>
+      <c r="X42" s="29"/>
+      <c r="Y42" s="29"/>
+      <c r="Z42" s="29"/>
+      <c r="AA42" s="29"/>
+      <c r="AB42" s="29"/>
+      <c r="AC42" s="29"/>
+      <c r="AD42" s="29"/>
       <c r="AE42" s="0" t="s">
         <v>96</v>
       </c>
@@ -3642,7 +3642,7 @@
         <v>50</v>
       </c>
       <c r="C43" s="26" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="D43" s="26">
         <f>COUNTA(F43:AD43)</f>
@@ -3683,46 +3683,46 @@
       </c>
     </row>
     <row r="44" spans="1:32" customHeight="1">
-      <c r="A44" s="30" t="n">
-        <v>6</v>
-      </c>
-      <c r="B44" s="29" t="s">
+      <c r="A44" s="26" t="n">
+        <v>3</v>
+      </c>
+      <c r="B44" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="C44" s="30" t="n">
-        <v>100</v>
-      </c>
-      <c r="D44" s="30">
+      <c r="C44" s="26" t="n">
+        <v>550</v>
+      </c>
+      <c r="D44" s="26">
         <f>COUNTA(F44:AD44)</f>
       </c>
-      <c r="E44" s="30">
+      <c r="E44" s="26">
         <f>C44*D44</f>
       </c>
-      <c r="F44" s="29"/>
-      <c r="G44" s="29"/>
-      <c r="H44" s="29"/>
-      <c r="I44" s="29"/>
-      <c r="J44" s="29"/>
-      <c r="K44" s="29"/>
-      <c r="L44" s="29"/>
-      <c r="M44" s="29"/>
-      <c r="N44" s="29"/>
-      <c r="O44" s="29"/>
-      <c r="P44" s="29"/>
-      <c r="Q44" s="29"/>
-      <c r="R44" s="29"/>
-      <c r="S44" s="29"/>
-      <c r="T44" s="29"/>
-      <c r="U44" s="29"/>
-      <c r="V44" s="29"/>
-      <c r="W44" s="29"/>
-      <c r="X44" s="29"/>
-      <c r="Y44" s="29"/>
-      <c r="Z44" s="29"/>
-      <c r="AA44" s="29"/>
-      <c r="AB44" s="29"/>
-      <c r="AC44" s="29"/>
-      <c r="AD44" s="29"/>
+      <c r="F44" s="28"/>
+      <c r="G44" s="28"/>
+      <c r="H44" s="28"/>
+      <c r="I44" s="28"/>
+      <c r="J44" s="28"/>
+      <c r="K44" s="28"/>
+      <c r="L44" s="28"/>
+      <c r="M44" s="28"/>
+      <c r="N44" s="28"/>
+      <c r="O44" s="28"/>
+      <c r="P44" s="28"/>
+      <c r="Q44" s="28"/>
+      <c r="R44" s="28"/>
+      <c r="S44" s="28"/>
+      <c r="T44" s="28"/>
+      <c r="U44" s="28"/>
+      <c r="V44" s="28"/>
+      <c r="W44" s="28"/>
+      <c r="X44" s="28"/>
+      <c r="Y44" s="28"/>
+      <c r="Z44" s="28"/>
+      <c r="AA44" s="28"/>
+      <c r="AB44" s="28"/>
+      <c r="AC44" s="28"/>
+      <c r="AD44" s="28"/>
       <c r="AE44" s="0" t="s">
         <v>98</v>
       </c>
@@ -3731,46 +3731,46 @@
       </c>
     </row>
     <row r="45" spans="1:32" customHeight="1">
-      <c r="A45" s="30" t="n">
-        <v>6</v>
-      </c>
-      <c r="B45" s="29" t="s">
+      <c r="A45" s="26" t="n">
+        <v>3</v>
+      </c>
+      <c r="B45" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="C45" s="30" t="n">
-        <v>100</v>
-      </c>
-      <c r="D45" s="30">
+      <c r="C45" s="26" t="n">
+        <v>550</v>
+      </c>
+      <c r="D45" s="26">
         <f>COUNTA(F45:AD45)</f>
       </c>
-      <c r="E45" s="30">
+      <c r="E45" s="26">
         <f>C45*D45</f>
       </c>
-      <c r="F45" s="29"/>
-      <c r="G45" s="29"/>
-      <c r="H45" s="29"/>
-      <c r="I45" s="29"/>
-      <c r="J45" s="29"/>
-      <c r="K45" s="29"/>
-      <c r="L45" s="29"/>
-      <c r="M45" s="29"/>
-      <c r="N45" s="29"/>
-      <c r="O45" s="29"/>
-      <c r="P45" s="29"/>
-      <c r="Q45" s="29"/>
-      <c r="R45" s="29"/>
-      <c r="S45" s="29"/>
-      <c r="T45" s="29"/>
-      <c r="U45" s="29"/>
-      <c r="V45" s="29"/>
-      <c r="W45" s="29"/>
-      <c r="X45" s="29"/>
-      <c r="Y45" s="29"/>
-      <c r="Z45" s="29"/>
-      <c r="AA45" s="29"/>
-      <c r="AB45" s="29"/>
-      <c r="AC45" s="29"/>
-      <c r="AD45" s="29"/>
+      <c r="F45" s="28"/>
+      <c r="G45" s="28"/>
+      <c r="H45" s="28"/>
+      <c r="I45" s="28"/>
+      <c r="J45" s="28"/>
+      <c r="K45" s="28"/>
+      <c r="L45" s="28"/>
+      <c r="M45" s="28"/>
+      <c r="N45" s="28"/>
+      <c r="O45" s="28"/>
+      <c r="P45" s="28"/>
+      <c r="Q45" s="28"/>
+      <c r="R45" s="28"/>
+      <c r="S45" s="28"/>
+      <c r="T45" s="28"/>
+      <c r="U45" s="28"/>
+      <c r="V45" s="28"/>
+      <c r="W45" s="28"/>
+      <c r="X45" s="28"/>
+      <c r="Y45" s="28"/>
+      <c r="Z45" s="28"/>
+      <c r="AA45" s="28"/>
+      <c r="AB45" s="28"/>
+      <c r="AC45" s="28"/>
+      <c r="AD45" s="28"/>
       <c r="AE45" s="0" t="s">
         <v>99</v>
       </c>
@@ -3779,46 +3779,46 @@
       </c>
     </row>
     <row r="46" spans="1:32" customHeight="1">
-      <c r="A46" s="30" t="n">
-        <v>6</v>
-      </c>
-      <c r="B46" s="29" t="s">
+      <c r="A46" s="26" t="n">
+        <v>3</v>
+      </c>
+      <c r="B46" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="C46" s="30" t="n">
-        <v>90</v>
-      </c>
-      <c r="D46" s="30">
+      <c r="C46" s="26" t="n">
+        <v>550</v>
+      </c>
+      <c r="D46" s="26">
         <f>COUNTA(F46:AD46)</f>
       </c>
-      <c r="E46" s="30">
+      <c r="E46" s="26">
         <f>C46*D46</f>
       </c>
-      <c r="F46" s="29"/>
-      <c r="G46" s="29"/>
-      <c r="H46" s="29"/>
-      <c r="I46" s="29"/>
-      <c r="J46" s="29"/>
-      <c r="K46" s="29"/>
-      <c r="L46" s="29"/>
-      <c r="M46" s="29"/>
-      <c r="N46" s="29"/>
-      <c r="O46" s="29"/>
-      <c r="P46" s="29"/>
-      <c r="Q46" s="29"/>
-      <c r="R46" s="29"/>
-      <c r="S46" s="29"/>
-      <c r="T46" s="29"/>
-      <c r="U46" s="29"/>
-      <c r="V46" s="29"/>
-      <c r="W46" s="29"/>
-      <c r="X46" s="29"/>
-      <c r="Y46" s="29"/>
-      <c r="Z46" s="29"/>
-      <c r="AA46" s="29"/>
-      <c r="AB46" s="29"/>
-      <c r="AC46" s="29"/>
-      <c r="AD46" s="29"/>
+      <c r="F46" s="28"/>
+      <c r="G46" s="28"/>
+      <c r="H46" s="28"/>
+      <c r="I46" s="28"/>
+      <c r="J46" s="28"/>
+      <c r="K46" s="28"/>
+      <c r="L46" s="28"/>
+      <c r="M46" s="28"/>
+      <c r="N46" s="28"/>
+      <c r="O46" s="28"/>
+      <c r="P46" s="28"/>
+      <c r="Q46" s="28"/>
+      <c r="R46" s="28"/>
+      <c r="S46" s="28"/>
+      <c r="T46" s="28"/>
+      <c r="U46" s="28"/>
+      <c r="V46" s="28"/>
+      <c r="W46" s="28"/>
+      <c r="X46" s="28"/>
+      <c r="Y46" s="28"/>
+      <c r="Z46" s="28"/>
+      <c r="AA46" s="28"/>
+      <c r="AB46" s="28"/>
+      <c r="AC46" s="28"/>
+      <c r="AD46" s="28"/>
       <c r="AE46" s="0" t="s">
         <v>100</v>
       </c>
@@ -3827,46 +3827,46 @@
       </c>
     </row>
     <row r="47" spans="1:32" customHeight="1">
-      <c r="A47" s="30" t="n">
-        <v>6</v>
-      </c>
-      <c r="B47" s="29" t="s">
+      <c r="A47" s="26" t="n">
+        <v>5</v>
+      </c>
+      <c r="B47" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="C47" s="30" t="n">
-        <v>80</v>
-      </c>
-      <c r="D47" s="30">
+      <c r="C47" s="26" t="n">
+        <v>100</v>
+      </c>
+      <c r="D47" s="26">
         <f>COUNTA(F47:AD47)</f>
       </c>
-      <c r="E47" s="30">
+      <c r="E47" s="26">
         <f>C47*D47</f>
       </c>
-      <c r="F47" s="29"/>
-      <c r="G47" s="29"/>
-      <c r="H47" s="29"/>
-      <c r="I47" s="29"/>
-      <c r="J47" s="29"/>
-      <c r="K47" s="29"/>
-      <c r="L47" s="29"/>
-      <c r="M47" s="29"/>
-      <c r="N47" s="29"/>
-      <c r="O47" s="29"/>
-      <c r="P47" s="29"/>
-      <c r="Q47" s="29"/>
-      <c r="R47" s="29"/>
-      <c r="S47" s="29"/>
-      <c r="T47" s="29"/>
-      <c r="U47" s="29"/>
-      <c r="V47" s="29"/>
-      <c r="W47" s="29"/>
-      <c r="X47" s="29"/>
-      <c r="Y47" s="29"/>
-      <c r="Z47" s="29"/>
-      <c r="AA47" s="29"/>
-      <c r="AB47" s="29"/>
-      <c r="AC47" s="29"/>
-      <c r="AD47" s="29"/>
+      <c r="F47" s="28"/>
+      <c r="G47" s="28"/>
+      <c r="H47" s="28"/>
+      <c r="I47" s="28"/>
+      <c r="J47" s="28"/>
+      <c r="K47" s="28"/>
+      <c r="L47" s="28"/>
+      <c r="M47" s="28"/>
+      <c r="N47" s="28"/>
+      <c r="O47" s="28"/>
+      <c r="P47" s="28"/>
+      <c r="Q47" s="28"/>
+      <c r="R47" s="28"/>
+      <c r="S47" s="28"/>
+      <c r="T47" s="28"/>
+      <c r="U47" s="28"/>
+      <c r="V47" s="28"/>
+      <c r="W47" s="28"/>
+      <c r="X47" s="28"/>
+      <c r="Y47" s="28"/>
+      <c r="Z47" s="28"/>
+      <c r="AA47" s="28"/>
+      <c r="AB47" s="28"/>
+      <c r="AC47" s="28"/>
+      <c r="AD47" s="28"/>
       <c r="AE47" s="0" t="s">
         <v>101</v>
       </c>
@@ -6190,52 +6190,52 @@
       </c>
     </row>
     <row r="5" spans="1:32" customHeight="1">
-      <c r="A5" s="26" t="n">
-        <v>5</v>
-      </c>
-      <c r="B5" s="25" t="s">
-        <v>35</v>
-      </c>
-      <c r="C5" s="26" t="n">
-        <v>215</v>
-      </c>
-      <c r="D5" s="26">
+      <c r="A5" s="30" t="n">
+        <v>6</v>
+      </c>
+      <c r="B5" s="29" t="s">
+        <v>365</v>
+      </c>
+      <c r="C5" s="30" t="n">
+        <v>45</v>
+      </c>
+      <c r="D5" s="30">
         <f>COUNTA(F5:AD5)</f>
       </c>
-      <c r="E5" s="26">
+      <c r="E5" s="30">
         <f>C5*D5</f>
       </c>
-      <c r="F5" s="28" t="s">
+      <c r="F5" s="29" t="s">
         <v>360</v>
       </c>
-      <c r="G5" s="28" t="s">
+      <c r="G5" s="29" t="s">
         <v>361</v>
       </c>
-      <c r="H5" s="28" t="s">
+      <c r="H5" s="29" t="s">
         <v>362</v>
       </c>
-      <c r="I5" s="28"/>
-      <c r="J5" s="28"/>
-      <c r="K5" s="28"/>
-      <c r="L5" s="28"/>
-      <c r="M5" s="28"/>
-      <c r="N5" s="28"/>
-      <c r="O5" s="28"/>
-      <c r="P5" s="28"/>
-      <c r="Q5" s="28"/>
-      <c r="R5" s="28"/>
-      <c r="S5" s="28"/>
-      <c r="T5" s="28"/>
-      <c r="U5" s="28"/>
-      <c r="V5" s="28"/>
-      <c r="W5" s="28"/>
-      <c r="X5" s="28"/>
-      <c r="Y5" s="28"/>
-      <c r="Z5" s="28"/>
-      <c r="AA5" s="28"/>
-      <c r="AB5" s="28"/>
-      <c r="AC5" s="28"/>
-      <c r="AD5" s="28"/>
+      <c r="I5" s="29"/>
+      <c r="J5" s="29"/>
+      <c r="K5" s="29"/>
+      <c r="L5" s="29"/>
+      <c r="M5" s="29"/>
+      <c r="N5" s="29"/>
+      <c r="O5" s="29"/>
+      <c r="P5" s="29"/>
+      <c r="Q5" s="29"/>
+      <c r="R5" s="29"/>
+      <c r="S5" s="29"/>
+      <c r="T5" s="29"/>
+      <c r="U5" s="29"/>
+      <c r="V5" s="29"/>
+      <c r="W5" s="29"/>
+      <c r="X5" s="29"/>
+      <c r="Y5" s="29"/>
+      <c r="Z5" s="29"/>
+      <c r="AA5" s="29"/>
+      <c r="AB5" s="29"/>
+      <c r="AC5" s="29"/>
+      <c r="AD5" s="29"/>
       <c r="AE5" s="0" t="s">
         <v>384</v>
       </c>
@@ -6244,52 +6244,52 @@
       </c>
     </row>
     <row r="6" spans="1:32" customHeight="1">
-      <c r="A6" s="26" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" s="25" t="s">
-        <v>44</v>
-      </c>
-      <c r="C6" s="26" t="n">
-        <v>120</v>
-      </c>
-      <c r="D6" s="26">
+      <c r="A6" s="30" t="n">
+        <v>6</v>
+      </c>
+      <c r="B6" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="30" t="n">
+        <v>80</v>
+      </c>
+      <c r="D6" s="30">
         <f>COUNTA(F6:AD6)</f>
       </c>
-      <c r="E6" s="26">
+      <c r="E6" s="30">
         <f>C6*D6</f>
       </c>
-      <c r="F6" s="28" t="s">
+      <c r="F6" s="29" t="s">
         <v>363</v>
       </c>
-      <c r="G6" s="28" t="s">
+      <c r="G6" s="29" t="s">
         <v>364</v>
       </c>
-      <c r="H6" s="28" t="s">
+      <c r="H6" s="29" t="s">
         <v>363</v>
       </c>
-      <c r="I6" s="28"/>
-      <c r="J6" s="28"/>
-      <c r="K6" s="28"/>
-      <c r="L6" s="28"/>
-      <c r="M6" s="28"/>
-      <c r="N6" s="28"/>
-      <c r="O6" s="28"/>
-      <c r="P6" s="28"/>
-      <c r="Q6" s="28"/>
-      <c r="R6" s="28"/>
-      <c r="S6" s="28"/>
-      <c r="T6" s="28"/>
-      <c r="U6" s="28"/>
-      <c r="V6" s="28"/>
-      <c r="W6" s="28"/>
-      <c r="X6" s="28"/>
-      <c r="Y6" s="28"/>
-      <c r="Z6" s="28"/>
-      <c r="AA6" s="28"/>
-      <c r="AB6" s="28"/>
-      <c r="AC6" s="28"/>
-      <c r="AD6" s="28"/>
+      <c r="I6" s="29"/>
+      <c r="J6" s="29"/>
+      <c r="K6" s="29"/>
+      <c r="L6" s="29"/>
+      <c r="M6" s="29"/>
+      <c r="N6" s="29"/>
+      <c r="O6" s="29"/>
+      <c r="P6" s="29"/>
+      <c r="Q6" s="29"/>
+      <c r="R6" s="29"/>
+      <c r="S6" s="29"/>
+      <c r="T6" s="29"/>
+      <c r="U6" s="29"/>
+      <c r="V6" s="29"/>
+      <c r="W6" s="29"/>
+      <c r="X6" s="29"/>
+      <c r="Y6" s="29"/>
+      <c r="Z6" s="29"/>
+      <c r="AA6" s="29"/>
+      <c r="AB6" s="29"/>
+      <c r="AC6" s="29"/>
+      <c r="AD6" s="29"/>
       <c r="AE6" s="0" t="s">
         <v>385</v>
       </c>
@@ -6302,10 +6302,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="25" t="s">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="C7" s="26" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="D7" s="26">
         <f>COUNTA(F7:AD7)</f>
@@ -6347,13 +6347,13 @@
     </row>
     <row r="8" spans="1:32" customHeight="1">
       <c r="A8" s="26" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B8" s="25" t="s">
-        <v>47</v>
+        <v>366</v>
       </c>
       <c r="C8" s="26" t="n">
-        <v>110</v>
+        <v>30</v>
       </c>
       <c r="D8" s="26">
         <f>COUNTA(F8:AD8)</f>
@@ -6395,13 +6395,13 @@
     </row>
     <row r="9" spans="1:32" customHeight="1">
       <c r="A9" s="26" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B9" s="25" t="s">
-        <v>48</v>
+        <v>367</v>
       </c>
       <c r="C9" s="26" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="D9" s="26">
         <f>COUNTA(F9:AD9)</f>
@@ -6446,10 +6446,10 @@
         <v>6</v>
       </c>
       <c r="B10" s="29" t="s">
-        <v>51</v>
+        <v>368</v>
       </c>
       <c r="C10" s="30" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="D10" s="30">
         <f>COUNTA(F10:AD10)</f>
@@ -6494,10 +6494,10 @@
         <v>6</v>
       </c>
       <c r="B11" s="29" t="s">
-        <v>52</v>
+        <v>369</v>
       </c>
       <c r="C11" s="30" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="D11" s="30">
         <f>COUNTA(F11:AD11)</f>
@@ -6542,7 +6542,7 @@
         <v>6</v>
       </c>
       <c r="B12" s="29" t="s">
-        <v>53</v>
+        <v>20</v>
       </c>
       <c r="C12" s="30" t="n">
         <v>90</v>
@@ -6586,46 +6586,46 @@
       </c>
     </row>
     <row r="13" spans="1:32" customHeight="1">
-      <c r="A13" s="30" t="n">
-        <v>6</v>
-      </c>
-      <c r="B13" s="29" t="s">
-        <v>54</v>
-      </c>
-      <c r="C13" s="30" t="n">
-        <v>80</v>
-      </c>
-      <c r="D13" s="30">
+      <c r="A13" s="26" t="n">
+        <v>7</v>
+      </c>
+      <c r="B13" s="25" t="s">
+        <v>370</v>
+      </c>
+      <c r="C13" s="26" t="n">
+        <v>35</v>
+      </c>
+      <c r="D13" s="26">
         <f>COUNTA(F13:AD13)</f>
       </c>
-      <c r="E13" s="30">
+      <c r="E13" s="26">
         <f>C13*D13</f>
       </c>
-      <c r="F13" s="29"/>
-      <c r="G13" s="29"/>
-      <c r="H13" s="29"/>
-      <c r="I13" s="29"/>
-      <c r="J13" s="29"/>
-      <c r="K13" s="29"/>
-      <c r="L13" s="29"/>
-      <c r="M13" s="29"/>
-      <c r="N13" s="29"/>
-      <c r="O13" s="29"/>
-      <c r="P13" s="29"/>
-      <c r="Q13" s="29"/>
-      <c r="R13" s="29"/>
-      <c r="S13" s="29"/>
-      <c r="T13" s="29"/>
-      <c r="U13" s="29"/>
-      <c r="V13" s="29"/>
-      <c r="W13" s="29"/>
-      <c r="X13" s="29"/>
-      <c r="Y13" s="29"/>
-      <c r="Z13" s="29"/>
-      <c r="AA13" s="29"/>
-      <c r="AB13" s="29"/>
-      <c r="AC13" s="29"/>
-      <c r="AD13" s="29"/>
+      <c r="F13" s="28"/>
+      <c r="G13" s="28"/>
+      <c r="H13" s="28"/>
+      <c r="I13" s="28"/>
+      <c r="J13" s="28"/>
+      <c r="K13" s="28"/>
+      <c r="L13" s="28"/>
+      <c r="M13" s="28"/>
+      <c r="N13" s="28"/>
+      <c r="O13" s="28"/>
+      <c r="P13" s="28"/>
+      <c r="Q13" s="28"/>
+      <c r="R13" s="28"/>
+      <c r="S13" s="28"/>
+      <c r="T13" s="28"/>
+      <c r="U13" s="28"/>
+      <c r="V13" s="28"/>
+      <c r="W13" s="28"/>
+      <c r="X13" s="28"/>
+      <c r="Y13" s="28"/>
+      <c r="Z13" s="28"/>
+      <c r="AA13" s="28"/>
+      <c r="AB13" s="28"/>
+      <c r="AC13" s="28"/>
+      <c r="AD13" s="28"/>
       <c r="AE13" s="0" t="s">
         <v>392</v>
       </c>
@@ -6634,46 +6634,46 @@
       </c>
     </row>
     <row r="14" spans="1:32" customHeight="1">
-      <c r="A14" s="30" t="n">
-        <v>6</v>
-      </c>
-      <c r="B14" s="29" t="s">
-        <v>365</v>
-      </c>
-      <c r="C14" s="30" t="n">
-        <v>65</v>
-      </c>
-      <c r="D14" s="30">
+      <c r="A14" s="26" t="n">
+        <v>7</v>
+      </c>
+      <c r="B14" s="25" t="s">
+        <v>371</v>
+      </c>
+      <c r="C14" s="26" t="n">
+        <v>30</v>
+      </c>
+      <c r="D14" s="26">
         <f>COUNTA(F14:AD14)</f>
       </c>
-      <c r="E14" s="30">
+      <c r="E14" s="26">
         <f>C14*D14</f>
       </c>
-      <c r="F14" s="29"/>
-      <c r="G14" s="29"/>
-      <c r="H14" s="29"/>
-      <c r="I14" s="29"/>
-      <c r="J14" s="29"/>
-      <c r="K14" s="29"/>
-      <c r="L14" s="29"/>
-      <c r="M14" s="29"/>
-      <c r="N14" s="29"/>
-      <c r="O14" s="29"/>
-      <c r="P14" s="29"/>
-      <c r="Q14" s="29"/>
-      <c r="R14" s="29"/>
-      <c r="S14" s="29"/>
-      <c r="T14" s="29"/>
-      <c r="U14" s="29"/>
-      <c r="V14" s="29"/>
-      <c r="W14" s="29"/>
-      <c r="X14" s="29"/>
-      <c r="Y14" s="29"/>
-      <c r="Z14" s="29"/>
-      <c r="AA14" s="29"/>
-      <c r="AB14" s="29"/>
-      <c r="AC14" s="29"/>
-      <c r="AD14" s="29"/>
+      <c r="F14" s="28"/>
+      <c r="G14" s="28"/>
+      <c r="H14" s="28"/>
+      <c r="I14" s="28"/>
+      <c r="J14" s="28"/>
+      <c r="K14" s="28"/>
+      <c r="L14" s="28"/>
+      <c r="M14" s="28"/>
+      <c r="N14" s="28"/>
+      <c r="O14" s="28"/>
+      <c r="P14" s="28"/>
+      <c r="Q14" s="28"/>
+      <c r="R14" s="28"/>
+      <c r="S14" s="28"/>
+      <c r="T14" s="28"/>
+      <c r="U14" s="28"/>
+      <c r="V14" s="28"/>
+      <c r="W14" s="28"/>
+      <c r="X14" s="28"/>
+      <c r="Y14" s="28"/>
+      <c r="Z14" s="28"/>
+      <c r="AA14" s="28"/>
+      <c r="AB14" s="28"/>
+      <c r="AC14" s="28"/>
+      <c r="AD14" s="28"/>
       <c r="AE14" s="0" t="s">
         <v>393</v>
       </c>
@@ -6686,7 +6686,7 @@
         <v>6</v>
       </c>
       <c r="B15" s="29" t="s">
-        <v>366</v>
+        <v>372</v>
       </c>
       <c r="C15" s="30" t="n">
         <v>60</v>
@@ -6734,10 +6734,10 @@
         <v>6</v>
       </c>
       <c r="B16" s="29" t="s">
-        <v>367</v>
+        <v>23</v>
       </c>
       <c r="C16" s="30" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="D16" s="30">
         <f>COUNTA(F16:AD16)</f>
@@ -6778,46 +6778,46 @@
       </c>
     </row>
     <row r="17" spans="1:32" customHeight="1">
-      <c r="A17" s="30" t="n">
-        <v>6</v>
-      </c>
-      <c r="B17" s="29" t="s">
-        <v>368</v>
-      </c>
-      <c r="C17" s="30" t="n">
-        <v>60</v>
-      </c>
-      <c r="D17" s="30">
+      <c r="A17" s="26" t="n">
+        <v>5</v>
+      </c>
+      <c r="B17" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" s="26" t="n">
+        <v>120</v>
+      </c>
+      <c r="D17" s="26">
         <f>COUNTA(F17:AD17)</f>
       </c>
-      <c r="E17" s="30">
+      <c r="E17" s="26">
         <f>C17*D17</f>
       </c>
-      <c r="F17" s="29"/>
-      <c r="G17" s="29"/>
-      <c r="H17" s="29"/>
-      <c r="I17" s="29"/>
-      <c r="J17" s="29"/>
-      <c r="K17" s="29"/>
-      <c r="L17" s="29"/>
-      <c r="M17" s="29"/>
-      <c r="N17" s="29"/>
-      <c r="O17" s="29"/>
-      <c r="P17" s="29"/>
-      <c r="Q17" s="29"/>
-      <c r="R17" s="29"/>
-      <c r="S17" s="29"/>
-      <c r="T17" s="29"/>
-      <c r="U17" s="29"/>
-      <c r="V17" s="29"/>
-      <c r="W17" s="29"/>
-      <c r="X17" s="29"/>
-      <c r="Y17" s="29"/>
-      <c r="Z17" s="29"/>
-      <c r="AA17" s="29"/>
-      <c r="AB17" s="29"/>
-      <c r="AC17" s="29"/>
-      <c r="AD17" s="29"/>
+      <c r="F17" s="28"/>
+      <c r="G17" s="28"/>
+      <c r="H17" s="28"/>
+      <c r="I17" s="28"/>
+      <c r="J17" s="28"/>
+      <c r="K17" s="28"/>
+      <c r="L17" s="28"/>
+      <c r="M17" s="28"/>
+      <c r="N17" s="28"/>
+      <c r="O17" s="28"/>
+      <c r="P17" s="28"/>
+      <c r="Q17" s="28"/>
+      <c r="R17" s="28"/>
+      <c r="S17" s="28"/>
+      <c r="T17" s="28"/>
+      <c r="U17" s="28"/>
+      <c r="V17" s="28"/>
+      <c r="W17" s="28"/>
+      <c r="X17" s="28"/>
+      <c r="Y17" s="28"/>
+      <c r="Z17" s="28"/>
+      <c r="AA17" s="28"/>
+      <c r="AB17" s="28"/>
+      <c r="AC17" s="28"/>
+      <c r="AD17" s="28"/>
       <c r="AE17" s="0" t="s">
         <v>396</v>
       </c>
@@ -6830,7 +6830,7 @@
         <v>6</v>
       </c>
       <c r="B18" s="29" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="C18" s="30" t="n">
         <v>60</v>
@@ -6874,46 +6874,46 @@
       </c>
     </row>
     <row r="19" spans="1:32" customHeight="1">
-      <c r="A19" s="30" t="n">
-        <v>6</v>
-      </c>
-      <c r="B19" s="29" t="s">
-        <v>370</v>
-      </c>
-      <c r="C19" s="30" t="n">
-        <v>45</v>
-      </c>
-      <c r="D19" s="30">
+      <c r="A19" s="26" t="n">
+        <v>5</v>
+      </c>
+      <c r="B19" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" s="26" t="n">
+        <v>120</v>
+      </c>
+      <c r="D19" s="26">
         <f>COUNTA(F19:AD19)</f>
       </c>
-      <c r="E19" s="30">
+      <c r="E19" s="26">
         <f>C19*D19</f>
       </c>
-      <c r="F19" s="29"/>
-      <c r="G19" s="29"/>
-      <c r="H19" s="29"/>
-      <c r="I19" s="29"/>
-      <c r="J19" s="29"/>
-      <c r="K19" s="29"/>
-      <c r="L19" s="29"/>
-      <c r="M19" s="29"/>
-      <c r="N19" s="29"/>
-      <c r="O19" s="29"/>
-      <c r="P19" s="29"/>
-      <c r="Q19" s="29"/>
-      <c r="R19" s="29"/>
-      <c r="S19" s="29"/>
-      <c r="T19" s="29"/>
-      <c r="U19" s="29"/>
-      <c r="V19" s="29"/>
-      <c r="W19" s="29"/>
-      <c r="X19" s="29"/>
-      <c r="Y19" s="29"/>
-      <c r="Z19" s="29"/>
-      <c r="AA19" s="29"/>
-      <c r="AB19" s="29"/>
-      <c r="AC19" s="29"/>
-      <c r="AD19" s="29"/>
+      <c r="F19" s="28"/>
+      <c r="G19" s="28"/>
+      <c r="H19" s="28"/>
+      <c r="I19" s="28"/>
+      <c r="J19" s="28"/>
+      <c r="K19" s="28"/>
+      <c r="L19" s="28"/>
+      <c r="M19" s="28"/>
+      <c r="N19" s="28"/>
+      <c r="O19" s="28"/>
+      <c r="P19" s="28"/>
+      <c r="Q19" s="28"/>
+      <c r="R19" s="28"/>
+      <c r="S19" s="28"/>
+      <c r="T19" s="28"/>
+      <c r="U19" s="28"/>
+      <c r="V19" s="28"/>
+      <c r="W19" s="28"/>
+      <c r="X19" s="28"/>
+      <c r="Y19" s="28"/>
+      <c r="Z19" s="28"/>
+      <c r="AA19" s="28"/>
+      <c r="AB19" s="28"/>
+      <c r="AC19" s="28"/>
+      <c r="AD19" s="28"/>
       <c r="AE19" s="0" t="s">
         <v>398</v>
       </c>
@@ -6922,46 +6922,46 @@
       </c>
     </row>
     <row r="20" spans="1:32" customHeight="1">
-      <c r="A20" s="30" t="n">
-        <v>6</v>
-      </c>
-      <c r="B20" s="29" t="s">
-        <v>371</v>
-      </c>
-      <c r="C20" s="30" t="n">
-        <v>45</v>
-      </c>
-      <c r="D20" s="30">
+      <c r="A20" s="26" t="n">
+        <v>7</v>
+      </c>
+      <c r="B20" s="25" t="s">
+        <v>374</v>
+      </c>
+      <c r="C20" s="26" t="n">
+        <v>30</v>
+      </c>
+      <c r="D20" s="26">
         <f>COUNTA(F20:AD20)</f>
       </c>
-      <c r="E20" s="30">
+      <c r="E20" s="26">
         <f>C20*D20</f>
       </c>
-      <c r="F20" s="29"/>
-      <c r="G20" s="29"/>
-      <c r="H20" s="29"/>
-      <c r="I20" s="29"/>
-      <c r="J20" s="29"/>
-      <c r="K20" s="29"/>
-      <c r="L20" s="29"/>
-      <c r="M20" s="29"/>
-      <c r="N20" s="29"/>
-      <c r="O20" s="29"/>
-      <c r="P20" s="29"/>
-      <c r="Q20" s="29"/>
-      <c r="R20" s="29"/>
-      <c r="S20" s="29"/>
-      <c r="T20" s="29"/>
-      <c r="U20" s="29"/>
-      <c r="V20" s="29"/>
-      <c r="W20" s="29"/>
-      <c r="X20" s="29"/>
-      <c r="Y20" s="29"/>
-      <c r="Z20" s="29"/>
-      <c r="AA20" s="29"/>
-      <c r="AB20" s="29"/>
-      <c r="AC20" s="29"/>
-      <c r="AD20" s="29"/>
+      <c r="F20" s="28"/>
+      <c r="G20" s="28"/>
+      <c r="H20" s="28"/>
+      <c r="I20" s="28"/>
+      <c r="J20" s="28"/>
+      <c r="K20" s="28"/>
+      <c r="L20" s="28"/>
+      <c r="M20" s="28"/>
+      <c r="N20" s="28"/>
+      <c r="O20" s="28"/>
+      <c r="P20" s="28"/>
+      <c r="Q20" s="28"/>
+      <c r="R20" s="28"/>
+      <c r="S20" s="28"/>
+      <c r="T20" s="28"/>
+      <c r="U20" s="28"/>
+      <c r="V20" s="28"/>
+      <c r="W20" s="28"/>
+      <c r="X20" s="28"/>
+      <c r="Y20" s="28"/>
+      <c r="Z20" s="28"/>
+      <c r="AA20" s="28"/>
+      <c r="AB20" s="28"/>
+      <c r="AC20" s="28"/>
+      <c r="AD20" s="28"/>
       <c r="AE20" s="0" t="s">
         <v>399</v>
       </c>
@@ -6970,46 +6970,46 @@
       </c>
     </row>
     <row r="21" spans="1:32" customHeight="1">
-      <c r="A21" s="30" t="n">
-        <v>6</v>
-      </c>
-      <c r="B21" s="29" t="s">
-        <v>372</v>
-      </c>
-      <c r="C21" s="30" t="n">
+      <c r="A21" s="26" t="n">
+        <v>7</v>
+      </c>
+      <c r="B21" s="25" t="s">
+        <v>375</v>
+      </c>
+      <c r="C21" s="26" t="n">
         <v>30</v>
       </c>
-      <c r="D21" s="30">
+      <c r="D21" s="26">
         <f>COUNTA(F21:AD21)</f>
       </c>
-      <c r="E21" s="30">
+      <c r="E21" s="26">
         <f>C21*D21</f>
       </c>
-      <c r="F21" s="29"/>
-      <c r="G21" s="29"/>
-      <c r="H21" s="29"/>
-      <c r="I21" s="29"/>
-      <c r="J21" s="29"/>
-      <c r="K21" s="29"/>
-      <c r="L21" s="29"/>
-      <c r="M21" s="29"/>
-      <c r="N21" s="29"/>
-      <c r="O21" s="29"/>
-      <c r="P21" s="29"/>
-      <c r="Q21" s="29"/>
-      <c r="R21" s="29"/>
-      <c r="S21" s="29"/>
-      <c r="T21" s="29"/>
-      <c r="U21" s="29"/>
-      <c r="V21" s="29"/>
-      <c r="W21" s="29"/>
-      <c r="X21" s="29"/>
-      <c r="Y21" s="29"/>
-      <c r="Z21" s="29"/>
-      <c r="AA21" s="29"/>
-      <c r="AB21" s="29"/>
-      <c r="AC21" s="29"/>
-      <c r="AD21" s="29"/>
+      <c r="F21" s="28"/>
+      <c r="G21" s="28"/>
+      <c r="H21" s="28"/>
+      <c r="I21" s="28"/>
+      <c r="J21" s="28"/>
+      <c r="K21" s="28"/>
+      <c r="L21" s="28"/>
+      <c r="M21" s="28"/>
+      <c r="N21" s="28"/>
+      <c r="O21" s="28"/>
+      <c r="P21" s="28"/>
+      <c r="Q21" s="28"/>
+      <c r="R21" s="28"/>
+      <c r="S21" s="28"/>
+      <c r="T21" s="28"/>
+      <c r="U21" s="28"/>
+      <c r="V21" s="28"/>
+      <c r="W21" s="28"/>
+      <c r="X21" s="28"/>
+      <c r="Y21" s="28"/>
+      <c r="Z21" s="28"/>
+      <c r="AA21" s="28"/>
+      <c r="AB21" s="28"/>
+      <c r="AC21" s="28"/>
+      <c r="AD21" s="28"/>
       <c r="AE21" s="0" t="s">
         <v>400</v>
       </c>
@@ -7022,10 +7022,10 @@
         <v>7</v>
       </c>
       <c r="B22" s="25" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="C22" s="26" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D22" s="26">
         <f>COUNTA(F22:AD22)</f>
@@ -7067,13 +7067,13 @@
     </row>
     <row r="23" spans="1:32" customHeight="1">
       <c r="A23" s="26" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B23" s="25" t="s">
-        <v>374</v>
+        <v>39</v>
       </c>
       <c r="C23" s="26" t="n">
-        <v>30</v>
+        <v>215</v>
       </c>
       <c r="D23" s="26">
         <f>COUNTA(F23:AD23)</f>
@@ -7114,46 +7114,46 @@
       </c>
     </row>
     <row r="24" spans="1:32" customHeight="1">
-      <c r="A24" s="26" t="n">
-        <v>7</v>
-      </c>
-      <c r="B24" s="25" t="s">
-        <v>375</v>
-      </c>
-      <c r="C24" s="26" t="n">
-        <v>30</v>
-      </c>
-      <c r="D24" s="26">
+      <c r="A24" s="30" t="n">
+        <v>6</v>
+      </c>
+      <c r="B24" s="29" t="s">
+        <v>377</v>
+      </c>
+      <c r="C24" s="30" t="n">
+        <v>65</v>
+      </c>
+      <c r="D24" s="30">
         <f>COUNTA(F24:AD24)</f>
       </c>
-      <c r="E24" s="26">
+      <c r="E24" s="30">
         <f>C24*D24</f>
       </c>
-      <c r="F24" s="28"/>
-      <c r="G24" s="28"/>
-      <c r="H24" s="28"/>
-      <c r="I24" s="28"/>
-      <c r="J24" s="28"/>
-      <c r="K24" s="28"/>
-      <c r="L24" s="28"/>
-      <c r="M24" s="28"/>
-      <c r="N24" s="28"/>
-      <c r="O24" s="28"/>
-      <c r="P24" s="28"/>
-      <c r="Q24" s="28"/>
-      <c r="R24" s="28"/>
-      <c r="S24" s="28"/>
-      <c r="T24" s="28"/>
-      <c r="U24" s="28"/>
-      <c r="V24" s="28"/>
-      <c r="W24" s="28"/>
-      <c r="X24" s="28"/>
-      <c r="Y24" s="28"/>
-      <c r="Z24" s="28"/>
-      <c r="AA24" s="28"/>
-      <c r="AB24" s="28"/>
-      <c r="AC24" s="28"/>
-      <c r="AD24" s="28"/>
+      <c r="F24" s="29"/>
+      <c r="G24" s="29"/>
+      <c r="H24" s="29"/>
+      <c r="I24" s="29"/>
+      <c r="J24" s="29"/>
+      <c r="K24" s="29"/>
+      <c r="L24" s="29"/>
+      <c r="M24" s="29"/>
+      <c r="N24" s="29"/>
+      <c r="O24" s="29"/>
+      <c r="P24" s="29"/>
+      <c r="Q24" s="29"/>
+      <c r="R24" s="29"/>
+      <c r="S24" s="29"/>
+      <c r="T24" s="29"/>
+      <c r="U24" s="29"/>
+      <c r="V24" s="29"/>
+      <c r="W24" s="29"/>
+      <c r="X24" s="29"/>
+      <c r="Y24" s="29"/>
+      <c r="Z24" s="29"/>
+      <c r="AA24" s="29"/>
+      <c r="AB24" s="29"/>
+      <c r="AC24" s="29"/>
+      <c r="AD24" s="29"/>
       <c r="AE24" s="0" t="s">
         <v>403</v>
       </c>
@@ -7162,46 +7162,46 @@
       </c>
     </row>
     <row r="25" spans="1:32" customHeight="1">
-      <c r="A25" s="26" t="n">
-        <v>7</v>
-      </c>
-      <c r="B25" s="25" t="s">
-        <v>376</v>
-      </c>
-      <c r="C25" s="26" t="n">
+      <c r="A25" s="30" t="n">
+        <v>6</v>
+      </c>
+      <c r="B25" s="29" t="s">
+        <v>378</v>
+      </c>
+      <c r="C25" s="30" t="n">
         <v>30</v>
       </c>
-      <c r="D25" s="26">
+      <c r="D25" s="30">
         <f>COUNTA(F25:AD25)</f>
       </c>
-      <c r="E25" s="26">
+      <c r="E25" s="30">
         <f>C25*D25</f>
       </c>
-      <c r="F25" s="28"/>
-      <c r="G25" s="28"/>
-      <c r="H25" s="28"/>
-      <c r="I25" s="28"/>
-      <c r="J25" s="28"/>
-      <c r="K25" s="28"/>
-      <c r="L25" s="28"/>
-      <c r="M25" s="28"/>
-      <c r="N25" s="28"/>
-      <c r="O25" s="28"/>
-      <c r="P25" s="28"/>
-      <c r="Q25" s="28"/>
-      <c r="R25" s="28"/>
-      <c r="S25" s="28"/>
-      <c r="T25" s="28"/>
-      <c r="U25" s="28"/>
-      <c r="V25" s="28"/>
-      <c r="W25" s="28"/>
-      <c r="X25" s="28"/>
-      <c r="Y25" s="28"/>
-      <c r="Z25" s="28"/>
-      <c r="AA25" s="28"/>
-      <c r="AB25" s="28"/>
-      <c r="AC25" s="28"/>
-      <c r="AD25" s="28"/>
+      <c r="F25" s="29"/>
+      <c r="G25" s="29"/>
+      <c r="H25" s="29"/>
+      <c r="I25" s="29"/>
+      <c r="J25" s="29"/>
+      <c r="K25" s="29"/>
+      <c r="L25" s="29"/>
+      <c r="M25" s="29"/>
+      <c r="N25" s="29"/>
+      <c r="O25" s="29"/>
+      <c r="P25" s="29"/>
+      <c r="Q25" s="29"/>
+      <c r="R25" s="29"/>
+      <c r="S25" s="29"/>
+      <c r="T25" s="29"/>
+      <c r="U25" s="29"/>
+      <c r="V25" s="29"/>
+      <c r="W25" s="29"/>
+      <c r="X25" s="29"/>
+      <c r="Y25" s="29"/>
+      <c r="Z25" s="29"/>
+      <c r="AA25" s="29"/>
+      <c r="AB25" s="29"/>
+      <c r="AC25" s="29"/>
+      <c r="AD25" s="29"/>
       <c r="AE25" s="0" t="s">
         <v>404</v>
       </c>
@@ -7211,13 +7211,13 @@
     </row>
     <row r="26" spans="1:32" customHeight="1">
       <c r="A26" s="26" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B26" s="25" t="s">
-        <v>377</v>
+        <v>46</v>
       </c>
       <c r="C26" s="26" t="n">
-        <v>30</v>
+        <v>110</v>
       </c>
       <c r="D26" s="26">
         <f>COUNTA(F26:AD26)</f>
@@ -7258,46 +7258,46 @@
       </c>
     </row>
     <row r="27" spans="1:32" customHeight="1">
-      <c r="A27" s="26" t="n">
-        <v>7</v>
-      </c>
-      <c r="B27" s="25" t="s">
-        <v>378</v>
-      </c>
-      <c r="C27" s="26" t="n">
-        <v>30</v>
-      </c>
-      <c r="D27" s="26">
+      <c r="A27" s="30" t="n">
+        <v>6</v>
+      </c>
+      <c r="B27" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="C27" s="30" t="n">
+        <v>100</v>
+      </c>
+      <c r="D27" s="30">
         <f>COUNTA(F27:AD27)</f>
       </c>
-      <c r="E27" s="26">
+      <c r="E27" s="30">
         <f>C27*D27</f>
       </c>
-      <c r="F27" s="28"/>
-      <c r="G27" s="28"/>
-      <c r="H27" s="28"/>
-      <c r="I27" s="28"/>
-      <c r="J27" s="28"/>
-      <c r="K27" s="28"/>
-      <c r="L27" s="28"/>
-      <c r="M27" s="28"/>
-      <c r="N27" s="28"/>
-      <c r="O27" s="28"/>
-      <c r="P27" s="28"/>
-      <c r="Q27" s="28"/>
-      <c r="R27" s="28"/>
-      <c r="S27" s="28"/>
-      <c r="T27" s="28"/>
-      <c r="U27" s="28"/>
-      <c r="V27" s="28"/>
-      <c r="W27" s="28"/>
-      <c r="X27" s="28"/>
-      <c r="Y27" s="28"/>
-      <c r="Z27" s="28"/>
-      <c r="AA27" s="28"/>
-      <c r="AB27" s="28"/>
-      <c r="AC27" s="28"/>
-      <c r="AD27" s="28"/>
+      <c r="F27" s="29"/>
+      <c r="G27" s="29"/>
+      <c r="H27" s="29"/>
+      <c r="I27" s="29"/>
+      <c r="J27" s="29"/>
+      <c r="K27" s="29"/>
+      <c r="L27" s="29"/>
+      <c r="M27" s="29"/>
+      <c r="N27" s="29"/>
+      <c r="O27" s="29"/>
+      <c r="P27" s="29"/>
+      <c r="Q27" s="29"/>
+      <c r="R27" s="29"/>
+      <c r="S27" s="29"/>
+      <c r="T27" s="29"/>
+      <c r="U27" s="29"/>
+      <c r="V27" s="29"/>
+      <c r="W27" s="29"/>
+      <c r="X27" s="29"/>
+      <c r="Y27" s="29"/>
+      <c r="Z27" s="29"/>
+      <c r="AA27" s="29"/>
+      <c r="AB27" s="29"/>
+      <c r="AC27" s="29"/>
+      <c r="AD27" s="29"/>
       <c r="AE27" s="0" t="s">
         <v>406</v>
       </c>
@@ -7306,46 +7306,46 @@
       </c>
     </row>
     <row r="28" spans="1:32" customHeight="1">
-      <c r="A28" s="26" t="n">
-        <v>7</v>
-      </c>
-      <c r="B28" s="25" t="s">
+      <c r="A28" s="30" t="n">
+        <v>6</v>
+      </c>
+      <c r="B28" s="29" t="s">
         <v>379</v>
       </c>
-      <c r="C28" s="26" t="n">
-        <v>20</v>
-      </c>
-      <c r="D28" s="26">
+      <c r="C28" s="30" t="n">
+        <v>45</v>
+      </c>
+      <c r="D28" s="30">
         <f>COUNTA(F28:AD28)</f>
       </c>
-      <c r="E28" s="26">
+      <c r="E28" s="30">
         <f>C28*D28</f>
       </c>
-      <c r="F28" s="28"/>
-      <c r="G28" s="28"/>
-      <c r="H28" s="28"/>
-      <c r="I28" s="28"/>
-      <c r="J28" s="28"/>
-      <c r="K28" s="28"/>
-      <c r="L28" s="28"/>
-      <c r="M28" s="28"/>
-      <c r="N28" s="28"/>
-      <c r="O28" s="28"/>
-      <c r="P28" s="28"/>
-      <c r="Q28" s="28"/>
-      <c r="R28" s="28"/>
-      <c r="S28" s="28"/>
-      <c r="T28" s="28"/>
-      <c r="U28" s="28"/>
-      <c r="V28" s="28"/>
-      <c r="W28" s="28"/>
-      <c r="X28" s="28"/>
-      <c r="Y28" s="28"/>
-      <c r="Z28" s="28"/>
-      <c r="AA28" s="28"/>
-      <c r="AB28" s="28"/>
-      <c r="AC28" s="28"/>
-      <c r="AD28" s="28"/>
+      <c r="F28" s="29"/>
+      <c r="G28" s="29"/>
+      <c r="H28" s="29"/>
+      <c r="I28" s="29"/>
+      <c r="J28" s="29"/>
+      <c r="K28" s="29"/>
+      <c r="L28" s="29"/>
+      <c r="M28" s="29"/>
+      <c r="N28" s="29"/>
+      <c r="O28" s="29"/>
+      <c r="P28" s="29"/>
+      <c r="Q28" s="29"/>
+      <c r="R28" s="29"/>
+      <c r="S28" s="29"/>
+      <c r="T28" s="29"/>
+      <c r="U28" s="29"/>
+      <c r="V28" s="29"/>
+      <c r="W28" s="29"/>
+      <c r="X28" s="29"/>
+      <c r="Y28" s="29"/>
+      <c r="Z28" s="29"/>
+      <c r="AA28" s="29"/>
+      <c r="AB28" s="29"/>
+      <c r="AC28" s="29"/>
+      <c r="AD28" s="29"/>
       <c r="AE28" s="0" t="s">
         <v>407</v>
       </c>

--- a/lib/gen-server/port-battle.xlsx
+++ b/lib/gen-server/port-battle.xlsx
@@ -50,135 +50,135 @@
     <t>2. Enter player names</t>
   </si>
   <si>
+    <t>L’Océan</t>
+  </si>
+  <si>
+    <t>Santísima Trinidad</t>
+  </si>
+  <si>
+    <t>Victory</t>
+  </si>
+  <si>
+    <t>Christian</t>
+  </si>
+  <si>
+    <t>Le Bucentaure</t>
+  </si>
+  <si>
+    <t>St. Pavel</t>
+  </si>
+  <si>
+    <t>Admiraal de Ruyter</t>
+  </si>
+  <si>
+    <t>Implacable</t>
+  </si>
+  <si>
+    <t>Redoutable</t>
+  </si>
+  <si>
+    <t>Bellona</t>
+  </si>
+  <si>
+    <t>3rd Rate</t>
+  </si>
+  <si>
+    <t>Constitution</t>
+  </si>
+  <si>
+    <t>USS United States</t>
+  </si>
+  <si>
+    <t>Wasa</t>
+  </si>
+  <si>
+    <t>Agamemnon</t>
+  </si>
+  <si>
+    <t>Rättvisan</t>
+  </si>
+  <si>
+    <t>Leopard</t>
+  </si>
+  <si>
+    <t>Indefatigable</t>
+  </si>
+  <si>
+    <t>Ingermanland</t>
+  </si>
+  <si>
+    <t>Wapen von Hamburg</t>
+  </si>
+  <si>
+    <t>Endymion</t>
+  </si>
+  <si>
+    <t>Trincomalee</t>
+  </si>
+  <si>
+    <t>Diana</t>
+  </si>
+  <si>
+    <t>L’Hermione</t>
+  </si>
+  <si>
+    <t>Essex</t>
+  </si>
+  <si>
+    <t>Santa Cecilia</t>
+  </si>
+  <si>
     <t>La Belle-Poule</t>
   </si>
   <si>
-    <t>Bellona</t>
+    <t>Pirate Frigate</t>
+  </si>
+  <si>
+    <t>Frigate</t>
+  </si>
+  <si>
+    <t>Hulk Indiaman</t>
+  </si>
+  <si>
+    <t>Le Gros Ventre Refit</t>
+  </si>
+  <si>
+    <t>Indiaman</t>
+  </si>
+  <si>
+    <t>La Renommée</t>
+  </si>
+  <si>
+    <t>Le Gros Ventre</t>
+  </si>
+  <si>
+    <t>Surprise</t>
+  </si>
+  <si>
+    <t>Hercules</t>
+  </si>
+  <si>
+    <t>Cerberus</t>
+  </si>
+  <si>
+    <t>Pandora</t>
+  </si>
+  <si>
+    <t>Tutorial Cerberus</t>
+  </si>
+  <si>
+    <t>Niagara</t>
   </si>
   <si>
     <t>Mortar Brig</t>
   </si>
   <si>
-    <t>Le Bucentaure</t>
-  </si>
-  <si>
-    <t>Cerberus</t>
-  </si>
-  <si>
-    <t>USS United States</t>
-  </si>
-  <si>
-    <t>Essex</t>
-  </si>
-  <si>
-    <t>Frigate</t>
-  </si>
-  <si>
-    <t>Niagara</t>
-  </si>
-  <si>
-    <t>St. Pavel</t>
-  </si>
-  <si>
-    <t>Pirate Frigate</t>
+    <t>Le Requin</t>
   </si>
   <si>
     <t>Rattlesnake Heavy</t>
   </si>
   <si>
-    <t>La Renommée</t>
-  </si>
-  <si>
-    <t>Santísima Trinidad</t>
-  </si>
-  <si>
-    <t>Surprise</t>
-  </si>
-  <si>
-    <t>Trincomalee</t>
-  </si>
-  <si>
-    <t>Victory</t>
-  </si>
-  <si>
-    <t>3rd Rate</t>
-  </si>
-  <si>
-    <t>Ingermanland</t>
-  </si>
-  <si>
-    <t>Le Gros Ventre</t>
-  </si>
-  <si>
-    <t>Indiaman</t>
-  </si>
-  <si>
-    <t>Santa Cecilia</t>
-  </si>
-  <si>
-    <t>L’Océan</t>
-  </si>
-  <si>
-    <t>Agamemnon</t>
-  </si>
-  <si>
-    <t>Endymion</t>
-  </si>
-  <si>
-    <t>Indefatigable</t>
-  </si>
-  <si>
-    <t>Wapen von Hamburg</t>
-  </si>
-  <si>
-    <t>L’Hermione</t>
-  </si>
-  <si>
-    <t>Pandora</t>
-  </si>
-  <si>
-    <t>Wasa</t>
-  </si>
-  <si>
-    <t>Le Gros Ventre Refit</t>
-  </si>
-  <si>
-    <t>Christian</t>
-  </si>
-  <si>
-    <t>Diana</t>
-  </si>
-  <si>
-    <t>Constitution</t>
-  </si>
-  <si>
-    <t>Hercules</t>
-  </si>
-  <si>
-    <t>Le Requin</t>
-  </si>
-  <si>
-    <t>Rättvisan</t>
-  </si>
-  <si>
-    <t>Leopard</t>
-  </si>
-  <si>
-    <t>Hulk Indiaman</t>
-  </si>
-  <si>
-    <t>Redoutable</t>
-  </si>
-  <si>
-    <t>Implacable</t>
-  </si>
-  <si>
-    <t>Admiraal de Ruyter</t>
-  </si>
-  <si>
-    <t>Tutorial Cerberus</t>
-  </si>
-  <si>
     <t>Aguadilla</t>
   </si>
   <si>
@@ -1109,49 +1109,49 @@
     <t>X</t>
   </si>
   <si>
+    <t>Prince de Neufchâtel</t>
+  </si>
+  <si>
+    <t>Mercury</t>
+  </si>
+  <si>
+    <t>Navy Brig</t>
+  </si>
+  <si>
+    <t>Rattlesnake</t>
+  </si>
+  <si>
+    <t>Snow</t>
+  </si>
+  <si>
     <t>Brig</t>
   </si>
   <si>
+    <t>Tutorial Trader</t>
+  </si>
+  <si>
+    <t>Tutorial Brig</t>
+  </si>
+  <si>
+    <t>Pickle</t>
+  </si>
+  <si>
     <t>Cutter</t>
   </si>
   <si>
+    <t>GunBoat</t>
+  </si>
+  <si>
+    <t>Privateer</t>
+  </si>
+  <si>
+    <t>Yacht</t>
+  </si>
+  <si>
+    <t>Yacht Silver</t>
+  </si>
+  <si>
     <t>Lynx</t>
-  </si>
-  <si>
-    <t>Mercury</t>
-  </si>
-  <si>
-    <t>Navy Brig</t>
-  </si>
-  <si>
-    <t>Pickle</t>
-  </si>
-  <si>
-    <t>Privateer</t>
-  </si>
-  <si>
-    <t>Rattlesnake</t>
-  </si>
-  <si>
-    <t>Snow</t>
-  </si>
-  <si>
-    <t>Yacht</t>
-  </si>
-  <si>
-    <t>Yacht Silver</t>
-  </si>
-  <si>
-    <t>GunBoat</t>
-  </si>
-  <si>
-    <t>Prince de Neufchâtel</t>
-  </si>
-  <si>
-    <t>Tutorial Brig</t>
-  </si>
-  <si>
-    <t>Tutorial Trader</t>
   </si>
   <si>
     <t>Ahumada</t>
@@ -1800,13 +1800,13 @@
     </row>
     <row r="5" spans="1:32" customHeight="1">
       <c r="A5" s="26" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B5" s="25" t="s">
         <v>12</v>
       </c>
       <c r="C5" s="26" t="n">
-        <v>180</v>
+        <v>900</v>
       </c>
       <c r="D5" s="26">
         <f>COUNTA(F5:AD5)</f>
@@ -1854,13 +1854,13 @@
     </row>
     <row r="6" spans="1:32" customHeight="1">
       <c r="A6" s="26" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B6" s="25" t="s">
         <v>13</v>
       </c>
       <c r="C6" s="26" t="n">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="D6" s="26">
         <f>COUNTA(F6:AD6)</f>
@@ -1907,46 +1907,46 @@
       </c>
     </row>
     <row r="7" spans="1:32" customHeight="1">
-      <c r="A7" s="30" t="n">
-        <v>6</v>
-      </c>
-      <c r="B7" s="29" t="s">
+      <c r="A7" s="26" t="n">
+        <v>1</v>
+      </c>
+      <c r="B7" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="30" t="n">
-        <v>80</v>
-      </c>
-      <c r="D7" s="30">
+      <c r="C7" s="26" t="n">
+        <v>800</v>
+      </c>
+      <c r="D7" s="26">
         <f>COUNTA(F7:AD7)</f>
       </c>
-      <c r="E7" s="30">
+      <c r="E7" s="26">
         <f>C7*D7</f>
       </c>
-      <c r="F7" s="29"/>
-      <c r="G7" s="29"/>
-      <c r="H7" s="29"/>
-      <c r="I7" s="29"/>
-      <c r="J7" s="29"/>
-      <c r="K7" s="29"/>
-      <c r="L7" s="29"/>
-      <c r="M7" s="29"/>
-      <c r="N7" s="29"/>
-      <c r="O7" s="29"/>
-      <c r="P7" s="29"/>
-      <c r="Q7" s="29"/>
-      <c r="R7" s="29"/>
-      <c r="S7" s="29"/>
-      <c r="T7" s="29"/>
-      <c r="U7" s="29"/>
-      <c r="V7" s="29"/>
-      <c r="W7" s="29"/>
-      <c r="X7" s="29"/>
-      <c r="Y7" s="29"/>
-      <c r="Z7" s="29"/>
-      <c r="AA7" s="29"/>
-      <c r="AB7" s="29"/>
-      <c r="AC7" s="29"/>
-      <c r="AD7" s="29"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="28"/>
+      <c r="H7" s="28"/>
+      <c r="I7" s="28"/>
+      <c r="J7" s="28"/>
+      <c r="K7" s="28"/>
+      <c r="L7" s="28"/>
+      <c r="M7" s="28"/>
+      <c r="N7" s="28"/>
+      <c r="O7" s="28"/>
+      <c r="P7" s="28"/>
+      <c r="Q7" s="28"/>
+      <c r="R7" s="28"/>
+      <c r="S7" s="28"/>
+      <c r="T7" s="28"/>
+      <c r="U7" s="28"/>
+      <c r="V7" s="28"/>
+      <c r="W7" s="28"/>
+      <c r="X7" s="28"/>
+      <c r="Y7" s="28"/>
+      <c r="Z7" s="28"/>
+      <c r="AA7" s="28"/>
+      <c r="AB7" s="28"/>
+      <c r="AC7" s="28"/>
+      <c r="AD7" s="28"/>
       <c r="AE7" s="0" t="s">
         <v>61</v>
       </c>
@@ -1962,7 +1962,7 @@
         <v>15</v>
       </c>
       <c r="C8" s="30" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="D8" s="30">
         <f>COUNTA(F8:AD8)</f>
@@ -2003,46 +2003,46 @@
       </c>
     </row>
     <row r="9" spans="1:32" customHeight="1">
-      <c r="A9" s="26" t="n">
-        <v>5</v>
-      </c>
-      <c r="B9" s="25" t="s">
+      <c r="A9" s="30" t="n">
+        <v>2</v>
+      </c>
+      <c r="B9" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="26" t="n">
-        <v>100</v>
-      </c>
-      <c r="D9" s="26">
+      <c r="C9" s="30" t="n">
+        <v>550</v>
+      </c>
+      <c r="D9" s="30">
         <f>COUNTA(F9:AD9)</f>
       </c>
-      <c r="E9" s="26">
+      <c r="E9" s="30">
         <f>C9*D9</f>
       </c>
-      <c r="F9" s="28"/>
-      <c r="G9" s="28"/>
-      <c r="H9" s="28"/>
-      <c r="I9" s="28"/>
-      <c r="J9" s="28"/>
-      <c r="K9" s="28"/>
-      <c r="L9" s="28"/>
-      <c r="M9" s="28"/>
-      <c r="N9" s="28"/>
-      <c r="O9" s="28"/>
-      <c r="P9" s="28"/>
-      <c r="Q9" s="28"/>
-      <c r="R9" s="28"/>
-      <c r="S9" s="28"/>
-      <c r="T9" s="28"/>
-      <c r="U9" s="28"/>
-      <c r="V9" s="28"/>
-      <c r="W9" s="28"/>
-      <c r="X9" s="28"/>
-      <c r="Y9" s="28"/>
-      <c r="Z9" s="28"/>
-      <c r="AA9" s="28"/>
-      <c r="AB9" s="28"/>
-      <c r="AC9" s="28"/>
-      <c r="AD9" s="28"/>
+      <c r="F9" s="29"/>
+      <c r="G9" s="29"/>
+      <c r="H9" s="29"/>
+      <c r="I9" s="29"/>
+      <c r="J9" s="29"/>
+      <c r="K9" s="29"/>
+      <c r="L9" s="29"/>
+      <c r="M9" s="29"/>
+      <c r="N9" s="29"/>
+      <c r="O9" s="29"/>
+      <c r="P9" s="29"/>
+      <c r="Q9" s="29"/>
+      <c r="R9" s="29"/>
+      <c r="S9" s="29"/>
+      <c r="T9" s="29"/>
+      <c r="U9" s="29"/>
+      <c r="V9" s="29"/>
+      <c r="W9" s="29"/>
+      <c r="X9" s="29"/>
+      <c r="Y9" s="29"/>
+      <c r="Z9" s="29"/>
+      <c r="AA9" s="29"/>
+      <c r="AB9" s="29"/>
+      <c r="AC9" s="29"/>
+      <c r="AD9" s="29"/>
       <c r="AE9" s="0" t="s">
         <v>63</v>
       </c>
@@ -2051,46 +2051,46 @@
       </c>
     </row>
     <row r="10" spans="1:32" customHeight="1">
-      <c r="A10" s="26" t="n">
-        <v>3</v>
-      </c>
-      <c r="B10" s="25" t="s">
+      <c r="A10" s="30" t="n">
+        <v>2</v>
+      </c>
+      <c r="B10" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="26" t="n">
-        <v>400</v>
-      </c>
-      <c r="D10" s="26">
+      <c r="C10" s="30" t="n">
+        <v>540</v>
+      </c>
+      <c r="D10" s="30">
         <f>COUNTA(F10:AD10)</f>
       </c>
-      <c r="E10" s="26">
+      <c r="E10" s="30">
         <f>C10*D10</f>
       </c>
-      <c r="F10" s="28"/>
-      <c r="G10" s="28"/>
-      <c r="H10" s="28"/>
-      <c r="I10" s="28"/>
-      <c r="J10" s="28"/>
-      <c r="K10" s="28"/>
-      <c r="L10" s="28"/>
-      <c r="M10" s="28"/>
-      <c r="N10" s="28"/>
-      <c r="O10" s="28"/>
-      <c r="P10" s="28"/>
-      <c r="Q10" s="28"/>
-      <c r="R10" s="28"/>
-      <c r="S10" s="28"/>
-      <c r="T10" s="28"/>
-      <c r="U10" s="28"/>
-      <c r="V10" s="28"/>
-      <c r="W10" s="28"/>
-      <c r="X10" s="28"/>
-      <c r="Y10" s="28"/>
-      <c r="Z10" s="28"/>
-      <c r="AA10" s="28"/>
-      <c r="AB10" s="28"/>
-      <c r="AC10" s="28"/>
-      <c r="AD10" s="28"/>
+      <c r="F10" s="29"/>
+      <c r="G10" s="29"/>
+      <c r="H10" s="29"/>
+      <c r="I10" s="29"/>
+      <c r="J10" s="29"/>
+      <c r="K10" s="29"/>
+      <c r="L10" s="29"/>
+      <c r="M10" s="29"/>
+      <c r="N10" s="29"/>
+      <c r="O10" s="29"/>
+      <c r="P10" s="29"/>
+      <c r="Q10" s="29"/>
+      <c r="R10" s="29"/>
+      <c r="S10" s="29"/>
+      <c r="T10" s="29"/>
+      <c r="U10" s="29"/>
+      <c r="V10" s="29"/>
+      <c r="W10" s="29"/>
+      <c r="X10" s="29"/>
+      <c r="Y10" s="29"/>
+      <c r="Z10" s="29"/>
+      <c r="AA10" s="29"/>
+      <c r="AB10" s="29"/>
+      <c r="AC10" s="29"/>
+      <c r="AD10" s="29"/>
       <c r="AE10" s="0" t="s">
         <v>64</v>
       </c>
@@ -2100,13 +2100,13 @@
     </row>
     <row r="11" spans="1:32" customHeight="1">
       <c r="A11" s="26" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B11" s="25" t="s">
         <v>18</v>
       </c>
       <c r="C11" s="26" t="n">
-        <v>200</v>
+        <v>550</v>
       </c>
       <c r="D11" s="26">
         <f>COUNTA(F11:AD11)</f>
@@ -2148,13 +2148,13 @@
     </row>
     <row r="12" spans="1:32" customHeight="1">
       <c r="A12" s="26" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B12" s="25" t="s">
         <v>19</v>
       </c>
       <c r="C12" s="26" t="n">
-        <v>160</v>
+        <v>550</v>
       </c>
       <c r="D12" s="26">
         <f>COUNTA(F12:AD12)</f>
@@ -2195,46 +2195,46 @@
       </c>
     </row>
     <row r="13" spans="1:32" customHeight="1">
-      <c r="A13" s="30" t="n">
-        <v>6</v>
-      </c>
-      <c r="B13" s="29" t="s">
+      <c r="A13" s="26" t="n">
+        <v>3</v>
+      </c>
+      <c r="B13" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="30" t="n">
-        <v>90</v>
-      </c>
-      <c r="D13" s="30">
+      <c r="C13" s="26" t="n">
+        <v>550</v>
+      </c>
+      <c r="D13" s="26">
         <f>COUNTA(F13:AD13)</f>
       </c>
-      <c r="E13" s="30">
+      <c r="E13" s="26">
         <f>C13*D13</f>
       </c>
-      <c r="F13" s="29"/>
-      <c r="G13" s="29"/>
-      <c r="H13" s="29"/>
-      <c r="I13" s="29"/>
-      <c r="J13" s="29"/>
-      <c r="K13" s="29"/>
-      <c r="L13" s="29"/>
-      <c r="M13" s="29"/>
-      <c r="N13" s="29"/>
-      <c r="O13" s="29"/>
-      <c r="P13" s="29"/>
-      <c r="Q13" s="29"/>
-      <c r="R13" s="29"/>
-      <c r="S13" s="29"/>
-      <c r="T13" s="29"/>
-      <c r="U13" s="29"/>
-      <c r="V13" s="29"/>
-      <c r="W13" s="29"/>
-      <c r="X13" s="29"/>
-      <c r="Y13" s="29"/>
-      <c r="Z13" s="29"/>
-      <c r="AA13" s="29"/>
-      <c r="AB13" s="29"/>
-      <c r="AC13" s="29"/>
-      <c r="AD13" s="29"/>
+      <c r="F13" s="28"/>
+      <c r="G13" s="28"/>
+      <c r="H13" s="28"/>
+      <c r="I13" s="28"/>
+      <c r="J13" s="28"/>
+      <c r="K13" s="28"/>
+      <c r="L13" s="28"/>
+      <c r="M13" s="28"/>
+      <c r="N13" s="28"/>
+      <c r="O13" s="28"/>
+      <c r="P13" s="28"/>
+      <c r="Q13" s="28"/>
+      <c r="R13" s="28"/>
+      <c r="S13" s="28"/>
+      <c r="T13" s="28"/>
+      <c r="U13" s="28"/>
+      <c r="V13" s="28"/>
+      <c r="W13" s="28"/>
+      <c r="X13" s="28"/>
+      <c r="Y13" s="28"/>
+      <c r="Z13" s="28"/>
+      <c r="AA13" s="28"/>
+      <c r="AB13" s="28"/>
+      <c r="AC13" s="28"/>
+      <c r="AD13" s="28"/>
       <c r="AE13" s="0" t="s">
         <v>67</v>
       </c>
@@ -2243,46 +2243,46 @@
       </c>
     </row>
     <row r="14" spans="1:32" customHeight="1">
-      <c r="A14" s="30" t="n">
-        <v>2</v>
-      </c>
-      <c r="B14" s="29" t="s">
+      <c r="A14" s="26" t="n">
+        <v>3</v>
+      </c>
+      <c r="B14" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="C14" s="30" t="n">
-        <v>540</v>
-      </c>
-      <c r="D14" s="30">
+      <c r="C14" s="26" t="n">
+        <v>500</v>
+      </c>
+      <c r="D14" s="26">
         <f>COUNTA(F14:AD14)</f>
       </c>
-      <c r="E14" s="30">
+      <c r="E14" s="26">
         <f>C14*D14</f>
       </c>
-      <c r="F14" s="29"/>
-      <c r="G14" s="29"/>
-      <c r="H14" s="29"/>
-      <c r="I14" s="29"/>
-      <c r="J14" s="29"/>
-      <c r="K14" s="29"/>
-      <c r="L14" s="29"/>
-      <c r="M14" s="29"/>
-      <c r="N14" s="29"/>
-      <c r="O14" s="29"/>
-      <c r="P14" s="29"/>
-      <c r="Q14" s="29"/>
-      <c r="R14" s="29"/>
-      <c r="S14" s="29"/>
-      <c r="T14" s="29"/>
-      <c r="U14" s="29"/>
-      <c r="V14" s="29"/>
-      <c r="W14" s="29"/>
-      <c r="X14" s="29"/>
-      <c r="Y14" s="29"/>
-      <c r="Z14" s="29"/>
-      <c r="AA14" s="29"/>
-      <c r="AB14" s="29"/>
-      <c r="AC14" s="29"/>
-      <c r="AD14" s="29"/>
+      <c r="F14" s="28"/>
+      <c r="G14" s="28"/>
+      <c r="H14" s="28"/>
+      <c r="I14" s="28"/>
+      <c r="J14" s="28"/>
+      <c r="K14" s="28"/>
+      <c r="L14" s="28"/>
+      <c r="M14" s="28"/>
+      <c r="N14" s="28"/>
+      <c r="O14" s="28"/>
+      <c r="P14" s="28"/>
+      <c r="Q14" s="28"/>
+      <c r="R14" s="28"/>
+      <c r="S14" s="28"/>
+      <c r="T14" s="28"/>
+      <c r="U14" s="28"/>
+      <c r="V14" s="28"/>
+      <c r="W14" s="28"/>
+      <c r="X14" s="28"/>
+      <c r="Y14" s="28"/>
+      <c r="Z14" s="28"/>
+      <c r="AA14" s="28"/>
+      <c r="AB14" s="28"/>
+      <c r="AC14" s="28"/>
+      <c r="AD14" s="28"/>
       <c r="AE14" s="0" t="s">
         <v>68</v>
       </c>
@@ -2292,13 +2292,13 @@
     </row>
     <row r="15" spans="1:32" customHeight="1">
       <c r="A15" s="26" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B15" s="25" t="s">
         <v>22</v>
       </c>
       <c r="C15" s="26" t="n">
-        <v>180</v>
+        <v>490</v>
       </c>
       <c r="D15" s="26">
         <f>COUNTA(F15:AD15)</f>
@@ -2339,46 +2339,46 @@
       </c>
     </row>
     <row r="16" spans="1:32" customHeight="1">
-      <c r="A16" s="30" t="n">
-        <v>6</v>
-      </c>
-      <c r="B16" s="29" t="s">
+      <c r="A16" s="26" t="n">
+        <v>3</v>
+      </c>
+      <c r="B16" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="C16" s="30" t="n">
-        <v>100</v>
-      </c>
-      <c r="D16" s="30">
+      <c r="C16" s="26" t="n">
+        <v>400</v>
+      </c>
+      <c r="D16" s="26">
         <f>COUNTA(F16:AD16)</f>
       </c>
-      <c r="E16" s="30">
+      <c r="E16" s="26">
         <f>C16*D16</f>
       </c>
-      <c r="F16" s="29"/>
-      <c r="G16" s="29"/>
-      <c r="H16" s="29"/>
-      <c r="I16" s="29"/>
-      <c r="J16" s="29"/>
-      <c r="K16" s="29"/>
-      <c r="L16" s="29"/>
-      <c r="M16" s="29"/>
-      <c r="N16" s="29"/>
-      <c r="O16" s="29"/>
-      <c r="P16" s="29"/>
-      <c r="Q16" s="29"/>
-      <c r="R16" s="29"/>
-      <c r="S16" s="29"/>
-      <c r="T16" s="29"/>
-      <c r="U16" s="29"/>
-      <c r="V16" s="29"/>
-      <c r="W16" s="29"/>
-      <c r="X16" s="29"/>
-      <c r="Y16" s="29"/>
-      <c r="Z16" s="29"/>
-      <c r="AA16" s="29"/>
-      <c r="AB16" s="29"/>
-      <c r="AC16" s="29"/>
-      <c r="AD16" s="29"/>
+      <c r="F16" s="28"/>
+      <c r="G16" s="28"/>
+      <c r="H16" s="28"/>
+      <c r="I16" s="28"/>
+      <c r="J16" s="28"/>
+      <c r="K16" s="28"/>
+      <c r="L16" s="28"/>
+      <c r="M16" s="28"/>
+      <c r="N16" s="28"/>
+      <c r="O16" s="28"/>
+      <c r="P16" s="28"/>
+      <c r="Q16" s="28"/>
+      <c r="R16" s="28"/>
+      <c r="S16" s="28"/>
+      <c r="T16" s="28"/>
+      <c r="U16" s="28"/>
+      <c r="V16" s="28"/>
+      <c r="W16" s="28"/>
+      <c r="X16" s="28"/>
+      <c r="Y16" s="28"/>
+      <c r="Z16" s="28"/>
+      <c r="AA16" s="28"/>
+      <c r="AB16" s="28"/>
+      <c r="AC16" s="28"/>
+      <c r="AD16" s="28"/>
       <c r="AE16" s="0" t="s">
         <v>70</v>
       </c>
@@ -2388,13 +2388,13 @@
     </row>
     <row r="17" spans="1:32" customHeight="1">
       <c r="A17" s="26" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B17" s="25" t="s">
         <v>24</v>
       </c>
       <c r="C17" s="26" t="n">
-        <v>120</v>
+        <v>400</v>
       </c>
       <c r="D17" s="26">
         <f>COUNTA(F17:AD17)</f>
@@ -2436,13 +2436,13 @@
     </row>
     <row r="18" spans="1:32" customHeight="1">
       <c r="A18" s="26" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B18" s="25" t="s">
         <v>25</v>
       </c>
       <c r="C18" s="26" t="n">
-        <v>900</v>
+        <v>400</v>
       </c>
       <c r="D18" s="26">
         <f>COUNTA(F18:AD18)</f>
@@ -2483,46 +2483,46 @@
       </c>
     </row>
     <row r="19" spans="1:32" customHeight="1">
-      <c r="A19" s="26" t="n">
-        <v>5</v>
-      </c>
-      <c r="B19" s="25" t="s">
+      <c r="A19" s="30" t="n">
+        <v>4</v>
+      </c>
+      <c r="B19" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="C19" s="26" t="n">
-        <v>120</v>
-      </c>
-      <c r="D19" s="26">
+      <c r="C19" s="30" t="n">
+        <v>340</v>
+      </c>
+      <c r="D19" s="30">
         <f>COUNTA(F19:AD19)</f>
       </c>
-      <c r="E19" s="26">
+      <c r="E19" s="30">
         <f>C19*D19</f>
       </c>
-      <c r="F19" s="28"/>
-      <c r="G19" s="28"/>
-      <c r="H19" s="28"/>
-      <c r="I19" s="28"/>
-      <c r="J19" s="28"/>
-      <c r="K19" s="28"/>
-      <c r="L19" s="28"/>
-      <c r="M19" s="28"/>
-      <c r="N19" s="28"/>
-      <c r="O19" s="28"/>
-      <c r="P19" s="28"/>
-      <c r="Q19" s="28"/>
-      <c r="R19" s="28"/>
-      <c r="S19" s="28"/>
-      <c r="T19" s="28"/>
-      <c r="U19" s="28"/>
-      <c r="V19" s="28"/>
-      <c r="W19" s="28"/>
-      <c r="X19" s="28"/>
-      <c r="Y19" s="28"/>
-      <c r="Z19" s="28"/>
-      <c r="AA19" s="28"/>
-      <c r="AB19" s="28"/>
-      <c r="AC19" s="28"/>
-      <c r="AD19" s="28"/>
+      <c r="F19" s="29"/>
+      <c r="G19" s="29"/>
+      <c r="H19" s="29"/>
+      <c r="I19" s="29"/>
+      <c r="J19" s="29"/>
+      <c r="K19" s="29"/>
+      <c r="L19" s="29"/>
+      <c r="M19" s="29"/>
+      <c r="N19" s="29"/>
+      <c r="O19" s="29"/>
+      <c r="P19" s="29"/>
+      <c r="Q19" s="29"/>
+      <c r="R19" s="29"/>
+      <c r="S19" s="29"/>
+      <c r="T19" s="29"/>
+      <c r="U19" s="29"/>
+      <c r="V19" s="29"/>
+      <c r="W19" s="29"/>
+      <c r="X19" s="29"/>
+      <c r="Y19" s="29"/>
+      <c r="Z19" s="29"/>
+      <c r="AA19" s="29"/>
+      <c r="AB19" s="29"/>
+      <c r="AC19" s="29"/>
+      <c r="AD19" s="29"/>
       <c r="AE19" s="0" t="s">
         <v>73</v>
       </c>
@@ -2531,46 +2531,46 @@
       </c>
     </row>
     <row r="20" spans="1:32" customHeight="1">
-      <c r="A20" s="26" t="n">
-        <v>5</v>
-      </c>
-      <c r="B20" s="25" t="s">
+      <c r="A20" s="30" t="n">
+        <v>4</v>
+      </c>
+      <c r="B20" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="C20" s="26" t="n">
-        <v>260</v>
-      </c>
-      <c r="D20" s="26">
+      <c r="C20" s="30" t="n">
+        <v>340</v>
+      </c>
+      <c r="D20" s="30">
         <f>COUNTA(F20:AD20)</f>
       </c>
-      <c r="E20" s="26">
+      <c r="E20" s="30">
         <f>C20*D20</f>
       </c>
-      <c r="F20" s="28"/>
-      <c r="G20" s="28"/>
-      <c r="H20" s="28"/>
-      <c r="I20" s="28"/>
-      <c r="J20" s="28"/>
-      <c r="K20" s="28"/>
-      <c r="L20" s="28"/>
-      <c r="M20" s="28"/>
-      <c r="N20" s="28"/>
-      <c r="O20" s="28"/>
-      <c r="P20" s="28"/>
-      <c r="Q20" s="28"/>
-      <c r="R20" s="28"/>
-      <c r="S20" s="28"/>
-      <c r="T20" s="28"/>
-      <c r="U20" s="28"/>
-      <c r="V20" s="28"/>
-      <c r="W20" s="28"/>
-      <c r="X20" s="28"/>
-      <c r="Y20" s="28"/>
-      <c r="Z20" s="28"/>
-      <c r="AA20" s="28"/>
-      <c r="AB20" s="28"/>
-      <c r="AC20" s="28"/>
-      <c r="AD20" s="28"/>
+      <c r="F20" s="29"/>
+      <c r="G20" s="29"/>
+      <c r="H20" s="29"/>
+      <c r="I20" s="29"/>
+      <c r="J20" s="29"/>
+      <c r="K20" s="29"/>
+      <c r="L20" s="29"/>
+      <c r="M20" s="29"/>
+      <c r="N20" s="29"/>
+      <c r="O20" s="29"/>
+      <c r="P20" s="29"/>
+      <c r="Q20" s="29"/>
+      <c r="R20" s="29"/>
+      <c r="S20" s="29"/>
+      <c r="T20" s="29"/>
+      <c r="U20" s="29"/>
+      <c r="V20" s="29"/>
+      <c r="W20" s="29"/>
+      <c r="X20" s="29"/>
+      <c r="Y20" s="29"/>
+      <c r="Z20" s="29"/>
+      <c r="AA20" s="29"/>
+      <c r="AB20" s="29"/>
+      <c r="AC20" s="29"/>
+      <c r="AD20" s="29"/>
       <c r="AE20" s="0" t="s">
         <v>74</v>
       </c>
@@ -2579,46 +2579,46 @@
       </c>
     </row>
     <row r="21" spans="1:32" customHeight="1">
-      <c r="A21" s="26" t="n">
-        <v>1</v>
-      </c>
-      <c r="B21" s="25" t="s">
+      <c r="A21" s="30" t="n">
+        <v>4</v>
+      </c>
+      <c r="B21" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="C21" s="26" t="n">
-        <v>800</v>
-      </c>
-      <c r="D21" s="26">
+      <c r="C21" s="30" t="n">
+        <v>330</v>
+      </c>
+      <c r="D21" s="30">
         <f>COUNTA(F21:AD21)</f>
       </c>
-      <c r="E21" s="26">
+      <c r="E21" s="30">
         <f>C21*D21</f>
       </c>
-      <c r="F21" s="28"/>
-      <c r="G21" s="28"/>
-      <c r="H21" s="28"/>
-      <c r="I21" s="28"/>
-      <c r="J21" s="28"/>
-      <c r="K21" s="28"/>
-      <c r="L21" s="28"/>
-      <c r="M21" s="28"/>
-      <c r="N21" s="28"/>
-      <c r="O21" s="28"/>
-      <c r="P21" s="28"/>
-      <c r="Q21" s="28"/>
-      <c r="R21" s="28"/>
-      <c r="S21" s="28"/>
-      <c r="T21" s="28"/>
-      <c r="U21" s="28"/>
-      <c r="V21" s="28"/>
-      <c r="W21" s="28"/>
-      <c r="X21" s="28"/>
-      <c r="Y21" s="28"/>
-      <c r="Z21" s="28"/>
-      <c r="AA21" s="28"/>
-      <c r="AB21" s="28"/>
-      <c r="AC21" s="28"/>
-      <c r="AD21" s="28"/>
+      <c r="F21" s="29"/>
+      <c r="G21" s="29"/>
+      <c r="H21" s="29"/>
+      <c r="I21" s="29"/>
+      <c r="J21" s="29"/>
+      <c r="K21" s="29"/>
+      <c r="L21" s="29"/>
+      <c r="M21" s="29"/>
+      <c r="N21" s="29"/>
+      <c r="O21" s="29"/>
+      <c r="P21" s="29"/>
+      <c r="Q21" s="29"/>
+      <c r="R21" s="29"/>
+      <c r="S21" s="29"/>
+      <c r="T21" s="29"/>
+      <c r="U21" s="29"/>
+      <c r="V21" s="29"/>
+      <c r="W21" s="29"/>
+      <c r="X21" s="29"/>
+      <c r="Y21" s="29"/>
+      <c r="Z21" s="29"/>
+      <c r="AA21" s="29"/>
+      <c r="AB21" s="29"/>
+      <c r="AC21" s="29"/>
+      <c r="AD21" s="29"/>
       <c r="AE21" s="0" t="s">
         <v>75</v>
       </c>
@@ -2627,46 +2627,46 @@
       </c>
     </row>
     <row r="22" spans="1:32" customHeight="1">
-      <c r="A22" s="26" t="n">
-        <v>3</v>
-      </c>
-      <c r="B22" s="25" t="s">
+      <c r="A22" s="30" t="n">
+        <v>4</v>
+      </c>
+      <c r="B22" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="C22" s="26" t="n">
-        <v>490</v>
-      </c>
-      <c r="D22" s="26">
+      <c r="C22" s="30" t="n">
+        <v>320</v>
+      </c>
+      <c r="D22" s="30">
         <f>COUNTA(F22:AD22)</f>
       </c>
-      <c r="E22" s="26">
+      <c r="E22" s="30">
         <f>C22*D22</f>
       </c>
-      <c r="F22" s="28"/>
-      <c r="G22" s="28"/>
-      <c r="H22" s="28"/>
-      <c r="I22" s="28"/>
-      <c r="J22" s="28"/>
-      <c r="K22" s="28"/>
-      <c r="L22" s="28"/>
-      <c r="M22" s="28"/>
-      <c r="N22" s="28"/>
-      <c r="O22" s="28"/>
-      <c r="P22" s="28"/>
-      <c r="Q22" s="28"/>
-      <c r="R22" s="28"/>
-      <c r="S22" s="28"/>
-      <c r="T22" s="28"/>
-      <c r="U22" s="28"/>
-      <c r="V22" s="28"/>
-      <c r="W22" s="28"/>
-      <c r="X22" s="28"/>
-      <c r="Y22" s="28"/>
-      <c r="Z22" s="28"/>
-      <c r="AA22" s="28"/>
-      <c r="AB22" s="28"/>
-      <c r="AC22" s="28"/>
-      <c r="AD22" s="28"/>
+      <c r="F22" s="29"/>
+      <c r="G22" s="29"/>
+      <c r="H22" s="29"/>
+      <c r="I22" s="29"/>
+      <c r="J22" s="29"/>
+      <c r="K22" s="29"/>
+      <c r="L22" s="29"/>
+      <c r="M22" s="29"/>
+      <c r="N22" s="29"/>
+      <c r="O22" s="29"/>
+      <c r="P22" s="29"/>
+      <c r="Q22" s="29"/>
+      <c r="R22" s="29"/>
+      <c r="S22" s="29"/>
+      <c r="T22" s="29"/>
+      <c r="U22" s="29"/>
+      <c r="V22" s="29"/>
+      <c r="W22" s="29"/>
+      <c r="X22" s="29"/>
+      <c r="Y22" s="29"/>
+      <c r="Z22" s="29"/>
+      <c r="AA22" s="29"/>
+      <c r="AB22" s="29"/>
+      <c r="AC22" s="29"/>
+      <c r="AD22" s="29"/>
       <c r="AE22" s="0" t="s">
         <v>76</v>
       </c>
@@ -2723,46 +2723,46 @@
       </c>
     </row>
     <row r="24" spans="1:32" customHeight="1">
-      <c r="A24" s="26" t="n">
-        <v>5</v>
-      </c>
-      <c r="B24" s="25" t="s">
+      <c r="A24" s="30" t="n">
+        <v>4</v>
+      </c>
+      <c r="B24" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="C24" s="26" t="n">
-        <v>120</v>
-      </c>
-      <c r="D24" s="26">
+      <c r="C24" s="30" t="n">
+        <v>290</v>
+      </c>
+      <c r="D24" s="30">
         <f>COUNTA(F24:AD24)</f>
       </c>
-      <c r="E24" s="26">
+      <c r="E24" s="30">
         <f>C24*D24</f>
       </c>
-      <c r="F24" s="28"/>
-      <c r="G24" s="28"/>
-      <c r="H24" s="28"/>
-      <c r="I24" s="28"/>
-      <c r="J24" s="28"/>
-      <c r="K24" s="28"/>
-      <c r="L24" s="28"/>
-      <c r="M24" s="28"/>
-      <c r="N24" s="28"/>
-      <c r="O24" s="28"/>
-      <c r="P24" s="28"/>
-      <c r="Q24" s="28"/>
-      <c r="R24" s="28"/>
-      <c r="S24" s="28"/>
-      <c r="T24" s="28"/>
-      <c r="U24" s="28"/>
-      <c r="V24" s="28"/>
-      <c r="W24" s="28"/>
-      <c r="X24" s="28"/>
-      <c r="Y24" s="28"/>
-      <c r="Z24" s="28"/>
-      <c r="AA24" s="28"/>
-      <c r="AB24" s="28"/>
-      <c r="AC24" s="28"/>
-      <c r="AD24" s="28"/>
+      <c r="F24" s="29"/>
+      <c r="G24" s="29"/>
+      <c r="H24" s="29"/>
+      <c r="I24" s="29"/>
+      <c r="J24" s="29"/>
+      <c r="K24" s="29"/>
+      <c r="L24" s="29"/>
+      <c r="M24" s="29"/>
+      <c r="N24" s="29"/>
+      <c r="O24" s="29"/>
+      <c r="P24" s="29"/>
+      <c r="Q24" s="29"/>
+      <c r="R24" s="29"/>
+      <c r="S24" s="29"/>
+      <c r="T24" s="29"/>
+      <c r="U24" s="29"/>
+      <c r="V24" s="29"/>
+      <c r="W24" s="29"/>
+      <c r="X24" s="29"/>
+      <c r="Y24" s="29"/>
+      <c r="Z24" s="29"/>
+      <c r="AA24" s="29"/>
+      <c r="AB24" s="29"/>
+      <c r="AC24" s="29"/>
+      <c r="AD24" s="29"/>
       <c r="AE24" s="0" t="s">
         <v>78</v>
       </c>
@@ -2778,7 +2778,7 @@
         <v>32</v>
       </c>
       <c r="C25" s="26" t="n">
-        <v>140</v>
+        <v>270</v>
       </c>
       <c r="D25" s="26">
         <f>COUNTA(F25:AD25)</f>
@@ -2826,7 +2826,7 @@
         <v>33</v>
       </c>
       <c r="C26" s="26" t="n">
-        <v>200</v>
+        <v>260</v>
       </c>
       <c r="D26" s="26">
         <f>COUNTA(F26:AD26)</f>
@@ -2868,13 +2868,13 @@
     </row>
     <row r="27" spans="1:32" customHeight="1">
       <c r="A27" s="26" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B27" s="25" t="s">
         <v>34</v>
       </c>
       <c r="C27" s="26" t="n">
-        <v>900</v>
+        <v>250</v>
       </c>
       <c r="D27" s="26">
         <f>COUNTA(F27:AD27)</f>
@@ -2915,46 +2915,46 @@
       </c>
     </row>
     <row r="28" spans="1:32" customHeight="1">
-      <c r="A28" s="30" t="n">
-        <v>4</v>
-      </c>
-      <c r="B28" s="29" t="s">
+      <c r="A28" s="26" t="n">
+        <v>5</v>
+      </c>
+      <c r="B28" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="C28" s="30" t="n">
-        <v>340</v>
-      </c>
-      <c r="D28" s="30">
+      <c r="C28" s="26" t="n">
+        <v>215</v>
+      </c>
+      <c r="D28" s="26">
         <f>COUNTA(F28:AD28)</f>
       </c>
-      <c r="E28" s="30">
+      <c r="E28" s="26">
         <f>C28*D28</f>
       </c>
-      <c r="F28" s="29"/>
-      <c r="G28" s="29"/>
-      <c r="H28" s="29"/>
-      <c r="I28" s="29"/>
-      <c r="J28" s="29"/>
-      <c r="K28" s="29"/>
-      <c r="L28" s="29"/>
-      <c r="M28" s="29"/>
-      <c r="N28" s="29"/>
-      <c r="O28" s="29"/>
-      <c r="P28" s="29"/>
-      <c r="Q28" s="29"/>
-      <c r="R28" s="29"/>
-      <c r="S28" s="29"/>
-      <c r="T28" s="29"/>
-      <c r="U28" s="29"/>
-      <c r="V28" s="29"/>
-      <c r="W28" s="29"/>
-      <c r="X28" s="29"/>
-      <c r="Y28" s="29"/>
-      <c r="Z28" s="29"/>
-      <c r="AA28" s="29"/>
-      <c r="AB28" s="29"/>
-      <c r="AC28" s="29"/>
-      <c r="AD28" s="29"/>
+      <c r="F28" s="28"/>
+      <c r="G28" s="28"/>
+      <c r="H28" s="28"/>
+      <c r="I28" s="28"/>
+      <c r="J28" s="28"/>
+      <c r="K28" s="28"/>
+      <c r="L28" s="28"/>
+      <c r="M28" s="28"/>
+      <c r="N28" s="28"/>
+      <c r="O28" s="28"/>
+      <c r="P28" s="28"/>
+      <c r="Q28" s="28"/>
+      <c r="R28" s="28"/>
+      <c r="S28" s="28"/>
+      <c r="T28" s="28"/>
+      <c r="U28" s="28"/>
+      <c r="V28" s="28"/>
+      <c r="W28" s="28"/>
+      <c r="X28" s="28"/>
+      <c r="Y28" s="28"/>
+      <c r="Z28" s="28"/>
+      <c r="AA28" s="28"/>
+      <c r="AB28" s="28"/>
+      <c r="AC28" s="28"/>
+      <c r="AD28" s="28"/>
       <c r="AE28" s="0" t="s">
         <v>82</v>
       </c>
@@ -2970,7 +2970,7 @@
         <v>36</v>
       </c>
       <c r="C29" s="26" t="n">
-        <v>270</v>
+        <v>200</v>
       </c>
       <c r="D29" s="26">
         <f>COUNTA(F29:AD29)</f>
@@ -3011,46 +3011,46 @@
       </c>
     </row>
     <row r="30" spans="1:32" customHeight="1">
-      <c r="A30" s="30" t="n">
-        <v>4</v>
-      </c>
-      <c r="B30" s="29" t="s">
+      <c r="A30" s="26" t="n">
+        <v>5</v>
+      </c>
+      <c r="B30" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="C30" s="30" t="n">
-        <v>320</v>
-      </c>
-      <c r="D30" s="30">
+      <c r="C30" s="26" t="n">
+        <v>200</v>
+      </c>
+      <c r="D30" s="26">
         <f>COUNTA(F30:AD30)</f>
       </c>
-      <c r="E30" s="30">
+      <c r="E30" s="26">
         <f>C30*D30</f>
       </c>
-      <c r="F30" s="29"/>
-      <c r="G30" s="29"/>
-      <c r="H30" s="29"/>
-      <c r="I30" s="29"/>
-      <c r="J30" s="29"/>
-      <c r="K30" s="29"/>
-      <c r="L30" s="29"/>
-      <c r="M30" s="29"/>
-      <c r="N30" s="29"/>
-      <c r="O30" s="29"/>
-      <c r="P30" s="29"/>
-      <c r="Q30" s="29"/>
-      <c r="R30" s="29"/>
-      <c r="S30" s="29"/>
-      <c r="T30" s="29"/>
-      <c r="U30" s="29"/>
-      <c r="V30" s="29"/>
-      <c r="W30" s="29"/>
-      <c r="X30" s="29"/>
-      <c r="Y30" s="29"/>
-      <c r="Z30" s="29"/>
-      <c r="AA30" s="29"/>
-      <c r="AB30" s="29"/>
-      <c r="AC30" s="29"/>
-      <c r="AD30" s="29"/>
+      <c r="F30" s="28"/>
+      <c r="G30" s="28"/>
+      <c r="H30" s="28"/>
+      <c r="I30" s="28"/>
+      <c r="J30" s="28"/>
+      <c r="K30" s="28"/>
+      <c r="L30" s="28"/>
+      <c r="M30" s="28"/>
+      <c r="N30" s="28"/>
+      <c r="O30" s="28"/>
+      <c r="P30" s="28"/>
+      <c r="Q30" s="28"/>
+      <c r="R30" s="28"/>
+      <c r="S30" s="28"/>
+      <c r="T30" s="28"/>
+      <c r="U30" s="28"/>
+      <c r="V30" s="28"/>
+      <c r="W30" s="28"/>
+      <c r="X30" s="28"/>
+      <c r="Y30" s="28"/>
+      <c r="Z30" s="28"/>
+      <c r="AA30" s="28"/>
+      <c r="AB30" s="28"/>
+      <c r="AC30" s="28"/>
+      <c r="AD30" s="28"/>
       <c r="AE30" s="0" t="s">
         <v>84</v>
       </c>
@@ -3059,46 +3059,46 @@
       </c>
     </row>
     <row r="31" spans="1:32" customHeight="1">
-      <c r="A31" s="30" t="n">
-        <v>4</v>
-      </c>
-      <c r="B31" s="29" t="s">
+      <c r="A31" s="26" t="n">
+        <v>5</v>
+      </c>
+      <c r="B31" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="C31" s="30" t="n">
-        <v>290</v>
-      </c>
-      <c r="D31" s="30">
+      <c r="C31" s="26" t="n">
+        <v>180</v>
+      </c>
+      <c r="D31" s="26">
         <f>COUNTA(F31:AD31)</f>
       </c>
-      <c r="E31" s="30">
+      <c r="E31" s="26">
         <f>C31*D31</f>
       </c>
-      <c r="F31" s="29"/>
-      <c r="G31" s="29"/>
-      <c r="H31" s="29"/>
-      <c r="I31" s="29"/>
-      <c r="J31" s="29"/>
-      <c r="K31" s="29"/>
-      <c r="L31" s="29"/>
-      <c r="M31" s="29"/>
-      <c r="N31" s="29"/>
-      <c r="O31" s="29"/>
-      <c r="P31" s="29"/>
-      <c r="Q31" s="29"/>
-      <c r="R31" s="29"/>
-      <c r="S31" s="29"/>
-      <c r="T31" s="29"/>
-      <c r="U31" s="29"/>
-      <c r="V31" s="29"/>
-      <c r="W31" s="29"/>
-      <c r="X31" s="29"/>
-      <c r="Y31" s="29"/>
-      <c r="Z31" s="29"/>
-      <c r="AA31" s="29"/>
-      <c r="AB31" s="29"/>
-      <c r="AC31" s="29"/>
-      <c r="AD31" s="29"/>
+      <c r="F31" s="28"/>
+      <c r="G31" s="28"/>
+      <c r="H31" s="28"/>
+      <c r="I31" s="28"/>
+      <c r="J31" s="28"/>
+      <c r="K31" s="28"/>
+      <c r="L31" s="28"/>
+      <c r="M31" s="28"/>
+      <c r="N31" s="28"/>
+      <c r="O31" s="28"/>
+      <c r="P31" s="28"/>
+      <c r="Q31" s="28"/>
+      <c r="R31" s="28"/>
+      <c r="S31" s="28"/>
+      <c r="T31" s="28"/>
+      <c r="U31" s="28"/>
+      <c r="V31" s="28"/>
+      <c r="W31" s="28"/>
+      <c r="X31" s="28"/>
+      <c r="Y31" s="28"/>
+      <c r="Z31" s="28"/>
+      <c r="AA31" s="28"/>
+      <c r="AB31" s="28"/>
+      <c r="AC31" s="28"/>
+      <c r="AD31" s="28"/>
       <c r="AE31" s="0" t="s">
         <v>85</v>
       </c>
@@ -3114,7 +3114,7 @@
         <v>39</v>
       </c>
       <c r="C32" s="26" t="n">
-        <v>215</v>
+        <v>180</v>
       </c>
       <c r="D32" s="26">
         <f>COUNTA(F32:AD32)</f>
@@ -3162,7 +3162,7 @@
         <v>40</v>
       </c>
       <c r="C33" s="26" t="n">
-        <v>100</v>
+        <v>160</v>
       </c>
       <c r="D33" s="26">
         <f>COUNTA(F33:AD33)</f>
@@ -3204,13 +3204,13 @@
     </row>
     <row r="34" spans="1:32" customHeight="1">
       <c r="A34" s="26" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B34" s="25" t="s">
         <v>41</v>
       </c>
       <c r="C34" s="26" t="n">
-        <v>400</v>
+        <v>150</v>
       </c>
       <c r="D34" s="26">
         <f>COUNTA(F34:AD34)</f>
@@ -3299,46 +3299,46 @@
       </c>
     </row>
     <row r="36" spans="1:32" customHeight="1">
-      <c r="A36" s="30" t="n">
-        <v>2</v>
-      </c>
-      <c r="B36" s="29" t="s">
+      <c r="A36" s="26" t="n">
+        <v>5</v>
+      </c>
+      <c r="B36" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="C36" s="30" t="n">
-        <v>600</v>
-      </c>
-      <c r="D36" s="30">
+      <c r="C36" s="26" t="n">
+        <v>140</v>
+      </c>
+      <c r="D36" s="26">
         <f>COUNTA(F36:AD36)</f>
       </c>
-      <c r="E36" s="30">
+      <c r="E36" s="26">
         <f>C36*D36</f>
       </c>
-      <c r="F36" s="29"/>
-      <c r="G36" s="29"/>
-      <c r="H36" s="29"/>
-      <c r="I36" s="29"/>
-      <c r="J36" s="29"/>
-      <c r="K36" s="29"/>
-      <c r="L36" s="29"/>
-      <c r="M36" s="29"/>
-      <c r="N36" s="29"/>
-      <c r="O36" s="29"/>
-      <c r="P36" s="29"/>
-      <c r="Q36" s="29"/>
-      <c r="R36" s="29"/>
-      <c r="S36" s="29"/>
-      <c r="T36" s="29"/>
-      <c r="U36" s="29"/>
-      <c r="V36" s="29"/>
-      <c r="W36" s="29"/>
-      <c r="X36" s="29"/>
-      <c r="Y36" s="29"/>
-      <c r="Z36" s="29"/>
-      <c r="AA36" s="29"/>
-      <c r="AB36" s="29"/>
-      <c r="AC36" s="29"/>
-      <c r="AD36" s="29"/>
+      <c r="F36" s="28"/>
+      <c r="G36" s="28"/>
+      <c r="H36" s="28"/>
+      <c r="I36" s="28"/>
+      <c r="J36" s="28"/>
+      <c r="K36" s="28"/>
+      <c r="L36" s="28"/>
+      <c r="M36" s="28"/>
+      <c r="N36" s="28"/>
+      <c r="O36" s="28"/>
+      <c r="P36" s="28"/>
+      <c r="Q36" s="28"/>
+      <c r="R36" s="28"/>
+      <c r="S36" s="28"/>
+      <c r="T36" s="28"/>
+      <c r="U36" s="28"/>
+      <c r="V36" s="28"/>
+      <c r="W36" s="28"/>
+      <c r="X36" s="28"/>
+      <c r="Y36" s="28"/>
+      <c r="Z36" s="28"/>
+      <c r="AA36" s="28"/>
+      <c r="AB36" s="28"/>
+      <c r="AC36" s="28"/>
+      <c r="AD36" s="28"/>
       <c r="AE36" s="0" t="s">
         <v>90</v>
       </c>
@@ -3354,7 +3354,7 @@
         <v>44</v>
       </c>
       <c r="C37" s="26" t="n">
-        <v>250</v>
+        <v>120</v>
       </c>
       <c r="D37" s="26">
         <f>COUNTA(F37:AD37)</f>
@@ -3396,13 +3396,13 @@
     </row>
     <row r="38" spans="1:32" customHeight="1">
       <c r="A38" s="26" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B38" s="25" t="s">
         <v>45</v>
       </c>
       <c r="C38" s="26" t="n">
-        <v>400</v>
+        <v>120</v>
       </c>
       <c r="D38" s="26">
         <f>COUNTA(F38:AD38)</f>
@@ -3450,7 +3450,7 @@
         <v>46</v>
       </c>
       <c r="C39" s="26" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="D39" s="26">
         <f>COUNTA(F39:AD39)</f>
@@ -3491,46 +3491,46 @@
       </c>
     </row>
     <row r="40" spans="1:32" customHeight="1">
-      <c r="A40" s="30" t="n">
-        <v>6</v>
-      </c>
-      <c r="B40" s="29" t="s">
+      <c r="A40" s="26" t="n">
+        <v>5</v>
+      </c>
+      <c r="B40" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="C40" s="30" t="n">
-        <v>100</v>
-      </c>
-      <c r="D40" s="30">
+      <c r="C40" s="26" t="n">
+        <v>110</v>
+      </c>
+      <c r="D40" s="26">
         <f>COUNTA(F40:AD40)</f>
       </c>
-      <c r="E40" s="30">
+      <c r="E40" s="26">
         <f>C40*D40</f>
       </c>
-      <c r="F40" s="29"/>
-      <c r="G40" s="29"/>
-      <c r="H40" s="29"/>
-      <c r="I40" s="29"/>
-      <c r="J40" s="29"/>
-      <c r="K40" s="29"/>
-      <c r="L40" s="29"/>
-      <c r="M40" s="29"/>
-      <c r="N40" s="29"/>
-      <c r="O40" s="29"/>
-      <c r="P40" s="29"/>
-      <c r="Q40" s="29"/>
-      <c r="R40" s="29"/>
-      <c r="S40" s="29"/>
-      <c r="T40" s="29"/>
-      <c r="U40" s="29"/>
-      <c r="V40" s="29"/>
-      <c r="W40" s="29"/>
-      <c r="X40" s="29"/>
-      <c r="Y40" s="29"/>
-      <c r="Z40" s="29"/>
-      <c r="AA40" s="29"/>
-      <c r="AB40" s="29"/>
-      <c r="AC40" s="29"/>
-      <c r="AD40" s="29"/>
+      <c r="F40" s="28"/>
+      <c r="G40" s="28"/>
+      <c r="H40" s="28"/>
+      <c r="I40" s="28"/>
+      <c r="J40" s="28"/>
+      <c r="K40" s="28"/>
+      <c r="L40" s="28"/>
+      <c r="M40" s="28"/>
+      <c r="N40" s="28"/>
+      <c r="O40" s="28"/>
+      <c r="P40" s="28"/>
+      <c r="Q40" s="28"/>
+      <c r="R40" s="28"/>
+      <c r="S40" s="28"/>
+      <c r="T40" s="28"/>
+      <c r="U40" s="28"/>
+      <c r="V40" s="28"/>
+      <c r="W40" s="28"/>
+      <c r="X40" s="28"/>
+      <c r="Y40" s="28"/>
+      <c r="Z40" s="28"/>
+      <c r="AA40" s="28"/>
+      <c r="AB40" s="28"/>
+      <c r="AC40" s="28"/>
+      <c r="AD40" s="28"/>
       <c r="AE40" s="0" t="s">
         <v>94</v>
       </c>
@@ -3539,46 +3539,46 @@
       </c>
     </row>
     <row r="41" spans="1:32" customHeight="1">
-      <c r="A41" s="30" t="n">
-        <v>4</v>
-      </c>
-      <c r="B41" s="29" t="s">
+      <c r="A41" s="26" t="n">
+        <v>5</v>
+      </c>
+      <c r="B41" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="C41" s="30" t="n">
-        <v>340</v>
-      </c>
-      <c r="D41" s="30">
+      <c r="C41" s="26" t="n">
+        <v>100</v>
+      </c>
+      <c r="D41" s="26">
         <f>COUNTA(F41:AD41)</f>
       </c>
-      <c r="E41" s="30">
+      <c r="E41" s="26">
         <f>C41*D41</f>
       </c>
-      <c r="F41" s="29"/>
-      <c r="G41" s="29"/>
-      <c r="H41" s="29"/>
-      <c r="I41" s="29"/>
-      <c r="J41" s="29"/>
-      <c r="K41" s="29"/>
-      <c r="L41" s="29"/>
-      <c r="M41" s="29"/>
-      <c r="N41" s="29"/>
-      <c r="O41" s="29"/>
-      <c r="P41" s="29"/>
-      <c r="Q41" s="29"/>
-      <c r="R41" s="29"/>
-      <c r="S41" s="29"/>
-      <c r="T41" s="29"/>
-      <c r="U41" s="29"/>
-      <c r="V41" s="29"/>
-      <c r="W41" s="29"/>
-      <c r="X41" s="29"/>
-      <c r="Y41" s="29"/>
-      <c r="Z41" s="29"/>
-      <c r="AA41" s="29"/>
-      <c r="AB41" s="29"/>
-      <c r="AC41" s="29"/>
-      <c r="AD41" s="29"/>
+      <c r="F41" s="28"/>
+      <c r="G41" s="28"/>
+      <c r="H41" s="28"/>
+      <c r="I41" s="28"/>
+      <c r="J41" s="28"/>
+      <c r="K41" s="28"/>
+      <c r="L41" s="28"/>
+      <c r="M41" s="28"/>
+      <c r="N41" s="28"/>
+      <c r="O41" s="28"/>
+      <c r="P41" s="28"/>
+      <c r="Q41" s="28"/>
+      <c r="R41" s="28"/>
+      <c r="S41" s="28"/>
+      <c r="T41" s="28"/>
+      <c r="U41" s="28"/>
+      <c r="V41" s="28"/>
+      <c r="W41" s="28"/>
+      <c r="X41" s="28"/>
+      <c r="Y41" s="28"/>
+      <c r="Z41" s="28"/>
+      <c r="AA41" s="28"/>
+      <c r="AB41" s="28"/>
+      <c r="AC41" s="28"/>
+      <c r="AD41" s="28"/>
       <c r="AE41" s="0" t="s">
         <v>95</v>
       </c>
@@ -3587,46 +3587,46 @@
       </c>
     </row>
     <row r="42" spans="1:32" customHeight="1">
-      <c r="A42" s="30" t="n">
-        <v>4</v>
-      </c>
-      <c r="B42" s="29" t="s">
+      <c r="A42" s="26" t="n">
+        <v>5</v>
+      </c>
+      <c r="B42" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="C42" s="30" t="n">
-        <v>330</v>
-      </c>
-      <c r="D42" s="30">
+      <c r="C42" s="26" t="n">
+        <v>100</v>
+      </c>
+      <c r="D42" s="26">
         <f>COUNTA(F42:AD42)</f>
       </c>
-      <c r="E42" s="30">
+      <c r="E42" s="26">
         <f>C42*D42</f>
       </c>
-      <c r="F42" s="29"/>
-      <c r="G42" s="29"/>
-      <c r="H42" s="29"/>
-      <c r="I42" s="29"/>
-      <c r="J42" s="29"/>
-      <c r="K42" s="29"/>
-      <c r="L42" s="29"/>
-      <c r="M42" s="29"/>
-      <c r="N42" s="29"/>
-      <c r="O42" s="29"/>
-      <c r="P42" s="29"/>
-      <c r="Q42" s="29"/>
-      <c r="R42" s="29"/>
-      <c r="S42" s="29"/>
-      <c r="T42" s="29"/>
-      <c r="U42" s="29"/>
-      <c r="V42" s="29"/>
-      <c r="W42" s="29"/>
-      <c r="X42" s="29"/>
-      <c r="Y42" s="29"/>
-      <c r="Z42" s="29"/>
-      <c r="AA42" s="29"/>
-      <c r="AB42" s="29"/>
-      <c r="AC42" s="29"/>
-      <c r="AD42" s="29"/>
+      <c r="F42" s="28"/>
+      <c r="G42" s="28"/>
+      <c r="H42" s="28"/>
+      <c r="I42" s="28"/>
+      <c r="J42" s="28"/>
+      <c r="K42" s="28"/>
+      <c r="L42" s="28"/>
+      <c r="M42" s="28"/>
+      <c r="N42" s="28"/>
+      <c r="O42" s="28"/>
+      <c r="P42" s="28"/>
+      <c r="Q42" s="28"/>
+      <c r="R42" s="28"/>
+      <c r="S42" s="28"/>
+      <c r="T42" s="28"/>
+      <c r="U42" s="28"/>
+      <c r="V42" s="28"/>
+      <c r="W42" s="28"/>
+      <c r="X42" s="28"/>
+      <c r="Y42" s="28"/>
+      <c r="Z42" s="28"/>
+      <c r="AA42" s="28"/>
+      <c r="AB42" s="28"/>
+      <c r="AC42" s="28"/>
+      <c r="AD42" s="28"/>
       <c r="AE42" s="0" t="s">
         <v>96</v>
       </c>
@@ -3642,7 +3642,7 @@
         <v>50</v>
       </c>
       <c r="C43" s="26" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="D43" s="26">
         <f>COUNTA(F43:AD43)</f>
@@ -3683,46 +3683,46 @@
       </c>
     </row>
     <row r="44" spans="1:32" customHeight="1">
-      <c r="A44" s="26" t="n">
-        <v>3</v>
-      </c>
-      <c r="B44" s="25" t="s">
+      <c r="A44" s="30" t="n">
+        <v>6</v>
+      </c>
+      <c r="B44" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="C44" s="26" t="n">
-        <v>550</v>
-      </c>
-      <c r="D44" s="26">
+      <c r="C44" s="30" t="n">
+        <v>90</v>
+      </c>
+      <c r="D44" s="30">
         <f>COUNTA(F44:AD44)</f>
       </c>
-      <c r="E44" s="26">
+      <c r="E44" s="30">
         <f>C44*D44</f>
       </c>
-      <c r="F44" s="28"/>
-      <c r="G44" s="28"/>
-      <c r="H44" s="28"/>
-      <c r="I44" s="28"/>
-      <c r="J44" s="28"/>
-      <c r="K44" s="28"/>
-      <c r="L44" s="28"/>
-      <c r="M44" s="28"/>
-      <c r="N44" s="28"/>
-      <c r="O44" s="28"/>
-      <c r="P44" s="28"/>
-      <c r="Q44" s="28"/>
-      <c r="R44" s="28"/>
-      <c r="S44" s="28"/>
-      <c r="T44" s="28"/>
-      <c r="U44" s="28"/>
-      <c r="V44" s="28"/>
-      <c r="W44" s="28"/>
-      <c r="X44" s="28"/>
-      <c r="Y44" s="28"/>
-      <c r="Z44" s="28"/>
-      <c r="AA44" s="28"/>
-      <c r="AB44" s="28"/>
-      <c r="AC44" s="28"/>
-      <c r="AD44" s="28"/>
+      <c r="F44" s="29"/>
+      <c r="G44" s="29"/>
+      <c r="H44" s="29"/>
+      <c r="I44" s="29"/>
+      <c r="J44" s="29"/>
+      <c r="K44" s="29"/>
+      <c r="L44" s="29"/>
+      <c r="M44" s="29"/>
+      <c r="N44" s="29"/>
+      <c r="O44" s="29"/>
+      <c r="P44" s="29"/>
+      <c r="Q44" s="29"/>
+      <c r="R44" s="29"/>
+      <c r="S44" s="29"/>
+      <c r="T44" s="29"/>
+      <c r="U44" s="29"/>
+      <c r="V44" s="29"/>
+      <c r="W44" s="29"/>
+      <c r="X44" s="29"/>
+      <c r="Y44" s="29"/>
+      <c r="Z44" s="29"/>
+      <c r="AA44" s="29"/>
+      <c r="AB44" s="29"/>
+      <c r="AC44" s="29"/>
+      <c r="AD44" s="29"/>
       <c r="AE44" s="0" t="s">
         <v>98</v>
       </c>
@@ -3731,46 +3731,46 @@
       </c>
     </row>
     <row r="45" spans="1:32" customHeight="1">
-      <c r="A45" s="26" t="n">
-        <v>3</v>
-      </c>
-      <c r="B45" s="25" t="s">
+      <c r="A45" s="30" t="n">
+        <v>6</v>
+      </c>
+      <c r="B45" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="C45" s="26" t="n">
-        <v>550</v>
-      </c>
-      <c r="D45" s="26">
+      <c r="C45" s="30" t="n">
+        <v>80</v>
+      </c>
+      <c r="D45" s="30">
         <f>COUNTA(F45:AD45)</f>
       </c>
-      <c r="E45" s="26">
+      <c r="E45" s="30">
         <f>C45*D45</f>
       </c>
-      <c r="F45" s="28"/>
-      <c r="G45" s="28"/>
-      <c r="H45" s="28"/>
-      <c r="I45" s="28"/>
-      <c r="J45" s="28"/>
-      <c r="K45" s="28"/>
-      <c r="L45" s="28"/>
-      <c r="M45" s="28"/>
-      <c r="N45" s="28"/>
-      <c r="O45" s="28"/>
-      <c r="P45" s="28"/>
-      <c r="Q45" s="28"/>
-      <c r="R45" s="28"/>
-      <c r="S45" s="28"/>
-      <c r="T45" s="28"/>
-      <c r="U45" s="28"/>
-      <c r="V45" s="28"/>
-      <c r="W45" s="28"/>
-      <c r="X45" s="28"/>
-      <c r="Y45" s="28"/>
-      <c r="Z45" s="28"/>
-      <c r="AA45" s="28"/>
-      <c r="AB45" s="28"/>
-      <c r="AC45" s="28"/>
-      <c r="AD45" s="28"/>
+      <c r="F45" s="29"/>
+      <c r="G45" s="29"/>
+      <c r="H45" s="29"/>
+      <c r="I45" s="29"/>
+      <c r="J45" s="29"/>
+      <c r="K45" s="29"/>
+      <c r="L45" s="29"/>
+      <c r="M45" s="29"/>
+      <c r="N45" s="29"/>
+      <c r="O45" s="29"/>
+      <c r="P45" s="29"/>
+      <c r="Q45" s="29"/>
+      <c r="R45" s="29"/>
+      <c r="S45" s="29"/>
+      <c r="T45" s="29"/>
+      <c r="U45" s="29"/>
+      <c r="V45" s="29"/>
+      <c r="W45" s="29"/>
+      <c r="X45" s="29"/>
+      <c r="Y45" s="29"/>
+      <c r="Z45" s="29"/>
+      <c r="AA45" s="29"/>
+      <c r="AB45" s="29"/>
+      <c r="AC45" s="29"/>
+      <c r="AD45" s="29"/>
       <c r="AE45" s="0" t="s">
         <v>99</v>
       </c>
@@ -3779,46 +3779,46 @@
       </c>
     </row>
     <row r="46" spans="1:32" customHeight="1">
-      <c r="A46" s="26" t="n">
-        <v>3</v>
-      </c>
-      <c r="B46" s="25" t="s">
+      <c r="A46" s="30" t="n">
+        <v>6</v>
+      </c>
+      <c r="B46" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="C46" s="26" t="n">
-        <v>550</v>
-      </c>
-      <c r="D46" s="26">
+      <c r="C46" s="30" t="n">
+        <v>100</v>
+      </c>
+      <c r="D46" s="30">
         <f>COUNTA(F46:AD46)</f>
       </c>
-      <c r="E46" s="26">
+      <c r="E46" s="30">
         <f>C46*D46</f>
       </c>
-      <c r="F46" s="28"/>
-      <c r="G46" s="28"/>
-      <c r="H46" s="28"/>
-      <c r="I46" s="28"/>
-      <c r="J46" s="28"/>
-      <c r="K46" s="28"/>
-      <c r="L46" s="28"/>
-      <c r="M46" s="28"/>
-      <c r="N46" s="28"/>
-      <c r="O46" s="28"/>
-      <c r="P46" s="28"/>
-      <c r="Q46" s="28"/>
-      <c r="R46" s="28"/>
-      <c r="S46" s="28"/>
-      <c r="T46" s="28"/>
-      <c r="U46" s="28"/>
-      <c r="V46" s="28"/>
-      <c r="W46" s="28"/>
-      <c r="X46" s="28"/>
-      <c r="Y46" s="28"/>
-      <c r="Z46" s="28"/>
-      <c r="AA46" s="28"/>
-      <c r="AB46" s="28"/>
-      <c r="AC46" s="28"/>
-      <c r="AD46" s="28"/>
+      <c r="F46" s="29"/>
+      <c r="G46" s="29"/>
+      <c r="H46" s="29"/>
+      <c r="I46" s="29"/>
+      <c r="J46" s="29"/>
+      <c r="K46" s="29"/>
+      <c r="L46" s="29"/>
+      <c r="M46" s="29"/>
+      <c r="N46" s="29"/>
+      <c r="O46" s="29"/>
+      <c r="P46" s="29"/>
+      <c r="Q46" s="29"/>
+      <c r="R46" s="29"/>
+      <c r="S46" s="29"/>
+      <c r="T46" s="29"/>
+      <c r="U46" s="29"/>
+      <c r="V46" s="29"/>
+      <c r="W46" s="29"/>
+      <c r="X46" s="29"/>
+      <c r="Y46" s="29"/>
+      <c r="Z46" s="29"/>
+      <c r="AA46" s="29"/>
+      <c r="AB46" s="29"/>
+      <c r="AC46" s="29"/>
+      <c r="AD46" s="29"/>
       <c r="AE46" s="0" t="s">
         <v>100</v>
       </c>
@@ -3827,46 +3827,46 @@
       </c>
     </row>
     <row r="47" spans="1:32" customHeight="1">
-      <c r="A47" s="26" t="n">
-        <v>5</v>
-      </c>
-      <c r="B47" s="25" t="s">
+      <c r="A47" s="30" t="n">
+        <v>6</v>
+      </c>
+      <c r="B47" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="C47" s="26" t="n">
+      <c r="C47" s="30" t="n">
         <v>100</v>
       </c>
-      <c r="D47" s="26">
+      <c r="D47" s="30">
         <f>COUNTA(F47:AD47)</f>
       </c>
-      <c r="E47" s="26">
+      <c r="E47" s="30">
         <f>C47*D47</f>
       </c>
-      <c r="F47" s="28"/>
-      <c r="G47" s="28"/>
-      <c r="H47" s="28"/>
-      <c r="I47" s="28"/>
-      <c r="J47" s="28"/>
-      <c r="K47" s="28"/>
-      <c r="L47" s="28"/>
-      <c r="M47" s="28"/>
-      <c r="N47" s="28"/>
-      <c r="O47" s="28"/>
-      <c r="P47" s="28"/>
-      <c r="Q47" s="28"/>
-      <c r="R47" s="28"/>
-      <c r="S47" s="28"/>
-      <c r="T47" s="28"/>
-      <c r="U47" s="28"/>
-      <c r="V47" s="28"/>
-      <c r="W47" s="28"/>
-      <c r="X47" s="28"/>
-      <c r="Y47" s="28"/>
-      <c r="Z47" s="28"/>
-      <c r="AA47" s="28"/>
-      <c r="AB47" s="28"/>
-      <c r="AC47" s="28"/>
-      <c r="AD47" s="28"/>
+      <c r="F47" s="29"/>
+      <c r="G47" s="29"/>
+      <c r="H47" s="29"/>
+      <c r="I47" s="29"/>
+      <c r="J47" s="29"/>
+      <c r="K47" s="29"/>
+      <c r="L47" s="29"/>
+      <c r="M47" s="29"/>
+      <c r="N47" s="29"/>
+      <c r="O47" s="29"/>
+      <c r="P47" s="29"/>
+      <c r="Q47" s="29"/>
+      <c r="R47" s="29"/>
+      <c r="S47" s="29"/>
+      <c r="T47" s="29"/>
+      <c r="U47" s="29"/>
+      <c r="V47" s="29"/>
+      <c r="W47" s="29"/>
+      <c r="X47" s="29"/>
+      <c r="Y47" s="29"/>
+      <c r="Z47" s="29"/>
+      <c r="AA47" s="29"/>
+      <c r="AB47" s="29"/>
+      <c r="AC47" s="29"/>
+      <c r="AD47" s="29"/>
       <c r="AE47" s="0" t="s">
         <v>101</v>
       </c>
@@ -6150,10 +6150,10 @@
       <c r="B4" s="16"/>
       <c r="C4" s="16"/>
       <c r="D4" s="21">
-        <f>SUM(D5:D28)</f>
+        <f>SUM(D5:D29)</f>
       </c>
       <c r="E4" s="21">
-        <f>SUM(E5:E28)</f>
+        <f>SUM(E5:E29)</f>
       </c>
       <c r="F4" s="22" t="s">
         <v>11</v>
@@ -6190,52 +6190,52 @@
       </c>
     </row>
     <row r="5" spans="1:32" customHeight="1">
-      <c r="A5" s="30" t="n">
-        <v>6</v>
-      </c>
-      <c r="B5" s="29" t="s">
-        <v>365</v>
-      </c>
-      <c r="C5" s="30" t="n">
-        <v>45</v>
-      </c>
-      <c r="D5" s="30">
+      <c r="A5" s="26" t="n">
+        <v>5</v>
+      </c>
+      <c r="B5" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" s="26" t="n">
+        <v>215</v>
+      </c>
+      <c r="D5" s="26">
         <f>COUNTA(F5:AD5)</f>
       </c>
-      <c r="E5" s="30">
+      <c r="E5" s="26">
         <f>C5*D5</f>
       </c>
-      <c r="F5" s="29" t="s">
+      <c r="F5" s="28" t="s">
         <v>360</v>
       </c>
-      <c r="G5" s="29" t="s">
+      <c r="G5" s="28" t="s">
         <v>361</v>
       </c>
-      <c r="H5" s="29" t="s">
+      <c r="H5" s="28" t="s">
         <v>362</v>
       </c>
-      <c r="I5" s="29"/>
-      <c r="J5" s="29"/>
-      <c r="K5" s="29"/>
-      <c r="L5" s="29"/>
-      <c r="M5" s="29"/>
-      <c r="N5" s="29"/>
-      <c r="O5" s="29"/>
-      <c r="P5" s="29"/>
-      <c r="Q5" s="29"/>
-      <c r="R5" s="29"/>
-      <c r="S5" s="29"/>
-      <c r="T5" s="29"/>
-      <c r="U5" s="29"/>
-      <c r="V5" s="29"/>
-      <c r="W5" s="29"/>
-      <c r="X5" s="29"/>
-      <c r="Y5" s="29"/>
-      <c r="Z5" s="29"/>
-      <c r="AA5" s="29"/>
-      <c r="AB5" s="29"/>
-      <c r="AC5" s="29"/>
-      <c r="AD5" s="29"/>
+      <c r="I5" s="28"/>
+      <c r="J5" s="28"/>
+      <c r="K5" s="28"/>
+      <c r="L5" s="28"/>
+      <c r="M5" s="28"/>
+      <c r="N5" s="28"/>
+      <c r="O5" s="28"/>
+      <c r="P5" s="28"/>
+      <c r="Q5" s="28"/>
+      <c r="R5" s="28"/>
+      <c r="S5" s="28"/>
+      <c r="T5" s="28"/>
+      <c r="U5" s="28"/>
+      <c r="V5" s="28"/>
+      <c r="W5" s="28"/>
+      <c r="X5" s="28"/>
+      <c r="Y5" s="28"/>
+      <c r="Z5" s="28"/>
+      <c r="AA5" s="28"/>
+      <c r="AB5" s="28"/>
+      <c r="AC5" s="28"/>
+      <c r="AD5" s="28"/>
       <c r="AE5" s="0" t="s">
         <v>384</v>
       </c>
@@ -6244,52 +6244,52 @@
       </c>
     </row>
     <row r="6" spans="1:32" customHeight="1">
-      <c r="A6" s="30" t="n">
-        <v>6</v>
-      </c>
-      <c r="B6" s="29" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="30" t="n">
-        <v>80</v>
-      </c>
-      <c r="D6" s="30">
+      <c r="A6" s="26" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6" s="26" t="n">
+        <v>120</v>
+      </c>
+      <c r="D6" s="26">
         <f>COUNTA(F6:AD6)</f>
       </c>
-      <c r="E6" s="30">
+      <c r="E6" s="26">
         <f>C6*D6</f>
       </c>
-      <c r="F6" s="29" t="s">
+      <c r="F6" s="28" t="s">
         <v>363</v>
       </c>
-      <c r="G6" s="29" t="s">
+      <c r="G6" s="28" t="s">
         <v>364</v>
       </c>
-      <c r="H6" s="29" t="s">
+      <c r="H6" s="28" t="s">
         <v>363</v>
       </c>
-      <c r="I6" s="29"/>
-      <c r="J6" s="29"/>
-      <c r="K6" s="29"/>
-      <c r="L6" s="29"/>
-      <c r="M6" s="29"/>
-      <c r="N6" s="29"/>
-      <c r="O6" s="29"/>
-      <c r="P6" s="29"/>
-      <c r="Q6" s="29"/>
-      <c r="R6" s="29"/>
-      <c r="S6" s="29"/>
-      <c r="T6" s="29"/>
-      <c r="U6" s="29"/>
-      <c r="V6" s="29"/>
-      <c r="W6" s="29"/>
-      <c r="X6" s="29"/>
-      <c r="Y6" s="29"/>
-      <c r="Z6" s="29"/>
-      <c r="AA6" s="29"/>
-      <c r="AB6" s="29"/>
-      <c r="AC6" s="29"/>
-      <c r="AD6" s="29"/>
+      <c r="I6" s="28"/>
+      <c r="J6" s="28"/>
+      <c r="K6" s="28"/>
+      <c r="L6" s="28"/>
+      <c r="M6" s="28"/>
+      <c r="N6" s="28"/>
+      <c r="O6" s="28"/>
+      <c r="P6" s="28"/>
+      <c r="Q6" s="28"/>
+      <c r="R6" s="28"/>
+      <c r="S6" s="28"/>
+      <c r="T6" s="28"/>
+      <c r="U6" s="28"/>
+      <c r="V6" s="28"/>
+      <c r="W6" s="28"/>
+      <c r="X6" s="28"/>
+      <c r="Y6" s="28"/>
+      <c r="Z6" s="28"/>
+      <c r="AA6" s="28"/>
+      <c r="AB6" s="28"/>
+      <c r="AC6" s="28"/>
+      <c r="AD6" s="28"/>
       <c r="AE6" s="0" t="s">
         <v>385</v>
       </c>
@@ -6302,10 +6302,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="25" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="C7" s="26" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="D7" s="26">
         <f>COUNTA(F7:AD7)</f>
@@ -6347,13 +6347,13 @@
     </row>
     <row r="8" spans="1:32" customHeight="1">
       <c r="A8" s="26" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B8" s="25" t="s">
-        <v>366</v>
+        <v>47</v>
       </c>
       <c r="C8" s="26" t="n">
-        <v>30</v>
+        <v>110</v>
       </c>
       <c r="D8" s="26">
         <f>COUNTA(F8:AD8)</f>
@@ -6395,13 +6395,13 @@
     </row>
     <row r="9" spans="1:32" customHeight="1">
       <c r="A9" s="26" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B9" s="25" t="s">
-        <v>367</v>
+        <v>48</v>
       </c>
       <c r="C9" s="26" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="D9" s="26">
         <f>COUNTA(F9:AD9)</f>
@@ -6446,10 +6446,10 @@
         <v>6</v>
       </c>
       <c r="B10" s="29" t="s">
-        <v>368</v>
+        <v>51</v>
       </c>
       <c r="C10" s="30" t="n">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="D10" s="30">
         <f>COUNTA(F10:AD10)</f>
@@ -6494,10 +6494,10 @@
         <v>6</v>
       </c>
       <c r="B11" s="29" t="s">
-        <v>369</v>
+        <v>52</v>
       </c>
       <c r="C11" s="30" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="D11" s="30">
         <f>COUNTA(F11:AD11)</f>
@@ -6542,10 +6542,10 @@
         <v>6</v>
       </c>
       <c r="B12" s="29" t="s">
-        <v>20</v>
+        <v>365</v>
       </c>
       <c r="C12" s="30" t="n">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="D12" s="30">
         <f>COUNTA(F12:AD12)</f>
@@ -6586,46 +6586,46 @@
       </c>
     </row>
     <row r="13" spans="1:32" customHeight="1">
-      <c r="A13" s="26" t="n">
-        <v>7</v>
-      </c>
-      <c r="B13" s="25" t="s">
-        <v>370</v>
-      </c>
-      <c r="C13" s="26" t="n">
-        <v>35</v>
-      </c>
-      <c r="D13" s="26">
+      <c r="A13" s="30" t="n">
+        <v>6</v>
+      </c>
+      <c r="B13" s="29" t="s">
+        <v>366</v>
+      </c>
+      <c r="C13" s="30" t="n">
+        <v>60</v>
+      </c>
+      <c r="D13" s="30">
         <f>COUNTA(F13:AD13)</f>
       </c>
-      <c r="E13" s="26">
+      <c r="E13" s="30">
         <f>C13*D13</f>
       </c>
-      <c r="F13" s="28"/>
-      <c r="G13" s="28"/>
-      <c r="H13" s="28"/>
-      <c r="I13" s="28"/>
-      <c r="J13" s="28"/>
-      <c r="K13" s="28"/>
-      <c r="L13" s="28"/>
-      <c r="M13" s="28"/>
-      <c r="N13" s="28"/>
-      <c r="O13" s="28"/>
-      <c r="P13" s="28"/>
-      <c r="Q13" s="28"/>
-      <c r="R13" s="28"/>
-      <c r="S13" s="28"/>
-      <c r="T13" s="28"/>
-      <c r="U13" s="28"/>
-      <c r="V13" s="28"/>
-      <c r="W13" s="28"/>
-      <c r="X13" s="28"/>
-      <c r="Y13" s="28"/>
-      <c r="Z13" s="28"/>
-      <c r="AA13" s="28"/>
-      <c r="AB13" s="28"/>
-      <c r="AC13" s="28"/>
-      <c r="AD13" s="28"/>
+      <c r="F13" s="29"/>
+      <c r="G13" s="29"/>
+      <c r="H13" s="29"/>
+      <c r="I13" s="29"/>
+      <c r="J13" s="29"/>
+      <c r="K13" s="29"/>
+      <c r="L13" s="29"/>
+      <c r="M13" s="29"/>
+      <c r="N13" s="29"/>
+      <c r="O13" s="29"/>
+      <c r="P13" s="29"/>
+      <c r="Q13" s="29"/>
+      <c r="R13" s="29"/>
+      <c r="S13" s="29"/>
+      <c r="T13" s="29"/>
+      <c r="U13" s="29"/>
+      <c r="V13" s="29"/>
+      <c r="W13" s="29"/>
+      <c r="X13" s="29"/>
+      <c r="Y13" s="29"/>
+      <c r="Z13" s="29"/>
+      <c r="AA13" s="29"/>
+      <c r="AB13" s="29"/>
+      <c r="AC13" s="29"/>
+      <c r="AD13" s="29"/>
       <c r="AE13" s="0" t="s">
         <v>392</v>
       </c>
@@ -6634,46 +6634,46 @@
       </c>
     </row>
     <row r="14" spans="1:32" customHeight="1">
-      <c r="A14" s="26" t="n">
-        <v>7</v>
-      </c>
-      <c r="B14" s="25" t="s">
-        <v>371</v>
-      </c>
-      <c r="C14" s="26" t="n">
-        <v>30</v>
-      </c>
-      <c r="D14" s="26">
+      <c r="A14" s="30" t="n">
+        <v>6</v>
+      </c>
+      <c r="B14" s="29" t="s">
+        <v>367</v>
+      </c>
+      <c r="C14" s="30" t="n">
+        <v>60</v>
+      </c>
+      <c r="D14" s="30">
         <f>COUNTA(F14:AD14)</f>
       </c>
-      <c r="E14" s="26">
+      <c r="E14" s="30">
         <f>C14*D14</f>
       </c>
-      <c r="F14" s="28"/>
-      <c r="G14" s="28"/>
-      <c r="H14" s="28"/>
-      <c r="I14" s="28"/>
-      <c r="J14" s="28"/>
-      <c r="K14" s="28"/>
-      <c r="L14" s="28"/>
-      <c r="M14" s="28"/>
-      <c r="N14" s="28"/>
-      <c r="O14" s="28"/>
-      <c r="P14" s="28"/>
-      <c r="Q14" s="28"/>
-      <c r="R14" s="28"/>
-      <c r="S14" s="28"/>
-      <c r="T14" s="28"/>
-      <c r="U14" s="28"/>
-      <c r="V14" s="28"/>
-      <c r="W14" s="28"/>
-      <c r="X14" s="28"/>
-      <c r="Y14" s="28"/>
-      <c r="Z14" s="28"/>
-      <c r="AA14" s="28"/>
-      <c r="AB14" s="28"/>
-      <c r="AC14" s="28"/>
-      <c r="AD14" s="28"/>
+      <c r="F14" s="29"/>
+      <c r="G14" s="29"/>
+      <c r="H14" s="29"/>
+      <c r="I14" s="29"/>
+      <c r="J14" s="29"/>
+      <c r="K14" s="29"/>
+      <c r="L14" s="29"/>
+      <c r="M14" s="29"/>
+      <c r="N14" s="29"/>
+      <c r="O14" s="29"/>
+      <c r="P14" s="29"/>
+      <c r="Q14" s="29"/>
+      <c r="R14" s="29"/>
+      <c r="S14" s="29"/>
+      <c r="T14" s="29"/>
+      <c r="U14" s="29"/>
+      <c r="V14" s="29"/>
+      <c r="W14" s="29"/>
+      <c r="X14" s="29"/>
+      <c r="Y14" s="29"/>
+      <c r="Z14" s="29"/>
+      <c r="AA14" s="29"/>
+      <c r="AB14" s="29"/>
+      <c r="AC14" s="29"/>
+      <c r="AD14" s="29"/>
       <c r="AE14" s="0" t="s">
         <v>393</v>
       </c>
@@ -6686,7 +6686,7 @@
         <v>6</v>
       </c>
       <c r="B15" s="29" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="C15" s="30" t="n">
         <v>60</v>
@@ -6734,10 +6734,10 @@
         <v>6</v>
       </c>
       <c r="B16" s="29" t="s">
-        <v>23</v>
+        <v>369</v>
       </c>
       <c r="C16" s="30" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="D16" s="30">
         <f>COUNTA(F16:AD16)</f>
@@ -6778,46 +6778,46 @@
       </c>
     </row>
     <row r="17" spans="1:32" customHeight="1">
-      <c r="A17" s="26" t="n">
-        <v>5</v>
-      </c>
-      <c r="B17" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" s="26" t="n">
-        <v>120</v>
-      </c>
-      <c r="D17" s="26">
+      <c r="A17" s="30" t="n">
+        <v>6</v>
+      </c>
+      <c r="B17" s="29" t="s">
+        <v>370</v>
+      </c>
+      <c r="C17" s="30" t="n">
+        <v>45</v>
+      </c>
+      <c r="D17" s="30">
         <f>COUNTA(F17:AD17)</f>
       </c>
-      <c r="E17" s="26">
+      <c r="E17" s="30">
         <f>C17*D17</f>
       </c>
-      <c r="F17" s="28"/>
-      <c r="G17" s="28"/>
-      <c r="H17" s="28"/>
-      <c r="I17" s="28"/>
-      <c r="J17" s="28"/>
-      <c r="K17" s="28"/>
-      <c r="L17" s="28"/>
-      <c r="M17" s="28"/>
-      <c r="N17" s="28"/>
-      <c r="O17" s="28"/>
-      <c r="P17" s="28"/>
-      <c r="Q17" s="28"/>
-      <c r="R17" s="28"/>
-      <c r="S17" s="28"/>
-      <c r="T17" s="28"/>
-      <c r="U17" s="28"/>
-      <c r="V17" s="28"/>
-      <c r="W17" s="28"/>
-      <c r="X17" s="28"/>
-      <c r="Y17" s="28"/>
-      <c r="Z17" s="28"/>
-      <c r="AA17" s="28"/>
-      <c r="AB17" s="28"/>
-      <c r="AC17" s="28"/>
-      <c r="AD17" s="28"/>
+      <c r="F17" s="29"/>
+      <c r="G17" s="29"/>
+      <c r="H17" s="29"/>
+      <c r="I17" s="29"/>
+      <c r="J17" s="29"/>
+      <c r="K17" s="29"/>
+      <c r="L17" s="29"/>
+      <c r="M17" s="29"/>
+      <c r="N17" s="29"/>
+      <c r="O17" s="29"/>
+      <c r="P17" s="29"/>
+      <c r="Q17" s="29"/>
+      <c r="R17" s="29"/>
+      <c r="S17" s="29"/>
+      <c r="T17" s="29"/>
+      <c r="U17" s="29"/>
+      <c r="V17" s="29"/>
+      <c r="W17" s="29"/>
+      <c r="X17" s="29"/>
+      <c r="Y17" s="29"/>
+      <c r="Z17" s="29"/>
+      <c r="AA17" s="29"/>
+      <c r="AB17" s="29"/>
+      <c r="AC17" s="29"/>
+      <c r="AD17" s="29"/>
       <c r="AE17" s="0" t="s">
         <v>396</v>
       </c>
@@ -6830,10 +6830,10 @@
         <v>6</v>
       </c>
       <c r="B18" s="29" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="C18" s="30" t="n">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="D18" s="30">
         <f>COUNTA(F18:AD18)</f>
@@ -6874,46 +6874,46 @@
       </c>
     </row>
     <row r="19" spans="1:32" customHeight="1">
-      <c r="A19" s="26" t="n">
-        <v>5</v>
-      </c>
-      <c r="B19" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="C19" s="26" t="n">
-        <v>120</v>
-      </c>
-      <c r="D19" s="26">
+      <c r="A19" s="30" t="n">
+        <v>6</v>
+      </c>
+      <c r="B19" s="29" t="s">
+        <v>372</v>
+      </c>
+      <c r="C19" s="30" t="n">
+        <v>30</v>
+      </c>
+      <c r="D19" s="30">
         <f>COUNTA(F19:AD19)</f>
       </c>
-      <c r="E19" s="26">
+      <c r="E19" s="30">
         <f>C19*D19</f>
       </c>
-      <c r="F19" s="28"/>
-      <c r="G19" s="28"/>
-      <c r="H19" s="28"/>
-      <c r="I19" s="28"/>
-      <c r="J19" s="28"/>
-      <c r="K19" s="28"/>
-      <c r="L19" s="28"/>
-      <c r="M19" s="28"/>
-      <c r="N19" s="28"/>
-      <c r="O19" s="28"/>
-      <c r="P19" s="28"/>
-      <c r="Q19" s="28"/>
-      <c r="R19" s="28"/>
-      <c r="S19" s="28"/>
-      <c r="T19" s="28"/>
-      <c r="U19" s="28"/>
-      <c r="V19" s="28"/>
-      <c r="W19" s="28"/>
-      <c r="X19" s="28"/>
-      <c r="Y19" s="28"/>
-      <c r="Z19" s="28"/>
-      <c r="AA19" s="28"/>
-      <c r="AB19" s="28"/>
-      <c r="AC19" s="28"/>
-      <c r="AD19" s="28"/>
+      <c r="F19" s="29"/>
+      <c r="G19" s="29"/>
+      <c r="H19" s="29"/>
+      <c r="I19" s="29"/>
+      <c r="J19" s="29"/>
+      <c r="K19" s="29"/>
+      <c r="L19" s="29"/>
+      <c r="M19" s="29"/>
+      <c r="N19" s="29"/>
+      <c r="O19" s="29"/>
+      <c r="P19" s="29"/>
+      <c r="Q19" s="29"/>
+      <c r="R19" s="29"/>
+      <c r="S19" s="29"/>
+      <c r="T19" s="29"/>
+      <c r="U19" s="29"/>
+      <c r="V19" s="29"/>
+      <c r="W19" s="29"/>
+      <c r="X19" s="29"/>
+      <c r="Y19" s="29"/>
+      <c r="Z19" s="29"/>
+      <c r="AA19" s="29"/>
+      <c r="AB19" s="29"/>
+      <c r="AC19" s="29"/>
+      <c r="AD19" s="29"/>
       <c r="AE19" s="0" t="s">
         <v>398</v>
       </c>
@@ -6922,46 +6922,46 @@
       </c>
     </row>
     <row r="20" spans="1:32" customHeight="1">
-      <c r="A20" s="26" t="n">
-        <v>7</v>
-      </c>
-      <c r="B20" s="25" t="s">
-        <v>374</v>
-      </c>
-      <c r="C20" s="26" t="n">
+      <c r="A20" s="30" t="n">
+        <v>6</v>
+      </c>
+      <c r="B20" s="29" t="s">
+        <v>372</v>
+      </c>
+      <c r="C20" s="30" t="n">
         <v>30</v>
       </c>
-      <c r="D20" s="26">
+      <c r="D20" s="30">
         <f>COUNTA(F20:AD20)</f>
       </c>
-      <c r="E20" s="26">
+      <c r="E20" s="30">
         <f>C20*D20</f>
       </c>
-      <c r="F20" s="28"/>
-      <c r="G20" s="28"/>
-      <c r="H20" s="28"/>
-      <c r="I20" s="28"/>
-      <c r="J20" s="28"/>
-      <c r="K20" s="28"/>
-      <c r="L20" s="28"/>
-      <c r="M20" s="28"/>
-      <c r="N20" s="28"/>
-      <c r="O20" s="28"/>
-      <c r="P20" s="28"/>
-      <c r="Q20" s="28"/>
-      <c r="R20" s="28"/>
-      <c r="S20" s="28"/>
-      <c r="T20" s="28"/>
-      <c r="U20" s="28"/>
-      <c r="V20" s="28"/>
-      <c r="W20" s="28"/>
-      <c r="X20" s="28"/>
-      <c r="Y20" s="28"/>
-      <c r="Z20" s="28"/>
-      <c r="AA20" s="28"/>
-      <c r="AB20" s="28"/>
-      <c r="AC20" s="28"/>
-      <c r="AD20" s="28"/>
+      <c r="F20" s="29"/>
+      <c r="G20" s="29"/>
+      <c r="H20" s="29"/>
+      <c r="I20" s="29"/>
+      <c r="J20" s="29"/>
+      <c r="K20" s="29"/>
+      <c r="L20" s="29"/>
+      <c r="M20" s="29"/>
+      <c r="N20" s="29"/>
+      <c r="O20" s="29"/>
+      <c r="P20" s="29"/>
+      <c r="Q20" s="29"/>
+      <c r="R20" s="29"/>
+      <c r="S20" s="29"/>
+      <c r="T20" s="29"/>
+      <c r="U20" s="29"/>
+      <c r="V20" s="29"/>
+      <c r="W20" s="29"/>
+      <c r="X20" s="29"/>
+      <c r="Y20" s="29"/>
+      <c r="Z20" s="29"/>
+      <c r="AA20" s="29"/>
+      <c r="AB20" s="29"/>
+      <c r="AC20" s="29"/>
+      <c r="AD20" s="29"/>
       <c r="AE20" s="0" t="s">
         <v>399</v>
       </c>
@@ -6970,46 +6970,46 @@
       </c>
     </row>
     <row r="21" spans="1:32" customHeight="1">
-      <c r="A21" s="26" t="n">
-        <v>7</v>
-      </c>
-      <c r="B21" s="25" t="s">
-        <v>375</v>
-      </c>
-      <c r="C21" s="26" t="n">
-        <v>30</v>
-      </c>
-      <c r="D21" s="26">
+      <c r="A21" s="30" t="n">
+        <v>6</v>
+      </c>
+      <c r="B21" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="C21" s="30" t="n">
+        <v>100</v>
+      </c>
+      <c r="D21" s="30">
         <f>COUNTA(F21:AD21)</f>
       </c>
-      <c r="E21" s="26">
+      <c r="E21" s="30">
         <f>C21*D21</f>
       </c>
-      <c r="F21" s="28"/>
-      <c r="G21" s="28"/>
-      <c r="H21" s="28"/>
-      <c r="I21" s="28"/>
-      <c r="J21" s="28"/>
-      <c r="K21" s="28"/>
-      <c r="L21" s="28"/>
-      <c r="M21" s="28"/>
-      <c r="N21" s="28"/>
-      <c r="O21" s="28"/>
-      <c r="P21" s="28"/>
-      <c r="Q21" s="28"/>
-      <c r="R21" s="28"/>
-      <c r="S21" s="28"/>
-      <c r="T21" s="28"/>
-      <c r="U21" s="28"/>
-      <c r="V21" s="28"/>
-      <c r="W21" s="28"/>
-      <c r="X21" s="28"/>
-      <c r="Y21" s="28"/>
-      <c r="Z21" s="28"/>
-      <c r="AA21" s="28"/>
-      <c r="AB21" s="28"/>
-      <c r="AC21" s="28"/>
-      <c r="AD21" s="28"/>
+      <c r="F21" s="29"/>
+      <c r="G21" s="29"/>
+      <c r="H21" s="29"/>
+      <c r="I21" s="29"/>
+      <c r="J21" s="29"/>
+      <c r="K21" s="29"/>
+      <c r="L21" s="29"/>
+      <c r="M21" s="29"/>
+      <c r="N21" s="29"/>
+      <c r="O21" s="29"/>
+      <c r="P21" s="29"/>
+      <c r="Q21" s="29"/>
+      <c r="R21" s="29"/>
+      <c r="S21" s="29"/>
+      <c r="T21" s="29"/>
+      <c r="U21" s="29"/>
+      <c r="V21" s="29"/>
+      <c r="W21" s="29"/>
+      <c r="X21" s="29"/>
+      <c r="Y21" s="29"/>
+      <c r="Z21" s="29"/>
+      <c r="AA21" s="29"/>
+      <c r="AB21" s="29"/>
+      <c r="AC21" s="29"/>
+      <c r="AD21" s="29"/>
       <c r="AE21" s="0" t="s">
         <v>400</v>
       </c>
@@ -7018,46 +7018,46 @@
       </c>
     </row>
     <row r="22" spans="1:32" customHeight="1">
-      <c r="A22" s="26" t="n">
-        <v>7</v>
-      </c>
-      <c r="B22" s="25" t="s">
-        <v>376</v>
-      </c>
-      <c r="C22" s="26" t="n">
-        <v>30</v>
-      </c>
-      <c r="D22" s="26">
+      <c r="A22" s="30" t="n">
+        <v>6</v>
+      </c>
+      <c r="B22" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="C22" s="30" t="n">
+        <v>100</v>
+      </c>
+      <c r="D22" s="30">
         <f>COUNTA(F22:AD22)</f>
       </c>
-      <c r="E22" s="26">
+      <c r="E22" s="30">
         <f>C22*D22</f>
       </c>
-      <c r="F22" s="28"/>
-      <c r="G22" s="28"/>
-      <c r="H22" s="28"/>
-      <c r="I22" s="28"/>
-      <c r="J22" s="28"/>
-      <c r="K22" s="28"/>
-      <c r="L22" s="28"/>
-      <c r="M22" s="28"/>
-      <c r="N22" s="28"/>
-      <c r="O22" s="28"/>
-      <c r="P22" s="28"/>
-      <c r="Q22" s="28"/>
-      <c r="R22" s="28"/>
-      <c r="S22" s="28"/>
-      <c r="T22" s="28"/>
-      <c r="U22" s="28"/>
-      <c r="V22" s="28"/>
-      <c r="W22" s="28"/>
-      <c r="X22" s="28"/>
-      <c r="Y22" s="28"/>
-      <c r="Z22" s="28"/>
-      <c r="AA22" s="28"/>
-      <c r="AB22" s="28"/>
-      <c r="AC22" s="28"/>
-      <c r="AD22" s="28"/>
+      <c r="F22" s="29"/>
+      <c r="G22" s="29"/>
+      <c r="H22" s="29"/>
+      <c r="I22" s="29"/>
+      <c r="J22" s="29"/>
+      <c r="K22" s="29"/>
+      <c r="L22" s="29"/>
+      <c r="M22" s="29"/>
+      <c r="N22" s="29"/>
+      <c r="O22" s="29"/>
+      <c r="P22" s="29"/>
+      <c r="Q22" s="29"/>
+      <c r="R22" s="29"/>
+      <c r="S22" s="29"/>
+      <c r="T22" s="29"/>
+      <c r="U22" s="29"/>
+      <c r="V22" s="29"/>
+      <c r="W22" s="29"/>
+      <c r="X22" s="29"/>
+      <c r="Y22" s="29"/>
+      <c r="Z22" s="29"/>
+      <c r="AA22" s="29"/>
+      <c r="AB22" s="29"/>
+      <c r="AC22" s="29"/>
+      <c r="AD22" s="29"/>
       <c r="AE22" s="0" t="s">
         <v>401</v>
       </c>
@@ -7067,13 +7067,13 @@
     </row>
     <row r="23" spans="1:32" customHeight="1">
       <c r="A23" s="26" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B23" s="25" t="s">
-        <v>39</v>
+        <v>373</v>
       </c>
       <c r="C23" s="26" t="n">
-        <v>215</v>
+        <v>35</v>
       </c>
       <c r="D23" s="26">
         <f>COUNTA(F23:AD23)</f>
@@ -7114,46 +7114,46 @@
       </c>
     </row>
     <row r="24" spans="1:32" customHeight="1">
-      <c r="A24" s="30" t="n">
-        <v>6</v>
-      </c>
-      <c r="B24" s="29" t="s">
-        <v>377</v>
-      </c>
-      <c r="C24" s="30" t="n">
-        <v>65</v>
-      </c>
-      <c r="D24" s="30">
+      <c r="A24" s="26" t="n">
+        <v>7</v>
+      </c>
+      <c r="B24" s="25" t="s">
+        <v>374</v>
+      </c>
+      <c r="C24" s="26" t="n">
+        <v>30</v>
+      </c>
+      <c r="D24" s="26">
         <f>COUNTA(F24:AD24)</f>
       </c>
-      <c r="E24" s="30">
+      <c r="E24" s="26">
         <f>C24*D24</f>
       </c>
-      <c r="F24" s="29"/>
-      <c r="G24" s="29"/>
-      <c r="H24" s="29"/>
-      <c r="I24" s="29"/>
-      <c r="J24" s="29"/>
-      <c r="K24" s="29"/>
-      <c r="L24" s="29"/>
-      <c r="M24" s="29"/>
-      <c r="N24" s="29"/>
-      <c r="O24" s="29"/>
-      <c r="P24" s="29"/>
-      <c r="Q24" s="29"/>
-      <c r="R24" s="29"/>
-      <c r="S24" s="29"/>
-      <c r="T24" s="29"/>
-      <c r="U24" s="29"/>
-      <c r="V24" s="29"/>
-      <c r="W24" s="29"/>
-      <c r="X24" s="29"/>
-      <c r="Y24" s="29"/>
-      <c r="Z24" s="29"/>
-      <c r="AA24" s="29"/>
-      <c r="AB24" s="29"/>
-      <c r="AC24" s="29"/>
-      <c r="AD24" s="29"/>
+      <c r="F24" s="28"/>
+      <c r="G24" s="28"/>
+      <c r="H24" s="28"/>
+      <c r="I24" s="28"/>
+      <c r="J24" s="28"/>
+      <c r="K24" s="28"/>
+      <c r="L24" s="28"/>
+      <c r="M24" s="28"/>
+      <c r="N24" s="28"/>
+      <c r="O24" s="28"/>
+      <c r="P24" s="28"/>
+      <c r="Q24" s="28"/>
+      <c r="R24" s="28"/>
+      <c r="S24" s="28"/>
+      <c r="T24" s="28"/>
+      <c r="U24" s="28"/>
+      <c r="V24" s="28"/>
+      <c r="W24" s="28"/>
+      <c r="X24" s="28"/>
+      <c r="Y24" s="28"/>
+      <c r="Z24" s="28"/>
+      <c r="AA24" s="28"/>
+      <c r="AB24" s="28"/>
+      <c r="AC24" s="28"/>
+      <c r="AD24" s="28"/>
       <c r="AE24" s="0" t="s">
         <v>403</v>
       </c>
@@ -7162,46 +7162,46 @@
       </c>
     </row>
     <row r="25" spans="1:32" customHeight="1">
-      <c r="A25" s="30" t="n">
-        <v>6</v>
-      </c>
-      <c r="B25" s="29" t="s">
-        <v>378</v>
-      </c>
-      <c r="C25" s="30" t="n">
+      <c r="A25" s="26" t="n">
+        <v>7</v>
+      </c>
+      <c r="B25" s="25" t="s">
+        <v>375</v>
+      </c>
+      <c r="C25" s="26" t="n">
         <v>30</v>
       </c>
-      <c r="D25" s="30">
+      <c r="D25" s="26">
         <f>COUNTA(F25:AD25)</f>
       </c>
-      <c r="E25" s="30">
+      <c r="E25" s="26">
         <f>C25*D25</f>
       </c>
-      <c r="F25" s="29"/>
-      <c r="G25" s="29"/>
-      <c r="H25" s="29"/>
-      <c r="I25" s="29"/>
-      <c r="J25" s="29"/>
-      <c r="K25" s="29"/>
-      <c r="L25" s="29"/>
-      <c r="M25" s="29"/>
-      <c r="N25" s="29"/>
-      <c r="O25" s="29"/>
-      <c r="P25" s="29"/>
-      <c r="Q25" s="29"/>
-      <c r="R25" s="29"/>
-      <c r="S25" s="29"/>
-      <c r="T25" s="29"/>
-      <c r="U25" s="29"/>
-      <c r="V25" s="29"/>
-      <c r="W25" s="29"/>
-      <c r="X25" s="29"/>
-      <c r="Y25" s="29"/>
-      <c r="Z25" s="29"/>
-      <c r="AA25" s="29"/>
-      <c r="AB25" s="29"/>
-      <c r="AC25" s="29"/>
-      <c r="AD25" s="29"/>
+      <c r="F25" s="28"/>
+      <c r="G25" s="28"/>
+      <c r="H25" s="28"/>
+      <c r="I25" s="28"/>
+      <c r="J25" s="28"/>
+      <c r="K25" s="28"/>
+      <c r="L25" s="28"/>
+      <c r="M25" s="28"/>
+      <c r="N25" s="28"/>
+      <c r="O25" s="28"/>
+      <c r="P25" s="28"/>
+      <c r="Q25" s="28"/>
+      <c r="R25" s="28"/>
+      <c r="S25" s="28"/>
+      <c r="T25" s="28"/>
+      <c r="U25" s="28"/>
+      <c r="V25" s="28"/>
+      <c r="W25" s="28"/>
+      <c r="X25" s="28"/>
+      <c r="Y25" s="28"/>
+      <c r="Z25" s="28"/>
+      <c r="AA25" s="28"/>
+      <c r="AB25" s="28"/>
+      <c r="AC25" s="28"/>
+      <c r="AD25" s="28"/>
       <c r="AE25" s="0" t="s">
         <v>404</v>
       </c>
@@ -7211,13 +7211,13 @@
     </row>
     <row r="26" spans="1:32" customHeight="1">
       <c r="A26" s="26" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B26" s="25" t="s">
-        <v>46</v>
+        <v>376</v>
       </c>
       <c r="C26" s="26" t="n">
-        <v>110</v>
+        <v>30</v>
       </c>
       <c r="D26" s="26">
         <f>COUNTA(F26:AD26)</f>
@@ -7258,46 +7258,46 @@
       </c>
     </row>
     <row r="27" spans="1:32" customHeight="1">
-      <c r="A27" s="30" t="n">
-        <v>6</v>
-      </c>
-      <c r="B27" s="29" t="s">
-        <v>47</v>
-      </c>
-      <c r="C27" s="30" t="n">
-        <v>100</v>
-      </c>
-      <c r="D27" s="30">
+      <c r="A27" s="26" t="n">
+        <v>7</v>
+      </c>
+      <c r="B27" s="25" t="s">
+        <v>377</v>
+      </c>
+      <c r="C27" s="26" t="n">
+        <v>30</v>
+      </c>
+      <c r="D27" s="26">
         <f>COUNTA(F27:AD27)</f>
       </c>
-      <c r="E27" s="30">
+      <c r="E27" s="26">
         <f>C27*D27</f>
       </c>
-      <c r="F27" s="29"/>
-      <c r="G27" s="29"/>
-      <c r="H27" s="29"/>
-      <c r="I27" s="29"/>
-      <c r="J27" s="29"/>
-      <c r="K27" s="29"/>
-      <c r="L27" s="29"/>
-      <c r="M27" s="29"/>
-      <c r="N27" s="29"/>
-      <c r="O27" s="29"/>
-      <c r="P27" s="29"/>
-      <c r="Q27" s="29"/>
-      <c r="R27" s="29"/>
-      <c r="S27" s="29"/>
-      <c r="T27" s="29"/>
-      <c r="U27" s="29"/>
-      <c r="V27" s="29"/>
-      <c r="W27" s="29"/>
-      <c r="X27" s="29"/>
-      <c r="Y27" s="29"/>
-      <c r="Z27" s="29"/>
-      <c r="AA27" s="29"/>
-      <c r="AB27" s="29"/>
-      <c r="AC27" s="29"/>
-      <c r="AD27" s="29"/>
+      <c r="F27" s="28"/>
+      <c r="G27" s="28"/>
+      <c r="H27" s="28"/>
+      <c r="I27" s="28"/>
+      <c r="J27" s="28"/>
+      <c r="K27" s="28"/>
+      <c r="L27" s="28"/>
+      <c r="M27" s="28"/>
+      <c r="N27" s="28"/>
+      <c r="O27" s="28"/>
+      <c r="P27" s="28"/>
+      <c r="Q27" s="28"/>
+      <c r="R27" s="28"/>
+      <c r="S27" s="28"/>
+      <c r="T27" s="28"/>
+      <c r="U27" s="28"/>
+      <c r="V27" s="28"/>
+      <c r="W27" s="28"/>
+      <c r="X27" s="28"/>
+      <c r="Y27" s="28"/>
+      <c r="Z27" s="28"/>
+      <c r="AA27" s="28"/>
+      <c r="AB27" s="28"/>
+      <c r="AC27" s="28"/>
+      <c r="AD27" s="28"/>
       <c r="AE27" s="0" t="s">
         <v>406</v>
       </c>
@@ -7306,46 +7306,46 @@
       </c>
     </row>
     <row r="28" spans="1:32" customHeight="1">
-      <c r="A28" s="30" t="n">
-        <v>6</v>
-      </c>
-      <c r="B28" s="29" t="s">
-        <v>379</v>
-      </c>
-      <c r="C28" s="30" t="n">
-        <v>45</v>
-      </c>
-      <c r="D28" s="30">
+      <c r="A28" s="26" t="n">
+        <v>7</v>
+      </c>
+      <c r="B28" s="25" t="s">
+        <v>378</v>
+      </c>
+      <c r="C28" s="26" t="n">
+        <v>30</v>
+      </c>
+      <c r="D28" s="26">
         <f>COUNTA(F28:AD28)</f>
       </c>
-      <c r="E28" s="30">
+      <c r="E28" s="26">
         <f>C28*D28</f>
       </c>
-      <c r="F28" s="29"/>
-      <c r="G28" s="29"/>
-      <c r="H28" s="29"/>
-      <c r="I28" s="29"/>
-      <c r="J28" s="29"/>
-      <c r="K28" s="29"/>
-      <c r="L28" s="29"/>
-      <c r="M28" s="29"/>
-      <c r="N28" s="29"/>
-      <c r="O28" s="29"/>
-      <c r="P28" s="29"/>
-      <c r="Q28" s="29"/>
-      <c r="R28" s="29"/>
-      <c r="S28" s="29"/>
-      <c r="T28" s="29"/>
-      <c r="U28" s="29"/>
-      <c r="V28" s="29"/>
-      <c r="W28" s="29"/>
-      <c r="X28" s="29"/>
-      <c r="Y28" s="29"/>
-      <c r="Z28" s="29"/>
-      <c r="AA28" s="29"/>
-      <c r="AB28" s="29"/>
-      <c r="AC28" s="29"/>
-      <c r="AD28" s="29"/>
+      <c r="F28" s="28"/>
+      <c r="G28" s="28"/>
+      <c r="H28" s="28"/>
+      <c r="I28" s="28"/>
+      <c r="J28" s="28"/>
+      <c r="K28" s="28"/>
+      <c r="L28" s="28"/>
+      <c r="M28" s="28"/>
+      <c r="N28" s="28"/>
+      <c r="O28" s="28"/>
+      <c r="P28" s="28"/>
+      <c r="Q28" s="28"/>
+      <c r="R28" s="28"/>
+      <c r="S28" s="28"/>
+      <c r="T28" s="28"/>
+      <c r="U28" s="28"/>
+      <c r="V28" s="28"/>
+      <c r="W28" s="28"/>
+      <c r="X28" s="28"/>
+      <c r="Y28" s="28"/>
+      <c r="Z28" s="28"/>
+      <c r="AA28" s="28"/>
+      <c r="AB28" s="28"/>
+      <c r="AC28" s="28"/>
+      <c r="AD28" s="28"/>
       <c r="AE28" s="0" t="s">
         <v>407</v>
       </c>
@@ -7353,7 +7353,47 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="29" spans="31:32" customHeight="1">
+    <row r="29" spans="1:32" customHeight="1">
+      <c r="A29" s="26" t="n">
+        <v>7</v>
+      </c>
+      <c r="B29" s="25" t="s">
+        <v>379</v>
+      </c>
+      <c r="C29" s="26" t="n">
+        <v>20</v>
+      </c>
+      <c r="D29" s="26">
+        <f>COUNTA(F29:AD29)</f>
+      </c>
+      <c r="E29" s="26">
+        <f>C29*D29</f>
+      </c>
+      <c r="F29" s="28"/>
+      <c r="G29" s="28"/>
+      <c r="H29" s="28"/>
+      <c r="I29" s="28"/>
+      <c r="J29" s="28"/>
+      <c r="K29" s="28"/>
+      <c r="L29" s="28"/>
+      <c r="M29" s="28"/>
+      <c r="N29" s="28"/>
+      <c r="O29" s="28"/>
+      <c r="P29" s="28"/>
+      <c r="Q29" s="28"/>
+      <c r="R29" s="28"/>
+      <c r="S29" s="28"/>
+      <c r="T29" s="28"/>
+      <c r="U29" s="28"/>
+      <c r="V29" s="28"/>
+      <c r="W29" s="28"/>
+      <c r="X29" s="28"/>
+      <c r="Y29" s="28"/>
+      <c r="Z29" s="28"/>
+      <c r="AA29" s="28"/>
+      <c r="AB29" s="28"/>
+      <c r="AC29" s="28"/>
+      <c r="AD29" s="28"/>
       <c r="AE29" s="0" t="s">
         <v>408</v>
       </c>

--- a/lib/gen-server/port-battle.xlsx
+++ b/lib/gen-server/port-battle.xlsx
@@ -68,24 +68,24 @@
     <t>St. Pavel</t>
   </si>
   <si>
+    <t>3rd Rate</t>
+  </si>
+  <si>
     <t>Admiraal de Ruyter</t>
   </si>
   <si>
+    <t>Bellona</t>
+  </si>
+  <si>
+    <t>Constitution</t>
+  </si>
+  <si>
     <t>Implacable</t>
   </si>
   <si>
     <t>Redoutable</t>
   </si>
   <si>
-    <t>Bellona</t>
-  </si>
-  <si>
-    <t>3rd Rate</t>
-  </si>
-  <si>
-    <t>Constitution</t>
-  </si>
-  <si>
     <t>USS United States</t>
   </si>
   <si>
@@ -95,87 +95,87 @@
     <t>Agamemnon</t>
   </si>
   <si>
+    <t>Indefatigable</t>
+  </si>
+  <si>
+    <t>Ingermanland</t>
+  </si>
+  <si>
+    <t>Leopard</t>
+  </si>
+  <si>
     <t>Rättvisan</t>
   </si>
   <si>
-    <t>Leopard</t>
-  </si>
-  <si>
-    <t>Indefatigable</t>
-  </si>
-  <si>
-    <t>Ingermanland</t>
-  </si>
-  <si>
     <t>Wapen von Hamburg</t>
   </si>
   <si>
+    <t>Cerberus</t>
+  </si>
+  <si>
+    <t>Diana</t>
+  </si>
+  <si>
     <t>Endymion</t>
   </si>
   <si>
+    <t>Essex</t>
+  </si>
+  <si>
+    <t>Frigate</t>
+  </si>
+  <si>
+    <t>Hercules</t>
+  </si>
+  <si>
+    <t>Hulk Indiaman</t>
+  </si>
+  <si>
+    <t>Indiaman</t>
+  </si>
+  <si>
+    <t>L’Hermione</t>
+  </si>
+  <si>
+    <t>La Belle-Poule</t>
+  </si>
+  <si>
+    <t>La Renommée</t>
+  </si>
+  <si>
+    <t>Le Gros Ventre</t>
+  </si>
+  <si>
+    <t>Le Gros Ventre Refit</t>
+  </si>
+  <si>
+    <t>Pandora</t>
+  </si>
+  <si>
+    <t>Pirate Frigate</t>
+  </si>
+  <si>
+    <t>Santa Cecilia</t>
+  </si>
+  <si>
+    <t>Surprise</t>
+  </si>
+  <si>
     <t>Trincomalee</t>
   </si>
   <si>
-    <t>Diana</t>
-  </si>
-  <si>
-    <t>L’Hermione</t>
-  </si>
-  <si>
-    <t>Essex</t>
-  </si>
-  <si>
-    <t>Santa Cecilia</t>
-  </si>
-  <si>
-    <t>La Belle-Poule</t>
-  </si>
-  <si>
-    <t>Pirate Frigate</t>
-  </si>
-  <si>
-    <t>Frigate</t>
-  </si>
-  <si>
-    <t>Hulk Indiaman</t>
-  </si>
-  <si>
-    <t>Le Gros Ventre Refit</t>
-  </si>
-  <si>
-    <t>Indiaman</t>
-  </si>
-  <si>
-    <t>La Renommée</t>
-  </si>
-  <si>
-    <t>Le Gros Ventre</t>
-  </si>
-  <si>
-    <t>Surprise</t>
-  </si>
-  <si>
-    <t>Hercules</t>
-  </si>
-  <si>
-    <t>Cerberus</t>
-  </si>
-  <si>
-    <t>Pandora</t>
-  </si>
-  <si>
     <t>Tutorial Cerberus</t>
   </si>
   <si>
+    <t>Le Requin</t>
+  </si>
+  <si>
+    <t>Mortar Brig</t>
+  </si>
+  <si>
     <t>Niagara</t>
   </si>
   <si>
-    <t>Mortar Brig</t>
-  </si>
-  <si>
-    <t>Le Requin</t>
-  </si>
-  <si>
     <t>Rattlesnake Heavy</t>
   </si>
   <si>
@@ -1109,39 +1109,42 @@
     <t>X</t>
   </si>
   <si>
+    <t>Brig</t>
+  </si>
+  <si>
+    <t>Mercury</t>
+  </si>
+  <si>
+    <t>Navy Brig</t>
+  </si>
+  <si>
     <t>Prince de Neufchâtel</t>
   </si>
   <si>
-    <t>Mercury</t>
-  </si>
-  <si>
-    <t>Navy Brig</t>
-  </si>
-  <si>
     <t>Rattlesnake</t>
   </si>
   <si>
     <t>Snow</t>
   </si>
   <si>
-    <t>Brig</t>
+    <t>Tutorial Brig</t>
   </si>
   <si>
     <t>Tutorial Trader</t>
   </si>
   <si>
-    <t>Tutorial Brig</t>
+    <t>Cutter</t>
+  </si>
+  <si>
+    <t>GunBoat</t>
+  </si>
+  <si>
+    <t>Lynx</t>
   </si>
   <si>
     <t>Pickle</t>
   </si>
   <si>
-    <t>Cutter</t>
-  </si>
-  <si>
-    <t>GunBoat</t>
-  </si>
-  <si>
     <t>Privateer</t>
   </si>
   <si>
@@ -1149,9 +1152,6 @@
   </si>
   <si>
     <t>Yacht Silver</t>
-  </si>
-  <si>
-    <t>Lynx</t>
   </si>
   <si>
     <t>Ahumada</t>
@@ -2106,7 +2106,7 @@
         <v>18</v>
       </c>
       <c r="C11" s="26" t="n">
-        <v>550</v>
+        <v>490</v>
       </c>
       <c r="D11" s="26">
         <f>COUNTA(F11:AD11)</f>
@@ -2202,7 +2202,7 @@
         <v>20</v>
       </c>
       <c r="C13" s="26" t="n">
-        <v>550</v>
+        <v>500</v>
       </c>
       <c r="D13" s="26">
         <f>COUNTA(F13:AD13)</f>
@@ -2250,7 +2250,7 @@
         <v>21</v>
       </c>
       <c r="C14" s="26" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="D14" s="26">
         <f>COUNTA(F14:AD14)</f>
@@ -2298,7 +2298,7 @@
         <v>22</v>
       </c>
       <c r="C15" s="26" t="n">
-        <v>490</v>
+        <v>550</v>
       </c>
       <c r="D15" s="26">
         <f>COUNTA(F15:AD15)</f>
@@ -2346,7 +2346,7 @@
         <v>23</v>
       </c>
       <c r="C16" s="26" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="D16" s="26">
         <f>COUNTA(F16:AD16)</f>
@@ -2538,7 +2538,7 @@
         <v>27</v>
       </c>
       <c r="C20" s="30" t="n">
-        <v>340</v>
+        <v>320</v>
       </c>
       <c r="D20" s="30">
         <f>COUNTA(F20:AD20)</f>
@@ -2586,7 +2586,7 @@
         <v>28</v>
       </c>
       <c r="C21" s="30" t="n">
-        <v>330</v>
+        <v>290</v>
       </c>
       <c r="D21" s="30">
         <f>COUNTA(F21:AD21)</f>
@@ -2634,7 +2634,7 @@
         <v>29</v>
       </c>
       <c r="C22" s="30" t="n">
-        <v>320</v>
+        <v>330</v>
       </c>
       <c r="D22" s="30">
         <f>COUNTA(F22:AD22)</f>
@@ -2682,7 +2682,7 @@
         <v>30</v>
       </c>
       <c r="C23" s="30" t="n">
-        <v>290</v>
+        <v>340</v>
       </c>
       <c r="D23" s="30">
         <f>COUNTA(F23:AD23)</f>
@@ -2778,7 +2778,7 @@
         <v>32</v>
       </c>
       <c r="C25" s="26" t="n">
-        <v>270</v>
+        <v>100</v>
       </c>
       <c r="D25" s="26">
         <f>COUNTA(F25:AD25)</f>
@@ -2826,7 +2826,7 @@
         <v>33</v>
       </c>
       <c r="C26" s="26" t="n">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="D26" s="26">
         <f>COUNTA(F26:AD26)</f>
@@ -2874,7 +2874,7 @@
         <v>34</v>
       </c>
       <c r="C27" s="26" t="n">
-        <v>250</v>
+        <v>270</v>
       </c>
       <c r="D27" s="26">
         <f>COUNTA(F27:AD27)</f>
@@ -2922,7 +2922,7 @@
         <v>35</v>
       </c>
       <c r="C28" s="26" t="n">
-        <v>215</v>
+        <v>200</v>
       </c>
       <c r="D28" s="26">
         <f>COUNTA(F28:AD28)</f>
@@ -2970,7 +2970,7 @@
         <v>36</v>
       </c>
       <c r="C29" s="26" t="n">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="D29" s="26">
         <f>COUNTA(F29:AD29)</f>
@@ -3018,7 +3018,7 @@
         <v>37</v>
       </c>
       <c r="C30" s="26" t="n">
-        <v>200</v>
+        <v>110</v>
       </c>
       <c r="D30" s="26">
         <f>COUNTA(F30:AD30)</f>
@@ -3066,7 +3066,7 @@
         <v>38</v>
       </c>
       <c r="C31" s="26" t="n">
-        <v>180</v>
+        <v>150</v>
       </c>
       <c r="D31" s="26">
         <f>COUNTA(F31:AD31)</f>
@@ -3114,7 +3114,7 @@
         <v>39</v>
       </c>
       <c r="C32" s="26" t="n">
-        <v>180</v>
+        <v>140</v>
       </c>
       <c r="D32" s="26">
         <f>COUNTA(F32:AD32)</f>
@@ -3162,7 +3162,7 @@
         <v>40</v>
       </c>
       <c r="C33" s="26" t="n">
-        <v>160</v>
+        <v>215</v>
       </c>
       <c r="D33" s="26">
         <f>COUNTA(F33:AD33)</f>
@@ -3210,7 +3210,7 @@
         <v>41</v>
       </c>
       <c r="C34" s="26" t="n">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="D34" s="26">
         <f>COUNTA(F34:AD34)</f>
@@ -3258,7 +3258,7 @@
         <v>42</v>
       </c>
       <c r="C35" s="26" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="D35" s="26">
         <f>COUNTA(F35:AD35)</f>
@@ -3306,7 +3306,7 @@
         <v>43</v>
       </c>
       <c r="C36" s="26" t="n">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="D36" s="26">
         <f>COUNTA(F36:AD36)</f>
@@ -3354,7 +3354,7 @@
         <v>44</v>
       </c>
       <c r="C37" s="26" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="D37" s="26">
         <f>COUNTA(F37:AD37)</f>
@@ -3402,7 +3402,7 @@
         <v>45</v>
       </c>
       <c r="C38" s="26" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="D38" s="26">
         <f>COUNTA(F38:AD38)</f>
@@ -3450,7 +3450,7 @@
         <v>46</v>
       </c>
       <c r="C39" s="26" t="n">
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="D39" s="26">
         <f>COUNTA(F39:AD39)</f>
@@ -3498,7 +3498,7 @@
         <v>47</v>
       </c>
       <c r="C40" s="26" t="n">
-        <v>110</v>
+        <v>200</v>
       </c>
       <c r="D40" s="26">
         <f>COUNTA(F40:AD40)</f>
@@ -3546,7 +3546,7 @@
         <v>48</v>
       </c>
       <c r="C41" s="26" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="D41" s="26">
         <f>COUNTA(F41:AD41)</f>
@@ -3594,7 +3594,7 @@
         <v>49</v>
       </c>
       <c r="C42" s="26" t="n">
-        <v>100</v>
+        <v>260</v>
       </c>
       <c r="D42" s="26">
         <f>COUNTA(F42:AD42)</f>
@@ -3690,7 +3690,7 @@
         <v>51</v>
       </c>
       <c r="C44" s="30" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="D44" s="30">
         <f>COUNTA(F44:AD44)</f>
@@ -3786,7 +3786,7 @@
         <v>53</v>
       </c>
       <c r="C46" s="30" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="D46" s="30">
         <f>COUNTA(F46:AD46)</f>
@@ -6194,10 +6194,10 @@
         <v>5</v>
       </c>
       <c r="B5" s="25" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C5" s="26" t="n">
-        <v>215</v>
+        <v>100</v>
       </c>
       <c r="D5" s="26">
         <f>COUNTA(F5:AD5)</f>
@@ -6248,10 +6248,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="25" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="C6" s="26" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="D6" s="26">
         <f>COUNTA(F6:AD6)</f>
@@ -6302,10 +6302,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="25" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C7" s="26" t="n">
-        <v>120</v>
+        <v>215</v>
       </c>
       <c r="D7" s="26">
         <f>COUNTA(F7:AD7)</f>
@@ -6350,10 +6350,10 @@
         <v>5</v>
       </c>
       <c r="B8" s="25" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C8" s="26" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="D8" s="26">
         <f>COUNTA(F8:AD8)</f>
@@ -6401,7 +6401,7 @@
         <v>48</v>
       </c>
       <c r="C9" s="26" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="D9" s="26">
         <f>COUNTA(F9:AD9)</f>
@@ -6446,10 +6446,10 @@
         <v>6</v>
       </c>
       <c r="B10" s="29" t="s">
-        <v>51</v>
+        <v>365</v>
       </c>
       <c r="C10" s="30" t="n">
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="D10" s="30">
         <f>COUNTA(F10:AD10)</f>
@@ -6494,10 +6494,10 @@
         <v>6</v>
       </c>
       <c r="B11" s="29" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C11" s="30" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="D11" s="30">
         <f>COUNTA(F11:AD11)</f>
@@ -6542,10 +6542,10 @@
         <v>6</v>
       </c>
       <c r="B12" s="29" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C12" s="30" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="D12" s="30">
         <f>COUNTA(F12:AD12)</f>
@@ -6590,10 +6590,10 @@
         <v>6</v>
       </c>
       <c r="B13" s="29" t="s">
-        <v>366</v>
+        <v>52</v>
       </c>
       <c r="C13" s="30" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="D13" s="30">
         <f>COUNTA(F13:AD13)</f>
@@ -6686,10 +6686,10 @@
         <v>6</v>
       </c>
       <c r="B15" s="29" t="s">
-        <v>368</v>
+        <v>53</v>
       </c>
       <c r="C15" s="30" t="n">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="D15" s="30">
         <f>COUNTA(F15:AD15)</f>
@@ -6734,10 +6734,10 @@
         <v>6</v>
       </c>
       <c r="B16" s="29" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C16" s="30" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="D16" s="30">
         <f>COUNTA(F16:AD16)</f>
@@ -6782,10 +6782,10 @@
         <v>6</v>
       </c>
       <c r="B17" s="29" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C17" s="30" t="n">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="D17" s="30">
         <f>COUNTA(F17:AD17)</f>
@@ -6830,10 +6830,10 @@
         <v>6</v>
       </c>
       <c r="B18" s="29" t="s">
-        <v>371</v>
+        <v>54</v>
       </c>
       <c r="C18" s="30" t="n">
-        <v>45</v>
+        <v>100</v>
       </c>
       <c r="D18" s="30">
         <f>COUNTA(F18:AD18)</f>
@@ -6878,10 +6878,10 @@
         <v>6</v>
       </c>
       <c r="B19" s="29" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="C19" s="30" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="D19" s="30">
         <f>COUNTA(F19:AD19)</f>
@@ -6926,7 +6926,7 @@
         <v>6</v>
       </c>
       <c r="B20" s="29" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C20" s="30" t="n">
         <v>30</v>
@@ -6974,10 +6974,10 @@
         <v>6</v>
       </c>
       <c r="B21" s="29" t="s">
-        <v>53</v>
+        <v>371</v>
       </c>
       <c r="C21" s="30" t="n">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="D21" s="30">
         <f>COUNTA(F21:AD21)</f>
@@ -7022,10 +7022,10 @@
         <v>6</v>
       </c>
       <c r="B22" s="29" t="s">
-        <v>54</v>
+        <v>372</v>
       </c>
       <c r="C22" s="30" t="n">
-        <v>100</v>
+        <v>45</v>
       </c>
       <c r="D22" s="30">
         <f>COUNTA(F22:AD22)</f>
@@ -7073,7 +7073,7 @@
         <v>373</v>
       </c>
       <c r="C23" s="26" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D23" s="26">
         <f>COUNTA(F23:AD23)</f>
@@ -7169,7 +7169,7 @@
         <v>375</v>
       </c>
       <c r="C25" s="26" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D25" s="26">
         <f>COUNTA(F25:AD25)</f>
@@ -7217,7 +7217,7 @@
         <v>376</v>
       </c>
       <c r="C26" s="26" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D26" s="26">
         <f>COUNTA(F26:AD26)</f>
@@ -7361,7 +7361,7 @@
         <v>379</v>
       </c>
       <c r="C29" s="26" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D29" s="26">
         <f>COUNTA(F29:AD29)</f>

--- a/lib/gen-server/port-battle.xlsx
+++ b/lib/gen-server/port-battle.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="453">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="449">
   <si>
     <t>Port battle calculator by Felix Victor</t>
   </si>
@@ -128,9 +128,6 @@
     <t>Hercules</t>
   </si>
   <si>
-    <t>Hulk Indiaman</t>
-  </si>
-  <si>
     <t>Indiaman</t>
   </si>
   <si>
@@ -164,9 +161,6 @@
     <t>Trincomalee</t>
   </si>
   <si>
-    <t>Tutorial Cerberus</t>
-  </si>
-  <si>
     <t>Le Requin</t>
   </si>
   <si>
@@ -1125,12 +1119,6 @@
   </si>
   <si>
     <t>Snow</t>
-  </si>
-  <si>
-    <t>Tutorial Brig</t>
-  </si>
-  <si>
-    <t>Tutorial Trader</t>
   </si>
   <si>
     <t>Cutter</t>
@@ -1652,7 +1640,7 @@
       <c r="AC1" s="6"/>
       <c r="AD1" s="6"/>
       <c r="AE1" s="0" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="AF1" s="0" t="n">
         <v>10600</v>
@@ -1698,7 +1686,7 @@
       <c r="AC2" s="9"/>
       <c r="AD2" s="9"/>
       <c r="AE2" s="0" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="AF2" s="0" t="n">
         <v>5700</v>
@@ -1748,7 +1736,7 @@
       <c r="AC3" s="16"/>
       <c r="AD3" s="16"/>
       <c r="AE3" s="0" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="AF3" s="0" t="n">
         <v>5700</v>
@@ -1759,10 +1747,10 @@
       <c r="B4" s="16"/>
       <c r="C4" s="16"/>
       <c r="D4" s="21">
-        <f>SUM(D5:D47)</f>
+        <f>SUM(D5:D45)</f>
       </c>
       <c r="E4" s="21">
-        <f>SUM(E5:E47)</f>
+        <f>SUM(E5:E45)</f>
       </c>
       <c r="F4" s="22" t="s">
         <v>11</v>
@@ -1792,7 +1780,7 @@
       <c r="AC4" s="22"/>
       <c r="AD4" s="22"/>
       <c r="AE4" s="0" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="AF4" s="0" t="n">
         <v>5700</v>
@@ -1815,13 +1803,13 @@
         <f>C5*D5</f>
       </c>
       <c r="F5" s="28" t="s">
+        <v>358</v>
+      </c>
+      <c r="G5" s="28" t="s">
+        <v>359</v>
+      </c>
+      <c r="H5" s="28" t="s">
         <v>360</v>
-      </c>
-      <c r="G5" s="28" t="s">
-        <v>361</v>
-      </c>
-      <c r="H5" s="28" t="s">
-        <v>362</v>
       </c>
       <c r="I5" s="28"/>
       <c r="J5" s="28"/>
@@ -1846,7 +1834,7 @@
       <c r="AC5" s="28"/>
       <c r="AD5" s="28"/>
       <c r="AE5" s="0" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="AF5" s="0" t="n">
         <v>10600</v>
@@ -1869,13 +1857,13 @@
         <f>C6*D6</f>
       </c>
       <c r="F6" s="28" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="G6" s="28" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="H6" s="28" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="I6" s="28"/>
       <c r="J6" s="28"/>
@@ -1900,7 +1888,7 @@
       <c r="AC6" s="28"/>
       <c r="AD6" s="28"/>
       <c r="AE6" s="0" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="AF6" s="0" t="n">
         <v>10600</v>
@@ -1948,7 +1936,7 @@
       <c r="AC7" s="28"/>
       <c r="AD7" s="28"/>
       <c r="AE7" s="0" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="AF7" s="0" t="n">
         <v>5700</v>
@@ -1996,7 +1984,7 @@
       <c r="AC8" s="29"/>
       <c r="AD8" s="29"/>
       <c r="AE8" s="0" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="AF8" s="0" t="n">
         <v>5700</v>
@@ -2044,7 +2032,7 @@
       <c r="AC9" s="29"/>
       <c r="AD9" s="29"/>
       <c r="AE9" s="0" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="AF9" s="0" t="n">
         <v>5700</v>
@@ -2092,7 +2080,7 @@
       <c r="AC10" s="29"/>
       <c r="AD10" s="29"/>
       <c r="AE10" s="0" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="AF10" s="0" t="n">
         <v>10600</v>
@@ -2140,7 +2128,7 @@
       <c r="AC11" s="28"/>
       <c r="AD11" s="28"/>
       <c r="AE11" s="0" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="AF11" s="0" t="n">
         <v>5700</v>
@@ -2188,7 +2176,7 @@
       <c r="AC12" s="28"/>
       <c r="AD12" s="28"/>
       <c r="AE12" s="0" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="AF12" s="0" t="n">
         <v>5700</v>
@@ -2236,7 +2224,7 @@
       <c r="AC13" s="28"/>
       <c r="AD13" s="28"/>
       <c r="AE13" s="0" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="AF13" s="0" t="n">
         <v>5700</v>
@@ -2284,7 +2272,7 @@
       <c r="AC14" s="28"/>
       <c r="AD14" s="28"/>
       <c r="AE14" s="0" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="AF14" s="0" t="n">
         <v>5700</v>
@@ -2332,7 +2320,7 @@
       <c r="AC15" s="28"/>
       <c r="AD15" s="28"/>
       <c r="AE15" s="0" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="AF15" s="0" t="n">
         <v>5700</v>
@@ -2380,7 +2368,7 @@
       <c r="AC16" s="28"/>
       <c r="AD16" s="28"/>
       <c r="AE16" s="0" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="AF16" s="0" t="n">
         <v>10600</v>
@@ -2428,7 +2416,7 @@
       <c r="AC17" s="28"/>
       <c r="AD17" s="28"/>
       <c r="AE17" s="0" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="AF17" s="0" t="n">
         <v>5700</v>
@@ -2476,7 +2464,7 @@
       <c r="AC18" s="28"/>
       <c r="AD18" s="28"/>
       <c r="AE18" s="0" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="AF18" s="0" t="n">
         <v>10600</v>
@@ -2524,7 +2512,7 @@
       <c r="AC19" s="29"/>
       <c r="AD19" s="29"/>
       <c r="AE19" s="0" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="AF19" s="0" t="n">
         <v>5700</v>
@@ -2572,7 +2560,7 @@
       <c r="AC20" s="29"/>
       <c r="AD20" s="29"/>
       <c r="AE20" s="0" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="AF20" s="0" t="n">
         <v>10600</v>
@@ -2620,7 +2608,7 @@
       <c r="AC21" s="29"/>
       <c r="AD21" s="29"/>
       <c r="AE21" s="0" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="AF21" s="0" t="n">
         <v>20000</v>
@@ -2668,7 +2656,7 @@
       <c r="AC22" s="29"/>
       <c r="AD22" s="29"/>
       <c r="AE22" s="0" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="AF22" s="0" t="n">
         <v>5700</v>
@@ -2716,7 +2704,7 @@
       <c r="AC23" s="29"/>
       <c r="AD23" s="29"/>
       <c r="AE23" s="0" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="AF23" s="0" t="n">
         <v>5700</v>
@@ -2764,7 +2752,7 @@
       <c r="AC24" s="29"/>
       <c r="AD24" s="29"/>
       <c r="AE24" s="0" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="AF24" s="0" t="n">
         <v>5700</v>
@@ -2812,7 +2800,7 @@
       <c r="AC25" s="28"/>
       <c r="AD25" s="28"/>
       <c r="AE25" s="0" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="AF25" s="0" t="n">
         <v>20000</v>
@@ -2860,7 +2848,7 @@
       <c r="AC26" s="28"/>
       <c r="AD26" s="28"/>
       <c r="AE26" s="0" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="AF26" s="0" t="n">
         <v>10600</v>
@@ -2908,7 +2896,7 @@
       <c r="AC27" s="28"/>
       <c r="AD27" s="28"/>
       <c r="AE27" s="0" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="AF27" s="0" t="n">
         <v>20000</v>
@@ -2956,7 +2944,7 @@
       <c r="AC28" s="28"/>
       <c r="AD28" s="28"/>
       <c r="AE28" s="0" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AF28" s="0" t="n">
         <v>10600</v>
@@ -3004,7 +2992,7 @@
       <c r="AC29" s="28"/>
       <c r="AD29" s="28"/>
       <c r="AE29" s="0" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="AF29" s="0" t="n">
         <v>20000</v>
@@ -3052,7 +3040,7 @@
       <c r="AC30" s="28"/>
       <c r="AD30" s="28"/>
       <c r="AE30" s="0" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="AF30" s="0" t="n">
         <v>5700</v>
@@ -3066,7 +3054,7 @@
         <v>38</v>
       </c>
       <c r="C31" s="26" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="D31" s="26">
         <f>COUNTA(F31:AD31)</f>
@@ -3100,7 +3088,7 @@
       <c r="AC31" s="28"/>
       <c r="AD31" s="28"/>
       <c r="AE31" s="0" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="AF31" s="0" t="n">
         <v>5700</v>
@@ -3114,7 +3102,7 @@
         <v>39</v>
       </c>
       <c r="C32" s="26" t="n">
-        <v>140</v>
+        <v>215</v>
       </c>
       <c r="D32" s="26">
         <f>COUNTA(F32:AD32)</f>
@@ -3148,7 +3136,7 @@
       <c r="AC32" s="28"/>
       <c r="AD32" s="28"/>
       <c r="AE32" s="0" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="AF32" s="0" t="n">
         <v>10600</v>
@@ -3162,7 +3150,7 @@
         <v>40</v>
       </c>
       <c r="C33" s="26" t="n">
-        <v>215</v>
+        <v>180</v>
       </c>
       <c r="D33" s="26">
         <f>COUNTA(F33:AD33)</f>
@@ -3196,7 +3184,7 @@
       <c r="AC33" s="28"/>
       <c r="AD33" s="28"/>
       <c r="AE33" s="0" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="AF33" s="0" t="n">
         <v>5700</v>
@@ -3210,7 +3198,7 @@
         <v>41</v>
       </c>
       <c r="C34" s="26" t="n">
-        <v>180</v>
+        <v>120</v>
       </c>
       <c r="D34" s="26">
         <f>COUNTA(F34:AD34)</f>
@@ -3244,7 +3232,7 @@
       <c r="AC34" s="28"/>
       <c r="AD34" s="28"/>
       <c r="AE34" s="0" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="AF34" s="0" t="n">
         <v>20000</v>
@@ -3292,7 +3280,7 @@
       <c r="AC35" s="28"/>
       <c r="AD35" s="28"/>
       <c r="AE35" s="0" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="AF35" s="0" t="n">
         <v>5700</v>
@@ -3306,7 +3294,7 @@
         <v>43</v>
       </c>
       <c r="C36" s="26" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="D36" s="26">
         <f>COUNTA(F36:AD36)</f>
@@ -3340,7 +3328,7 @@
       <c r="AC36" s="28"/>
       <c r="AD36" s="28"/>
       <c r="AE36" s="0" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="AF36" s="0" t="n">
         <v>5700</v>
@@ -3354,7 +3342,7 @@
         <v>44</v>
       </c>
       <c r="C37" s="26" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="D37" s="26">
         <f>COUNTA(F37:AD37)</f>
@@ -3388,7 +3376,7 @@
       <c r="AC37" s="28"/>
       <c r="AD37" s="28"/>
       <c r="AE37" s="0" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="AF37" s="0" t="n">
         <v>20000</v>
@@ -3402,7 +3390,7 @@
         <v>45</v>
       </c>
       <c r="C38" s="26" t="n">
-        <v>100</v>
+        <v>180</v>
       </c>
       <c r="D38" s="26">
         <f>COUNTA(F38:AD38)</f>
@@ -3436,7 +3424,7 @@
       <c r="AC38" s="28"/>
       <c r="AD38" s="28"/>
       <c r="AE38" s="0" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="AF38" s="0" t="n">
         <v>10600</v>
@@ -3450,7 +3438,7 @@
         <v>46</v>
       </c>
       <c r="C39" s="26" t="n">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="D39" s="26">
         <f>COUNTA(F39:AD39)</f>
@@ -3484,7 +3472,7 @@
       <c r="AC39" s="28"/>
       <c r="AD39" s="28"/>
       <c r="AE39" s="0" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="AF39" s="0" t="n">
         <v>5700</v>
@@ -3498,7 +3486,7 @@
         <v>47</v>
       </c>
       <c r="C40" s="26" t="n">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="D40" s="26">
         <f>COUNTA(F40:AD40)</f>
@@ -3532,7 +3520,7 @@
       <c r="AC40" s="28"/>
       <c r="AD40" s="28"/>
       <c r="AE40" s="0" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="AF40" s="0" t="n">
         <v>5700</v>
@@ -3546,7 +3534,7 @@
         <v>48</v>
       </c>
       <c r="C41" s="26" t="n">
-        <v>120</v>
+        <v>260</v>
       </c>
       <c r="D41" s="26">
         <f>COUNTA(F41:AD41)</f>
@@ -3580,103 +3568,103 @@
       <c r="AC41" s="28"/>
       <c r="AD41" s="28"/>
       <c r="AE41" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="AF41" s="0" t="n">
+        <v>5700</v>
+      </c>
+    </row>
+    <row r="42" spans="1:32" customHeight="1">
+      <c r="A42" s="30" t="n">
+        <v>6</v>
+      </c>
+      <c r="B42" s="29" t="s">
+        <v>49</v>
+      </c>
+      <c r="C42" s="30" t="n">
+        <v>100</v>
+      </c>
+      <c r="D42" s="30">
+        <f>COUNTA(F42:AD42)</f>
+      </c>
+      <c r="E42" s="30">
+        <f>C42*D42</f>
+      </c>
+      <c r="F42" s="29"/>
+      <c r="G42" s="29"/>
+      <c r="H42" s="29"/>
+      <c r="I42" s="29"/>
+      <c r="J42" s="29"/>
+      <c r="K42" s="29"/>
+      <c r="L42" s="29"/>
+      <c r="M42" s="29"/>
+      <c r="N42" s="29"/>
+      <c r="O42" s="29"/>
+      <c r="P42" s="29"/>
+      <c r="Q42" s="29"/>
+      <c r="R42" s="29"/>
+      <c r="S42" s="29"/>
+      <c r="T42" s="29"/>
+      <c r="U42" s="29"/>
+      <c r="V42" s="29"/>
+      <c r="W42" s="29"/>
+      <c r="X42" s="29"/>
+      <c r="Y42" s="29"/>
+      <c r="Z42" s="29"/>
+      <c r="AA42" s="29"/>
+      <c r="AB42" s="29"/>
+      <c r="AC42" s="29"/>
+      <c r="AD42" s="29"/>
+      <c r="AE42" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="AF42" s="0" t="n">
+        <v>5700</v>
+      </c>
+    </row>
+    <row r="43" spans="1:32" customHeight="1">
+      <c r="A43" s="30" t="n">
+        <v>6</v>
+      </c>
+      <c r="B43" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="C43" s="30" t="n">
+        <v>80</v>
+      </c>
+      <c r="D43" s="30">
+        <f>COUNTA(F43:AD43)</f>
+      </c>
+      <c r="E43" s="30">
+        <f>C43*D43</f>
+      </c>
+      <c r="F43" s="29"/>
+      <c r="G43" s="29"/>
+      <c r="H43" s="29"/>
+      <c r="I43" s="29"/>
+      <c r="J43" s="29"/>
+      <c r="K43" s="29"/>
+      <c r="L43" s="29"/>
+      <c r="M43" s="29"/>
+      <c r="N43" s="29"/>
+      <c r="O43" s="29"/>
+      <c r="P43" s="29"/>
+      <c r="Q43" s="29"/>
+      <c r="R43" s="29"/>
+      <c r="S43" s="29"/>
+      <c r="T43" s="29"/>
+      <c r="U43" s="29"/>
+      <c r="V43" s="29"/>
+      <c r="W43" s="29"/>
+      <c r="X43" s="29"/>
+      <c r="Y43" s="29"/>
+      <c r="Z43" s="29"/>
+      <c r="AA43" s="29"/>
+      <c r="AB43" s="29"/>
+      <c r="AC43" s="29"/>
+      <c r="AD43" s="29"/>
+      <c r="AE43" s="0" t="s">
         <v>95</v>
-      </c>
-      <c r="AF41" s="0" t="n">
-        <v>5700</v>
-      </c>
-    </row>
-    <row r="42" spans="1:32" customHeight="1">
-      <c r="A42" s="26" t="n">
-        <v>5</v>
-      </c>
-      <c r="B42" s="25" t="s">
-        <v>49</v>
-      </c>
-      <c r="C42" s="26" t="n">
-        <v>260</v>
-      </c>
-      <c r="D42" s="26">
-        <f>COUNTA(F42:AD42)</f>
-      </c>
-      <c r="E42" s="26">
-        <f>C42*D42</f>
-      </c>
-      <c r="F42" s="28"/>
-      <c r="G42" s="28"/>
-      <c r="H42" s="28"/>
-      <c r="I42" s="28"/>
-      <c r="J42" s="28"/>
-      <c r="K42" s="28"/>
-      <c r="L42" s="28"/>
-      <c r="M42" s="28"/>
-      <c r="N42" s="28"/>
-      <c r="O42" s="28"/>
-      <c r="P42" s="28"/>
-      <c r="Q42" s="28"/>
-      <c r="R42" s="28"/>
-      <c r="S42" s="28"/>
-      <c r="T42" s="28"/>
-      <c r="U42" s="28"/>
-      <c r="V42" s="28"/>
-      <c r="W42" s="28"/>
-      <c r="X42" s="28"/>
-      <c r="Y42" s="28"/>
-      <c r="Z42" s="28"/>
-      <c r="AA42" s="28"/>
-      <c r="AB42" s="28"/>
-      <c r="AC42" s="28"/>
-      <c r="AD42" s="28"/>
-      <c r="AE42" s="0" t="s">
-        <v>96</v>
-      </c>
-      <c r="AF42" s="0" t="n">
-        <v>5700</v>
-      </c>
-    </row>
-    <row r="43" spans="1:32" customHeight="1">
-      <c r="A43" s="26" t="n">
-        <v>5</v>
-      </c>
-      <c r="B43" s="25" t="s">
-        <v>50</v>
-      </c>
-      <c r="C43" s="26" t="n">
-        <v>100</v>
-      </c>
-      <c r="D43" s="26">
-        <f>COUNTA(F43:AD43)</f>
-      </c>
-      <c r="E43" s="26">
-        <f>C43*D43</f>
-      </c>
-      <c r="F43" s="28"/>
-      <c r="G43" s="28"/>
-      <c r="H43" s="28"/>
-      <c r="I43" s="28"/>
-      <c r="J43" s="28"/>
-      <c r="K43" s="28"/>
-      <c r="L43" s="28"/>
-      <c r="M43" s="28"/>
-      <c r="N43" s="28"/>
-      <c r="O43" s="28"/>
-      <c r="P43" s="28"/>
-      <c r="Q43" s="28"/>
-      <c r="R43" s="28"/>
-      <c r="S43" s="28"/>
-      <c r="T43" s="28"/>
-      <c r="U43" s="28"/>
-      <c r="V43" s="28"/>
-      <c r="W43" s="28"/>
-      <c r="X43" s="28"/>
-      <c r="Y43" s="28"/>
-      <c r="Z43" s="28"/>
-      <c r="AA43" s="28"/>
-      <c r="AB43" s="28"/>
-      <c r="AC43" s="28"/>
-      <c r="AD43" s="28"/>
-      <c r="AE43" s="0" t="s">
-        <v>97</v>
       </c>
       <c r="AF43" s="0" t="n">
         <v>5700</v>
@@ -3690,7 +3678,7 @@
         <v>51</v>
       </c>
       <c r="C44" s="30" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="D44" s="30">
         <f>COUNTA(F44:AD44)</f>
@@ -3724,7 +3712,7 @@
       <c r="AC44" s="29"/>
       <c r="AD44" s="29"/>
       <c r="AE44" s="0" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="AF44" s="0" t="n">
         <v>5700</v>
@@ -3738,7 +3726,7 @@
         <v>52</v>
       </c>
       <c r="C45" s="30" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="D45" s="30">
         <f>COUNTA(F45:AD45)</f>
@@ -3772,103 +3760,23 @@
       <c r="AC45" s="29"/>
       <c r="AD45" s="29"/>
       <c r="AE45" s="0" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="AF45" s="0" t="n">
         <v>5700</v>
       </c>
     </row>
-    <row r="46" spans="1:32" customHeight="1">
-      <c r="A46" s="30" t="n">
-        <v>6</v>
-      </c>
-      <c r="B46" s="29" t="s">
-        <v>53</v>
-      </c>
-      <c r="C46" s="30" t="n">
-        <v>90</v>
-      </c>
-      <c r="D46" s="30">
-        <f>COUNTA(F46:AD46)</f>
-      </c>
-      <c r="E46" s="30">
-        <f>C46*D46</f>
-      </c>
-      <c r="F46" s="29"/>
-      <c r="G46" s="29"/>
-      <c r="H46" s="29"/>
-      <c r="I46" s="29"/>
-      <c r="J46" s="29"/>
-      <c r="K46" s="29"/>
-      <c r="L46" s="29"/>
-      <c r="M46" s="29"/>
-      <c r="N46" s="29"/>
-      <c r="O46" s="29"/>
-      <c r="P46" s="29"/>
-      <c r="Q46" s="29"/>
-      <c r="R46" s="29"/>
-      <c r="S46" s="29"/>
-      <c r="T46" s="29"/>
-      <c r="U46" s="29"/>
-      <c r="V46" s="29"/>
-      <c r="W46" s="29"/>
-      <c r="X46" s="29"/>
-      <c r="Y46" s="29"/>
-      <c r="Z46" s="29"/>
-      <c r="AA46" s="29"/>
-      <c r="AB46" s="29"/>
-      <c r="AC46" s="29"/>
-      <c r="AD46" s="29"/>
+    <row r="46" spans="31:32" customHeight="1">
       <c r="AE46" s="0" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="AF46" s="0" t="n">
         <v>20000</v>
       </c>
     </row>
-    <row r="47" spans="1:32" customHeight="1">
-      <c r="A47" s="30" t="n">
-        <v>6</v>
-      </c>
-      <c r="B47" s="29" t="s">
-        <v>54</v>
-      </c>
-      <c r="C47" s="30" t="n">
-        <v>100</v>
-      </c>
-      <c r="D47" s="30">
-        <f>COUNTA(F47:AD47)</f>
-      </c>
-      <c r="E47" s="30">
-        <f>C47*D47</f>
-      </c>
-      <c r="F47" s="29"/>
-      <c r="G47" s="29"/>
-      <c r="H47" s="29"/>
-      <c r="I47" s="29"/>
-      <c r="J47" s="29"/>
-      <c r="K47" s="29"/>
-      <c r="L47" s="29"/>
-      <c r="M47" s="29"/>
-      <c r="N47" s="29"/>
-      <c r="O47" s="29"/>
-      <c r="P47" s="29"/>
-      <c r="Q47" s="29"/>
-      <c r="R47" s="29"/>
-      <c r="S47" s="29"/>
-      <c r="T47" s="29"/>
-      <c r="U47" s="29"/>
-      <c r="V47" s="29"/>
-      <c r="W47" s="29"/>
-      <c r="X47" s="29"/>
-      <c r="Y47" s="29"/>
-      <c r="Z47" s="29"/>
-      <c r="AA47" s="29"/>
-      <c r="AB47" s="29"/>
-      <c r="AC47" s="29"/>
-      <c r="AD47" s="29"/>
+    <row r="47" spans="31:32" customHeight="1">
       <c r="AE47" s="0" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="AF47" s="0" t="n">
         <v>5700</v>
@@ -3876,7 +3784,7 @@
     </row>
     <row r="48" spans="31:32" customHeight="1">
       <c r="AE48" s="0" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="AF48" s="0" t="n">
         <v>5700</v>
@@ -3884,7 +3792,7 @@
     </row>
     <row r="49" spans="31:32" customHeight="1">
       <c r="AE49" s="0" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="AF49" s="0" t="n">
         <v>5700</v>
@@ -3892,7 +3800,7 @@
     </row>
     <row r="50" spans="31:32" customHeight="1">
       <c r="AE50" s="0" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="AF50" s="0" t="n">
         <v>5700</v>
@@ -3900,7 +3808,7 @@
     </row>
     <row r="51" spans="31:32" customHeight="1">
       <c r="AE51" s="0" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="AF51" s="0" t="n">
         <v>20000</v>
@@ -3908,7 +3816,7 @@
     </row>
     <row r="52" spans="31:32" customHeight="1">
       <c r="AE52" s="0" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="AF52" s="0" t="n">
         <v>20000</v>
@@ -3916,7 +3824,7 @@
     </row>
     <row r="53" spans="31:32" customHeight="1">
       <c r="AE53" s="0" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="AF53" s="0" t="n">
         <v>10600</v>
@@ -3924,7 +3832,7 @@
     </row>
     <row r="54" spans="31:32" customHeight="1">
       <c r="AE54" s="0" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="AF54" s="0" t="n">
         <v>10600</v>
@@ -3932,7 +3840,7 @@
     </row>
     <row r="55" spans="31:32" customHeight="1">
       <c r="AE55" s="0" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="AF55" s="0" t="n">
         <v>5700</v>
@@ -3940,7 +3848,7 @@
     </row>
     <row r="56" spans="31:32" customHeight="1">
       <c r="AE56" s="0" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="AF56" s="0" t="n">
         <v>20000</v>
@@ -3948,7 +3856,7 @@
     </row>
     <row r="57" spans="31:32" customHeight="1">
       <c r="AE57" s="0" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="AF57" s="0" t="n">
         <v>5700</v>
@@ -3956,7 +3864,7 @@
     </row>
     <row r="58" spans="31:32" customHeight="1">
       <c r="AE58" s="0" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="AF58" s="0" t="n">
         <v>5700</v>
@@ -3964,7 +3872,7 @@
     </row>
     <row r="59" spans="31:32" customHeight="1">
       <c r="AE59" s="0" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="AF59" s="0" t="n">
         <v>10600</v>
@@ -3972,7 +3880,7 @@
     </row>
     <row r="60" spans="31:32" customHeight="1">
       <c r="AE60" s="0" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="AF60" s="0" t="n">
         <v>5700</v>
@@ -3980,7 +3888,7 @@
     </row>
     <row r="61" spans="31:32" customHeight="1">
       <c r="AE61" s="0" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="AF61" s="0" t="n">
         <v>5700</v>
@@ -3988,7 +3896,7 @@
     </row>
     <row r="62" spans="31:32" customHeight="1">
       <c r="AE62" s="0" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="AF62" s="0" t="n">
         <v>5700</v>
@@ -3996,7 +3904,7 @@
     </row>
     <row r="63" spans="31:32" customHeight="1">
       <c r="AE63" s="0" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="AF63" s="0" t="n">
         <v>5700</v>
@@ -4004,7 +3912,7 @@
     </row>
     <row r="64" spans="31:32" customHeight="1">
       <c r="AE64" s="0" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="AF64" s="0" t="n">
         <v>5700</v>
@@ -4012,7 +3920,7 @@
     </row>
     <row r="65" spans="31:32" customHeight="1">
       <c r="AE65" s="0" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="AF65" s="0" t="n">
         <v>20000</v>
@@ -4020,7 +3928,7 @@
     </row>
     <row r="66" spans="31:32" customHeight="1">
       <c r="AE66" s="0" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="AF66" s="0" t="n">
         <v>5700</v>
@@ -4028,7 +3936,7 @@
     </row>
     <row r="67" spans="31:32" customHeight="1">
       <c r="AE67" s="0" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="AF67" s="0" t="n">
         <v>10600</v>
@@ -4036,7 +3944,7 @@
     </row>
     <row r="68" spans="31:32" customHeight="1">
       <c r="AE68" s="0" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="AF68" s="0" t="n">
         <v>20000</v>
@@ -4044,7 +3952,7 @@
     </row>
     <row r="69" spans="31:32" customHeight="1">
       <c r="AE69" s="0" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="AF69" s="0" t="n">
         <v>20000</v>
@@ -4052,7 +3960,7 @@
     </row>
     <row r="70" spans="31:32" customHeight="1">
       <c r="AE70" s="0" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AF70" s="0" t="n">
         <v>10600</v>
@@ -4060,7 +3968,7 @@
     </row>
     <row r="71" spans="31:32" customHeight="1">
       <c r="AE71" s="0" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="AF71" s="0" t="n">
         <v>5700</v>
@@ -4068,7 +3976,7 @@
     </row>
     <row r="72" spans="31:32" customHeight="1">
       <c r="AE72" s="0" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="AF72" s="0" t="n">
         <v>5700</v>
@@ -4076,7 +3984,7 @@
     </row>
     <row r="73" spans="31:32" customHeight="1">
       <c r="AE73" s="0" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="AF73" s="0" t="n">
         <v>5700</v>
@@ -4084,7 +3992,7 @@
     </row>
     <row r="74" spans="31:32" customHeight="1">
       <c r="AE74" s="0" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="AF74" s="0" t="n">
         <v>5700</v>
@@ -4092,7 +4000,7 @@
     </row>
     <row r="75" spans="31:32" customHeight="1">
       <c r="AE75" s="0" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="AF75" s="0" t="n">
         <v>5700</v>
@@ -4100,7 +4008,7 @@
     </row>
     <row r="76" spans="31:32" customHeight="1">
       <c r="AE76" s="0" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="AF76" s="0" t="n">
         <v>5700</v>
@@ -4108,7 +4016,7 @@
     </row>
     <row r="77" spans="31:32" customHeight="1">
       <c r="AE77" s="0" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="AF77" s="0" t="n">
         <v>5700</v>
@@ -4116,7 +4024,7 @@
     </row>
     <row r="78" spans="31:32" customHeight="1">
       <c r="AE78" s="0" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="AF78" s="0" t="n">
         <v>5700</v>
@@ -4124,7 +4032,7 @@
     </row>
     <row r="79" spans="31:32" customHeight="1">
       <c r="AE79" s="0" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="AF79" s="0" t="n">
         <v>20000</v>
@@ -4132,7 +4040,7 @@
     </row>
     <row r="80" spans="31:32" customHeight="1">
       <c r="AE80" s="0" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="AF80" s="0" t="n">
         <v>5700</v>
@@ -4140,7 +4048,7 @@
     </row>
     <row r="81" spans="31:32" customHeight="1">
       <c r="AE81" s="0" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="AF81" s="0" t="n">
         <v>5700</v>
@@ -4148,7 +4056,7 @@
     </row>
     <row r="82" spans="31:32" customHeight="1">
       <c r="AE82" s="0" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="AF82" s="0" t="n">
         <v>20000</v>
@@ -4156,7 +4064,7 @@
     </row>
     <row r="83" spans="31:32" customHeight="1">
       <c r="AE83" s="0" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="AF83" s="0" t="n">
         <v>5700</v>
@@ -4164,7 +4072,7 @@
     </row>
     <row r="84" spans="31:32" customHeight="1">
       <c r="AE84" s="0" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="AF84" s="0" t="n">
         <v>10600</v>
@@ -4172,7 +4080,7 @@
     </row>
     <row r="85" spans="31:32" customHeight="1">
       <c r="AE85" s="0" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="AF85" s="0" t="n">
         <v>5700</v>
@@ -4180,7 +4088,7 @@
     </row>
     <row r="86" spans="31:32" customHeight="1">
       <c r="AE86" s="0" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="AF86" s="0" t="n">
         <v>5700</v>
@@ -4188,7 +4096,7 @@
     </row>
     <row r="87" spans="31:32" customHeight="1">
       <c r="AE87" s="0" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="AF87" s="0" t="n">
         <v>5700</v>
@@ -4196,7 +4104,7 @@
     </row>
     <row r="88" spans="31:32" customHeight="1">
       <c r="AE88" s="0" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="AF88" s="0" t="n">
         <v>5700</v>
@@ -4204,7 +4112,7 @@
     </row>
     <row r="89" spans="31:32" customHeight="1">
       <c r="AE89" s="0" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="AF89" s="0" t="n">
         <v>5700</v>
@@ -4212,7 +4120,7 @@
     </row>
     <row r="90" spans="31:32" customHeight="1">
       <c r="AE90" s="0" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="AF90" s="0" t="n">
         <v>5700</v>
@@ -4220,7 +4128,7 @@
     </row>
     <row r="91" spans="31:32" customHeight="1">
       <c r="AE91" s="0" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="AF91" s="0" t="n">
         <v>5700</v>
@@ -4228,7 +4136,7 @@
     </row>
     <row r="92" spans="31:32" customHeight="1">
       <c r="AE92" s="0" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AF92" s="0" t="n">
         <v>10600</v>
@@ -4236,7 +4144,7 @@
     </row>
     <row r="93" spans="31:32" customHeight="1">
       <c r="AE93" s="0" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="AF93" s="0" t="n">
         <v>5700</v>
@@ -4244,7 +4152,7 @@
     </row>
     <row r="94" spans="31:32" customHeight="1">
       <c r="AE94" s="0" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="AF94" s="0" t="n">
         <v>5700</v>
@@ -4252,7 +4160,7 @@
     </row>
     <row r="95" spans="31:32" customHeight="1">
       <c r="AE95" s="0" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="AF95" s="0" t="n">
         <v>5700</v>
@@ -4260,7 +4168,7 @@
     </row>
     <row r="96" spans="31:32" customHeight="1">
       <c r="AE96" s="0" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="AF96" s="0" t="n">
         <v>5700</v>
@@ -4268,7 +4176,7 @@
     </row>
     <row r="97" spans="31:32" customHeight="1">
       <c r="AE97" s="0" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="AF97" s="0" t="n">
         <v>5700</v>
@@ -4276,7 +4184,7 @@
     </row>
     <row r="98" spans="31:32" customHeight="1">
       <c r="AE98" s="0" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="AF98" s="0" t="n">
         <v>10600</v>
@@ -4284,7 +4192,7 @@
     </row>
     <row r="99" spans="31:32" customHeight="1">
       <c r="AE99" s="0" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="AF99" s="0" t="n">
         <v>20000</v>
@@ -4292,7 +4200,7 @@
     </row>
     <row r="100" spans="31:32" customHeight="1">
       <c r="AE100" s="0" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="AF100" s="0" t="n">
         <v>10600</v>
@@ -4300,7 +4208,7 @@
     </row>
     <row r="101" spans="31:32" customHeight="1">
       <c r="AE101" s="0" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="AF101" s="0" t="n">
         <v>5700</v>
@@ -4308,7 +4216,7 @@
     </row>
     <row r="102" spans="31:32" customHeight="1">
       <c r="AE102" s="0" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="AF102" s="0" t="n">
         <v>5700</v>
@@ -4316,7 +4224,7 @@
     </row>
     <row r="103" spans="31:32" customHeight="1">
       <c r="AE103" s="0" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="AF103" s="0" t="n">
         <v>5700</v>
@@ -4324,7 +4232,7 @@
     </row>
     <row r="104" spans="31:32" customHeight="1">
       <c r="AE104" s="0" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="AF104" s="0" t="n">
         <v>20000</v>
@@ -4332,7 +4240,7 @@
     </row>
     <row r="105" spans="31:32" customHeight="1">
       <c r="AE105" s="0" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="AF105" s="0" t="n">
         <v>5700</v>
@@ -4340,7 +4248,7 @@
     </row>
     <row r="106" spans="31:32" customHeight="1">
       <c r="AE106" s="0" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="AF106" s="0" t="n">
         <v>5700</v>
@@ -4348,7 +4256,7 @@
     </row>
     <row r="107" spans="31:32" customHeight="1">
       <c r="AE107" s="0" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="AF107" s="0" t="n">
         <v>10600</v>
@@ -4356,7 +4264,7 @@
     </row>
     <row r="108" spans="31:32" customHeight="1">
       <c r="AE108" s="0" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="AF108" s="0" t="n">
         <v>10600</v>
@@ -4364,7 +4272,7 @@
     </row>
     <row r="109" spans="31:32" customHeight="1">
       <c r="AE109" s="0" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="AF109" s="0" t="n">
         <v>5700</v>
@@ -4372,7 +4280,7 @@
     </row>
     <row r="110" spans="31:32" customHeight="1">
       <c r="AE110" s="0" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="AF110" s="0" t="n">
         <v>5700</v>
@@ -4380,7 +4288,7 @@
     </row>
     <row r="111" spans="31:32" customHeight="1">
       <c r="AE111" s="0" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="AF111" s="0" t="n">
         <v>5700</v>
@@ -4388,7 +4296,7 @@
     </row>
     <row r="112" spans="31:32" customHeight="1">
       <c r="AE112" s="0" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="AF112" s="0" t="n">
         <v>5700</v>
@@ -4396,7 +4304,7 @@
     </row>
     <row r="113" spans="31:32" customHeight="1">
       <c r="AE113" s="0" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="AF113" s="0" t="n">
         <v>10600</v>
@@ -4404,7 +4312,7 @@
     </row>
     <row r="114" spans="31:32" customHeight="1">
       <c r="AE114" s="0" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="AF114" s="0" t="n">
         <v>5700</v>
@@ -4412,7 +4320,7 @@
     </row>
     <row r="115" spans="31:32" customHeight="1">
       <c r="AE115" s="0" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="AF115" s="0" t="n">
         <v>5700</v>
@@ -4420,7 +4328,7 @@
     </row>
     <row r="116" spans="31:32" customHeight="1">
       <c r="AE116" s="0" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="AF116" s="0" t="n">
         <v>5700</v>
@@ -4428,7 +4336,7 @@
     </row>
     <row r="117" spans="31:32" customHeight="1">
       <c r="AE117" s="0" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="AF117" s="0" t="n">
         <v>10600</v>
@@ -4436,7 +4344,7 @@
     </row>
     <row r="118" spans="31:32" customHeight="1">
       <c r="AE118" s="0" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="AF118" s="0" t="n">
         <v>20000</v>
@@ -4444,7 +4352,7 @@
     </row>
     <row r="119" spans="31:32" customHeight="1">
       <c r="AE119" s="0" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="AF119" s="0" t="n">
         <v>5700</v>
@@ -4452,7 +4360,7 @@
     </row>
     <row r="120" spans="31:32" customHeight="1">
       <c r="AE120" s="0" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="AF120" s="0" t="n">
         <v>10600</v>
@@ -4460,7 +4368,7 @@
     </row>
     <row r="121" spans="31:32" customHeight="1">
       <c r="AE121" s="0" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="AF121" s="0" t="n">
         <v>5700</v>
@@ -4468,7 +4376,7 @@
     </row>
     <row r="122" spans="31:32" customHeight="1">
       <c r="AE122" s="0" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="AF122" s="0" t="n">
         <v>10600</v>
@@ -4476,7 +4384,7 @@
     </row>
     <row r="123" spans="31:32" customHeight="1">
       <c r="AE123" s="0" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="AF123" s="0" t="n">
         <v>10600</v>
@@ -4484,7 +4392,7 @@
     </row>
     <row r="124" spans="31:32" customHeight="1">
       <c r="AE124" s="0" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="AF124" s="0" t="n">
         <v>5700</v>
@@ -4492,7 +4400,7 @@
     </row>
     <row r="125" spans="31:32" customHeight="1">
       <c r="AE125" s="0" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="AF125" s="0" t="n">
         <v>10600</v>
@@ -4500,7 +4408,7 @@
     </row>
     <row r="126" spans="31:32" customHeight="1">
       <c r="AE126" s="0" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="AF126" s="0" t="n">
         <v>5700</v>
@@ -4508,7 +4416,7 @@
     </row>
     <row r="127" spans="31:32" customHeight="1">
       <c r="AE127" s="0" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="AF127" s="0" t="n">
         <v>5700</v>
@@ -4516,7 +4424,7 @@
     </row>
     <row r="128" spans="31:32" customHeight="1">
       <c r="AE128" s="0" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="AF128" s="0" t="n">
         <v>5700</v>
@@ -4524,7 +4432,7 @@
     </row>
     <row r="129" spans="31:32" customHeight="1">
       <c r="AE129" s="0" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="AF129" s="0" t="n">
         <v>20000</v>
@@ -4532,7 +4440,7 @@
     </row>
     <row r="130" spans="31:32" customHeight="1">
       <c r="AE130" s="0" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="AF130" s="0" t="n">
         <v>10600</v>
@@ -4540,7 +4448,7 @@
     </row>
     <row r="131" spans="31:32" customHeight="1">
       <c r="AE131" s="0" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="AF131" s="0" t="n">
         <v>5700</v>
@@ -4548,7 +4456,7 @@
     </row>
     <row r="132" spans="31:32" customHeight="1">
       <c r="AE132" s="0" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="AF132" s="0" t="n">
         <v>5700</v>
@@ -4556,7 +4464,7 @@
     </row>
     <row r="133" spans="31:32" customHeight="1">
       <c r="AE133" s="0" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="AF133" s="0" t="n">
         <v>20000</v>
@@ -4564,7 +4472,7 @@
     </row>
     <row r="134" spans="31:32" customHeight="1">
       <c r="AE134" s="0" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="AF134" s="0" t="n">
         <v>5700</v>
@@ -4572,7 +4480,7 @@
     </row>
     <row r="135" spans="31:32" customHeight="1">
       <c r="AE135" s="0" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="AF135" s="0" t="n">
         <v>5700</v>
@@ -4580,7 +4488,7 @@
     </row>
     <row r="136" spans="31:32" customHeight="1">
       <c r="AE136" s="0" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="AF136" s="0" t="n">
         <v>5700</v>
@@ -4588,7 +4496,7 @@
     </row>
     <row r="137" spans="31:32" customHeight="1">
       <c r="AE137" s="0" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="AF137" s="0" t="n">
         <v>5700</v>
@@ -4596,7 +4504,7 @@
     </row>
     <row r="138" spans="31:32" customHeight="1">
       <c r="AE138" s="0" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="AF138" s="0" t="n">
         <v>5700</v>
@@ -4604,7 +4512,7 @@
     </row>
     <row r="139" spans="31:32" customHeight="1">
       <c r="AE139" s="0" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="AF139" s="0" t="n">
         <v>5700</v>
@@ -4612,7 +4520,7 @@
     </row>
     <row r="140" spans="31:32" customHeight="1">
       <c r="AE140" s="0" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="AF140" s="0" t="n">
         <v>10600</v>
@@ -4620,7 +4528,7 @@
     </row>
     <row r="141" spans="31:32" customHeight="1">
       <c r="AE141" s="0" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="AF141" s="0" t="n">
         <v>5700</v>
@@ -4628,7 +4536,7 @@
     </row>
     <row r="142" spans="31:32" customHeight="1">
       <c r="AE142" s="0" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="AF142" s="0" t="n">
         <v>5700</v>
@@ -4636,7 +4544,7 @@
     </row>
     <row r="143" spans="31:32" customHeight="1">
       <c r="AE143" s="0" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="AF143" s="0" t="n">
         <v>5700</v>
@@ -4644,7 +4552,7 @@
     </row>
     <row r="144" spans="31:32" customHeight="1">
       <c r="AE144" s="0" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="AF144" s="0" t="n">
         <v>5700</v>
@@ -4652,7 +4560,7 @@
     </row>
     <row r="145" spans="31:32" customHeight="1">
       <c r="AE145" s="0" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="AF145" s="0" t="n">
         <v>10600</v>
@@ -4660,7 +4568,7 @@
     </row>
     <row r="146" spans="31:32" customHeight="1">
       <c r="AE146" s="0" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="AF146" s="0" t="n">
         <v>20000</v>
@@ -4668,7 +4576,7 @@
     </row>
     <row r="147" spans="31:32" customHeight="1">
       <c r="AE147" s="0" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="AF147" s="0" t="n">
         <v>10600</v>
@@ -4676,7 +4584,7 @@
     </row>
     <row r="148" spans="31:32" customHeight="1">
       <c r="AE148" s="0" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="AF148" s="0" t="n">
         <v>5700</v>
@@ -4684,7 +4592,7 @@
     </row>
     <row r="149" spans="31:32" customHeight="1">
       <c r="AE149" s="0" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="AF149" s="0" t="n">
         <v>5700</v>
@@ -4692,7 +4600,7 @@
     </row>
     <row r="150" spans="31:32" customHeight="1">
       <c r="AE150" s="0" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="AF150" s="0" t="n">
         <v>5700</v>
@@ -4700,7 +4608,7 @@
     </row>
     <row r="151" spans="31:32" customHeight="1">
       <c r="AE151" s="0" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="AF151" s="0" t="n">
         <v>5700</v>
@@ -4708,7 +4616,7 @@
     </row>
     <row r="152" spans="31:32" customHeight="1">
       <c r="AE152" s="0" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="AF152" s="0" t="n">
         <v>10600</v>
@@ -4716,7 +4624,7 @@
     </row>
     <row r="153" spans="31:32" customHeight="1">
       <c r="AE153" s="0" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="AF153" s="0" t="n">
         <v>5700</v>
@@ -4724,7 +4632,7 @@
     </row>
     <row r="154" spans="31:32" customHeight="1">
       <c r="AE154" s="0" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="AF154" s="0" t="n">
         <v>5700</v>
@@ -4732,7 +4640,7 @@
     </row>
     <row r="155" spans="31:32" customHeight="1">
       <c r="AE155" s="0" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="AF155" s="0" t="n">
         <v>5700</v>
@@ -4740,7 +4648,7 @@
     </row>
     <row r="156" spans="31:32" customHeight="1">
       <c r="AE156" s="0" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="AF156" s="0" t="n">
         <v>10600</v>
@@ -4748,7 +4656,7 @@
     </row>
     <row r="157" spans="31:32" customHeight="1">
       <c r="AE157" s="0" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="AF157" s="0" t="n">
         <v>5700</v>
@@ -4756,7 +4664,7 @@
     </row>
     <row r="158" spans="31:32" customHeight="1">
       <c r="AE158" s="0" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="AF158" s="0" t="n">
         <v>20000</v>
@@ -4764,7 +4672,7 @@
     </row>
     <row r="159" spans="31:32" customHeight="1">
       <c r="AE159" s="0" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="AF159" s="0" t="n">
         <v>5700</v>
@@ -4772,7 +4680,7 @@
     </row>
     <row r="160" spans="31:32" customHeight="1">
       <c r="AE160" s="0" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="AF160" s="0" t="n">
         <v>10600</v>
@@ -4780,7 +4688,7 @@
     </row>
     <row r="161" spans="31:32" customHeight="1">
       <c r="AE161" s="0" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="AF161" s="0" t="n">
         <v>5700</v>
@@ -4788,7 +4696,7 @@
     </row>
     <row r="162" spans="31:32" customHeight="1">
       <c r="AE162" s="0" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="AF162" s="0" t="n">
         <v>20000</v>
@@ -4796,7 +4704,7 @@
     </row>
     <row r="163" spans="31:32" customHeight="1">
       <c r="AE163" s="0" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="AF163" s="0" t="n">
         <v>10600</v>
@@ -4804,7 +4712,7 @@
     </row>
     <row r="164" spans="31:32" customHeight="1">
       <c r="AE164" s="0" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="AF164" s="0" t="n">
         <v>5700</v>
@@ -4812,7 +4720,7 @@
     </row>
     <row r="165" spans="31:32" customHeight="1">
       <c r="AE165" s="0" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="AF165" s="0" t="n">
         <v>5700</v>
@@ -4820,7 +4728,7 @@
     </row>
     <row r="166" spans="31:32" customHeight="1">
       <c r="AE166" s="0" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="AF166" s="0" t="n">
         <v>10600</v>
@@ -4828,7 +4736,7 @@
     </row>
     <row r="167" spans="31:32" customHeight="1">
       <c r="AE167" s="0" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="AF167" s="0" t="n">
         <v>10600</v>
@@ -4836,7 +4744,7 @@
     </row>
     <row r="168" spans="31:32" customHeight="1">
       <c r="AE168" s="0" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="AF168" s="0" t="n">
         <v>20000</v>
@@ -4844,7 +4752,7 @@
     </row>
     <row r="169" spans="31:32" customHeight="1">
       <c r="AE169" s="0" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="AF169" s="0" t="n">
         <v>5700</v>
@@ -4852,7 +4760,7 @@
     </row>
     <row r="170" spans="31:32" customHeight="1">
       <c r="AE170" s="0" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="AF170" s="0" t="n">
         <v>5700</v>
@@ -4860,7 +4768,7 @@
     </row>
     <row r="171" spans="31:32" customHeight="1">
       <c r="AE171" s="0" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="AF171" s="0" t="n">
         <v>5700</v>
@@ -4868,7 +4776,7 @@
     </row>
     <row r="172" spans="31:32" customHeight="1">
       <c r="AE172" s="0" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="AF172" s="0" t="n">
         <v>5700</v>
@@ -4876,7 +4784,7 @@
     </row>
     <row r="173" spans="31:32" customHeight="1">
       <c r="AE173" s="0" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="AF173" s="0" t="n">
         <v>5700</v>
@@ -4884,7 +4792,7 @@
     </row>
     <row r="174" spans="31:32" customHeight="1">
       <c r="AE174" s="0" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="AF174" s="0" t="n">
         <v>5700</v>
@@ -4892,7 +4800,7 @@
     </row>
     <row r="175" spans="31:32" customHeight="1">
       <c r="AE175" s="0" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="AF175" s="0" t="n">
         <v>5700</v>
@@ -4900,7 +4808,7 @@
     </row>
     <row r="176" spans="31:32" customHeight="1">
       <c r="AE176" s="0" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="AF176" s="0" t="n">
         <v>5700</v>
@@ -4908,7 +4816,7 @@
     </row>
     <row r="177" spans="31:32" customHeight="1">
       <c r="AE177" s="0" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="AF177" s="0" t="n">
         <v>20000</v>
@@ -4916,7 +4824,7 @@
     </row>
     <row r="178" spans="31:32" customHeight="1">
       <c r="AE178" s="0" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="AF178" s="0" t="n">
         <v>20000</v>
@@ -4924,7 +4832,7 @@
     </row>
     <row r="179" spans="31:32" customHeight="1">
       <c r="AE179" s="0" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="AF179" s="0" t="n">
         <v>20000</v>
@@ -4932,7 +4840,7 @@
     </row>
     <row r="180" spans="31:32" customHeight="1">
       <c r="AE180" s="0" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="AF180" s="0" t="n">
         <v>5700</v>
@@ -4940,7 +4848,7 @@
     </row>
     <row r="181" spans="31:32" customHeight="1">
       <c r="AE181" s="0" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="AF181" s="0" t="n">
         <v>5700</v>
@@ -4948,7 +4856,7 @@
     </row>
     <row r="182" spans="31:32" customHeight="1">
       <c r="AE182" s="0" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="AF182" s="0" t="n">
         <v>10600</v>
@@ -4956,7 +4864,7 @@
     </row>
     <row r="183" spans="31:32" customHeight="1">
       <c r="AE183" s="0" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="AF183" s="0" t="n">
         <v>20000</v>
@@ -4964,7 +4872,7 @@
     </row>
     <row r="184" spans="31:32" customHeight="1">
       <c r="AE184" s="0" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="AF184" s="0" t="n">
         <v>10600</v>
@@ -4972,7 +4880,7 @@
     </row>
     <row r="185" spans="31:32" customHeight="1">
       <c r="AE185" s="0" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="AF185" s="0" t="n">
         <v>5700</v>
@@ -4980,7 +4888,7 @@
     </row>
     <row r="186" spans="31:32" customHeight="1">
       <c r="AE186" s="0" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="AF186" s="0" t="n">
         <v>5700</v>
@@ -4988,7 +4896,7 @@
     </row>
     <row r="187" spans="31:32" customHeight="1">
       <c r="AE187" s="0" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="AF187" s="0" t="n">
         <v>5700</v>
@@ -4996,7 +4904,7 @@
     </row>
     <row r="188" spans="31:32" customHeight="1">
       <c r="AE188" s="0" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="AF188" s="0" t="n">
         <v>10600</v>
@@ -5004,7 +4912,7 @@
     </row>
     <row r="189" spans="31:32" customHeight="1">
       <c r="AE189" s="0" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="AF189" s="0" t="n">
         <v>5700</v>
@@ -5012,7 +4920,7 @@
     </row>
     <row r="190" spans="31:32" customHeight="1">
       <c r="AE190" s="0" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="AF190" s="0" t="n">
         <v>10600</v>
@@ -5020,7 +4928,7 @@
     </row>
     <row r="191" spans="31:32" customHeight="1">
       <c r="AE191" s="0" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="AF191" s="0" t="n">
         <v>10600</v>
@@ -5028,7 +4936,7 @@
     </row>
     <row r="192" spans="31:32" customHeight="1">
       <c r="AE192" s="0" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="AF192" s="0" t="n">
         <v>5700</v>
@@ -5036,7 +4944,7 @@
     </row>
     <row r="193" spans="31:32" customHeight="1">
       <c r="AE193" s="0" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="AF193" s="0" t="n">
         <v>5700</v>
@@ -5044,7 +4952,7 @@
     </row>
     <row r="194" spans="31:32" customHeight="1">
       <c r="AE194" s="0" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="AF194" s="0" t="n">
         <v>5700</v>
@@ -5052,7 +4960,7 @@
     </row>
     <row r="195" spans="31:32" customHeight="1">
       <c r="AE195" s="0" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="AF195" s="0" t="n">
         <v>5700</v>
@@ -5060,7 +4968,7 @@
     </row>
     <row r="196" spans="31:32" customHeight="1">
       <c r="AE196" s="0" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="AF196" s="0" t="n">
         <v>5700</v>
@@ -5068,7 +4976,7 @@
     </row>
     <row r="197" spans="31:32" customHeight="1">
       <c r="AE197" s="0" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="AF197" s="0" t="n">
         <v>5700</v>
@@ -5076,7 +4984,7 @@
     </row>
     <row r="198" spans="31:32" customHeight="1">
       <c r="AE198" s="0" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="AF198" s="0" t="n">
         <v>10600</v>
@@ -5084,7 +4992,7 @@
     </row>
     <row r="199" spans="31:32" customHeight="1">
       <c r="AE199" s="0" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="AF199" s="0" t="n">
         <v>10600</v>
@@ -5092,7 +5000,7 @@
     </row>
     <row r="200" spans="31:32" customHeight="1">
       <c r="AE200" s="0" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="AF200" s="0" t="n">
         <v>10600</v>
@@ -5100,7 +5008,7 @@
     </row>
     <row r="201" spans="31:32" customHeight="1">
       <c r="AE201" s="0" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="AF201" s="0" t="n">
         <v>10600</v>
@@ -5108,7 +5016,7 @@
     </row>
     <row r="202" spans="31:32" customHeight="1">
       <c r="AE202" s="0" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="AF202" s="0" t="n">
         <v>20000</v>
@@ -5116,7 +5024,7 @@
     </row>
     <row r="203" spans="31:32" customHeight="1">
       <c r="AE203" s="0" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="AF203" s="0" t="n">
         <v>10600</v>
@@ -5124,7 +5032,7 @@
     </row>
     <row r="204" spans="31:32" customHeight="1">
       <c r="AE204" s="0" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="AF204" s="0" t="n">
         <v>10600</v>
@@ -5132,7 +5040,7 @@
     </row>
     <row r="205" spans="31:32" customHeight="1">
       <c r="AE205" s="0" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="AF205" s="0" t="n">
         <v>5700</v>
@@ -5140,7 +5048,7 @@
     </row>
     <row r="206" spans="31:32" customHeight="1">
       <c r="AE206" s="0" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="AF206" s="0" t="n">
         <v>20000</v>
@@ -5148,7 +5056,7 @@
     </row>
     <row r="207" spans="31:32" customHeight="1">
       <c r="AE207" s="0" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="AF207" s="0" t="n">
         <v>5700</v>
@@ -5156,7 +5064,7 @@
     </row>
     <row r="208" spans="31:32" customHeight="1">
       <c r="AE208" s="0" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="AF208" s="0" t="n">
         <v>10600</v>
@@ -5164,7 +5072,7 @@
     </row>
     <row r="209" spans="31:32" customHeight="1">
       <c r="AE209" s="0" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="AF209" s="0" t="n">
         <v>20000</v>
@@ -5172,7 +5080,7 @@
     </row>
     <row r="210" spans="31:32" customHeight="1">
       <c r="AE210" s="0" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="AF210" s="0" t="n">
         <v>10600</v>
@@ -5180,7 +5088,7 @@
     </row>
     <row r="211" spans="31:32" customHeight="1">
       <c r="AE211" s="0" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="AF211" s="0" t="n">
         <v>5700</v>
@@ -5188,7 +5096,7 @@
     </row>
     <row r="212" spans="31:32" customHeight="1">
       <c r="AE212" s="0" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="AF212" s="0" t="n">
         <v>5700</v>
@@ -5196,7 +5104,7 @@
     </row>
     <row r="213" spans="31:32" customHeight="1">
       <c r="AE213" s="0" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="AF213" s="0" t="n">
         <v>20000</v>
@@ -5204,7 +5112,7 @@
     </row>
     <row r="214" spans="31:32" customHeight="1">
       <c r="AE214" s="0" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="AF214" s="0" t="n">
         <v>5700</v>
@@ -5212,7 +5120,7 @@
     </row>
     <row r="215" spans="31:32" customHeight="1">
       <c r="AE215" s="0" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="AF215" s="0" t="n">
         <v>20000</v>
@@ -5220,7 +5128,7 @@
     </row>
     <row r="216" spans="31:32" customHeight="1">
       <c r="AE216" s="0" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="AF216" s="0" t="n">
         <v>5700</v>
@@ -5228,7 +5136,7 @@
     </row>
     <row r="217" spans="31:32" customHeight="1">
       <c r="AE217" s="0" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="AF217" s="0" t="n">
         <v>10600</v>
@@ -5236,7 +5144,7 @@
     </row>
     <row r="218" spans="31:32" customHeight="1">
       <c r="AE218" s="0" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="AF218" s="0" t="n">
         <v>20000</v>
@@ -5244,7 +5152,7 @@
     </row>
     <row r="219" spans="31:32" customHeight="1">
       <c r="AE219" s="0" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="AF219" s="0" t="n">
         <v>5700</v>
@@ -5252,7 +5160,7 @@
     </row>
     <row r="220" spans="31:32" customHeight="1">
       <c r="AE220" s="0" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="AF220" s="0" t="n">
         <v>5700</v>
@@ -5260,7 +5168,7 @@
     </row>
     <row r="221" spans="31:32" customHeight="1">
       <c r="AE221" s="0" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="AF221" s="0" t="n">
         <v>10600</v>
@@ -5268,7 +5176,7 @@
     </row>
     <row r="222" spans="31:32" customHeight="1">
       <c r="AE222" s="0" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="AF222" s="0" t="n">
         <v>5700</v>
@@ -5276,7 +5184,7 @@
     </row>
     <row r="223" spans="31:32" customHeight="1">
       <c r="AE223" s="0" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="AF223" s="0" t="n">
         <v>10600</v>
@@ -5284,7 +5192,7 @@
     </row>
     <row r="224" spans="31:32" customHeight="1">
       <c r="AE224" s="0" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="AF224" s="0" t="n">
         <v>10600</v>
@@ -5292,7 +5200,7 @@
     </row>
     <row r="225" spans="31:32" customHeight="1">
       <c r="AE225" s="0" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="AF225" s="0" t="n">
         <v>5700</v>
@@ -5300,7 +5208,7 @@
     </row>
     <row r="226" spans="31:32" customHeight="1">
       <c r="AE226" s="0" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="AF226" s="0" t="n">
         <v>5700</v>
@@ -5308,7 +5216,7 @@
     </row>
     <row r="227" spans="31:32" customHeight="1">
       <c r="AE227" s="0" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="AF227" s="0" t="n">
         <v>20000</v>
@@ -5316,7 +5224,7 @@
     </row>
     <row r="228" spans="31:32" customHeight="1">
       <c r="AE228" s="0" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="AF228" s="0" t="n">
         <v>10600</v>
@@ -5324,7 +5232,7 @@
     </row>
     <row r="229" spans="31:32" customHeight="1">
       <c r="AE229" s="0" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="AF229" s="0" t="n">
         <v>20000</v>
@@ -5332,7 +5240,7 @@
     </row>
     <row r="230" spans="31:32" customHeight="1">
       <c r="AE230" s="0" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="AF230" s="0" t="n">
         <v>20000</v>
@@ -5340,7 +5248,7 @@
     </row>
     <row r="231" spans="31:32" customHeight="1">
       <c r="AE231" s="0" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="AF231" s="0" t="n">
         <v>5700</v>
@@ -5348,7 +5256,7 @@
     </row>
     <row r="232" spans="31:32" customHeight="1">
       <c r="AE232" s="0" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="AF232" s="0" t="n">
         <v>5700</v>
@@ -5356,7 +5264,7 @@
     </row>
     <row r="233" spans="31:32" customHeight="1">
       <c r="AE233" s="0" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="AF233" s="0" t="n">
         <v>5700</v>
@@ -5364,7 +5272,7 @@
     </row>
     <row r="234" spans="31:32" customHeight="1">
       <c r="AE234" s="0" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="AF234" s="0" t="n">
         <v>10600</v>
@@ -5372,7 +5280,7 @@
     </row>
     <row r="235" spans="31:32" customHeight="1">
       <c r="AE235" s="0" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="AF235" s="0" t="n">
         <v>5700</v>
@@ -5380,7 +5288,7 @@
     </row>
     <row r="236" spans="31:32" customHeight="1">
       <c r="AE236" s="0" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="AF236" s="0" t="n">
         <v>10600</v>
@@ -5388,7 +5296,7 @@
     </row>
     <row r="237" spans="31:32" customHeight="1">
       <c r="AE237" s="0" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="AF237" s="0" t="n">
         <v>10600</v>
@@ -5396,7 +5304,7 @@
     </row>
     <row r="238" spans="31:32" customHeight="1">
       <c r="AE238" s="0" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="AF238" s="0" t="n">
         <v>20000</v>
@@ -5404,7 +5312,7 @@
     </row>
     <row r="239" spans="31:32" customHeight="1">
       <c r="AE239" s="0" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="AF239" s="0" t="n">
         <v>20000</v>
@@ -5412,7 +5320,7 @@
     </row>
     <row r="240" spans="31:32" customHeight="1">
       <c r="AE240" s="0" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="AF240" s="0" t="n">
         <v>5700</v>
@@ -5420,7 +5328,7 @@
     </row>
     <row r="241" spans="31:32" customHeight="1">
       <c r="AE241" s="0" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="AF241" s="0" t="n">
         <v>5700</v>
@@ -5428,7 +5336,7 @@
     </row>
     <row r="242" spans="31:32" customHeight="1">
       <c r="AE242" s="0" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="AF242" s="0" t="n">
         <v>10600</v>
@@ -5436,7 +5344,7 @@
     </row>
     <row r="243" spans="31:32" customHeight="1">
       <c r="AE243" s="0" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="AF243" s="0" t="n">
         <v>20000</v>
@@ -5444,7 +5352,7 @@
     </row>
     <row r="244" spans="31:32" customHeight="1">
       <c r="AE244" s="0" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="AF244" s="0" t="n">
         <v>5700</v>
@@ -5452,7 +5360,7 @@
     </row>
     <row r="245" spans="31:32" customHeight="1">
       <c r="AE245" s="0" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="AF245" s="0" t="n">
         <v>5700</v>
@@ -5460,7 +5368,7 @@
     </row>
     <row r="246" spans="31:32" customHeight="1">
       <c r="AE246" s="0" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="AF246" s="0" t="n">
         <v>20000</v>
@@ -5468,7 +5376,7 @@
     </row>
     <row r="247" spans="31:32" customHeight="1">
       <c r="AE247" s="0" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="AF247" s="0" t="n">
         <v>10600</v>
@@ -5476,7 +5384,7 @@
     </row>
     <row r="248" spans="31:32" customHeight="1">
       <c r="AE248" s="0" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="AF248" s="0" t="n">
         <v>5700</v>
@@ -5484,7 +5392,7 @@
     </row>
     <row r="249" spans="31:32" customHeight="1">
       <c r="AE249" s="0" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="AF249" s="0" t="n">
         <v>5700</v>
@@ -5492,7 +5400,7 @@
     </row>
     <row r="250" spans="31:32" customHeight="1">
       <c r="AE250" s="0" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="AF250" s="0" t="n">
         <v>5700</v>
@@ -5500,7 +5408,7 @@
     </row>
     <row r="251" spans="31:32" customHeight="1">
       <c r="AE251" s="0" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="AF251" s="0" t="n">
         <v>5700</v>
@@ -5508,7 +5416,7 @@
     </row>
     <row r="252" spans="31:32" customHeight="1">
       <c r="AE252" s="0" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="AF252" s="0" t="n">
         <v>5700</v>
@@ -5516,7 +5424,7 @@
     </row>
     <row r="253" spans="31:32" customHeight="1">
       <c r="AE253" s="0" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="AF253" s="0" t="n">
         <v>10600</v>
@@ -5524,7 +5432,7 @@
     </row>
     <row r="254" spans="31:32" customHeight="1">
       <c r="AE254" s="0" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="AF254" s="0" t="n">
         <v>5700</v>
@@ -5532,7 +5440,7 @@
     </row>
     <row r="255" spans="31:32" customHeight="1">
       <c r="AE255" s="0" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="AF255" s="0" t="n">
         <v>5700</v>
@@ -5540,7 +5448,7 @@
     </row>
     <row r="256" spans="31:32" customHeight="1">
       <c r="AE256" s="0" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="AF256" s="0" t="n">
         <v>5700</v>
@@ -5548,7 +5456,7 @@
     </row>
     <row r="257" spans="31:32" customHeight="1">
       <c r="AE257" s="0" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="AF257" s="0" t="n">
         <v>5700</v>
@@ -5556,7 +5464,7 @@
     </row>
     <row r="258" spans="31:32" customHeight="1">
       <c r="AE258" s="0" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="AF258" s="0" t="n">
         <v>5700</v>
@@ -5564,7 +5472,7 @@
     </row>
     <row r="259" spans="31:32" customHeight="1">
       <c r="AE259" s="0" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="AF259" s="0" t="n">
         <v>20000</v>
@@ -5572,7 +5480,7 @@
     </row>
     <row r="260" spans="31:32" customHeight="1">
       <c r="AE260" s="0" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="AF260" s="0" t="n">
         <v>5700</v>
@@ -5580,7 +5488,7 @@
     </row>
     <row r="261" spans="31:32" customHeight="1">
       <c r="AE261" s="0" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="AF261" s="0" t="n">
         <v>5700</v>
@@ -5588,7 +5496,7 @@
     </row>
     <row r="262" spans="31:32" customHeight="1">
       <c r="AE262" s="0" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="AF262" s="0" t="n">
         <v>20000</v>
@@ -5596,7 +5504,7 @@
     </row>
     <row r="263" spans="31:32" customHeight="1">
       <c r="AE263" s="0" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="AF263" s="0" t="n">
         <v>20000</v>
@@ -5604,7 +5512,7 @@
     </row>
     <row r="264" spans="31:32" customHeight="1">
       <c r="AE264" s="0" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="AF264" s="0" t="n">
         <v>10600</v>
@@ -5612,7 +5520,7 @@
     </row>
     <row r="265" spans="31:32" customHeight="1">
       <c r="AE265" s="0" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="AF265" s="0" t="n">
         <v>20000</v>
@@ -5620,7 +5528,7 @@
     </row>
     <row r="266" spans="31:32" customHeight="1">
       <c r="AE266" s="0" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="AF266" s="0" t="n">
         <v>5700</v>
@@ -5628,7 +5536,7 @@
     </row>
     <row r="267" spans="31:32" customHeight="1">
       <c r="AE267" s="0" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="AF267" s="0" t="n">
         <v>20000</v>
@@ -5636,7 +5544,7 @@
     </row>
     <row r="268" spans="31:32" customHeight="1">
       <c r="AE268" s="0" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="AF268" s="0" t="n">
         <v>10600</v>
@@ -5644,7 +5552,7 @@
     </row>
     <row r="269" spans="31:32" customHeight="1">
       <c r="AE269" s="0" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="AF269" s="0" t="n">
         <v>5700</v>
@@ -5652,7 +5560,7 @@
     </row>
     <row r="270" spans="31:32" customHeight="1">
       <c r="AE270" s="0" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="AF270" s="0" t="n">
         <v>10600</v>
@@ -5660,7 +5568,7 @@
     </row>
     <row r="271" spans="31:32" customHeight="1">
       <c r="AE271" s="0" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="AF271" s="0" t="n">
         <v>5700</v>
@@ -5668,7 +5576,7 @@
     </row>
     <row r="272" spans="31:32" customHeight="1">
       <c r="AE272" s="0" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="AF272" s="0" t="n">
         <v>20000</v>
@@ -5676,7 +5584,7 @@
     </row>
     <row r="273" spans="31:32" customHeight="1">
       <c r="AE273" s="0" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="AF273" s="0" t="n">
         <v>5700</v>
@@ -5684,7 +5592,7 @@
     </row>
     <row r="274" spans="31:32" customHeight="1">
       <c r="AE274" s="0" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="AF274" s="0" t="n">
         <v>10600</v>
@@ -5692,7 +5600,7 @@
     </row>
     <row r="275" spans="31:32" customHeight="1">
       <c r="AE275" s="0" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="AF275" s="0" t="n">
         <v>10600</v>
@@ -5700,7 +5608,7 @@
     </row>
     <row r="276" spans="31:32" customHeight="1">
       <c r="AE276" s="0" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="AF276" s="0" t="n">
         <v>10600</v>
@@ -5708,7 +5616,7 @@
     </row>
     <row r="277" spans="31:32" customHeight="1">
       <c r="AE277" s="0" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AF277" s="0" t="n">
         <v>5700</v>
@@ -5716,7 +5624,7 @@
     </row>
     <row r="278" spans="31:32" customHeight="1">
       <c r="AE278" s="0" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="AF278" s="0" t="n">
         <v>5700</v>
@@ -5724,7 +5632,7 @@
     </row>
     <row r="279" spans="31:32" customHeight="1">
       <c r="AE279" s="0" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="AF279" s="0" t="n">
         <v>5700</v>
@@ -5732,7 +5640,7 @@
     </row>
     <row r="280" spans="31:32" customHeight="1">
       <c r="AE280" s="0" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="AF280" s="0" t="n">
         <v>5700</v>
@@ -5740,7 +5648,7 @@
     </row>
     <row r="281" spans="31:32" customHeight="1">
       <c r="AE281" s="0" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="AF281" s="0" t="n">
         <v>10600</v>
@@ -5748,7 +5656,7 @@
     </row>
     <row r="282" spans="31:32" customHeight="1">
       <c r="AE282" s="0" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="AF282" s="0" t="n">
         <v>5700</v>
@@ -5756,7 +5664,7 @@
     </row>
     <row r="283" spans="31:32" customHeight="1">
       <c r="AE283" s="0" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="AF283" s="0" t="n">
         <v>5700</v>
@@ -5764,7 +5672,7 @@
     </row>
     <row r="284" spans="31:32" customHeight="1">
       <c r="AE284" s="0" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="AF284" s="0" t="n">
         <v>5700</v>
@@ -5772,7 +5680,7 @@
     </row>
     <row r="285" spans="31:32" customHeight="1">
       <c r="AE285" s="0" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="AF285" s="0" t="n">
         <v>10600</v>
@@ -5780,7 +5688,7 @@
     </row>
     <row r="286" spans="31:32" customHeight="1">
       <c r="AE286" s="0" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="AF286" s="0" t="n">
         <v>20000</v>
@@ -5788,7 +5696,7 @@
     </row>
     <row r="287" spans="31:32" customHeight="1">
       <c r="AE287" s="0" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="AF287" s="0" t="n">
         <v>5700</v>
@@ -5796,7 +5704,7 @@
     </row>
     <row r="288" spans="31:32" customHeight="1">
       <c r="AE288" s="0" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="AF288" s="0" t="n">
         <v>20000</v>
@@ -5804,7 +5712,7 @@
     </row>
     <row r="289" spans="31:32" customHeight="1">
       <c r="AE289" s="0" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="AF289" s="0" t="n">
         <v>10600</v>
@@ -5812,7 +5720,7 @@
     </row>
     <row r="290" spans="31:32" customHeight="1">
       <c r="AE290" s="0" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="AF290" s="0" t="n">
         <v>20000</v>
@@ -5820,7 +5728,7 @@
     </row>
     <row r="291" spans="31:32" customHeight="1">
       <c r="AE291" s="0" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="AF291" s="0" t="n">
         <v>5700</v>
@@ -5828,7 +5736,7 @@
     </row>
     <row r="292" spans="31:32" customHeight="1">
       <c r="AE292" s="0" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="AF292" s="0" t="n">
         <v>5700</v>
@@ -5836,7 +5744,7 @@
     </row>
     <row r="293" spans="31:32" customHeight="1">
       <c r="AE293" s="0" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="AF293" s="0" t="n">
         <v>5700</v>
@@ -5844,7 +5752,7 @@
     </row>
     <row r="294" spans="31:32" customHeight="1">
       <c r="AE294" s="0" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="AF294" s="0" t="n">
         <v>10600</v>
@@ -5852,7 +5760,7 @@
     </row>
     <row r="295" spans="31:32" customHeight="1">
       <c r="AE295" s="0" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="AF295" s="0" t="n">
         <v>20000</v>
@@ -5860,7 +5768,7 @@
     </row>
     <row r="296" spans="31:32" customHeight="1">
       <c r="AE296" s="0" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="AF296" s="0" t="n">
         <v>5700</v>
@@ -5868,7 +5776,7 @@
     </row>
     <row r="297" spans="31:32" customHeight="1">
       <c r="AE297" s="0" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="AF297" s="0" t="n">
         <v>5700</v>
@@ -5876,7 +5784,7 @@
     </row>
     <row r="298" spans="31:32" customHeight="1">
       <c r="AE298" s="0" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="AF298" s="0" t="n">
         <v>5700</v>
@@ -5884,7 +5792,7 @@
     </row>
     <row r="299" spans="31:32" customHeight="1">
       <c r="AE299" s="0" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="AF299" s="0" t="n">
         <v>10600</v>
@@ -5892,7 +5800,7 @@
     </row>
     <row r="300" spans="31:32" customHeight="1">
       <c r="AE300" s="0" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="AF300" s="0" t="n">
         <v>5700</v>
@@ -5900,7 +5808,7 @@
     </row>
     <row r="301" spans="31:32" customHeight="1">
       <c r="AE301" s="0" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="AF301" s="0" t="n">
         <v>20000</v>
@@ -5908,7 +5816,7 @@
     </row>
     <row r="302" spans="31:32" customHeight="1">
       <c r="AE302" s="0" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="AF302" s="0" t="n">
         <v>20000</v>
@@ -5916,7 +5824,7 @@
     </row>
     <row r="303" spans="31:32" customHeight="1">
       <c r="AE303" s="0" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="AF303" s="0" t="n">
         <v>5700</v>
@@ -5924,7 +5832,7 @@
     </row>
     <row r="304" spans="31:32" customHeight="1">
       <c r="AE304" s="0" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="AF304" s="0" t="n">
         <v>5700</v>
@@ -5932,7 +5840,7 @@
     </row>
     <row r="305" spans="31:32" customHeight="1">
       <c r="AE305" s="0" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="AF305" s="0" t="n">
         <v>10600</v>
@@ -6043,7 +5951,7 @@
       <c r="AC1" s="6"/>
       <c r="AD1" s="6"/>
       <c r="AE1" s="0" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="AF1" s="0" t="n">
         <v>900</v>
@@ -6089,7 +5997,7 @@
       <c r="AC2" s="9"/>
       <c r="AD2" s="9"/>
       <c r="AE2" s="0" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="AF2" s="0" t="n">
         <v>900</v>
@@ -6139,7 +6047,7 @@
       <c r="AC3" s="16"/>
       <c r="AD3" s="16"/>
       <c r="AE3" s="0" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="AF3" s="0" t="n">
         <v>900</v>
@@ -6150,10 +6058,10 @@
       <c r="B4" s="16"/>
       <c r="C4" s="16"/>
       <c r="D4" s="21">
-        <f>SUM(D5:D29)</f>
+        <f>SUM(D5:D26)</f>
       </c>
       <c r="E4" s="21">
-        <f>SUM(E5:E29)</f>
+        <f>SUM(E5:E26)</f>
       </c>
       <c r="F4" s="22" t="s">
         <v>11</v>
@@ -6183,7 +6091,7 @@
       <c r="AC4" s="22"/>
       <c r="AD4" s="22"/>
       <c r="AE4" s="0" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="AF4" s="0" t="n">
         <v>900</v>
@@ -6206,13 +6114,13 @@
         <f>C5*D5</f>
       </c>
       <c r="F5" s="28" t="s">
+        <v>358</v>
+      </c>
+      <c r="G5" s="28" t="s">
+        <v>359</v>
+      </c>
+      <c r="H5" s="28" t="s">
         <v>360</v>
-      </c>
-      <c r="G5" s="28" t="s">
-        <v>361</v>
-      </c>
-      <c r="H5" s="28" t="s">
-        <v>362</v>
       </c>
       <c r="I5" s="28"/>
       <c r="J5" s="28"/>
@@ -6237,7 +6145,7 @@
       <c r="AC5" s="28"/>
       <c r="AD5" s="28"/>
       <c r="AE5" s="0" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="AF5" s="0" t="n">
         <v>900</v>
@@ -6260,13 +6168,13 @@
         <f>C6*D6</f>
       </c>
       <c r="F6" s="28" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="G6" s="28" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="H6" s="28" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="I6" s="28"/>
       <c r="J6" s="28"/>
@@ -6291,7 +6199,7 @@
       <c r="AC6" s="28"/>
       <c r="AD6" s="28"/>
       <c r="AE6" s="0" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="AF6" s="0" t="n">
         <v>900</v>
@@ -6302,7 +6210,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="25" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C7" s="26" t="n">
         <v>215</v>
@@ -6339,7 +6247,7 @@
       <c r="AC7" s="28"/>
       <c r="AD7" s="28"/>
       <c r="AE7" s="0" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="AF7" s="0" t="n">
         <v>900</v>
@@ -6350,7 +6258,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="25" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C8" s="26" t="n">
         <v>120</v>
@@ -6387,7 +6295,7 @@
       <c r="AC8" s="28"/>
       <c r="AD8" s="28"/>
       <c r="AE8" s="0" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="AF8" s="0" t="n">
         <v>900</v>
@@ -6398,7 +6306,7 @@
         <v>5</v>
       </c>
       <c r="B9" s="25" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C9" s="26" t="n">
         <v>120</v>
@@ -6435,7 +6343,7 @@
       <c r="AC9" s="28"/>
       <c r="AD9" s="28"/>
       <c r="AE9" s="0" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="AF9" s="0" t="n">
         <v>900</v>
@@ -6446,7 +6354,7 @@
         <v>6</v>
       </c>
       <c r="B10" s="29" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="C10" s="30" t="n">
         <v>45</v>
@@ -6483,7 +6391,7 @@
       <c r="AC10" s="29"/>
       <c r="AD10" s="29"/>
       <c r="AE10" s="0" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="AF10" s="0" t="n">
         <v>900</v>
@@ -6494,7 +6402,7 @@
         <v>6</v>
       </c>
       <c r="B11" s="29" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C11" s="30" t="n">
         <v>100</v>
@@ -6531,7 +6439,7 @@
       <c r="AC11" s="29"/>
       <c r="AD11" s="29"/>
       <c r="AE11" s="0" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="AF11" s="0" t="n">
         <v>900</v>
@@ -6542,7 +6450,7 @@
         <v>6</v>
       </c>
       <c r="B12" s="29" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="C12" s="30" t="n">
         <v>60</v>
@@ -6579,7 +6487,7 @@
       <c r="AC12" s="29"/>
       <c r="AD12" s="29"/>
       <c r="AE12" s="0" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="AF12" s="0" t="n">
         <v>900</v>
@@ -6590,7 +6498,7 @@
         <v>6</v>
       </c>
       <c r="B13" s="29" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C13" s="30" t="n">
         <v>80</v>
@@ -6627,7 +6535,7 @@
       <c r="AC13" s="29"/>
       <c r="AD13" s="29"/>
       <c r="AE13" s="0" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="AF13" s="0" t="n">
         <v>900</v>
@@ -6638,7 +6546,7 @@
         <v>6</v>
       </c>
       <c r="B14" s="29" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="C14" s="30" t="n">
         <v>60</v>
@@ -6675,7 +6583,7 @@
       <c r="AC14" s="29"/>
       <c r="AD14" s="29"/>
       <c r="AE14" s="0" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="AF14" s="0" t="n">
         <v>900</v>
@@ -6686,7 +6594,7 @@
         <v>6</v>
       </c>
       <c r="B15" s="29" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C15" s="30" t="n">
         <v>90</v>
@@ -6723,7 +6631,7 @@
       <c r="AC15" s="29"/>
       <c r="AD15" s="29"/>
       <c r="AE15" s="0" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="AF15" s="0" t="n">
         <v>900</v>
@@ -6734,7 +6642,7 @@
         <v>6</v>
       </c>
       <c r="B16" s="29" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="C16" s="30" t="n">
         <v>65</v>
@@ -6771,7 +6679,7 @@
       <c r="AC16" s="29"/>
       <c r="AD16" s="29"/>
       <c r="AE16" s="0" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="AF16" s="0" t="n">
         <v>900</v>
@@ -6782,7 +6690,7 @@
         <v>6</v>
       </c>
       <c r="B17" s="29" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="C17" s="30" t="n">
         <v>60</v>
@@ -6819,7 +6727,7 @@
       <c r="AC17" s="29"/>
       <c r="AD17" s="29"/>
       <c r="AE17" s="0" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="AF17" s="0" t="n">
         <v>900</v>
@@ -6830,7 +6738,7 @@
         <v>6</v>
       </c>
       <c r="B18" s="29" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C18" s="30" t="n">
         <v>100</v>
@@ -6867,7 +6775,7 @@
       <c r="AC18" s="29"/>
       <c r="AD18" s="29"/>
       <c r="AE18" s="0" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="AF18" s="0" t="n">
         <v>900</v>
@@ -6878,7 +6786,7 @@
         <v>6</v>
       </c>
       <c r="B19" s="29" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C19" s="30" t="n">
         <v>60</v>
@@ -6915,151 +6823,151 @@
       <c r="AC19" s="29"/>
       <c r="AD19" s="29"/>
       <c r="AE19" s="0" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="AF19" s="0" t="n">
         <v>900</v>
       </c>
     </row>
     <row r="20" spans="1:32" customHeight="1">
-      <c r="A20" s="30" t="n">
-        <v>6</v>
-      </c>
-      <c r="B20" s="29" t="s">
-        <v>371</v>
-      </c>
-      <c r="C20" s="30" t="n">
+      <c r="A20" s="26" t="n">
+        <v>7</v>
+      </c>
+      <c r="B20" s="25" t="s">
+        <v>369</v>
+      </c>
+      <c r="C20" s="26" t="n">
         <v>30</v>
       </c>
-      <c r="D20" s="30">
+      <c r="D20" s="26">
         <f>COUNTA(F20:AD20)</f>
       </c>
-      <c r="E20" s="30">
+      <c r="E20" s="26">
         <f>C20*D20</f>
       </c>
-      <c r="F20" s="29"/>
-      <c r="G20" s="29"/>
-      <c r="H20" s="29"/>
-      <c r="I20" s="29"/>
-      <c r="J20" s="29"/>
-      <c r="K20" s="29"/>
-      <c r="L20" s="29"/>
-      <c r="M20" s="29"/>
-      <c r="N20" s="29"/>
-      <c r="O20" s="29"/>
-      <c r="P20" s="29"/>
-      <c r="Q20" s="29"/>
-      <c r="R20" s="29"/>
-      <c r="S20" s="29"/>
-      <c r="T20" s="29"/>
-      <c r="U20" s="29"/>
-      <c r="V20" s="29"/>
-      <c r="W20" s="29"/>
-      <c r="X20" s="29"/>
-      <c r="Y20" s="29"/>
-      <c r="Z20" s="29"/>
-      <c r="AA20" s="29"/>
-      <c r="AB20" s="29"/>
-      <c r="AC20" s="29"/>
-      <c r="AD20" s="29"/>
+      <c r="F20" s="28"/>
+      <c r="G20" s="28"/>
+      <c r="H20" s="28"/>
+      <c r="I20" s="28"/>
+      <c r="J20" s="28"/>
+      <c r="K20" s="28"/>
+      <c r="L20" s="28"/>
+      <c r="M20" s="28"/>
+      <c r="N20" s="28"/>
+      <c r="O20" s="28"/>
+      <c r="P20" s="28"/>
+      <c r="Q20" s="28"/>
+      <c r="R20" s="28"/>
+      <c r="S20" s="28"/>
+      <c r="T20" s="28"/>
+      <c r="U20" s="28"/>
+      <c r="V20" s="28"/>
+      <c r="W20" s="28"/>
+      <c r="X20" s="28"/>
+      <c r="Y20" s="28"/>
+      <c r="Z20" s="28"/>
+      <c r="AA20" s="28"/>
+      <c r="AB20" s="28"/>
+      <c r="AC20" s="28"/>
+      <c r="AD20" s="28"/>
       <c r="AE20" s="0" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="AF20" s="0" t="n">
         <v>900</v>
       </c>
     </row>
     <row r="21" spans="1:32" customHeight="1">
-      <c r="A21" s="30" t="n">
-        <v>6</v>
-      </c>
-      <c r="B21" s="29" t="s">
-        <v>371</v>
-      </c>
-      <c r="C21" s="30" t="n">
+      <c r="A21" s="26" t="n">
+        <v>7</v>
+      </c>
+      <c r="B21" s="25" t="s">
+        <v>370</v>
+      </c>
+      <c r="C21" s="26" t="n">
         <v>30</v>
       </c>
-      <c r="D21" s="30">
+      <c r="D21" s="26">
         <f>COUNTA(F21:AD21)</f>
       </c>
-      <c r="E21" s="30">
+      <c r="E21" s="26">
         <f>C21*D21</f>
       </c>
-      <c r="F21" s="29"/>
-      <c r="G21" s="29"/>
-      <c r="H21" s="29"/>
-      <c r="I21" s="29"/>
-      <c r="J21" s="29"/>
-      <c r="K21" s="29"/>
-      <c r="L21" s="29"/>
-      <c r="M21" s="29"/>
-      <c r="N21" s="29"/>
-      <c r="O21" s="29"/>
-      <c r="P21" s="29"/>
-      <c r="Q21" s="29"/>
-      <c r="R21" s="29"/>
-      <c r="S21" s="29"/>
-      <c r="T21" s="29"/>
-      <c r="U21" s="29"/>
-      <c r="V21" s="29"/>
-      <c r="W21" s="29"/>
-      <c r="X21" s="29"/>
-      <c r="Y21" s="29"/>
-      <c r="Z21" s="29"/>
-      <c r="AA21" s="29"/>
-      <c r="AB21" s="29"/>
-      <c r="AC21" s="29"/>
-      <c r="AD21" s="29"/>
+      <c r="F21" s="28"/>
+      <c r="G21" s="28"/>
+      <c r="H21" s="28"/>
+      <c r="I21" s="28"/>
+      <c r="J21" s="28"/>
+      <c r="K21" s="28"/>
+      <c r="L21" s="28"/>
+      <c r="M21" s="28"/>
+      <c r="N21" s="28"/>
+      <c r="O21" s="28"/>
+      <c r="P21" s="28"/>
+      <c r="Q21" s="28"/>
+      <c r="R21" s="28"/>
+      <c r="S21" s="28"/>
+      <c r="T21" s="28"/>
+      <c r="U21" s="28"/>
+      <c r="V21" s="28"/>
+      <c r="W21" s="28"/>
+      <c r="X21" s="28"/>
+      <c r="Y21" s="28"/>
+      <c r="Z21" s="28"/>
+      <c r="AA21" s="28"/>
+      <c r="AB21" s="28"/>
+      <c r="AC21" s="28"/>
+      <c r="AD21" s="28"/>
       <c r="AE21" s="0" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="AF21" s="0" t="n">
         <v>900</v>
       </c>
     </row>
     <row r="22" spans="1:32" customHeight="1">
-      <c r="A22" s="30" t="n">
-        <v>6</v>
-      </c>
-      <c r="B22" s="29" t="s">
-        <v>372</v>
-      </c>
-      <c r="C22" s="30" t="n">
-        <v>45</v>
-      </c>
-      <c r="D22" s="30">
+      <c r="A22" s="26" t="n">
+        <v>7</v>
+      </c>
+      <c r="B22" s="25" t="s">
+        <v>371</v>
+      </c>
+      <c r="C22" s="26" t="n">
+        <v>20</v>
+      </c>
+      <c r="D22" s="26">
         <f>COUNTA(F22:AD22)</f>
       </c>
-      <c r="E22" s="30">
+      <c r="E22" s="26">
         <f>C22*D22</f>
       </c>
-      <c r="F22" s="29"/>
-      <c r="G22" s="29"/>
-      <c r="H22" s="29"/>
-      <c r="I22" s="29"/>
-      <c r="J22" s="29"/>
-      <c r="K22" s="29"/>
-      <c r="L22" s="29"/>
-      <c r="M22" s="29"/>
-      <c r="N22" s="29"/>
-      <c r="O22" s="29"/>
-      <c r="P22" s="29"/>
-      <c r="Q22" s="29"/>
-      <c r="R22" s="29"/>
-      <c r="S22" s="29"/>
-      <c r="T22" s="29"/>
-      <c r="U22" s="29"/>
-      <c r="V22" s="29"/>
-      <c r="W22" s="29"/>
-      <c r="X22" s="29"/>
-      <c r="Y22" s="29"/>
-      <c r="Z22" s="29"/>
-      <c r="AA22" s="29"/>
-      <c r="AB22" s="29"/>
-      <c r="AC22" s="29"/>
-      <c r="AD22" s="29"/>
+      <c r="F22" s="28"/>
+      <c r="G22" s="28"/>
+      <c r="H22" s="28"/>
+      <c r="I22" s="28"/>
+      <c r="J22" s="28"/>
+      <c r="K22" s="28"/>
+      <c r="L22" s="28"/>
+      <c r="M22" s="28"/>
+      <c r="N22" s="28"/>
+      <c r="O22" s="28"/>
+      <c r="P22" s="28"/>
+      <c r="Q22" s="28"/>
+      <c r="R22" s="28"/>
+      <c r="S22" s="28"/>
+      <c r="T22" s="28"/>
+      <c r="U22" s="28"/>
+      <c r="V22" s="28"/>
+      <c r="W22" s="28"/>
+      <c r="X22" s="28"/>
+      <c r="Y22" s="28"/>
+      <c r="Z22" s="28"/>
+      <c r="AA22" s="28"/>
+      <c r="AB22" s="28"/>
+      <c r="AC22" s="28"/>
+      <c r="AD22" s="28"/>
       <c r="AE22" s="0" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="AF22" s="0" t="n">
         <v>900</v>
@@ -7070,10 +6978,10 @@
         <v>7</v>
       </c>
       <c r="B23" s="25" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C23" s="26" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D23" s="26">
         <f>COUNTA(F23:AD23)</f>
@@ -7107,7 +7015,7 @@
       <c r="AC23" s="28"/>
       <c r="AD23" s="28"/>
       <c r="AE23" s="0" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="AF23" s="0" t="n">
         <v>900</v>
@@ -7118,7 +7026,7 @@
         <v>7</v>
       </c>
       <c r="B24" s="25" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C24" s="26" t="n">
         <v>30</v>
@@ -7155,7 +7063,7 @@
       <c r="AC24" s="28"/>
       <c r="AD24" s="28"/>
       <c r="AE24" s="0" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="AF24" s="0" t="n">
         <v>900</v>
@@ -7166,10 +7074,10 @@
         <v>7</v>
       </c>
       <c r="B25" s="25" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C25" s="26" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D25" s="26">
         <f>COUNTA(F25:AD25)</f>
@@ -7203,7 +7111,7 @@
       <c r="AC25" s="28"/>
       <c r="AD25" s="28"/>
       <c r="AE25" s="0" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="AF25" s="0" t="n">
         <v>900</v>
@@ -7214,10 +7122,10 @@
         <v>7</v>
       </c>
       <c r="B26" s="25" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C26" s="26" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D26" s="26">
         <f>COUNTA(F26:AD26)</f>
@@ -7251,151 +7159,31 @@
       <c r="AC26" s="28"/>
       <c r="AD26" s="28"/>
       <c r="AE26" s="0" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="AF26" s="0" t="n">
         <v>900</v>
       </c>
     </row>
-    <row r="27" spans="1:32" customHeight="1">
-      <c r="A27" s="26" t="n">
-        <v>7</v>
-      </c>
-      <c r="B27" s="25" t="s">
-        <v>377</v>
-      </c>
-      <c r="C27" s="26" t="n">
-        <v>30</v>
-      </c>
-      <c r="D27" s="26">
-        <f>COUNTA(F27:AD27)</f>
-      </c>
-      <c r="E27" s="26">
-        <f>C27*D27</f>
-      </c>
-      <c r="F27" s="28"/>
-      <c r="G27" s="28"/>
-      <c r="H27" s="28"/>
-      <c r="I27" s="28"/>
-      <c r="J27" s="28"/>
-      <c r="K27" s="28"/>
-      <c r="L27" s="28"/>
-      <c r="M27" s="28"/>
-      <c r="N27" s="28"/>
-      <c r="O27" s="28"/>
-      <c r="P27" s="28"/>
-      <c r="Q27" s="28"/>
-      <c r="R27" s="28"/>
-      <c r="S27" s="28"/>
-      <c r="T27" s="28"/>
-      <c r="U27" s="28"/>
-      <c r="V27" s="28"/>
-      <c r="W27" s="28"/>
-      <c r="X27" s="28"/>
-      <c r="Y27" s="28"/>
-      <c r="Z27" s="28"/>
-      <c r="AA27" s="28"/>
-      <c r="AB27" s="28"/>
-      <c r="AC27" s="28"/>
-      <c r="AD27" s="28"/>
+    <row r="27" spans="31:32" customHeight="1">
       <c r="AE27" s="0" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="AF27" s="0" t="n">
         <v>900</v>
       </c>
     </row>
-    <row r="28" spans="1:32" customHeight="1">
-      <c r="A28" s="26" t="n">
-        <v>7</v>
-      </c>
-      <c r="B28" s="25" t="s">
-        <v>378</v>
-      </c>
-      <c r="C28" s="26" t="n">
-        <v>30</v>
-      </c>
-      <c r="D28" s="26">
-        <f>COUNTA(F28:AD28)</f>
-      </c>
-      <c r="E28" s="26">
-        <f>C28*D28</f>
-      </c>
-      <c r="F28" s="28"/>
-      <c r="G28" s="28"/>
-      <c r="H28" s="28"/>
-      <c r="I28" s="28"/>
-      <c r="J28" s="28"/>
-      <c r="K28" s="28"/>
-      <c r="L28" s="28"/>
-      <c r="M28" s="28"/>
-      <c r="N28" s="28"/>
-      <c r="O28" s="28"/>
-      <c r="P28" s="28"/>
-      <c r="Q28" s="28"/>
-      <c r="R28" s="28"/>
-      <c r="S28" s="28"/>
-      <c r="T28" s="28"/>
-      <c r="U28" s="28"/>
-      <c r="V28" s="28"/>
-      <c r="W28" s="28"/>
-      <c r="X28" s="28"/>
-      <c r="Y28" s="28"/>
-      <c r="Z28" s="28"/>
-      <c r="AA28" s="28"/>
-      <c r="AB28" s="28"/>
-      <c r="AC28" s="28"/>
-      <c r="AD28" s="28"/>
+    <row r="28" spans="31:32" customHeight="1">
       <c r="AE28" s="0" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="AF28" s="0" t="n">
         <v>1350</v>
       </c>
     </row>
-    <row r="29" spans="1:32" customHeight="1">
-      <c r="A29" s="26" t="n">
-        <v>7</v>
-      </c>
-      <c r="B29" s="25" t="s">
-        <v>379</v>
-      </c>
-      <c r="C29" s="26" t="n">
-        <v>30</v>
-      </c>
-      <c r="D29" s="26">
-        <f>COUNTA(F29:AD29)</f>
-      </c>
-      <c r="E29" s="26">
-        <f>C29*D29</f>
-      </c>
-      <c r="F29" s="28"/>
-      <c r="G29" s="28"/>
-      <c r="H29" s="28"/>
-      <c r="I29" s="28"/>
-      <c r="J29" s="28"/>
-      <c r="K29" s="28"/>
-      <c r="L29" s="28"/>
-      <c r="M29" s="28"/>
-      <c r="N29" s="28"/>
-      <c r="O29" s="28"/>
-      <c r="P29" s="28"/>
-      <c r="Q29" s="28"/>
-      <c r="R29" s="28"/>
-      <c r="S29" s="28"/>
-      <c r="T29" s="28"/>
-      <c r="U29" s="28"/>
-      <c r="V29" s="28"/>
-      <c r="W29" s="28"/>
-      <c r="X29" s="28"/>
-      <c r="Y29" s="28"/>
-      <c r="Z29" s="28"/>
-      <c r="AA29" s="28"/>
-      <c r="AB29" s="28"/>
-      <c r="AC29" s="28"/>
-      <c r="AD29" s="28"/>
+    <row r="29" spans="31:32" customHeight="1">
       <c r="AE29" s="0" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="AF29" s="0" t="n">
         <v>900</v>
@@ -7403,7 +7191,7 @@
     </row>
     <row r="30" spans="31:32" customHeight="1">
       <c r="AE30" s="0" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="AF30" s="0" t="n">
         <v>900</v>
@@ -7411,7 +7199,7 @@
     </row>
     <row r="31" spans="31:32" customHeight="1">
       <c r="AE31" s="0" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="AF31" s="0" t="n">
         <v>900</v>
@@ -7419,7 +7207,7 @@
     </row>
     <row r="32" spans="31:32" customHeight="1">
       <c r="AE32" s="0" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="AF32" s="0" t="n">
         <v>900</v>
@@ -7427,7 +7215,7 @@
     </row>
     <row r="33" spans="31:32" customHeight="1">
       <c r="AE33" s="0" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="AF33" s="0" t="n">
         <v>900</v>
@@ -7435,7 +7223,7 @@
     </row>
     <row r="34" spans="31:32" customHeight="1">
       <c r="AE34" s="0" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="AF34" s="0" t="n">
         <v>900</v>
@@ -7443,7 +7231,7 @@
     </row>
     <row r="35" spans="31:32" customHeight="1">
       <c r="AE35" s="0" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="AF35" s="0" t="n">
         <v>900</v>
@@ -7451,7 +7239,7 @@
     </row>
     <row r="36" spans="31:32" customHeight="1">
       <c r="AE36" s="0" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="AF36" s="0" t="n">
         <v>900</v>
@@ -7459,7 +7247,7 @@
     </row>
     <row r="37" spans="31:32" customHeight="1">
       <c r="AE37" s="0" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="AF37" s="0" t="n">
         <v>900</v>
@@ -7467,7 +7255,7 @@
     </row>
     <row r="38" spans="31:32" customHeight="1">
       <c r="AE38" s="0" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="AF38" s="0" t="n">
         <v>900</v>
@@ -7475,7 +7263,7 @@
     </row>
     <row r="39" spans="31:32" customHeight="1">
       <c r="AE39" s="0" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="AF39" s="0" t="n">
         <v>900</v>
@@ -7483,7 +7271,7 @@
     </row>
     <row r="40" spans="31:32" customHeight="1">
       <c r="AE40" s="0" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="AF40" s="0" t="n">
         <v>1350</v>
@@ -7491,7 +7279,7 @@
     </row>
     <row r="41" spans="31:32" customHeight="1">
       <c r="AE41" s="0" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="AF41" s="0" t="n">
         <v>900</v>
@@ -7499,7 +7287,7 @@
     </row>
     <row r="42" spans="31:32" customHeight="1">
       <c r="AE42" s="0" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="AF42" s="0" t="n">
         <v>900</v>
@@ -7507,7 +7295,7 @@
     </row>
     <row r="43" spans="31:32" customHeight="1">
       <c r="AE43" s="0" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="AF43" s="0" t="n">
         <v>900</v>
@@ -7515,7 +7303,7 @@
     </row>
     <row r="44" spans="31:32" customHeight="1">
       <c r="AE44" s="0" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="AF44" s="0" t="n">
         <v>900</v>
@@ -7523,7 +7311,7 @@
     </row>
     <row r="45" spans="31:32" customHeight="1">
       <c r="AE45" s="0" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="AF45" s="0" t="n">
         <v>900</v>
@@ -7531,7 +7319,7 @@
     </row>
     <row r="46" spans="31:32" customHeight="1">
       <c r="AE46" s="0" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="AF46" s="0" t="n">
         <v>1350</v>
@@ -7539,7 +7327,7 @@
     </row>
     <row r="47" spans="31:32" customHeight="1">
       <c r="AE47" s="0" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="AF47" s="0" t="n">
         <v>900</v>
@@ -7547,7 +7335,7 @@
     </row>
     <row r="48" spans="31:32" customHeight="1">
       <c r="AE48" s="0" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="AF48" s="0" t="n">
         <v>900</v>
@@ -7555,7 +7343,7 @@
     </row>
     <row r="49" spans="31:32" customHeight="1">
       <c r="AE49" s="0" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="AF49" s="0" t="n">
         <v>900</v>
@@ -7563,7 +7351,7 @@
     </row>
     <row r="50" spans="31:32" customHeight="1">
       <c r="AE50" s="0" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="AF50" s="0" t="n">
         <v>900</v>
@@ -7571,7 +7359,7 @@
     </row>
     <row r="51" spans="31:32" customHeight="1">
       <c r="AE51" s="0" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="AF51" s="0" t="n">
         <v>2900</v>
@@ -7579,7 +7367,7 @@
     </row>
     <row r="52" spans="31:32" customHeight="1">
       <c r="AE52" s="0" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="AF52" s="0" t="n">
         <v>900</v>
@@ -7587,7 +7375,7 @@
     </row>
     <row r="53" spans="31:32" customHeight="1">
       <c r="AE53" s="0" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="AF53" s="0" t="n">
         <v>900</v>
@@ -7595,7 +7383,7 @@
     </row>
     <row r="54" spans="31:32" customHeight="1">
       <c r="AE54" s="0" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="AF54" s="0" t="n">
         <v>900</v>
@@ -7603,7 +7391,7 @@
     </row>
     <row r="55" spans="31:32" customHeight="1">
       <c r="AE55" s="0" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="AF55" s="0" t="n">
         <v>900</v>
@@ -7611,7 +7399,7 @@
     </row>
     <row r="56" spans="31:32" customHeight="1">
       <c r="AE56" s="0" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="AF56" s="0" t="n">
         <v>900</v>
@@ -7619,7 +7407,7 @@
     </row>
     <row r="57" spans="31:32" customHeight="1">
       <c r="AE57" s="0" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="AF57" s="0" t="n">
         <v>900</v>
@@ -7627,7 +7415,7 @@
     </row>
     <row r="58" spans="31:32" customHeight="1">
       <c r="AE58" s="0" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="AF58" s="0" t="n">
         <v>1350</v>
@@ -7635,7 +7423,7 @@
     </row>
     <row r="59" spans="31:32" customHeight="1">
       <c r="AE59" s="0" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="AF59" s="0" t="n">
         <v>1350</v>
@@ -7643,7 +7431,7 @@
     </row>
     <row r="60" spans="31:32" customHeight="1">
       <c r="AE60" s="0" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="AF60" s="0" t="n">
         <v>900</v>
@@ -7651,7 +7439,7 @@
     </row>
     <row r="61" spans="31:32" customHeight="1">
       <c r="AE61" s="0" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="AF61" s="0" t="n">
         <v>900</v>
@@ -7659,7 +7447,7 @@
     </row>
     <row r="62" spans="31:32" customHeight="1">
       <c r="AE62" s="0" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="AF62" s="0" t="n">
         <v>900</v>
@@ -7667,7 +7455,7 @@
     </row>
     <row r="63" spans="31:32" customHeight="1">
       <c r="AE63" s="0" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="AF63" s="0" t="n">
         <v>900</v>
@@ -7675,7 +7463,7 @@
     </row>
     <row r="64" spans="31:32" customHeight="1">
       <c r="AE64" s="0" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="AF64" s="0" t="n">
         <v>900</v>
@@ -7683,7 +7471,7 @@
     </row>
     <row r="65" spans="31:32" customHeight="1">
       <c r="AE65" s="0" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="AF65" s="0" t="n">
         <v>900</v>
@@ -7691,7 +7479,7 @@
     </row>
     <row r="66" spans="31:32" customHeight="1">
       <c r="AE66" s="0" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="AF66" s="0" t="n">
         <v>900</v>
@@ -7699,7 +7487,7 @@
     </row>
     <row r="67" spans="31:32" customHeight="1">
       <c r="AE67" s="0" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="AF67" s="0" t="n">
         <v>900</v>
@@ -7707,7 +7495,7 @@
     </row>
     <row r="68" spans="31:32" customHeight="1">
       <c r="AE68" s="0" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="AF68" s="0" t="n">
         <v>900</v>
@@ -7715,7 +7503,7 @@
     </row>
     <row r="69" spans="31:32" customHeight="1">
       <c r="AE69" s="0" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="AF69" s="0" t="n">
         <v>900</v>
@@ -7723,7 +7511,7 @@
     </row>
     <row r="70" spans="31:32" customHeight="1">
       <c r="AE70" s="0" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="AF70" s="0" t="n">
         <v>900</v>
@@ -7731,7 +7519,7 @@
     </row>
     <row r="71" spans="31:32" customHeight="1">
       <c r="AE71" s="0" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="AF71" s="0" t="n">
         <v>900</v>
@@ -7739,7 +7527,7 @@
     </row>
     <row r="72" spans="31:32" customHeight="1">
       <c r="AE72" s="0" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="AF72" s="0" t="n">
         <v>900</v>
@@ -7747,7 +7535,7 @@
     </row>
     <row r="73" spans="31:32" customHeight="1">
       <c r="AE73" s="0" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="AF73" s="0" t="n">
         <v>900</v>
